--- a/Predictions/timestamps_cp_cnn.xlsx
+++ b/Predictions/timestamps_cp_cnn.xlsx
@@ -467,4082 +467,4082 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>6.787423133850098</v>
+        <v>5.341075897216797</v>
       </c>
       <c r="B2" t="n">
-        <v>5.842241764068604</v>
+        <v>3.789140224456787</v>
       </c>
       <c r="C2" t="n">
-        <v>-8.168787002563477</v>
+        <v>-4.114442348480225</v>
       </c>
       <c r="D2" t="n">
-        <v>-7.008590698242188</v>
+        <v>-4.937913417816162</v>
       </c>
       <c r="E2" t="n">
-        <v>-2.915945291519165</v>
+        <v>0.221308097243309</v>
       </c>
       <c r="F2" t="n">
-        <v>-2.655797719955444</v>
+        <v>-0.7708334922790527</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>6.721851348876953</v>
+        <v>5.510904312133789</v>
       </c>
       <c r="B3" t="n">
-        <v>6.075661659240723</v>
+        <v>3.676112651824951</v>
       </c>
       <c r="C3" t="n">
-        <v>-6.450127601623535</v>
+        <v>-2.738396406173706</v>
       </c>
       <c r="D3" t="n">
-        <v>-6.111088752746582</v>
+        <v>-4.756807804107666</v>
       </c>
       <c r="E3" t="n">
-        <v>-3.665254592895508</v>
+        <v>0.8826736211776733</v>
       </c>
       <c r="F3" t="n">
-        <v>-4.502834796905518</v>
+        <v>-1.018068671226501</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>6.413004875183105</v>
+        <v>5.869416236877441</v>
       </c>
       <c r="B4" t="n">
-        <v>6.055803298950195</v>
+        <v>4.385374069213867</v>
       </c>
       <c r="C4" t="n">
-        <v>-5.215559482574463</v>
+        <v>-4.145289421081543</v>
       </c>
       <c r="D4" t="n">
-        <v>-4.922196388244629</v>
+        <v>-4.393573760986328</v>
       </c>
       <c r="E4" t="n">
-        <v>-3.717476606369019</v>
+        <v>0.6302013397216797</v>
       </c>
       <c r="F4" t="n">
-        <v>-5.509052276611328</v>
+        <v>-3.124888896942139</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>5.88004207611084</v>
+        <v>5.485182285308838</v>
       </c>
       <c r="B5" t="n">
-        <v>5.710360050201416</v>
+        <v>2.01043438911438</v>
       </c>
       <c r="C5" t="n">
-        <v>-3.570515871047974</v>
+        <v>-2.576218366622925</v>
       </c>
       <c r="D5" t="n">
-        <v>-3.781955003738403</v>
+        <v>-4.381672382354736</v>
       </c>
       <c r="E5" t="n">
-        <v>-3.154442071914673</v>
+        <v>-0.5505373477935791</v>
       </c>
       <c r="F5" t="n">
-        <v>-5.724142074584961</v>
+        <v>-2.904477596282959</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>5.473416805267334</v>
+        <v>2.358286142349243</v>
       </c>
       <c r="B6" t="n">
-        <v>5.242485523223877</v>
+        <v>3.417327404022217</v>
       </c>
       <c r="C6" t="n">
-        <v>-2.829338312149048</v>
+        <v>-2.893062114715576</v>
       </c>
       <c r="D6" t="n">
-        <v>-2.881966352462769</v>
+        <v>-4.581929683685303</v>
       </c>
       <c r="E6" t="n">
-        <v>-1.821102261543274</v>
+        <v>-1.009270787239075</v>
       </c>
       <c r="F6" t="n">
-        <v>-5.024929046630859</v>
+        <v>-4.139161586761475</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>4.465725421905518</v>
+        <v>1.608275651931763</v>
       </c>
       <c r="B7" t="n">
-        <v>4.554097652435303</v>
+        <v>2.259759187698364</v>
       </c>
       <c r="C7" t="n">
-        <v>-2.418039560317993</v>
+        <v>-4.13417911529541</v>
       </c>
       <c r="D7" t="n">
-        <v>-2.54280686378479</v>
+        <v>-4.830228805541992</v>
       </c>
       <c r="E7" t="n">
-        <v>-0.8928871154785156</v>
+        <v>-1.628941535949707</v>
       </c>
       <c r="F7" t="n">
-        <v>-3.926003456115723</v>
+        <v>-3.380276441574097</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>3.342475652694702</v>
+        <v>1.607346534729004</v>
       </c>
       <c r="B8" t="n">
-        <v>3.810122489929199</v>
+        <v>1.287793159484863</v>
       </c>
       <c r="C8" t="n">
-        <v>-2.76388144493103</v>
+        <v>-6.124356746673584</v>
       </c>
       <c r="D8" t="n">
-        <v>-2.691574335098267</v>
+        <v>-7.443312644958496</v>
       </c>
       <c r="E8" t="n">
-        <v>-0.2035471946001053</v>
+        <v>-1.001510620117188</v>
       </c>
       <c r="F8" t="n">
-        <v>-2.70831823348999</v>
+        <v>-3.717541217803955</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>2.301665067672729</v>
+        <v>1.068527460098267</v>
       </c>
       <c r="B9" t="n">
-        <v>2.579369306564331</v>
+        <v>0.5024601221084595</v>
       </c>
       <c r="C9" t="n">
-        <v>-3.472811937332153</v>
+        <v>-3.71915602684021</v>
       </c>
       <c r="D9" t="n">
-        <v>-3.108100414276123</v>
+        <v>-5.326217174530029</v>
       </c>
       <c r="E9" t="n">
-        <v>0.354783833026886</v>
+        <v>-1.425590395927429</v>
       </c>
       <c r="F9" t="n">
-        <v>-1.839338064193726</v>
+        <v>-2.222352743148804</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>1.081940650939941</v>
+        <v>-0.3930775225162506</v>
       </c>
       <c r="B10" t="n">
-        <v>1.227021455764771</v>
+        <v>-1.382188200950623</v>
       </c>
       <c r="C10" t="n">
-        <v>-4.287720203399658</v>
+        <v>-5.254693984985352</v>
       </c>
       <c r="D10" t="n">
-        <v>-3.655940294265747</v>
+        <v>-5.82945728302002</v>
       </c>
       <c r="E10" t="n">
-        <v>0.8293538093566895</v>
+        <v>0.1447751373052597</v>
       </c>
       <c r="F10" t="n">
-        <v>-1.166380763053894</v>
+        <v>-1.57086718082428</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>0.001202550251036882</v>
+        <v>-1.14173698425293</v>
       </c>
       <c r="B11" t="n">
-        <v>-0.02791260182857513</v>
+        <v>-2.896779775619507</v>
       </c>
       <c r="C11" t="n">
-        <v>-4.736270427703857</v>
+        <v>-3.821441888809204</v>
       </c>
       <c r="D11" t="n">
-        <v>-4.391172409057617</v>
+        <v>-7.536385536193848</v>
       </c>
       <c r="E11" t="n">
-        <v>1.302538633346558</v>
+        <v>-0.01189720258116722</v>
       </c>
       <c r="F11" t="n">
-        <v>-0.5687361359596252</v>
+        <v>-1.105415940284729</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>-1.09719181060791</v>
+        <v>-1.219204068183899</v>
       </c>
       <c r="B12" t="n">
-        <v>-1.321641802787781</v>
+        <v>-1.825621128082275</v>
       </c>
       <c r="C12" t="n">
-        <v>-5.380797863006592</v>
+        <v>-3.962049961090088</v>
       </c>
       <c r="D12" t="n">
-        <v>-5.557272911071777</v>
+        <v>-7.052568912506104</v>
       </c>
       <c r="E12" t="n">
-        <v>1.771197199821472</v>
+        <v>0.9243453145027161</v>
       </c>
       <c r="F12" t="n">
-        <v>-0.1020258069038391</v>
+        <v>-0.7983512878417969</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>-1.77005398273468</v>
+        <v>-0.8085849285125732</v>
       </c>
       <c r="B13" t="n">
-        <v>-2.486092090606689</v>
+        <v>-3.789312124252319</v>
       </c>
       <c r="C13" t="n">
-        <v>-5.806222915649414</v>
+        <v>-3.825755834579468</v>
       </c>
       <c r="D13" t="n">
-        <v>-6.32632303237915</v>
+        <v>-7.347460269927979</v>
       </c>
       <c r="E13" t="n">
-        <v>2.275600671768188</v>
+        <v>1.79594349861145</v>
       </c>
       <c r="F13" t="n">
-        <v>0.3493265211582184</v>
+        <v>-1.690876722335815</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>-2.701518297195435</v>
+        <v>-0.1243274509906769</v>
       </c>
       <c r="B14" t="n">
-        <v>-3.258045434951782</v>
+        <v>-2.519072771072388</v>
       </c>
       <c r="C14" t="n">
-        <v>-6.379656791687012</v>
+        <v>-3.640737295150757</v>
       </c>
       <c r="D14" t="n">
-        <v>-7.181869506835938</v>
+        <v>-7.539787292480469</v>
       </c>
       <c r="E14" t="n">
-        <v>2.7878737449646</v>
+        <v>2.593387842178345</v>
       </c>
       <c r="F14" t="n">
-        <v>0.7931370139122009</v>
+        <v>-0.4654204845428467</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>-3.615209102630615</v>
+        <v>-0.7672872543334961</v>
       </c>
       <c r="B15" t="n">
-        <v>-4.205387592315674</v>
+        <v>-2.467044353485107</v>
       </c>
       <c r="C15" t="n">
-        <v>-6.38428258895874</v>
+        <v>-4.259759902954102</v>
       </c>
       <c r="D15" t="n">
-        <v>-7.618619441986084</v>
+        <v>-6.561509132385254</v>
       </c>
       <c r="E15" t="n">
-        <v>3.432762145996094</v>
+        <v>2.230390548706055</v>
       </c>
       <c r="F15" t="n">
-        <v>1.367976069450378</v>
+        <v>1.521065592765808</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>-4.156560897827148</v>
+        <v>-2.964976787567139</v>
       </c>
       <c r="B16" t="n">
-        <v>-5.188375949859619</v>
+        <v>-2.069855213165283</v>
       </c>
       <c r="C16" t="n">
-        <v>-6.548365592956543</v>
+        <v>-5.217990398406982</v>
       </c>
       <c r="D16" t="n">
-        <v>-7.72338342666626</v>
+        <v>-5.843337059020996</v>
       </c>
       <c r="E16" t="n">
-        <v>4.072629451751709</v>
+        <v>3.043673753738403</v>
       </c>
       <c r="F16" t="n">
-        <v>1.944251298904419</v>
+        <v>3.348442554473877</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>-5.255541324615479</v>
+        <v>-2.666846036911011</v>
       </c>
       <c r="B17" t="n">
-        <v>-5.425199031829834</v>
+        <v>-2.464003801345825</v>
       </c>
       <c r="C17" t="n">
-        <v>-7.223637104034424</v>
+        <v>-4.029764652252197</v>
       </c>
       <c r="D17" t="n">
-        <v>-8.096737861633301</v>
+        <v>-6.89911937713623</v>
       </c>
       <c r="E17" t="n">
-        <v>4.560643196105957</v>
+        <v>3.619013071060181</v>
       </c>
       <c r="F17" t="n">
-        <v>2.523849248886108</v>
+        <v>3.812895059585571</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>-5.850722789764404</v>
+        <v>-2.537491083145142</v>
       </c>
       <c r="B18" t="n">
-        <v>-6.65474271774292</v>
+        <v>-1.837266683578491</v>
       </c>
       <c r="C18" t="n">
-        <v>-7.135169506072998</v>
+        <v>-3.310506820678711</v>
       </c>
       <c r="D18" t="n">
-        <v>-8.199459075927734</v>
+        <v>-6.78446102142334</v>
       </c>
       <c r="E18" t="n">
-        <v>5.119047164916992</v>
+        <v>3.386230230331421</v>
       </c>
       <c r="F18" t="n">
-        <v>3.477974891662598</v>
+        <v>4.11394739151001</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>-6.598583698272705</v>
+        <v>-3.390332937240601</v>
       </c>
       <c r="B19" t="n">
-        <v>-7.091112613677979</v>
+        <v>-2.442878484725952</v>
       </c>
       <c r="C19" t="n">
-        <v>-7.089518547058105</v>
+        <v>-5.230494499206543</v>
       </c>
       <c r="D19" t="n">
-        <v>-8.402106285095215</v>
+        <v>-4.916979789733887</v>
       </c>
       <c r="E19" t="n">
-        <v>5.713653564453125</v>
+        <v>4.414701461791992</v>
       </c>
       <c r="F19" t="n">
-        <v>4.309080600738525</v>
+        <v>4.410951137542725</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>-7.412739276885986</v>
+        <v>-3.941720485687256</v>
       </c>
       <c r="B20" t="n">
-        <v>-7.639626979827881</v>
+        <v>-2.265558481216431</v>
       </c>
       <c r="C20" t="n">
-        <v>-7.329017639160156</v>
+        <v>-5.989253997802734</v>
       </c>
       <c r="D20" t="n">
-        <v>-8.212411880493164</v>
+        <v>-3.474862813949585</v>
       </c>
       <c r="E20" t="n">
-        <v>6.29990816116333</v>
+        <v>4.234624862670898</v>
       </c>
       <c r="F20" t="n">
-        <v>5.185722827911377</v>
+        <v>6.578449726104736</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>-8.232504844665527</v>
+        <v>-4.701345920562744</v>
       </c>
       <c r="B21" t="n">
-        <v>-8.012421607971191</v>
+        <v>-2.057013034820557</v>
       </c>
       <c r="C21" t="n">
-        <v>-7.426299095153809</v>
+        <v>-6.229182720184326</v>
       </c>
       <c r="D21" t="n">
-        <v>-7.995058059692383</v>
+        <v>-5.461517333984375</v>
       </c>
       <c r="E21" t="n">
-        <v>6.688154697418213</v>
+        <v>5.7552170753479</v>
       </c>
       <c r="F21" t="n">
-        <v>5.98269510269165</v>
+        <v>6.179160118103027</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>-8.903366088867188</v>
+        <v>-4.633857727050781</v>
       </c>
       <c r="B22" t="n">
-        <v>-8.71034049987793</v>
+        <v>-2.992355823516846</v>
       </c>
       <c r="C22" t="n">
-        <v>-7.398547172546387</v>
+        <v>-6.117084503173828</v>
       </c>
       <c r="D22" t="n">
-        <v>-6.948087692260742</v>
+        <v>-6.114386558532715</v>
       </c>
       <c r="E22" t="n">
-        <v>7.055608749389648</v>
+        <v>6.514015674591064</v>
       </c>
       <c r="F22" t="n">
-        <v>6.607418537139893</v>
+        <v>6.183799266815186</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>-9.574590682983398</v>
+        <v>-7.789844036102295</v>
       </c>
       <c r="B23" t="n">
-        <v>-9.410388946533203</v>
+        <v>-5.066633701324463</v>
       </c>
       <c r="C23" t="n">
-        <v>-6.680651664733887</v>
+        <v>-7.879684448242188</v>
       </c>
       <c r="D23" t="n">
-        <v>-7.115517139434814</v>
+        <v>-5.817891597747803</v>
       </c>
       <c r="E23" t="n">
-        <v>7.238212108612061</v>
+        <v>5.17811918258667</v>
       </c>
       <c r="F23" t="n">
-        <v>7.155963897705078</v>
+        <v>6.697356224060059</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>-9.960697174072266</v>
+        <v>-8.115723609924316</v>
       </c>
       <c r="B24" t="n">
-        <v>-10.12658405303955</v>
+        <v>-5.471560478210449</v>
       </c>
       <c r="C24" t="n">
-        <v>-6.506678104400635</v>
+        <v>-9.972294807434082</v>
       </c>
       <c r="D24" t="n">
-        <v>-6.790503025054932</v>
+        <v>-9.0047607421875</v>
       </c>
       <c r="E24" t="n">
-        <v>7.117626190185547</v>
+        <v>4.978911876678467</v>
       </c>
       <c r="F24" t="n">
-        <v>7.667530536651611</v>
+        <v>6.926492691040039</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>-10.52462291717529</v>
+        <v>-10.08284187316895</v>
       </c>
       <c r="B25" t="n">
-        <v>-10.57006740570068</v>
+        <v>-6.541023254394531</v>
       </c>
       <c r="C25" t="n">
-        <v>-5.81505012512207</v>
+        <v>-9.374497413635254</v>
       </c>
       <c r="D25" t="n">
-        <v>-6.158331871032715</v>
+        <v>-9.301182746887207</v>
       </c>
       <c r="E25" t="n">
-        <v>6.520203113555908</v>
+        <v>5.558010101318359</v>
       </c>
       <c r="F25" t="n">
-        <v>7.35877799987793</v>
+        <v>6.945689678192139</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>-10.88167285919189</v>
+        <v>-10.15412616729736</v>
       </c>
       <c r="B26" t="n">
-        <v>-10.77570915222168</v>
+        <v>-8.557605743408203</v>
       </c>
       <c r="C26" t="n">
-        <v>-4.981204509735107</v>
+        <v>-11.12394237518311</v>
       </c>
       <c r="D26" t="n">
-        <v>-4.817740917205811</v>
+        <v>-8.58901309967041</v>
       </c>
       <c r="E26" t="n">
-        <v>5.062243938446045</v>
+        <v>5.116896152496338</v>
       </c>
       <c r="F26" t="n">
-        <v>6.481536865234375</v>
+        <v>8.904275894165039</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>-10.75240993499756</v>
+        <v>-10.50601196289062</v>
       </c>
       <c r="B27" t="n">
-        <v>-10.69074249267578</v>
+        <v>-9.201539993286133</v>
       </c>
       <c r="C27" t="n">
-        <v>-3.843161582946777</v>
+        <v>-10.19891262054443</v>
       </c>
       <c r="D27" t="n">
-        <v>-3.32854175567627</v>
+        <v>-9.027560234069824</v>
       </c>
       <c r="E27" t="n">
-        <v>2.916624784469604</v>
+        <v>5.208929061889648</v>
       </c>
       <c r="F27" t="n">
-        <v>4.087893962860107</v>
+        <v>9.34820556640625</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>-10.98566150665283</v>
+        <v>-11.47901725769043</v>
       </c>
       <c r="B28" t="n">
-        <v>-10.33369064331055</v>
+        <v>-9.67108154296875</v>
       </c>
       <c r="C28" t="n">
-        <v>-2.307676315307617</v>
+        <v>-9.90560245513916</v>
       </c>
       <c r="D28" t="n">
-        <v>-1.136664509773254</v>
+        <v>-9.742817878723145</v>
       </c>
       <c r="E28" t="n">
-        <v>-0.1946497410535812</v>
+        <v>6.921327590942383</v>
       </c>
       <c r="F28" t="n">
-        <v>0.705566942691803</v>
+        <v>9.83028507232666</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>-10.38179492950439</v>
+        <v>-10.59904289245605</v>
       </c>
       <c r="B29" t="n">
-        <v>-9.93864631652832</v>
+        <v>-11.35736846923828</v>
       </c>
       <c r="C29" t="n">
-        <v>-0.3178409337997437</v>
+        <v>-7.951946258544922</v>
       </c>
       <c r="D29" t="n">
-        <v>1.50957190990448</v>
+        <v>-8.699705123901367</v>
       </c>
       <c r="E29" t="n">
-        <v>-4.130517959594727</v>
+        <v>7.600774765014648</v>
       </c>
       <c r="F29" t="n">
-        <v>-3.141577243804932</v>
+        <v>9.528407096862793</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>-9.891167640686035</v>
+        <v>-12.17693424224854</v>
       </c>
       <c r="B30" t="n">
-        <v>-8.354567527770996</v>
+        <v>-12.81080436706543</v>
       </c>
       <c r="C30" t="n">
-        <v>1.67886757850647</v>
+        <v>-6.091897964477539</v>
       </c>
       <c r="D30" t="n">
-        <v>4.746610164642334</v>
+        <v>-7.794402599334717</v>
       </c>
       <c r="E30" t="n">
-        <v>-8.454751014709473</v>
+        <v>6.231314659118652</v>
       </c>
       <c r="F30" t="n">
-        <v>-6.446307182312012</v>
+        <v>7.692532062530518</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>-8.606411933898926</v>
+        <v>-12.22781372070312</v>
       </c>
       <c r="B31" t="n">
-        <v>-7.872624397277832</v>
+        <v>-12.39709281921387</v>
       </c>
       <c r="C31" t="n">
-        <v>4.085012912750244</v>
+        <v>-6.284017086029053</v>
       </c>
       <c r="D31" t="n">
-        <v>7.891005516052246</v>
+        <v>-5.957658290863037</v>
       </c>
       <c r="E31" t="n">
-        <v>-12.08739566802979</v>
+        <v>1.474377274513245</v>
       </c>
       <c r="F31" t="n">
-        <v>-7.745012760162354</v>
+        <v>3.599897861480713</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>-7.479280948638916</v>
+        <v>-10.46024608612061</v>
       </c>
       <c r="B32" t="n">
-        <v>-6.464490413665771</v>
+        <v>-10.76510524749756</v>
       </c>
       <c r="C32" t="n">
-        <v>6.068134784698486</v>
+        <v>-1.372106313705444</v>
       </c>
       <c r="D32" t="n">
-        <v>10.6718111038208</v>
+        <v>-2.711624145507812</v>
       </c>
       <c r="E32" t="n">
-        <v>-13.39145088195801</v>
+        <v>-3.369877338409424</v>
       </c>
       <c r="F32" t="n">
-        <v>-7.491055011749268</v>
+        <v>-2.658366918563843</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>-6.155591487884521</v>
+        <v>-9.378979682922363</v>
       </c>
       <c r="B33" t="n">
-        <v>-4.860419273376465</v>
+        <v>-10.53834438323975</v>
       </c>
       <c r="C33" t="n">
-        <v>8.407979965209961</v>
+        <v>0.996074914932251</v>
       </c>
       <c r="D33" t="n">
-        <v>12.79108619689941</v>
+        <v>-0.4655263125896454</v>
       </c>
       <c r="E33" t="n">
-        <v>-12.58327484130859</v>
+        <v>-8.653908729553223</v>
       </c>
       <c r="F33" t="n">
-        <v>-6.202840328216553</v>
+        <v>-8.399163246154785</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>-4.093264102935791</v>
+        <v>-7.460377216339111</v>
       </c>
       <c r="B34" t="n">
-        <v>-2.92503833770752</v>
+        <v>-9.316865921020508</v>
       </c>
       <c r="C34" t="n">
-        <v>10.56417751312256</v>
+        <v>7.497047901153564</v>
       </c>
       <c r="D34" t="n">
-        <v>13.71701717376709</v>
+        <v>6.278867721557617</v>
       </c>
       <c r="E34" t="n">
-        <v>-10.39551544189453</v>
+        <v>-11.29873657226562</v>
       </c>
       <c r="F34" t="n">
-        <v>-4.927971839904785</v>
+        <v>-11.24169254302979</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>-2.083053112030029</v>
+        <v>-5.001822948455811</v>
       </c>
       <c r="B35" t="n">
-        <v>-1.223269104957581</v>
+        <v>-7.391382694244385</v>
       </c>
       <c r="C35" t="n">
-        <v>12.4431848526001</v>
+        <v>9.489468574523926</v>
       </c>
       <c r="D35" t="n">
-        <v>14.96968746185303</v>
+        <v>9.246975898742676</v>
       </c>
       <c r="E35" t="n">
-        <v>-7.144749641418457</v>
+        <v>-12.18837833404541</v>
       </c>
       <c r="F35" t="n">
-        <v>-2.985519886016846</v>
+        <v>-11.90433502197266</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>0.0464564822614193</v>
+        <v>-1.327868819236755</v>
       </c>
       <c r="B36" t="n">
-        <v>0.8232827186584473</v>
+        <v>-4.144145011901855</v>
       </c>
       <c r="C36" t="n">
-        <v>14.20062923431396</v>
+        <v>13.39359188079834</v>
       </c>
       <c r="D36" t="n">
-        <v>14.37327003479004</v>
+        <v>13.54470634460449</v>
       </c>
       <c r="E36" t="n">
-        <v>-4.124667167663574</v>
+        <v>-9.676984786987305</v>
       </c>
       <c r="F36" t="n">
-        <v>-1.627723813056946</v>
+        <v>-11.15194702148438</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>2.145328521728516</v>
+        <v>0.2679544389247894</v>
       </c>
       <c r="B37" t="n">
-        <v>2.425944089889526</v>
+        <v>-1.688554644584656</v>
       </c>
       <c r="C37" t="n">
-        <v>14.43532085418701</v>
+        <v>18.40678405761719</v>
       </c>
       <c r="D37" t="n">
-        <v>13.96526432037354</v>
+        <v>17.52190971374512</v>
       </c>
       <c r="E37" t="n">
-        <v>-1.638586163520813</v>
+        <v>-6.657522678375244</v>
       </c>
       <c r="F37" t="n">
-        <v>-0.2018645405769348</v>
+        <v>-8.679743766784668</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>3.876137495040894</v>
+        <v>2.914289951324463</v>
       </c>
       <c r="B38" t="n">
-        <v>3.847941398620605</v>
+        <v>-0.334063708782196</v>
       </c>
       <c r="C38" t="n">
-        <v>14.10089111328125</v>
+        <v>19.16931915283203</v>
       </c>
       <c r="D38" t="n">
-        <v>12.81693077087402</v>
+        <v>19.56704330444336</v>
       </c>
       <c r="E38" t="n">
-        <v>0.2067805826663971</v>
+        <v>-4.421826362609863</v>
       </c>
       <c r="F38" t="n">
-        <v>1.109004259109497</v>
+        <v>-7.191336154937744</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>5.298696994781494</v>
+        <v>3.866770505905151</v>
       </c>
       <c r="B39" t="n">
-        <v>4.832466602325439</v>
+        <v>2.430773258209229</v>
       </c>
       <c r="C39" t="n">
-        <v>13.03143119812012</v>
+        <v>18.42575836181641</v>
       </c>
       <c r="D39" t="n">
-        <v>11.72813129425049</v>
+        <v>22.36660957336426</v>
       </c>
       <c r="E39" t="n">
-        <v>1.788892507553101</v>
+        <v>-1.925934195518494</v>
       </c>
       <c r="F39" t="n">
-        <v>2.370943069458008</v>
+        <v>-4.230114459991455</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>6.145897388458252</v>
+        <v>5.167166233062744</v>
       </c>
       <c r="B40" t="n">
-        <v>5.396788597106934</v>
+        <v>3.610002517700195</v>
       </c>
       <c r="C40" t="n">
-        <v>12.01559066772461</v>
+        <v>21.36434173583984</v>
       </c>
       <c r="D40" t="n">
-        <v>8.501198768615723</v>
+        <v>24.13652229309082</v>
       </c>
       <c r="E40" t="n">
-        <v>2.78606915473938</v>
+        <v>-0.271499902009964</v>
       </c>
       <c r="F40" t="n">
-        <v>3.107134103775024</v>
+        <v>-1.126656770706177</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>6.99323034286499</v>
+        <v>8.814842224121094</v>
       </c>
       <c r="B41" t="n">
-        <v>5.970114707946777</v>
+        <v>5.880642414093018</v>
       </c>
       <c r="C41" t="n">
-        <v>9.207187652587891</v>
+        <v>18.69846343994141</v>
       </c>
       <c r="D41" t="n">
-        <v>6.288923740386963</v>
+        <v>21.5522403717041</v>
       </c>
       <c r="E41" t="n">
-        <v>3.692594051361084</v>
+        <v>-0.29065802693367</v>
       </c>
       <c r="F41" t="n">
-        <v>3.515565872192383</v>
+        <v>-0.2771056890487671</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>7.381650924682617</v>
+        <v>7.592464447021484</v>
       </c>
       <c r="B42" t="n">
-        <v>5.971729755401611</v>
+        <v>6.40201997756958</v>
       </c>
       <c r="C42" t="n">
-        <v>7.253577709197998</v>
+        <v>17.38057136535645</v>
       </c>
       <c r="D42" t="n">
-        <v>4.036418914794922</v>
+        <v>18.61466789245605</v>
       </c>
       <c r="E42" t="n">
-        <v>4.129822731018066</v>
+        <v>1.22773551940918</v>
       </c>
       <c r="F42" t="n">
-        <v>3.53713583946228</v>
+        <v>2.218768119812012</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>7.569042205810547</v>
+        <v>10.0028247833252</v>
       </c>
       <c r="B43" t="n">
-        <v>5.816398620605469</v>
+        <v>8.375033378601074</v>
       </c>
       <c r="C43" t="n">
-        <v>4.125821590423584</v>
+        <v>15.36614513397217</v>
       </c>
       <c r="D43" t="n">
-        <v>1.526168942451477</v>
+        <v>15.35445308685303</v>
       </c>
       <c r="E43" t="n">
-        <v>4.217437267303467</v>
+        <v>1.333443403244019</v>
       </c>
       <c r="F43" t="n">
-        <v>3.284968852996826</v>
+        <v>2.11353063583374</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>7.766416549682617</v>
+        <v>10.27324676513672</v>
       </c>
       <c r="B44" t="n">
-        <v>6.128670215606689</v>
+        <v>8.480819702148438</v>
       </c>
       <c r="C44" t="n">
-        <v>1.160670280456543</v>
+        <v>11.4796257019043</v>
       </c>
       <c r="D44" t="n">
-        <v>-1.288504600524902</v>
+        <v>14.03840637207031</v>
       </c>
       <c r="E44" t="n">
-        <v>4.007738590240479</v>
+        <v>1.044433116912842</v>
       </c>
       <c r="F44" t="n">
-        <v>2.875428915023804</v>
+        <v>1.958779811859131</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>7.612641334533691</v>
+        <v>11.46793270111084</v>
       </c>
       <c r="B45" t="n">
-        <v>6.24269437789917</v>
+        <v>7.831548690795898</v>
       </c>
       <c r="C45" t="n">
-        <v>-1.732479691505432</v>
+        <v>7.641767024993896</v>
       </c>
       <c r="D45" t="n">
-        <v>-3.864036321640015</v>
+        <v>8.501130104064941</v>
       </c>
       <c r="E45" t="n">
-        <v>3.324225664138794</v>
+        <v>1.314155578613281</v>
       </c>
       <c r="F45" t="n">
-        <v>2.316315650939941</v>
+        <v>0.003504512598738074</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>7.873786926269531</v>
+        <v>12.19121170043945</v>
       </c>
       <c r="B46" t="n">
-        <v>5.935190677642822</v>
+        <v>9.134726524353027</v>
       </c>
       <c r="C46" t="n">
-        <v>-3.978874206542969</v>
+        <v>4.450664520263672</v>
       </c>
       <c r="D46" t="n">
-        <v>-5.848702430725098</v>
+        <v>3.766404151916504</v>
       </c>
       <c r="E46" t="n">
-        <v>2.402700901031494</v>
+        <v>-1.880739808082581</v>
       </c>
       <c r="F46" t="n">
-        <v>1.868106245994568</v>
+        <v>-1.161643743515015</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>7.75347900390625</v>
+        <v>12.41031837463379</v>
       </c>
       <c r="B47" t="n">
-        <v>5.755451679229736</v>
+        <v>9.269013404846191</v>
       </c>
       <c r="C47" t="n">
-        <v>-5.904170989990234</v>
+        <v>-0.06651842594146729</v>
       </c>
       <c r="D47" t="n">
-        <v>-7.07805347442627</v>
+        <v>0.08121947199106216</v>
       </c>
       <c r="E47" t="n">
-        <v>1.68165123462677</v>
+        <v>-2.90369725227356</v>
       </c>
       <c r="F47" t="n">
-        <v>1.544158458709717</v>
+        <v>-1.826214551925659</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>7.791627883911133</v>
+        <v>11.72910690307617</v>
       </c>
       <c r="B48" t="n">
-        <v>5.457802295684814</v>
+        <v>7.587963104248047</v>
       </c>
       <c r="C48" t="n">
-        <v>-6.751355648040771</v>
+        <v>-3.649408102035522</v>
       </c>
       <c r="D48" t="n">
-        <v>-7.889546394348145</v>
+        <v>-3.308171987533569</v>
       </c>
       <c r="E48" t="n">
-        <v>1.162187099456787</v>
+        <v>-3.330989360809326</v>
       </c>
       <c r="F48" t="n">
-        <v>1.373557925224304</v>
+        <v>-2.892780065536499</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>8.150696754455566</v>
+        <v>11.86368179321289</v>
       </c>
       <c r="B49" t="n">
-        <v>5.553346157073975</v>
+        <v>7.466022491455078</v>
       </c>
       <c r="C49" t="n">
-        <v>-6.79058313369751</v>
+        <v>-6.786663055419922</v>
       </c>
       <c r="D49" t="n">
-        <v>-7.185892105102539</v>
+        <v>-8.219574928283691</v>
       </c>
       <c r="E49" t="n">
-        <v>0.5732262134552002</v>
+        <v>-4.5474853515625</v>
       </c>
       <c r="F49" t="n">
-        <v>1.025099635124207</v>
+        <v>-3.008040428161621</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>8.031941413879395</v>
+        <v>13.00337791442871</v>
       </c>
       <c r="B50" t="n">
-        <v>5.131316661834717</v>
+        <v>6.156636714935303</v>
       </c>
       <c r="C50" t="n">
-        <v>-6.195223331451416</v>
+        <v>-9.937597274780273</v>
       </c>
       <c r="D50" t="n">
-        <v>-7.279356002807617</v>
+        <v>-13.03742408752441</v>
       </c>
       <c r="E50" t="n">
-        <v>-0.2282184809446335</v>
+        <v>-3.847369909286499</v>
       </c>
       <c r="F50" t="n">
-        <v>0.3637445569038391</v>
+        <v>-1.589845180511475</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>7.335335731506348</v>
+        <v>11.52660083770752</v>
       </c>
       <c r="B51" t="n">
-        <v>4.982014656066895</v>
+        <v>5.051541328430176</v>
       </c>
       <c r="C51" t="n">
-        <v>-5.930539608001709</v>
+        <v>-10.73826122283936</v>
       </c>
       <c r="D51" t="n">
-        <v>-6.864089965820312</v>
+        <v>-13.17550659179688</v>
       </c>
       <c r="E51" t="n">
-        <v>-0.8284162282943726</v>
+        <v>-1.749519348144531</v>
       </c>
       <c r="F51" t="n">
-        <v>-0.45057612657547</v>
+        <v>-0.06755250692367554</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>5.74065113067627</v>
+        <v>6.750088691711426</v>
       </c>
       <c r="B52" t="n">
-        <v>5.249587059020996</v>
+        <v>4.466901779174805</v>
       </c>
       <c r="C52" t="n">
-        <v>-6.731972217559814</v>
+        <v>-10.67889976501465</v>
       </c>
       <c r="D52" t="n">
-        <v>-7.433856964111328</v>
+        <v>-13.121018409729</v>
       </c>
       <c r="E52" t="n">
-        <v>-1.32383143901825</v>
+        <v>0.710671603679657</v>
       </c>
       <c r="F52" t="n">
-        <v>-1.24424147605896</v>
+        <v>-0.7373031377792358</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>7.073421478271484</v>
+        <v>6.209830284118652</v>
       </c>
       <c r="B53" t="n">
-        <v>6.341964721679688</v>
+        <v>4.904058456420898</v>
       </c>
       <c r="C53" t="n">
-        <v>-7.684008598327637</v>
+        <v>-6.421353340148926</v>
       </c>
       <c r="D53" t="n">
-        <v>-6.930495262145996</v>
+        <v>-5.341867446899414</v>
       </c>
       <c r="E53" t="n">
-        <v>-2.715417623519897</v>
+        <v>-1.129907011985779</v>
       </c>
       <c r="F53" t="n">
-        <v>-3.065929889678955</v>
+        <v>-1.967385292053223</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>7.345857620239258</v>
+        <v>6.363873481750488</v>
       </c>
       <c r="B54" t="n">
-        <v>6.518145084381104</v>
+        <v>4.460938453674316</v>
       </c>
       <c r="C54" t="n">
-        <v>-6.590744495391846</v>
+        <v>-4.130359649658203</v>
       </c>
       <c r="D54" t="n">
-        <v>-6.402249336242676</v>
+        <v>-5.13202428817749</v>
       </c>
       <c r="E54" t="n">
-        <v>-3.725638151168823</v>
+        <v>-0.4237951338291168</v>
       </c>
       <c r="F54" t="n">
-        <v>-4.611141204833984</v>
+        <v>-2.667548894882202</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>6.998971462249756</v>
+        <v>6.05034351348877</v>
       </c>
       <c r="B55" t="n">
-        <v>6.394795417785645</v>
+        <v>4.083810806274414</v>
       </c>
       <c r="C55" t="n">
-        <v>-5.477924823760986</v>
+        <v>-3.365654468536377</v>
       </c>
       <c r="D55" t="n">
-        <v>-5.408690452575684</v>
+        <v>-5.522947788238525</v>
       </c>
       <c r="E55" t="n">
-        <v>-4.095991134643555</v>
+        <v>-0.5349814295768738</v>
       </c>
       <c r="F55" t="n">
-        <v>-5.421700477600098</v>
+        <v>-3.803980350494385</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>6.267983913421631</v>
+        <v>5.379842758178711</v>
       </c>
       <c r="B56" t="n">
-        <v>5.805681705474854</v>
+        <v>2.741874694824219</v>
       </c>
       <c r="C56" t="n">
-        <v>-4.075000286102295</v>
+        <v>-3.080613613128662</v>
       </c>
       <c r="D56" t="n">
-        <v>-4.261274814605713</v>
+        <v>-5.974016189575195</v>
       </c>
       <c r="E56" t="n">
-        <v>-3.717257976531982</v>
+        <v>-0.8815563917160034</v>
       </c>
       <c r="F56" t="n">
-        <v>-5.431975841522217</v>
+        <v>-3.786127090454102</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>5.398789882659912</v>
+        <v>3.803935289382935</v>
       </c>
       <c r="B57" t="n">
-        <v>5.082626819610596</v>
+        <v>1.852869510650635</v>
       </c>
       <c r="C57" t="n">
-        <v>-3.307812452316284</v>
+        <v>-3.628980159759521</v>
       </c>
       <c r="D57" t="n">
-        <v>-3.390030145645142</v>
+        <v>-6.077945232391357</v>
       </c>
       <c r="E57" t="n">
-        <v>-2.598382234573364</v>
+        <v>-1.103502988815308</v>
       </c>
       <c r="F57" t="n">
-        <v>-4.694401264190674</v>
+        <v>-3.967211723327637</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>4.608595371246338</v>
+        <v>2.720708131790161</v>
       </c>
       <c r="B58" t="n">
-        <v>4.337628364562988</v>
+        <v>1.144892930984497</v>
       </c>
       <c r="C58" t="n">
-        <v>-2.888766050338745</v>
+        <v>-4.257269859313965</v>
       </c>
       <c r="D58" t="n">
-        <v>-3.064362525939941</v>
+        <v>-6.257906436920166</v>
       </c>
       <c r="E58" t="n">
-        <v>-1.56098997592926</v>
+        <v>-1.377992153167725</v>
       </c>
       <c r="F58" t="n">
-        <v>-3.597604751586914</v>
+        <v>-3.434115648269653</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>3.434530973434448</v>
+        <v>1.762121438980103</v>
       </c>
       <c r="B59" t="n">
-        <v>3.497860431671143</v>
+        <v>0.6278269290924072</v>
       </c>
       <c r="C59" t="n">
-        <v>-3.039535522460938</v>
+        <v>-4.701382637023926</v>
       </c>
       <c r="D59" t="n">
-        <v>-3.273663520812988</v>
+        <v>-6.697952270507812</v>
       </c>
       <c r="E59" t="n">
-        <v>-0.6905880570411682</v>
+        <v>-1.067187666893005</v>
       </c>
       <c r="F59" t="n">
-        <v>-2.394275426864624</v>
+        <v>-3.132296562194824</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>2.465067625045776</v>
+        <v>1.10208523273468</v>
       </c>
       <c r="B60" t="n">
-        <v>2.277034282684326</v>
+        <v>-0.4798446595668793</v>
       </c>
       <c r="C60" t="n">
-        <v>-3.471266031265259</v>
+        <v>-4.522715091705322</v>
       </c>
       <c r="D60" t="n">
-        <v>-3.6270911693573</v>
+        <v>-6.864532947540283</v>
       </c>
       <c r="E60" t="n">
-        <v>0.02823928371071815</v>
+        <v>-0.9329900741577148</v>
       </c>
       <c r="F60" t="n">
-        <v>-1.514119029045105</v>
+        <v>-2.302083969116211</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>1.252835035324097</v>
+        <v>0.2797945439815521</v>
       </c>
       <c r="B61" t="n">
-        <v>0.9784198999404907</v>
+        <v>-1.350562453269958</v>
       </c>
       <c r="C61" t="n">
-        <v>-4.066154479980469</v>
+        <v>-4.912574768066406</v>
       </c>
       <c r="D61" t="n">
-        <v>-4.139904499053955</v>
+        <v>-6.83304500579834</v>
       </c>
       <c r="E61" t="n">
-        <v>0.6243677139282227</v>
+        <v>-0.2394867390394211</v>
       </c>
       <c r="F61" t="n">
-        <v>-0.7961559295654297</v>
+        <v>-1.822036981582642</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>0.113018125295639</v>
+        <v>-0.2254061996936798</v>
       </c>
       <c r="B62" t="n">
-        <v>-0.2064124792814255</v>
+        <v>-1.995627164840698</v>
       </c>
       <c r="C62" t="n">
-        <v>-4.531519412994385</v>
+        <v>-4.956683158874512</v>
       </c>
       <c r="D62" t="n">
-        <v>-4.830113887786865</v>
+        <v>-7.104308605194092</v>
       </c>
       <c r="E62" t="n">
-        <v>1.217668652534485</v>
+        <v>0.2884894609451294</v>
       </c>
       <c r="F62" t="n">
-        <v>-0.2088488936424255</v>
+        <v>-1.321120619773865</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>-1.044530391693115</v>
+        <v>-0.9530276656150818</v>
       </c>
       <c r="B63" t="n">
-        <v>-1.408011078834534</v>
+        <v>-2.380229234695435</v>
       </c>
       <c r="C63" t="n">
-        <v>-5.17482328414917</v>
+        <v>-4.856700420379639</v>
       </c>
       <c r="D63" t="n">
-        <v>-5.810407161712646</v>
+        <v>-7.480708599090576</v>
       </c>
       <c r="E63" t="n">
-        <v>1.747114062309265</v>
+        <v>0.9351884126663208</v>
       </c>
       <c r="F63" t="n">
-        <v>0.3666714429855347</v>
+        <v>-0.8481838703155518</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>-1.879796624183655</v>
+        <v>-1.679582715034485</v>
       </c>
       <c r="B64" t="n">
-        <v>-2.494591951370239</v>
+        <v>-2.885807275772095</v>
       </c>
       <c r="C64" t="n">
-        <v>-5.740584850311279</v>
+        <v>-4.868009567260742</v>
       </c>
       <c r="D64" t="n">
-        <v>-6.461923599243164</v>
+        <v>-7.351220607757568</v>
       </c>
       <c r="E64" t="n">
-        <v>2.216214418411255</v>
+        <v>1.393382668495178</v>
       </c>
       <c r="F64" t="n">
-        <v>0.8502507209777832</v>
+        <v>-0.4819684624671936</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>-2.80796480178833</v>
+        <v>-1.740994811058044</v>
       </c>
       <c r="B65" t="n">
-        <v>-3.303507804870605</v>
+        <v>-3.047208309173584</v>
       </c>
       <c r="C65" t="n">
-        <v>-6.417742729187012</v>
+        <v>-5.212019443511963</v>
       </c>
       <c r="D65" t="n">
-        <v>-7.246003150939941</v>
+        <v>-6.961416244506836</v>
       </c>
       <c r="E65" t="n">
-        <v>2.571866512298584</v>
+        <v>1.979191064834595</v>
       </c>
       <c r="F65" t="n">
-        <v>1.359148383140564</v>
+        <v>0.3427842855453491</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>-3.744972944259644</v>
+        <v>-2.476300001144409</v>
       </c>
       <c r="B66" t="n">
-        <v>-4.232317924499512</v>
+        <v>-2.975993156433105</v>
       </c>
       <c r="C66" t="n">
-        <v>-6.725430011749268</v>
+        <v>-5.349125385284424</v>
       </c>
       <c r="D66" t="n">
-        <v>-7.692874431610107</v>
+        <v>-6.832589149475098</v>
       </c>
       <c r="E66" t="n">
-        <v>2.96194314956665</v>
+        <v>2.45125412940979</v>
       </c>
       <c r="F66" t="n">
-        <v>1.952406644821167</v>
+        <v>1.335084915161133</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>-4.407834053039551</v>
+        <v>-3.204120874404907</v>
       </c>
       <c r="B67" t="n">
-        <v>-5.211223125457764</v>
+        <v>-2.732334136962891</v>
       </c>
       <c r="C67" t="n">
-        <v>-7.16138744354248</v>
+        <v>-5.485862731933594</v>
       </c>
       <c r="D67" t="n">
-        <v>-7.881365299224854</v>
+        <v>-6.350067138671875</v>
       </c>
       <c r="E67" t="n">
-        <v>3.384469747543335</v>
+        <v>3.002164125442505</v>
       </c>
       <c r="F67" t="n">
-        <v>2.551823139190674</v>
+        <v>2.522506713867188</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>-5.498606204986572</v>
+        <v>-3.547648429870605</v>
       </c>
       <c r="B68" t="n">
-        <v>-5.668383121490479</v>
+        <v>-3.089801549911499</v>
       </c>
       <c r="C68" t="n">
-        <v>-7.873820781707764</v>
+        <v>-5.306323051452637</v>
       </c>
       <c r="D68" t="n">
-        <v>-8.269583702087402</v>
+        <v>-6.302619457244873</v>
       </c>
       <c r="E68" t="n">
-        <v>3.848029613494873</v>
+        <v>3.6287682056427</v>
       </c>
       <c r="F68" t="n">
-        <v>3.165333032608032</v>
+        <v>3.208507299423218</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>-6.139729022979736</v>
+        <v>-4.097753524780273</v>
       </c>
       <c r="B69" t="n">
-        <v>-6.691226482391357</v>
+        <v>-3.314480066299438</v>
       </c>
       <c r="C69" t="n">
-        <v>-7.959854125976562</v>
+        <v>-5.594681262969971</v>
       </c>
       <c r="D69" t="n">
-        <v>-8.500792503356934</v>
+        <v>-6.163748264312744</v>
       </c>
       <c r="E69" t="n">
-        <v>4.442226886749268</v>
+        <v>3.911922931671143</v>
       </c>
       <c r="F69" t="n">
-        <v>3.866909503936768</v>
+        <v>4.25972318649292</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>-7.079116344451904</v>
+        <v>-4.686662673950195</v>
       </c>
       <c r="B70" t="n">
-        <v>-7.179825305938721</v>
+        <v>-3.582798719406128</v>
       </c>
       <c r="C70" t="n">
-        <v>-8.268038749694824</v>
+        <v>-6.055830001831055</v>
       </c>
       <c r="D70" t="n">
-        <v>-8.84378719329834</v>
+        <v>-5.935451030731201</v>
       </c>
       <c r="E70" t="n">
-        <v>5.111637592315674</v>
+        <v>4.770337104797363</v>
       </c>
       <c r="F70" t="n">
-        <v>4.676712512969971</v>
+        <v>4.863617897033691</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>-7.939299583435059</v>
+        <v>-5.233198642730713</v>
       </c>
       <c r="B71" t="n">
-        <v>-7.431082248687744</v>
+        <v>-3.994559526443481</v>
       </c>
       <c r="C71" t="n">
-        <v>-8.595717430114746</v>
+        <v>-6.42525053024292</v>
       </c>
       <c r="D71" t="n">
-        <v>-8.704310417175293</v>
+        <v>-5.690656185150146</v>
       </c>
       <c r="E71" t="n">
-        <v>5.807312488555908</v>
+        <v>5.145943641662598</v>
       </c>
       <c r="F71" t="n">
-        <v>5.53997802734375</v>
+        <v>5.537182807922363</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>-8.776851654052734</v>
+        <v>-5.807812690734863</v>
       </c>
       <c r="B72" t="n">
-        <v>-8.35142993927002</v>
+        <v>-4.000180244445801</v>
       </c>
       <c r="C72" t="n">
-        <v>-8.780165672302246</v>
+        <v>-7.086403846740723</v>
       </c>
       <c r="D72" t="n">
-        <v>-8.7557373046875</v>
+        <v>-6.150904178619385</v>
       </c>
       <c r="E72" t="n">
-        <v>6.314291000366211</v>
+        <v>5.934869289398193</v>
       </c>
       <c r="F72" t="n">
-        <v>6.186990261077881</v>
+        <v>6.104663372039795</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>-9.48295783996582</v>
+        <v>-6.533936023712158</v>
       </c>
       <c r="B73" t="n">
-        <v>-9.010111808776855</v>
+        <v>-4.666525363922119</v>
       </c>
       <c r="C73" t="n">
-        <v>-8.788105964660645</v>
+        <v>-7.312906742095947</v>
       </c>
       <c r="D73" t="n">
-        <v>-8.178583145141602</v>
+        <v>-6.611366271972656</v>
       </c>
       <c r="E73" t="n">
-        <v>6.881035804748535</v>
+        <v>6.573604106903076</v>
       </c>
       <c r="F73" t="n">
-        <v>6.844798564910889</v>
+        <v>6.625851154327393</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>-10.16850185394287</v>
+        <v>-7.8738694190979</v>
       </c>
       <c r="B74" t="n">
-        <v>-9.782204627990723</v>
+        <v>-5.948079586029053</v>
       </c>
       <c r="C74" t="n">
-        <v>-8.18792724609375</v>
+        <v>-8.377367973327637</v>
       </c>
       <c r="D74" t="n">
-        <v>-8.179023742675781</v>
+        <v>-7.115171432495117</v>
       </c>
       <c r="E74" t="n">
-        <v>7.264435291290283</v>
+        <v>6.628722667694092</v>
       </c>
       <c r="F74" t="n">
-        <v>7.374374866485596</v>
+        <v>7.089591503143311</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="n">
-        <v>-10.81246852874756</v>
+        <v>-8.647128105163574</v>
       </c>
       <c r="B75" t="n">
-        <v>-10.38702297210693</v>
+        <v>-6.780957698822021</v>
       </c>
       <c r="C75" t="n">
-        <v>-8.066357612609863</v>
+        <v>-8.829715728759766</v>
       </c>
       <c r="D75" t="n">
-        <v>-7.784862518310547</v>
+        <v>-7.900413036346436</v>
       </c>
       <c r="E75" t="n">
-        <v>7.498799324035645</v>
+        <v>6.49735164642334</v>
       </c>
       <c r="F75" t="n">
-        <v>7.645598411560059</v>
+        <v>7.262655735015869</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>-11.42142391204834</v>
+        <v>-10.01813316345215</v>
       </c>
       <c r="B76" t="n">
-        <v>-11.06593322753906</v>
+        <v>-7.765187740325928</v>
       </c>
       <c r="C76" t="n">
-        <v>-7.302169322967529</v>
+        <v>-9.082272529602051</v>
       </c>
       <c r="D76" t="n">
-        <v>-7.020232200622559</v>
+        <v>-8.153273582458496</v>
       </c>
       <c r="E76" t="n">
-        <v>7.183905601501465</v>
+        <v>6.497793674468994</v>
       </c>
       <c r="F76" t="n">
-        <v>7.615067481994629</v>
+        <v>7.215307712554932</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>-11.7481050491333</v>
+        <v>-10.62358951568604</v>
       </c>
       <c r="B77" t="n">
-        <v>-11.48547744750977</v>
+        <v>-8.935657501220703</v>
       </c>
       <c r="C77" t="n">
-        <v>-6.405946254730225</v>
+        <v>-9.827740669250488</v>
       </c>
       <c r="D77" t="n">
-        <v>-5.89516544342041</v>
+        <v>-8.200678825378418</v>
       </c>
       <c r="E77" t="n">
-        <v>6.04701042175293</v>
+        <v>6.493808746337891</v>
       </c>
       <c r="F77" t="n">
-        <v>6.674472332000732</v>
+        <v>7.840319633483887</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>-11.9627161026001</v>
+        <v>-11.47140979766846</v>
       </c>
       <c r="B78" t="n">
-        <v>-11.44935607910156</v>
+        <v>-10.00631809234619</v>
       </c>
       <c r="C78" t="n">
-        <v>-5.054695129394531</v>
+        <v>-9.574228286743164</v>
       </c>
       <c r="D78" t="n">
-        <v>-4.303012371063232</v>
+        <v>-8.621543884277344</v>
       </c>
       <c r="E78" t="n">
-        <v>4.192930698394775</v>
+        <v>6.022228717803955</v>
       </c>
       <c r="F78" t="n">
-        <v>4.436784267425537</v>
+        <v>8.338047027587891</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>-12.0836238861084</v>
+        <v>-12.15696620941162</v>
       </c>
       <c r="B79" t="n">
-        <v>-11.4279842376709</v>
+        <v>-10.74240303039551</v>
       </c>
       <c r="C79" t="n">
-        <v>-3.235957622528076</v>
+        <v>-8.974305152893066</v>
       </c>
       <c r="D79" t="n">
-        <v>-2.155250549316406</v>
+        <v>-8.317198753356934</v>
       </c>
       <c r="E79" t="n">
-        <v>1.085351467132568</v>
+        <v>6.08188533782959</v>
       </c>
       <c r="F79" t="n">
-        <v>1.206655979156494</v>
+        <v>8.395782470703125</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="n">
-        <v>-11.48899555206299</v>
+        <v>-12.27025699615479</v>
       </c>
       <c r="B80" t="n">
-        <v>-10.77731800079346</v>
+        <v>-11.68986701965332</v>
       </c>
       <c r="C80" t="n">
-        <v>-0.8776199817657471</v>
+        <v>-7.80803918838501</v>
       </c>
       <c r="D80" t="n">
-        <v>0.6271906495094299</v>
+        <v>-7.427690029144287</v>
       </c>
       <c r="E80" t="n">
-        <v>-3.265864849090576</v>
+        <v>5.394477844238281</v>
       </c>
       <c r="F80" t="n">
-        <v>-2.880085229873657</v>
+        <v>7.807860851287842</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="n">
-        <v>-10.65080261230469</v>
+        <v>-12.27826690673828</v>
       </c>
       <c r="B81" t="n">
-        <v>-9.61434268951416</v>
+        <v>-12.25121593475342</v>
       </c>
       <c r="C81" t="n">
-        <v>1.771026134490967</v>
+        <v>-6.236248016357422</v>
       </c>
       <c r="D81" t="n">
-        <v>4.005524158477783</v>
+        <v>-6.420969009399414</v>
       </c>
       <c r="E81" t="n">
-        <v>-7.772025585174561</v>
+        <v>3.587762594223022</v>
       </c>
       <c r="F81" t="n">
-        <v>-6.575983047485352</v>
+        <v>5.16778564453125</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="n">
-        <v>-9.178120613098145</v>
+        <v>-11.54992580413818</v>
       </c>
       <c r="B82" t="n">
-        <v>-8.648611068725586</v>
+        <v>-11.8339958190918</v>
       </c>
       <c r="C82" t="n">
-        <v>4.894576072692871</v>
+        <v>-3.728975772857666</v>
       </c>
       <c r="D82" t="n">
-        <v>7.531783103942871</v>
+        <v>-4.43785285949707</v>
       </c>
       <c r="E82" t="n">
-        <v>-11.3491096496582</v>
+        <v>-0.2417790442705154</v>
       </c>
       <c r="F82" t="n">
-        <v>-8.716837882995605</v>
+        <v>0.9222500324249268</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>-7.828098297119141</v>
+        <v>-10.44554328918457</v>
       </c>
       <c r="B83" t="n">
-        <v>-7.033016681671143</v>
+        <v>-10.89188671112061</v>
       </c>
       <c r="C83" t="n">
-        <v>7.731448650360107</v>
+        <v>-0.2297568917274475</v>
       </c>
       <c r="D83" t="n">
-        <v>10.82529163360596</v>
+        <v>-1.86625063419342</v>
       </c>
       <c r="E83" t="n">
-        <v>-13.14931678771973</v>
+        <v>-4.761725425720215</v>
       </c>
       <c r="F83" t="n">
-        <v>-9.052225112915039</v>
+        <v>-4.679391860961914</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="n">
-        <v>-6.167464733123779</v>
+        <v>-8.601849555969238</v>
       </c>
       <c r="B84" t="n">
-        <v>-5.180990219116211</v>
+        <v>-9.526596069335938</v>
       </c>
       <c r="C84" t="n">
-        <v>10.59530353546143</v>
+        <v>3.184739351272583</v>
       </c>
       <c r="D84" t="n">
-        <v>13.65454196929932</v>
+        <v>1.710918068885803</v>
       </c>
       <c r="E84" t="n">
-        <v>-12.38990211486816</v>
+        <v>-9.200329780578613</v>
       </c>
       <c r="F84" t="n">
-        <v>-8.050186157226562</v>
+        <v>-9.276721954345703</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="n">
-        <v>-3.925667524337769</v>
+        <v>-6.453960418701172</v>
       </c>
       <c r="B85" t="n">
-        <v>-3.120579242706299</v>
+        <v>-7.800161838531494</v>
       </c>
       <c r="C85" t="n">
-        <v>13.09824562072754</v>
+        <v>8.201651573181152</v>
       </c>
       <c r="D85" t="n">
-        <v>15.30985164642334</v>
+        <v>6.47817325592041</v>
       </c>
       <c r="E85" t="n">
-        <v>-10.23785591125488</v>
+        <v>-11.82577037811279</v>
       </c>
       <c r="F85" t="n">
-        <v>-6.26127290725708</v>
+        <v>-12.02529335021973</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="n">
-        <v>-1.779930949211121</v>
+        <v>-4.091588020324707</v>
       </c>
       <c r="B86" t="n">
-        <v>-1.229524374008179</v>
+        <v>-5.935885429382324</v>
       </c>
       <c r="C86" t="n">
-        <v>15.10117244720459</v>
+        <v>12.09797096252441</v>
       </c>
       <c r="D86" t="n">
-        <v>16.79757499694824</v>
+        <v>10.40050983428955</v>
       </c>
       <c r="E86" t="n">
-        <v>-7.323635578155518</v>
+        <v>-12.13215923309326</v>
       </c>
       <c r="F86" t="n">
-        <v>-4.419955730438232</v>
+        <v>-12.65456676483154</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="n">
-        <v>0.3710226714611053</v>
+        <v>-1.42004120349884</v>
       </c>
       <c r="B87" t="n">
-        <v>0.8358415365219116</v>
+        <v>-3.501742601394653</v>
       </c>
       <c r="C87" t="n">
-        <v>16.63482284545898</v>
+        <v>15.71006679534912</v>
       </c>
       <c r="D87" t="n">
-        <v>17.15121459960938</v>
+        <v>14.81532573699951</v>
       </c>
       <c r="E87" t="n">
-        <v>-4.470296382904053</v>
+        <v>-10.37148380279541</v>
       </c>
       <c r="F87" t="n">
-        <v>-2.577490568161011</v>
+        <v>-11.08517265319824</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="n">
-        <v>2.406239986419678</v>
+        <v>0.8156583905220032</v>
       </c>
       <c r="B88" t="n">
-        <v>2.489983320236206</v>
+        <v>-1.209328770637512</v>
       </c>
       <c r="C88" t="n">
-        <v>16.89571189880371</v>
+        <v>19.05379676818848</v>
       </c>
       <c r="D88" t="n">
-        <v>16.81205558776855</v>
+        <v>18.4526481628418</v>
       </c>
       <c r="E88" t="n">
-        <v>-2.050766468048096</v>
+        <v>-7.463959693908691</v>
       </c>
       <c r="F88" t="n">
-        <v>-0.8175386190414429</v>
+        <v>-8.482412338256836</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="n">
-        <v>4.066130638122559</v>
+        <v>3.344087362289429</v>
       </c>
       <c r="B89" t="n">
-        <v>4.016766548156738</v>
+        <v>0.6902061700820923</v>
       </c>
       <c r="C89" t="n">
-        <v>16.41395950317383</v>
+        <v>19.90046310424805</v>
       </c>
       <c r="D89" t="n">
-        <v>15.434645652771</v>
+        <v>20.4093017578125</v>
       </c>
       <c r="E89" t="n">
-        <v>-0.03758291527628899</v>
+        <v>-4.702657699584961</v>
       </c>
       <c r="F89" t="n">
-        <v>0.8426076173782349</v>
+        <v>-6.077734470367432</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="n">
-        <v>5.443043231964111</v>
+        <v>4.854475498199463</v>
       </c>
       <c r="B90" t="n">
-        <v>5.109768867492676</v>
+        <v>2.639219522476196</v>
       </c>
       <c r="C90" t="n">
-        <v>14.88354587554932</v>
+        <v>19.76141357421875</v>
       </c>
       <c r="D90" t="n">
-        <v>13.60148334503174</v>
+        <v>21.49444961547852</v>
       </c>
       <c r="E90" t="n">
-        <v>1.618513107299805</v>
+        <v>-2.469382286071777</v>
       </c>
       <c r="F90" t="n">
-        <v>2.266496181488037</v>
+        <v>-3.750116348266602</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="n">
-        <v>6.355384826660156</v>
+        <v>6.477858066558838</v>
       </c>
       <c r="B91" t="n">
-        <v>5.981210231781006</v>
+        <v>4.048161029815674</v>
       </c>
       <c r="C91" t="n">
-        <v>12.98960113525391</v>
+        <v>19.87391090393066</v>
       </c>
       <c r="D91" t="n">
-        <v>11.26239967346191</v>
+        <v>21.56834411621094</v>
       </c>
       <c r="E91" t="n">
-        <v>2.775054693222046</v>
+        <v>-0.8863298892974854</v>
       </c>
       <c r="F91" t="n">
-        <v>3.157398462295532</v>
+        <v>-1.545677661895752</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="n">
-        <v>7.195388793945312</v>
+        <v>8.126139640808105</v>
       </c>
       <c r="B92" t="n">
-        <v>6.623455047607422</v>
+        <v>5.309580326080322</v>
       </c>
       <c r="C92" t="n">
-        <v>10.20901966094971</v>
+        <v>17.89321517944336</v>
       </c>
       <c r="D92" t="n">
-        <v>8.652633666992188</v>
+        <v>20.01666069030762</v>
       </c>
       <c r="E92" t="n">
-        <v>3.797720670700073</v>
+        <v>0.1033489406108856</v>
       </c>
       <c r="F92" t="n">
-        <v>3.692047595977783</v>
+        <v>0.2761323750019073</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="n">
-        <v>7.552267074584961</v>
+        <v>9.038937568664551</v>
       </c>
       <c r="B93" t="n">
-        <v>7.064902305603027</v>
+        <v>6.36945629119873</v>
       </c>
       <c r="C93" t="n">
-        <v>7.594170093536377</v>
+        <v>15.76859378814697</v>
       </c>
       <c r="D93" t="n">
-        <v>5.905772686004639</v>
+        <v>17.71445465087891</v>
       </c>
       <c r="E93" t="n">
-        <v>4.179493427276611</v>
+        <v>1.376449227333069</v>
       </c>
       <c r="F93" t="n">
-        <v>3.7295241355896</v>
+        <v>1.655109882354736</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="n">
-        <v>7.854314804077148</v>
+        <v>9.620625495910645</v>
       </c>
       <c r="B94" t="n">
-        <v>7.179652214050293</v>
+        <v>7.480892181396484</v>
       </c>
       <c r="C94" t="n">
-        <v>4.174466609954834</v>
+        <v>12.9519214630127</v>
       </c>
       <c r="D94" t="n">
-        <v>2.756344795227051</v>
+        <v>14.60998725891113</v>
       </c>
       <c r="E94" t="n">
-        <v>4.197946071624756</v>
+        <v>1.717960357666016</v>
       </c>
       <c r="F94" t="n">
-        <v>3.332511425018311</v>
+        <v>2.461296319961548</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="n">
-        <v>7.969498634338379</v>
+        <v>10.18990421295166</v>
       </c>
       <c r="B95" t="n">
-        <v>7.325677871704102</v>
+        <v>8.014823913574219</v>
       </c>
       <c r="C95" t="n">
-        <v>0.5668457746505737</v>
+        <v>9.832080841064453</v>
       </c>
       <c r="D95" t="n">
-        <v>-0.5836135149002075</v>
+        <v>11.15319728851318</v>
       </c>
       <c r="E95" t="n">
-        <v>3.892060041427612</v>
+        <v>1.488295674324036</v>
       </c>
       <c r="F95" t="n">
-        <v>2.855181932449341</v>
+        <v>2.359695911407471</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="n">
-        <v>7.98660945892334</v>
+        <v>10.67028999328613</v>
       </c>
       <c r="B96" t="n">
-        <v>7.459522247314453</v>
+        <v>8.269389152526855</v>
       </c>
       <c r="C96" t="n">
-        <v>-2.79345440864563</v>
+        <v>5.567639350891113</v>
       </c>
       <c r="D96" t="n">
-        <v>-3.657141208648682</v>
+        <v>7.446515083312988</v>
       </c>
       <c r="E96" t="n">
-        <v>3.266143083572388</v>
+        <v>0.8576405048370361</v>
       </c>
       <c r="F96" t="n">
-        <v>2.254085063934326</v>
+        <v>1.314482569694519</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="n">
-        <v>7.935174942016602</v>
+        <v>10.96444892883301</v>
       </c>
       <c r="B97" t="n">
-        <v>7.197142601013184</v>
+        <v>8.604787826538086</v>
       </c>
       <c r="C97" t="n">
-        <v>-5.539436817169189</v>
+        <v>2.31293797492981</v>
       </c>
       <c r="D97" t="n">
-        <v>-6.177127361297607</v>
+        <v>3.049210548400879</v>
       </c>
       <c r="E97" t="n">
-        <v>2.58774471282959</v>
+        <v>-0.7657407522201538</v>
       </c>
       <c r="F97" t="n">
-        <v>1.84388267993927</v>
+        <v>0.1857134848833084</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="n">
-        <v>7.902758598327637</v>
+        <v>10.99624729156494</v>
       </c>
       <c r="B98" t="n">
-        <v>7.114349842071533</v>
+        <v>8.659662246704102</v>
       </c>
       <c r="C98" t="n">
-        <v>-7.778432369232178</v>
+        <v>-1.997253775596619</v>
       </c>
       <c r="D98" t="n">
-        <v>-7.850603103637695</v>
+        <v>-0.6758038997650146</v>
       </c>
       <c r="E98" t="n">
-        <v>2.046520948410034</v>
+        <v>-2.18440318107605</v>
       </c>
       <c r="F98" t="n">
-        <v>1.657655358314514</v>
+        <v>-0.3908758759498596</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="n">
-        <v>7.911165237426758</v>
+        <v>11.35276031494141</v>
       </c>
       <c r="B99" t="n">
-        <v>6.857889652252197</v>
+        <v>7.610278129577637</v>
       </c>
       <c r="C99" t="n">
-        <v>-8.877386093139648</v>
+        <v>-5.153692722320557</v>
       </c>
       <c r="D99" t="n">
-        <v>-9.228206634521484</v>
+        <v>-4.202277183532715</v>
       </c>
       <c r="E99" t="n">
-        <v>1.792444229125977</v>
+        <v>-3.023565769195557</v>
       </c>
       <c r="F99" t="n">
-        <v>1.621109247207642</v>
+        <v>-0.7499908208847046</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="n">
-        <v>8.135692596435547</v>
+        <v>11.57670307159424</v>
       </c>
       <c r="B100" t="n">
-        <v>6.943349361419678</v>
+        <v>7.105775833129883</v>
       </c>
       <c r="C100" t="n">
-        <v>-9.181238174438477</v>
+        <v>-7.785983085632324</v>
       </c>
       <c r="D100" t="n">
-        <v>-8.983955383300781</v>
+        <v>-8.501277923583984</v>
       </c>
       <c r="E100" t="n">
-        <v>1.447763562202454</v>
+        <v>-3.213672637939453</v>
       </c>
       <c r="F100" t="n">
-        <v>1.274456262588501</v>
+        <v>-0.6854422688484192</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="n">
-        <v>8.004996299743652</v>
+        <v>11.82778072357178</v>
       </c>
       <c r="B101" t="n">
-        <v>6.538363456726074</v>
+        <v>6.237935543060303</v>
       </c>
       <c r="C101" t="n">
-        <v>-8.626398086547852</v>
+        <v>-10.00479507446289</v>
       </c>
       <c r="D101" t="n">
-        <v>-9.098109245300293</v>
+        <v>-11.16340732574463</v>
       </c>
       <c r="E101" t="n">
-        <v>0.7305326461791992</v>
+        <v>-2.946634292602539</v>
       </c>
       <c r="F101" t="n">
-        <v>0.4357122480869293</v>
+        <v>-0.3377520442008972</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="n">
-        <v>7.468473434448242</v>
+        <v>10.44905662536621</v>
       </c>
       <c r="B102" t="n">
-        <v>6.205450534820557</v>
+        <v>5.50178861618042</v>
       </c>
       <c r="C102" t="n">
-        <v>-7.8896484375</v>
+        <v>-10.44786548614502</v>
       </c>
       <c r="D102" t="n">
-        <v>-8.515334129333496</v>
+        <v>-12.23234844207764</v>
       </c>
       <c r="E102" t="n">
-        <v>-0.285232812166214</v>
+        <v>-1.723725914955139</v>
       </c>
       <c r="F102" t="n">
-        <v>-0.7736508846282959</v>
+        <v>-0.02458024211227894</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="n">
-        <v>6.284211158752441</v>
+        <v>7.079992771148682</v>
       </c>
       <c r="B103" t="n">
-        <v>5.932250022888184</v>
+        <v>5.469281196594238</v>
       </c>
       <c r="C103" t="n">
-        <v>-7.675929546356201</v>
+        <v>-10.13661098480225</v>
       </c>
       <c r="D103" t="n">
-        <v>-8.317751884460449</v>
+        <v>-12.25094604492188</v>
       </c>
       <c r="E103" t="n">
-        <v>-1.698085427284241</v>
+        <v>-0.4241890609264374</v>
       </c>
       <c r="F103" t="n">
-        <v>-2.094144582748413</v>
+        <v>0.1613837331533432</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="n">
-        <v>7.44873046875</v>
+        <v>6.658324241638184</v>
       </c>
       <c r="B104" t="n">
-        <v>7.050568103790283</v>
+        <v>5.025653839111328</v>
       </c>
       <c r="C104" t="n">
-        <v>-7.794496059417725</v>
+        <v>-6.947257041931152</v>
       </c>
       <c r="D104" t="n">
-        <v>-7.140396595001221</v>
+        <v>-5.987809181213379</v>
       </c>
       <c r="E104" t="n">
-        <v>-2.907562494277954</v>
+        <v>-1.813085198402405</v>
       </c>
       <c r="F104" t="n">
-        <v>-3.258452653884888</v>
+        <v>-2.487177133560181</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="n">
-        <v>7.75688362121582</v>
+        <v>6.553290367126465</v>
       </c>
       <c r="B105" t="n">
-        <v>7.23383617401123</v>
+        <v>4.114026546478271</v>
       </c>
       <c r="C105" t="n">
-        <v>-6.937549591064453</v>
+        <v>-4.258525848388672</v>
       </c>
       <c r="D105" t="n">
-        <v>-6.655979156494141</v>
+        <v>-5.526779174804688</v>
       </c>
       <c r="E105" t="n">
-        <v>-4.127489566802979</v>
+        <v>-1.264274716377258</v>
       </c>
       <c r="F105" t="n">
-        <v>-4.683019161224365</v>
+        <v>-3.40402626991272</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="n">
-        <v>7.416857719421387</v>
+        <v>6.177794933319092</v>
       </c>
       <c r="B106" t="n">
-        <v>7.026143550872803</v>
+        <v>3.413785934448242</v>
       </c>
       <c r="C106" t="n">
-        <v>-5.873831748962402</v>
+        <v>-2.64045262336731</v>
       </c>
       <c r="D106" t="n">
-        <v>-5.68783712387085</v>
+        <v>-5.964203834533691</v>
       </c>
       <c r="E106" t="n">
-        <v>-4.654706478118896</v>
+        <v>-1.132468461990356</v>
       </c>
       <c r="F106" t="n">
-        <v>-5.384235382080078</v>
+        <v>-4.197235584259033</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="n">
-        <v>6.665671825408936</v>
+        <v>5.36754846572876</v>
       </c>
       <c r="B107" t="n">
-        <v>6.297282695770264</v>
+        <v>2.477389097213745</v>
       </c>
       <c r="C107" t="n">
-        <v>-4.476017951965332</v>
+        <v>-2.719198703765869</v>
       </c>
       <c r="D107" t="n">
-        <v>-4.549929141998291</v>
+        <v>-6.437614917755127</v>
       </c>
       <c r="E107" t="n">
-        <v>-4.341170310974121</v>
+        <v>-1.136448860168457</v>
       </c>
       <c r="F107" t="n">
-        <v>-5.335580825805664</v>
+        <v>-3.963060855865479</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="n">
-        <v>5.730801582336426</v>
+        <v>4.17775821685791</v>
       </c>
       <c r="B108" t="n">
-        <v>5.432794570922852</v>
+        <v>1.256537199020386</v>
       </c>
       <c r="C108" t="n">
-        <v>-3.633819818496704</v>
+        <v>-3.325236558914185</v>
       </c>
       <c r="D108" t="n">
-        <v>-3.701369047164917</v>
+        <v>-6.330257415771484</v>
       </c>
       <c r="E108" t="n">
-        <v>-3.247068881988525</v>
+        <v>-1.128632307052612</v>
       </c>
       <c r="F108" t="n">
-        <v>-4.516228199005127</v>
+        <v>-3.783739566802979</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="n">
-        <v>4.850753307342529</v>
+        <v>3.082589149475098</v>
       </c>
       <c r="B109" t="n">
-        <v>4.527671813964844</v>
+        <v>0.6659945249557495</v>
       </c>
       <c r="C109" t="n">
-        <v>-3.218439102172852</v>
+        <v>-3.733386278152466</v>
       </c>
       <c r="D109" t="n">
-        <v>-3.412409543991089</v>
+        <v>-6.396618843078613</v>
       </c>
       <c r="E109" t="n">
-        <v>-2.104856729507446</v>
+        <v>-1.273345351219177</v>
       </c>
       <c r="F109" t="n">
-        <v>-3.367942094802856</v>
+        <v>-3.342709541320801</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="n">
-        <v>3.680002450942993</v>
+        <v>1.797974824905396</v>
       </c>
       <c r="B110" t="n">
-        <v>3.562932968139648</v>
+        <v>0.1521816402673721</v>
       </c>
       <c r="C110" t="n">
-        <v>-3.34172534942627</v>
+        <v>-4.099960803985596</v>
       </c>
       <c r="D110" t="n">
-        <v>-3.621124505996704</v>
+        <v>-6.587733268737793</v>
       </c>
       <c r="E110" t="n">
-        <v>-1.11555278301239</v>
+        <v>-0.9860624074935913</v>
       </c>
       <c r="F110" t="n">
-        <v>-2.156702041625977</v>
+        <v>-2.826200485229492</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="n">
-        <v>2.62593150138855</v>
+        <v>1.058997392654419</v>
       </c>
       <c r="B111" t="n">
-        <v>2.313267707824707</v>
+        <v>-0.8838658928871155</v>
       </c>
       <c r="C111" t="n">
-        <v>-3.748290061950684</v>
+        <v>-4.485991954803467</v>
       </c>
       <c r="D111" t="n">
-        <v>-3.976075887680054</v>
+        <v>-7.039525985717773</v>
       </c>
       <c r="E111" t="n">
-        <v>-0.3037929832935333</v>
+        <v>-0.7552604675292969</v>
       </c>
       <c r="F111" t="n">
-        <v>-1.244637727737427</v>
+        <v>-2.22503137588501</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="n">
-        <v>1.376294851303101</v>
+        <v>0.3350760638713837</v>
       </c>
       <c r="B112" t="n">
-        <v>1.013665199279785</v>
+        <v>-1.506307601928711</v>
       </c>
       <c r="C112" t="n">
-        <v>-4.293155670166016</v>
+        <v>-4.683201313018799</v>
       </c>
       <c r="D112" t="n">
-        <v>-4.473163604736328</v>
+        <v>-6.941986560821533</v>
       </c>
       <c r="E112" t="n">
-        <v>0.3637813031673431</v>
+        <v>-0.1760756224393845</v>
       </c>
       <c r="F112" t="n">
-        <v>-0.4983088970184326</v>
+        <v>-1.756170988082886</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="n">
-        <v>0.1801614463329315</v>
+        <v>-0.1670131981372833</v>
       </c>
       <c r="B113" t="n">
-        <v>-0.1919455379247665</v>
+        <v>-1.953488707542419</v>
       </c>
       <c r="C113" t="n">
-        <v>-4.811640739440918</v>
+        <v>-5.111945629119873</v>
       </c>
       <c r="D113" t="n">
-        <v>-5.099969387054443</v>
+        <v>-6.961699962615967</v>
       </c>
       <c r="E113" t="n">
-        <v>0.9998278021812439</v>
+        <v>0.3201943039894104</v>
       </c>
       <c r="F113" t="n">
-        <v>0.1186123639345169</v>
+        <v>-1.134973764419556</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="n">
-        <v>-1.025107383728027</v>
+        <v>-0.8874015808105469</v>
       </c>
       <c r="B114" t="n">
-        <v>-1.389444947242737</v>
+        <v>-2.584572315216064</v>
       </c>
       <c r="C114" t="n">
-        <v>-5.468070983886719</v>
+        <v>-5.001899719238281</v>
       </c>
       <c r="D114" t="n">
-        <v>-6.037363052368164</v>
+        <v>-7.423858642578125</v>
       </c>
       <c r="E114" t="n">
-        <v>1.56456983089447</v>
+        <v>0.9067106246948242</v>
       </c>
       <c r="F114" t="n">
-        <v>0.7375548481941223</v>
+        <v>-0.7039966583251953</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="n">
-        <v>-1.936428308486938</v>
+        <v>-1.988920211791992</v>
       </c>
       <c r="B115" t="n">
-        <v>-2.485184192657471</v>
+        <v>-2.747619867324829</v>
       </c>
       <c r="C115" t="n">
-        <v>-6.121378421783447</v>
+        <v>-5.220447063446045</v>
       </c>
       <c r="D115" t="n">
-        <v>-6.685981750488281</v>
+        <v>-7.254546165466309</v>
       </c>
       <c r="E115" t="n">
-        <v>2.043983459472656</v>
+        <v>1.31873893737793</v>
       </c>
       <c r="F115" t="n">
-        <v>1.238775968551636</v>
+        <v>-0.186859130859375</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="n">
-        <v>-2.944778919219971</v>
+        <v>-2.274977445602417</v>
       </c>
       <c r="B116" t="n">
-        <v>-3.337814331054688</v>
+        <v>-3.120268583297729</v>
       </c>
       <c r="C116" t="n">
-        <v>-6.858887672424316</v>
+        <v>-5.620524883270264</v>
       </c>
       <c r="D116" t="n">
-        <v>-7.448712348937988</v>
+        <v>-6.824784278869629</v>
       </c>
       <c r="E116" t="n">
-        <v>2.404435396194458</v>
+        <v>1.937914729118347</v>
       </c>
       <c r="F116" t="n">
-        <v>1.77715265750885</v>
+        <v>0.5819320678710938</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="n">
-        <v>-3.930285930633545</v>
+        <v>-3.10997486114502</v>
       </c>
       <c r="B117" t="n">
-        <v>-4.333394050598145</v>
+        <v>-3.300499439239502</v>
       </c>
       <c r="C117" t="n">
-        <v>-7.297873020172119</v>
+        <v>-5.800642013549805</v>
       </c>
       <c r="D117" t="n">
-        <v>-7.929330348968506</v>
+        <v>-6.905552387237549</v>
       </c>
       <c r="E117" t="n">
-        <v>2.779629707336426</v>
+        <v>2.459029197692871</v>
       </c>
       <c r="F117" t="n">
-        <v>2.384282827377319</v>
+        <v>1.31242847442627</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="n">
-        <v>-4.709954261779785</v>
+        <v>-3.46701455116272</v>
       </c>
       <c r="B118" t="n">
-        <v>-5.352410316467285</v>
+        <v>-3.108516931533813</v>
       </c>
       <c r="C118" t="n">
-        <v>-7.818780899047852</v>
+        <v>-5.717460155487061</v>
       </c>
       <c r="D118" t="n">
-        <v>-8.190995216369629</v>
+        <v>-6.410054683685303</v>
       </c>
       <c r="E118" t="n">
-        <v>3.209582090377808</v>
+        <v>2.922605752944946</v>
       </c>
       <c r="F118" t="n">
-        <v>3.020637273788452</v>
+        <v>2.307713508605957</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="n">
-        <v>-5.837986946105957</v>
+        <v>-3.997516393661499</v>
       </c>
       <c r="B119" t="n">
-        <v>-5.920758247375488</v>
+        <v>-3.527313232421875</v>
       </c>
       <c r="C119" t="n">
-        <v>-8.57174015045166</v>
+        <v>-5.910048961639404</v>
       </c>
       <c r="D119" t="n">
-        <v>-8.666455268859863</v>
+        <v>-6.220814228057861</v>
       </c>
       <c r="E119" t="n">
-        <v>3.723588466644287</v>
+        <v>3.585119247436523</v>
       </c>
       <c r="F119" t="n">
-        <v>3.678146123886108</v>
+        <v>3.052437543869019</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="n">
-        <v>-6.624618053436279</v>
+        <v>-4.767438888549805</v>
       </c>
       <c r="B120" t="n">
-        <v>-7.018637657165527</v>
+        <v>-3.929165124893188</v>
       </c>
       <c r="C120" t="n">
-        <v>-8.812744140625</v>
+        <v>-6.450595378875732</v>
       </c>
       <c r="D120" t="n">
-        <v>-8.946196556091309</v>
+        <v>-6.303682804107666</v>
       </c>
       <c r="E120" t="n">
-        <v>4.402156352996826</v>
+        <v>4.033804416656494</v>
       </c>
       <c r="F120" t="n">
-        <v>4.404021739959717</v>
+        <v>4.058377265930176</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="n">
-        <v>-7.630187034606934</v>
+        <v>-5.093635559082031</v>
       </c>
       <c r="B121" t="n">
-        <v>-7.655811786651611</v>
+        <v>-4.174069404602051</v>
       </c>
       <c r="C121" t="n">
-        <v>-9.183867454528809</v>
+        <v>-6.699326038360596</v>
       </c>
       <c r="D121" t="n">
-        <v>-9.354506492614746</v>
+        <v>-6.365056037902832</v>
       </c>
       <c r="E121" t="n">
-        <v>5.13803243637085</v>
+        <v>4.714656352996826</v>
       </c>
       <c r="F121" t="n">
-        <v>5.211372375488281</v>
+        <v>4.675564765930176</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="n">
-        <v>-8.574869155883789</v>
+        <v>-5.852052211761475</v>
       </c>
       <c r="B122" t="n">
-        <v>-8.22432804107666</v>
+        <v>-4.824973106384277</v>
       </c>
       <c r="C122" t="n">
-        <v>-9.557879447937012</v>
+        <v>-6.762172222137451</v>
       </c>
       <c r="D122" t="n">
-        <v>-9.377297401428223</v>
+        <v>-6.4757399559021</v>
       </c>
       <c r="E122" t="n">
-        <v>5.915995121002197</v>
+        <v>5.310141563415527</v>
       </c>
       <c r="F122" t="n">
-        <v>6.041228294372559</v>
+        <v>5.249570846557617</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="n">
-        <v>-9.454105377197266</v>
+        <v>-6.385677337646484</v>
       </c>
       <c r="B123" t="n">
-        <v>-9.114285469055176</v>
+        <v>-4.840495109558105</v>
       </c>
       <c r="C123" t="n">
-        <v>-9.7501220703125</v>
+        <v>-7.639784336090088</v>
       </c>
       <c r="D123" t="n">
-        <v>-9.473273277282715</v>
+        <v>-6.657272338867188</v>
       </c>
       <c r="E123" t="n">
-        <v>6.563271522521973</v>
+        <v>5.949691295623779</v>
       </c>
       <c r="F123" t="n">
-        <v>6.725963115692139</v>
+        <v>5.987610340118408</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="n">
-        <v>-10.22557926177979</v>
+        <v>-7.225673675537109</v>
       </c>
       <c r="B124" t="n">
-        <v>-9.875481605529785</v>
+        <v>-5.530809879302979</v>
       </c>
       <c r="C124" t="n">
-        <v>-9.758657455444336</v>
+        <v>-7.869004249572754</v>
       </c>
       <c r="D124" t="n">
-        <v>-9.01439380645752</v>
+        <v>-6.955989837646484</v>
       </c>
       <c r="E124" t="n">
-        <v>7.223663806915283</v>
+        <v>6.78388500213623</v>
       </c>
       <c r="F124" t="n">
-        <v>7.38458251953125</v>
+        <v>6.601810455322266</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="n">
-        <v>-10.9914722442627</v>
+        <v>-8.216239929199219</v>
       </c>
       <c r="B125" t="n">
-        <v>-10.68941783905029</v>
+        <v>-6.53462553024292</v>
       </c>
       <c r="C125" t="n">
-        <v>-9.261701583862305</v>
+        <v>-8.572845458984375</v>
       </c>
       <c r="D125" t="n">
-        <v>-9.088547706604004</v>
+        <v>-7.542657852172852</v>
       </c>
       <c r="E125" t="n">
-        <v>7.7504563331604</v>
+        <v>7.213222980499268</v>
       </c>
       <c r="F125" t="n">
-        <v>7.904505729675293</v>
+        <v>7.067256450653076</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="n">
-        <v>-11.71611499786377</v>
+        <v>-8.983822822570801</v>
       </c>
       <c r="B126" t="n">
-        <v>-11.37511920928955</v>
+        <v>-7.369949340820312</v>
       </c>
       <c r="C126" t="n">
-        <v>-9.003322601318359</v>
+        <v>-8.620521545410156</v>
       </c>
       <c r="D126" t="n">
-        <v>-8.65196704864502</v>
+        <v>-7.713476657867432</v>
       </c>
       <c r="E126" t="n">
-        <v>8.113224029541016</v>
+        <v>7.079204559326172</v>
       </c>
       <c r="F126" t="n">
-        <v>8.177871704101562</v>
+        <v>7.372494697570801</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="n">
-        <v>-12.37242412567139</v>
+        <v>-10.03976440429688</v>
       </c>
       <c r="B127" t="n">
-        <v>-12.09536170959473</v>
+        <v>-8.418342590332031</v>
       </c>
       <c r="C127" t="n">
-        <v>-8.201605796813965</v>
+        <v>-8.981508255004883</v>
       </c>
       <c r="D127" t="n">
-        <v>-7.875414371490479</v>
+        <v>-8.089795112609863</v>
       </c>
       <c r="E127" t="n">
-        <v>7.984458923339844</v>
+        <v>7.162223815917969</v>
       </c>
       <c r="F127" t="n">
-        <v>8.129729270935059</v>
+        <v>7.300601959228516</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="n">
-        <v>-12.83315467834473</v>
+        <v>-10.9825382232666</v>
       </c>
       <c r="B128" t="n">
-        <v>-12.58664417266846</v>
+        <v>-9.490296363830566</v>
       </c>
       <c r="C128" t="n">
-        <v>-7.19754695892334</v>
+        <v>-9.217219352722168</v>
       </c>
       <c r="D128" t="n">
-        <v>-6.691993713378906</v>
+        <v>-8.061253547668457</v>
       </c>
       <c r="E128" t="n">
-        <v>7.024336814880371</v>
+        <v>7.317312240600586</v>
       </c>
       <c r="F128" t="n">
-        <v>7.179031848907471</v>
+        <v>7.530791282653809</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="n">
-        <v>-13.03341388702393</v>
+        <v>-11.97616863250732</v>
       </c>
       <c r="B129" t="n">
-        <v>-12.61598682403564</v>
+        <v>-10.46412754058838</v>
       </c>
       <c r="C129" t="n">
-        <v>-5.729089736938477</v>
+        <v>-8.968140602111816</v>
       </c>
       <c r="D129" t="n">
-        <v>-5.053791046142578</v>
+        <v>-8.261430740356445</v>
       </c>
       <c r="E129" t="n">
-        <v>5.115408420562744</v>
+        <v>6.529848098754883</v>
       </c>
       <c r="F129" t="n">
-        <v>4.998348712921143</v>
+        <v>8.118852615356445</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="n">
-        <v>-13.1130313873291</v>
+        <v>-12.58033180236816</v>
       </c>
       <c r="B130" t="n">
-        <v>-12.54392242431641</v>
+        <v>-11.19315910339355</v>
       </c>
       <c r="C130" t="n">
-        <v>-3.744712114334106</v>
+        <v>-8.455181121826172</v>
       </c>
       <c r="D130" t="n">
-        <v>-2.829217672348022</v>
+        <v>-8.015781402587891</v>
       </c>
       <c r="E130" t="n">
-        <v>1.818936705589294</v>
+        <v>6.002820014953613</v>
       </c>
       <c r="F130" t="n">
-        <v>1.587756514549255</v>
+        <v>7.840164661407471</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="n">
-        <v>-12.48825836181641</v>
+        <v>-12.66497039794922</v>
       </c>
       <c r="B131" t="n">
-        <v>-11.91545867919922</v>
+        <v>-11.86053562164307</v>
       </c>
       <c r="C131" t="n">
-        <v>-1.184409022331238</v>
+        <v>-7.467915058135986</v>
       </c>
       <c r="D131" t="n">
-        <v>0.03349379450082779</v>
+        <v>-7.048551559448242</v>
       </c>
       <c r="E131" t="n">
-        <v>-2.790048360824585</v>
+        <v>4.801398754119873</v>
       </c>
       <c r="F131" t="n">
-        <v>-2.768085479736328</v>
+        <v>7.125147342681885</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="n">
-        <v>-11.54353713989258</v>
+        <v>-12.50095462799072</v>
       </c>
       <c r="B132" t="n">
-        <v>-10.63171195983887</v>
+        <v>-12.14614200592041</v>
       </c>
       <c r="C132" t="n">
-        <v>1.78886079788208</v>
+        <v>-5.832375049591064</v>
       </c>
       <c r="D132" t="n">
-        <v>3.559327125549316</v>
+        <v>-6.134440422058105</v>
       </c>
       <c r="E132" t="n">
-        <v>-7.654657363891602</v>
+        <v>2.527451276779175</v>
       </c>
       <c r="F132" t="n">
-        <v>-6.958655834197998</v>
+        <v>4.232646465301514</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="n">
-        <v>-9.948068618774414</v>
+        <v>-11.72093868255615</v>
       </c>
       <c r="B133" t="n">
-        <v>-9.453083992004395</v>
+        <v>-11.81262397766113</v>
       </c>
       <c r="C133" t="n">
-        <v>5.300902843475342</v>
+        <v>-2.815008878707886</v>
       </c>
       <c r="D133" t="n">
-        <v>7.391364097595215</v>
+        <v>-3.912145137786865</v>
       </c>
       <c r="E133" t="n">
-        <v>-11.52737808227539</v>
+        <v>-1.051743388175964</v>
       </c>
       <c r="F133" t="n">
-        <v>-9.753097534179688</v>
+        <v>-0.2886082530021667</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="n">
-        <v>-8.347957611083984</v>
+        <v>-10.56693458557129</v>
       </c>
       <c r="B134" t="n">
-        <v>-7.614970207214355</v>
+        <v>-10.94224739074707</v>
       </c>
       <c r="C134" t="n">
-        <v>8.723441123962402</v>
+        <v>0.3239709138870239</v>
       </c>
       <c r="D134" t="n">
-        <v>11.15609931945801</v>
+        <v>-1.492213249206543</v>
       </c>
       <c r="E134" t="n">
-        <v>-13.46087646484375</v>
+        <v>-5.433252811431885</v>
       </c>
       <c r="F134" t="n">
-        <v>-10.65756702423096</v>
+        <v>-5.806396484375</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="n">
-        <v>-6.433454036712646</v>
+        <v>-8.589289665222168</v>
       </c>
       <c r="B135" t="n">
-        <v>-5.535637855529785</v>
+        <v>-9.309226036071777</v>
       </c>
       <c r="C135" t="n">
-        <v>12.24293804168701</v>
+        <v>4.074688911437988</v>
       </c>
       <c r="D135" t="n">
-        <v>14.55960559844971</v>
+        <v>2.163190841674805</v>
       </c>
       <c r="E135" t="n">
-        <v>-12.82167530059814</v>
+        <v>-9.619072914123535</v>
       </c>
       <c r="F135" t="n">
-        <v>-9.750270843505859</v>
+        <v>-9.952409744262695</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="n">
-        <v>-4.027499675750732</v>
+        <v>-6.296164989471436</v>
       </c>
       <c r="B136" t="n">
-        <v>-3.283735990524292</v>
+        <v>-7.352311611175537</v>
       </c>
       <c r="C136" t="n">
-        <v>15.25479602813721</v>
+        <v>8.801159858703613</v>
       </c>
       <c r="D136" t="n">
-        <v>16.95648002624512</v>
+        <v>6.867287635803223</v>
       </c>
       <c r="E136" t="n">
-        <v>-10.7868013381958</v>
+        <v>-12.11166095733643</v>
       </c>
       <c r="F136" t="n">
-        <v>-7.814881801605225</v>
+        <v>-12.63082790374756</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="n">
-        <v>-1.723808526992798</v>
+        <v>-4.041685581207275</v>
       </c>
       <c r="B137" t="n">
-        <v>-1.197805047035217</v>
+        <v>-5.473484039306641</v>
       </c>
       <c r="C137" t="n">
-        <v>17.62863540649414</v>
+        <v>13.171142578125</v>
       </c>
       <c r="D137" t="n">
-        <v>18.83020210266113</v>
+        <v>11.06875801086426</v>
       </c>
       <c r="E137" t="n">
-        <v>-7.825162410736084</v>
+        <v>-12.34673023223877</v>
       </c>
       <c r="F137" t="n">
-        <v>-5.494127750396729</v>
+        <v>-13.05557918548584</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="n">
-        <v>0.5124186873435974</v>
+        <v>-1.422199845314026</v>
       </c>
       <c r="B138" t="n">
-        <v>0.9849368333816528</v>
+        <v>-3.216379404067993</v>
       </c>
       <c r="C138" t="n">
-        <v>19.17196846008301</v>
+        <v>16.52648544311523</v>
       </c>
       <c r="D138" t="n">
-        <v>19.42874908447266</v>
+        <v>15.25859928131104</v>
       </c>
       <c r="E138" t="n">
-        <v>-4.913748741149902</v>
+        <v>-10.51496315002441</v>
       </c>
       <c r="F138" t="n">
-        <v>-3.134890794754028</v>
+        <v>-10.99656581878662</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="n">
-        <v>2.574419736862183</v>
+        <v>0.9636746048927307</v>
       </c>
       <c r="B139" t="n">
-        <v>2.79196572303772</v>
+        <v>-0.7899408340454102</v>
       </c>
       <c r="C139" t="n">
-        <v>19.40086364746094</v>
+        <v>19.62994575500488</v>
       </c>
       <c r="D139" t="n">
-        <v>19.24522399902344</v>
+        <v>18.75659561157227</v>
       </c>
       <c r="E139" t="n">
-        <v>-2.304523468017578</v>
+        <v>-7.650217056274414</v>
       </c>
       <c r="F139" t="n">
-        <v>-0.9939092397689819</v>
+        <v>-8.300108909606934</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="n">
-        <v>4.258847713470459</v>
+        <v>3.430325269699097</v>
       </c>
       <c r="B140" t="n">
-        <v>4.413581371307373</v>
+        <v>1.183633804321289</v>
       </c>
       <c r="C140" t="n">
-        <v>18.61255073547363</v>
+        <v>20.49311447143555</v>
       </c>
       <c r="D140" t="n">
-        <v>17.77703857421875</v>
+        <v>20.97600364685059</v>
       </c>
       <c r="E140" t="n">
-        <v>-0.1221169084310532</v>
+        <v>-4.814517021179199</v>
       </c>
       <c r="F140" t="n">
-        <v>0.8363308906555176</v>
+        <v>-5.643204689025879</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="n">
-        <v>5.645462512969971</v>
+        <v>5.082632064819336</v>
       </c>
       <c r="B141" t="n">
-        <v>5.655068397521973</v>
+        <v>2.959390163421631</v>
       </c>
       <c r="C141" t="n">
-        <v>16.88645362854004</v>
+        <v>20.3155689239502</v>
       </c>
       <c r="D141" t="n">
-        <v>15.741286277771</v>
+        <v>21.26410865783691</v>
       </c>
       <c r="E141" t="n">
-        <v>1.729020953178406</v>
+        <v>-2.439407348632812</v>
       </c>
       <c r="F141" t="n">
-        <v>2.352747440338135</v>
+        <v>-3.379985094070435</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="n">
-        <v>6.592623233795166</v>
+        <v>6.667520999908447</v>
       </c>
       <c r="B142" t="n">
-        <v>6.642611980438232</v>
+        <v>4.412851333618164</v>
       </c>
       <c r="C142" t="n">
-        <v>14.56115531921387</v>
+        <v>19.4312744140625</v>
       </c>
       <c r="D142" t="n">
-        <v>13.22180271148682</v>
+        <v>20.70848846435547</v>
       </c>
       <c r="E142" t="n">
-        <v>3.00601601600647</v>
+        <v>-0.8716175556182861</v>
       </c>
       <c r="F142" t="n">
-        <v>3.316272497177124</v>
+        <v>-1.348027348518372</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="n">
-        <v>7.403218269348145</v>
+        <v>7.819127082824707</v>
       </c>
       <c r="B143" t="n">
-        <v>7.409948348999023</v>
+        <v>5.375615119934082</v>
       </c>
       <c r="C143" t="n">
-        <v>11.26595973968506</v>
+        <v>17.54151344299316</v>
       </c>
       <c r="D143" t="n">
-        <v>10.38185977935791</v>
+        <v>19.15780448913574</v>
       </c>
       <c r="E143" t="n">
-        <v>4.061250686645508</v>
+        <v>0.4604735374450684</v>
       </c>
       <c r="F143" t="n">
-        <v>3.836980819702148</v>
+        <v>0.5430789589881897</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="n">
-        <v>7.699334144592285</v>
+        <v>8.878837585449219</v>
       </c>
       <c r="B144" t="n">
-        <v>7.908707618713379</v>
+        <v>6.349178314208984</v>
       </c>
       <c r="C144" t="n">
-        <v>8.072004318237305</v>
+        <v>14.86337566375732</v>
       </c>
       <c r="D144" t="n">
-        <v>7.163369178771973</v>
+        <v>16.71780776977539</v>
       </c>
       <c r="E144" t="n">
-        <v>4.375091552734375</v>
+        <v>1.572430729866028</v>
       </c>
       <c r="F144" t="n">
-        <v>3.814721822738647</v>
+        <v>1.797526121139526</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="n">
-        <v>8.025651931762695</v>
+        <v>9.148676872253418</v>
       </c>
       <c r="B145" t="n">
-        <v>8.051361083984375</v>
+        <v>7.038180351257324</v>
       </c>
       <c r="C145" t="n">
-        <v>4.163480758666992</v>
+        <v>11.73222351074219</v>
       </c>
       <c r="D145" t="n">
-        <v>3.620583534240723</v>
+        <v>13.64329624176025</v>
       </c>
       <c r="E145" t="n">
-        <v>4.229324817657471</v>
+        <v>1.837999105453491</v>
       </c>
       <c r="F145" t="n">
-        <v>3.362793445587158</v>
+        <v>2.774602651596069</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="n">
-        <v>8.100385665893555</v>
+        <v>9.625536918640137</v>
       </c>
       <c r="B146" t="n">
-        <v>8.29179573059082</v>
+        <v>7.71294116973877</v>
       </c>
       <c r="C146" t="n">
-        <v>0.1418511867523193</v>
+        <v>8.510493278503418</v>
       </c>
       <c r="D146" t="n">
-        <v>-0.09286745637655258</v>
+        <v>9.795374870300293</v>
       </c>
       <c r="E146" t="n">
-        <v>3.735076904296875</v>
+        <v>1.607122898101807</v>
       </c>
       <c r="F146" t="n">
-        <v>2.782228469848633</v>
+        <v>2.767966270446777</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="n">
-        <v>8.044015884399414</v>
+        <v>9.962818145751953</v>
       </c>
       <c r="B147" t="n">
-        <v>8.404323577880859</v>
+        <v>8.175003051757812</v>
       </c>
       <c r="C147" t="n">
-        <v>-3.581450939178467</v>
+        <v>4.200452327728271</v>
       </c>
       <c r="D147" t="n">
-        <v>-3.566053628921509</v>
+        <v>6.295793533325195</v>
       </c>
       <c r="E147" t="n">
-        <v>3.019253015518188</v>
+        <v>0.6989452838897705</v>
       </c>
       <c r="F147" t="n">
-        <v>2.179181575775146</v>
+        <v>2.056798219680786</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="n">
-        <v>7.975326538085938</v>
+        <v>10.07049465179443</v>
       </c>
       <c r="B148" t="n">
-        <v>8.194057464599609</v>
+        <v>8.377326965332031</v>
       </c>
       <c r="C148" t="n">
-        <v>-6.621787071228027</v>
+        <v>1.087139844894409</v>
       </c>
       <c r="D148" t="n">
-        <v>-6.486339092254639</v>
+        <v>2.305474042892456</v>
       </c>
       <c r="E148" t="n">
-        <v>2.378241300582886</v>
+        <v>-0.6801592111587524</v>
       </c>
       <c r="F148" t="n">
-        <v>1.827401518821716</v>
+        <v>1.076843619346619</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="n">
-        <v>7.950470924377441</v>
+        <v>10.1933536529541</v>
       </c>
       <c r="B149" t="n">
-        <v>8.116253852844238</v>
+        <v>8.272195816040039</v>
       </c>
       <c r="C149" t="n">
-        <v>-9.023767471313477</v>
+        <v>-3.039076089859009</v>
       </c>
       <c r="D149" t="n">
-        <v>-8.539970397949219</v>
+        <v>-1.22209107875824</v>
       </c>
       <c r="E149" t="n">
-        <v>1.993754267692566</v>
+        <v>-2.039364814758301</v>
       </c>
       <c r="F149" t="n">
-        <v>1.739247679710388</v>
+        <v>0.534055769443512</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="n">
-        <v>7.910507202148438</v>
+        <v>10.79259777069092</v>
       </c>
       <c r="B150" t="n">
-        <v>7.895512580871582</v>
+        <v>7.404532432556152</v>
       </c>
       <c r="C150" t="n">
-        <v>-10.21883964538574</v>
+        <v>-5.994595527648926</v>
       </c>
       <c r="D150" t="n">
-        <v>-10.03089904785156</v>
+        <v>-4.741860866546631</v>
       </c>
       <c r="E150" t="n">
-        <v>1.887233972549438</v>
+        <v>-2.966300010681152</v>
       </c>
       <c r="F150" t="n">
-        <v>1.765763521194458</v>
+        <v>0.2838154137134552</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="n">
-        <v>7.95334529876709</v>
+        <v>11.17437171936035</v>
       </c>
       <c r="B151" t="n">
-        <v>7.951469421386719</v>
+        <v>6.937188148498535</v>
       </c>
       <c r="C151" t="n">
-        <v>-10.54945278167725</v>
+        <v>-8.336470603942871</v>
       </c>
       <c r="D151" t="n">
-        <v>-9.969066619873047</v>
+        <v>-8.332809448242188</v>
       </c>
       <c r="E151" t="n">
-        <v>1.631396651268005</v>
+        <v>-3.105288743972778</v>
       </c>
       <c r="F151" t="n">
-        <v>1.428979754447937</v>
+        <v>0.3474847078323364</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="n">
-        <v>7.757522583007812</v>
+        <v>11.10702991485596</v>
       </c>
       <c r="B152" t="n">
-        <v>7.562152862548828</v>
+        <v>6.12435245513916</v>
       </c>
       <c r="C152" t="n">
-        <v>-9.984113693237305</v>
+        <v>-10.0305290222168</v>
       </c>
       <c r="D152" t="n">
-        <v>-9.975639343261719</v>
+        <v>-10.52295589447021</v>
       </c>
       <c r="E152" t="n">
-        <v>0.8738237619400024</v>
+        <v>-2.941811800003052</v>
       </c>
       <c r="F152" t="n">
-        <v>0.5006147027015686</v>
+        <v>0.3030308783054352</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="n">
-        <v>7.430872917175293</v>
+        <v>9.896920204162598</v>
       </c>
       <c r="B153" t="n">
-        <v>7.102736473083496</v>
+        <v>5.599174499511719</v>
       </c>
       <c r="C153" t="n">
-        <v>-9.026047706604004</v>
+        <v>-10.41578483581543</v>
       </c>
       <c r="D153" t="n">
-        <v>-9.251969337463379</v>
+        <v>-11.85253143310547</v>
       </c>
       <c r="E153" t="n">
-        <v>-0.3631481826305389</v>
+        <v>-2.076783895492554</v>
       </c>
       <c r="F153" t="n">
-        <v>-0.9343900680541992</v>
+        <v>0.2364612072706223</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="n">
-        <v>6.830649852752686</v>
+        <v>7.147123336791992</v>
       </c>
       <c r="B154" t="n">
-        <v>6.574405193328857</v>
+        <v>5.86531400680542</v>
       </c>
       <c r="C154" t="n">
-        <v>-8.209778785705566</v>
+        <v>-10.02194690704346</v>
       </c>
       <c r="D154" t="n">
-        <v>-8.737204551696777</v>
+        <v>-11.41172885894775</v>
       </c>
       <c r="E154" t="n">
-        <v>-2.066643238067627</v>
+        <v>-1.072892785072327</v>
       </c>
       <c r="F154" t="n">
-        <v>-2.542752981185913</v>
+        <v>0.2102609425783157</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="n">
-        <v>7.813154220581055</v>
+        <v>6.980368614196777</v>
       </c>
       <c r="B155" t="n">
-        <v>7.743972778320312</v>
+        <v>5.004226684570312</v>
       </c>
       <c r="C155" t="n">
-        <v>-8.098304748535156</v>
+        <v>-7.153735637664795</v>
       </c>
       <c r="D155" t="n">
-        <v>-7.522522926330566</v>
+        <v>-6.470138549804688</v>
       </c>
       <c r="E155" t="n">
-        <v>-3.187449216842651</v>
+        <v>-2.227246284484863</v>
       </c>
       <c r="F155" t="n">
-        <v>-3.435926675796509</v>
+        <v>-2.795366525650024</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="n">
-        <v>8.200431823730469</v>
+        <v>6.669603824615479</v>
       </c>
       <c r="B156" t="n">
-        <v>7.989850044250488</v>
+        <v>3.735443115234375</v>
       </c>
       <c r="C156" t="n">
-        <v>-7.45356559753418</v>
+        <v>-4.099438190460205</v>
       </c>
       <c r="D156" t="n">
-        <v>-7.046400547027588</v>
+        <v>-5.949134349822998</v>
       </c>
       <c r="E156" t="n">
-        <v>-4.558598041534424</v>
+        <v>-1.782862067222595</v>
       </c>
       <c r="F156" t="n">
-        <v>-4.814567565917969</v>
+        <v>-3.827798843383789</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="n">
-        <v>7.922340393066406</v>
+        <v>6.233388423919678</v>
       </c>
       <c r="B157" t="n">
-        <v>7.730632781982422</v>
+        <v>2.93498420715332</v>
       </c>
       <c r="C157" t="n">
-        <v>-6.411300182342529</v>
+        <v>-2.153654336929321</v>
       </c>
       <c r="D157" t="n">
-        <v>-6.078438758850098</v>
+        <v>-6.264064311981201</v>
       </c>
       <c r="E157" t="n">
-        <v>-5.202874660491943</v>
+        <v>-1.502114772796631</v>
       </c>
       <c r="F157" t="n">
-        <v>-5.468449592590332</v>
+        <v>-4.545175075531006</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="n">
-        <v>7.125180244445801</v>
+        <v>5.441729545593262</v>
       </c>
       <c r="B158" t="n">
-        <v>6.869664192199707</v>
+        <v>2.146125555038452</v>
       </c>
       <c r="C158" t="n">
-        <v>-4.985883235931396</v>
+        <v>-2.302695512771606</v>
       </c>
       <c r="D158" t="n">
-        <v>-4.925725936889648</v>
+        <v>-6.695189476013184</v>
       </c>
       <c r="E158" t="n">
-        <v>-4.939538955688477</v>
+        <v>-1.243751049041748</v>
       </c>
       <c r="F158" t="n">
-        <v>-5.376684188842773</v>
+        <v>-4.100780963897705</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="n">
-        <v>6.120391368865967</v>
+        <v>4.38067626953125</v>
       </c>
       <c r="B159" t="n">
-        <v>5.861182689666748</v>
+        <v>0.9808324575424194</v>
       </c>
       <c r="C159" t="n">
-        <v>-4.050557136535645</v>
+        <v>-2.930293798446655</v>
       </c>
       <c r="D159" t="n">
-        <v>-4.080047607421875</v>
+        <v>-6.413666725158691</v>
       </c>
       <c r="E159" t="n">
-        <v>-3.882623910903931</v>
+        <v>-1.025059223175049</v>
       </c>
       <c r="F159" t="n">
-        <v>-4.488245964050293</v>
+        <v>-3.770146369934082</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="n">
-        <v>5.157683372497559</v>
+        <v>3.242888212203979</v>
       </c>
       <c r="B160" t="n">
-        <v>4.816268920898438</v>
+        <v>0.4021666049957275</v>
       </c>
       <c r="C160" t="n">
-        <v>-3.627856254577637</v>
+        <v>-3.313901901245117</v>
       </c>
       <c r="D160" t="n">
-        <v>-3.80872917175293</v>
+        <v>-6.404505252838135</v>
       </c>
       <c r="E160" t="n">
-        <v>-2.675757646560669</v>
+        <v>-1.128883957862854</v>
       </c>
       <c r="F160" t="n">
-        <v>-3.282890558242798</v>
+        <v>-3.263489007949829</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="n">
-        <v>3.969216585159302</v>
+        <v>1.794355869293213</v>
       </c>
       <c r="B161" t="n">
-        <v>3.733268260955811</v>
+        <v>-0.08279965817928314</v>
       </c>
       <c r="C161" t="n">
-        <v>-3.720706462860107</v>
+        <v>-3.756663084030151</v>
       </c>
       <c r="D161" t="n">
-        <v>-4.010987281799316</v>
+        <v>-6.573211669921875</v>
       </c>
       <c r="E161" t="n">
-        <v>-1.607259273529053</v>
+        <v>-0.854814887046814</v>
       </c>
       <c r="F161" t="n">
-        <v>-2.057445526123047</v>
+        <v>-2.701191902160645</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="n">
-        <v>2.835062026977539</v>
+        <v>1.058885455131531</v>
       </c>
       <c r="B162" t="n">
-        <v>2.444862127304077</v>
+        <v>-1.057407379150391</v>
       </c>
       <c r="C162" t="n">
-        <v>-4.093731880187988</v>
+        <v>-4.355574131011963</v>
       </c>
       <c r="D162" t="n">
-        <v>-4.349464416503906</v>
+        <v>-7.005549430847168</v>
       </c>
       <c r="E162" t="n">
-        <v>-0.7265202403068542</v>
+        <v>-0.6203433275222778</v>
       </c>
       <c r="F162" t="n">
-        <v>-1.112662672996521</v>
+        <v>-2.138222217559814</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="n">
-        <v>1.548995018005371</v>
+        <v>0.2832735478878021</v>
       </c>
       <c r="B163" t="n">
-        <v>1.130499601364136</v>
+        <v>-1.618935227394104</v>
       </c>
       <c r="C163" t="n">
-        <v>-4.591100692749023</v>
+        <v>-4.474424839019775</v>
       </c>
       <c r="D163" t="n">
-        <v>-4.820996284484863</v>
+        <v>-6.841745376586914</v>
       </c>
       <c r="E163" t="n">
-        <v>-0.0006739163072779775</v>
+        <v>-0.03607220575213432</v>
       </c>
       <c r="F163" t="n">
-        <v>-0.3337773084640503</v>
+        <v>-1.672651290893555</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="n">
-        <v>0.2947165668010712</v>
+        <v>-0.2317741811275482</v>
       </c>
       <c r="B164" t="n">
-        <v>-0.1101735085248947</v>
+        <v>-2.009445667266846</v>
       </c>
       <c r="C164" t="n">
-        <v>-5.147825241088867</v>
+        <v>-5.089148044586182</v>
       </c>
       <c r="D164" t="n">
-        <v>-5.397372722625732</v>
+        <v>-6.863450050354004</v>
       </c>
       <c r="E164" t="n">
-        <v>0.6719072461128235</v>
+        <v>0.3967683017253876</v>
       </c>
       <c r="F164" t="n">
-        <v>0.3116255104541779</v>
+        <v>-0.9853850603103638</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="n">
-        <v>-0.9572376608848572</v>
+        <v>-0.9210702180862427</v>
       </c>
       <c r="B165" t="n">
-        <v>-1.324526190757751</v>
+        <v>-2.667642593383789</v>
       </c>
       <c r="C165" t="n">
-        <v>-5.798722743988037</v>
+        <v>-4.93960428237915</v>
       </c>
       <c r="D165" t="n">
-        <v>-6.271989822387695</v>
+        <v>-7.313900470733643</v>
       </c>
       <c r="E165" t="n">
-        <v>1.267824172973633</v>
+        <v>0.9728145003318787</v>
       </c>
       <c r="F165" t="n">
-        <v>0.9627560973167419</v>
+        <v>-0.5733289122581482</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="n">
-        <v>-1.953007817268372</v>
+        <v>-2.131214141845703</v>
       </c>
       <c r="B166" t="n">
-        <v>-2.446566104888916</v>
+        <v>-2.790162801742554</v>
       </c>
       <c r="C166" t="n">
-        <v>-6.508435726165771</v>
+        <v>-5.326972007751465</v>
       </c>
       <c r="D166" t="n">
-        <v>-6.913876056671143</v>
+        <v>-7.174994945526123</v>
       </c>
       <c r="E166" t="n">
-        <v>1.771217703819275</v>
+        <v>1.354963064193726</v>
       </c>
       <c r="F166" t="n">
-        <v>1.481070041656494</v>
+        <v>-0.06343120336532593</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="n">
-        <v>-3.035345077514648</v>
+        <v>-2.517119884490967</v>
       </c>
       <c r="B167" t="n">
-        <v>-3.359088182449341</v>
+        <v>-3.194644212722778</v>
       </c>
       <c r="C167" t="n">
-        <v>-7.272557735443115</v>
+        <v>-5.833410739898682</v>
       </c>
       <c r="D167" t="n">
-        <v>-7.653442859649658</v>
+        <v>-6.734015941619873</v>
       </c>
       <c r="E167" t="n">
-        <v>2.171423435211182</v>
+        <v>1.992114305496216</v>
       </c>
       <c r="F167" t="n">
-        <v>2.041689395904541</v>
+        <v>0.6650902032852173</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="n">
-        <v>-4.081266403198242</v>
+        <v>-3.409848928451538</v>
       </c>
       <c r="B168" t="n">
-        <v>-4.416251182556152</v>
+        <v>-3.510137557983398</v>
       </c>
       <c r="C168" t="n">
-        <v>-7.798862457275391</v>
+        <v>-6.105000495910645</v>
       </c>
       <c r="D168" t="n">
-        <v>-8.155086517333984</v>
+        <v>-6.930589199066162</v>
       </c>
       <c r="E168" t="n">
-        <v>2.588392019271851</v>
+        <v>2.491790294647217</v>
       </c>
       <c r="F168" t="n">
-        <v>2.658198356628418</v>
+        <v>1.330063939094543</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="n">
-        <v>-4.975781917572021</v>
+        <v>-3.766331911087036</v>
       </c>
       <c r="B169" t="n">
-        <v>-5.469915866851807</v>
+        <v>-3.389770746231079</v>
       </c>
       <c r="C169" t="n">
-        <v>-8.365861892700195</v>
+        <v>-5.997808456420898</v>
       </c>
       <c r="D169" t="n">
-        <v>-8.470330238342285</v>
+        <v>-6.523405075073242</v>
       </c>
       <c r="E169" t="n">
-        <v>3.085445642471313</v>
+        <v>2.94294285774231</v>
       </c>
       <c r="F169" t="n">
-        <v>3.332324743270874</v>
+        <v>2.256345272064209</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="n">
-        <v>-6.138775825500488</v>
+        <v>-4.372649192810059</v>
       </c>
       <c r="B170" t="n">
-        <v>-6.157020092010498</v>
+        <v>-3.82317066192627</v>
       </c>
       <c r="C170" t="n">
-        <v>-9.100695610046387</v>
+        <v>-6.281770706176758</v>
       </c>
       <c r="D170" t="n">
-        <v>-8.97929573059082</v>
+        <v>-6.363189697265625</v>
       </c>
       <c r="E170" t="n">
-        <v>3.69695258140564</v>
+        <v>3.630781650543213</v>
       </c>
       <c r="F170" t="n">
-        <v>4.041587352752686</v>
+        <v>3.009744882583618</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="n">
-        <v>-7.055164337158203</v>
+        <v>-5.178515911102295</v>
       </c>
       <c r="B171" t="n">
-        <v>-7.295246124267578</v>
+        <v>-4.303952217102051</v>
       </c>
       <c r="C171" t="n">
-        <v>-9.442177772521973</v>
+        <v>-6.879997730255127</v>
       </c>
       <c r="D171" t="n">
-        <v>-9.286565780639648</v>
+        <v>-6.508501052856445</v>
       </c>
       <c r="E171" t="n">
-        <v>4.485023975372314</v>
+        <v>4.063047885894775</v>
       </c>
       <c r="F171" t="n">
-        <v>4.809219837188721</v>
+        <v>3.963422536849976</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="n">
-        <v>-8.117385864257812</v>
+        <v>-5.408543586730957</v>
       </c>
       <c r="B172" t="n">
-        <v>-8.061347961425781</v>
+        <v>-4.580109119415283</v>
       </c>
       <c r="C172" t="n">
-        <v>-9.844573974609375</v>
+        <v>-7.186842918395996</v>
       </c>
       <c r="D172" t="n">
-        <v>-9.710960388183594</v>
+        <v>-6.632887840270996</v>
       </c>
       <c r="E172" t="n">
-        <v>5.314005851745605</v>
+        <v>4.709184646606445</v>
       </c>
       <c r="F172" t="n">
-        <v>5.631858825683594</v>
+        <v>4.557499885559082</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="n">
-        <v>-9.126583099365234</v>
+        <v>-6.290136814117432</v>
       </c>
       <c r="B173" t="n">
-        <v>-8.865385055541992</v>
+        <v>-5.349754810333252</v>
       </c>
       <c r="C173" t="n">
-        <v>-10.22174263000488</v>
+        <v>-7.108339309692383</v>
       </c>
       <c r="D173" t="n">
-        <v>-9.845251083374023</v>
+        <v>-6.763908863067627</v>
       </c>
       <c r="E173" t="n">
-        <v>6.182851314544678</v>
+        <v>5.372885704040527</v>
       </c>
       <c r="F173" t="n">
-        <v>6.459372997283936</v>
+        <v>5.169987201690674</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="n">
-        <v>-10.03579616546631</v>
+        <v>-6.829705238342285</v>
       </c>
       <c r="B174" t="n">
-        <v>-9.757415771484375</v>
+        <v>-5.305856704711914</v>
       </c>
       <c r="C174" t="n">
-        <v>-10.40371417999268</v>
+        <v>-8.012415885925293</v>
       </c>
       <c r="D174" t="n">
-        <v>-9.969193458557129</v>
+        <v>-6.984150409698486</v>
       </c>
       <c r="E174" t="n">
-        <v>6.961400508880615</v>
+        <v>6.054567813873291</v>
       </c>
       <c r="F174" t="n">
-        <v>7.195092678070068</v>
+        <v>5.910000801086426</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="n">
-        <v>-10.85994625091553</v>
+        <v>-7.67420768737793</v>
       </c>
       <c r="B175" t="n">
-        <v>-10.61104393005371</v>
+        <v>-6.07236909866333</v>
       </c>
       <c r="C175" t="n">
-        <v>-10.39128684997559</v>
+        <v>-8.178722381591797</v>
       </c>
       <c r="D175" t="n">
-        <v>-9.611016273498535</v>
+        <v>-7.2048020362854</v>
       </c>
       <c r="E175" t="n">
-        <v>7.718329906463623</v>
+        <v>7.001781940460205</v>
       </c>
       <c r="F175" t="n">
-        <v>7.858054637908936</v>
+        <v>6.580722808837891</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="n">
-        <v>-11.67716503143311</v>
+        <v>-8.625611305236816</v>
       </c>
       <c r="B176" t="n">
-        <v>-11.4667387008667</v>
+        <v>-7.012478828430176</v>
       </c>
       <c r="C176" t="n">
-        <v>-9.979594230651855</v>
+        <v>-8.780667304992676</v>
       </c>
       <c r="D176" t="n">
-        <v>-9.692938804626465</v>
+        <v>-7.771538257598877</v>
       </c>
       <c r="E176" t="n">
-        <v>8.358880996704102</v>
+        <v>7.588140964508057</v>
       </c>
       <c r="F176" t="n">
-        <v>8.363553047180176</v>
+        <v>7.108588218688965</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="n">
-        <v>-12.45353221893311</v>
+        <v>-9.278241157531738</v>
       </c>
       <c r="B177" t="n">
-        <v>-12.22507858276367</v>
+        <v>-7.847651958465576</v>
       </c>
       <c r="C177" t="n">
-        <v>-9.595849990844727</v>
+        <v>-8.678657531738281</v>
       </c>
       <c r="D177" t="n">
-        <v>-9.225329399108887</v>
+        <v>-7.83869457244873</v>
       </c>
       <c r="E177" t="n">
-        <v>8.809420585632324</v>
+        <v>7.470540523529053</v>
       </c>
       <c r="F177" t="n">
-        <v>8.644851684570312</v>
+        <v>7.48145055770874</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="n">
-        <v>-13.15529537200928</v>
+        <v>-10.29511642456055</v>
       </c>
       <c r="B178" t="n">
-        <v>-12.97942733764648</v>
+        <v>-8.888690948486328</v>
       </c>
       <c r="C178" t="n">
-        <v>-8.766298294067383</v>
+        <v>-8.938906669616699</v>
       </c>
       <c r="D178" t="n">
-        <v>-8.423749923706055</v>
+        <v>-8.20384407043457</v>
       </c>
       <c r="E178" t="n">
-        <v>8.790938377380371</v>
+        <v>7.648087978363037</v>
       </c>
       <c r="F178" t="n">
-        <v>8.530595779418945</v>
+        <v>7.409889221191406</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="n">
-        <v>-13.70294189453125</v>
+        <v>-11.29840850830078</v>
       </c>
       <c r="B179" t="n">
-        <v>-13.51985931396484</v>
+        <v>-10.00503921508789</v>
       </c>
       <c r="C179" t="n">
-        <v>-7.672088146209717</v>
+        <v>-9.006890296936035</v>
       </c>
       <c r="D179" t="n">
-        <v>-7.202623844146729</v>
+        <v>-8.004703521728516</v>
       </c>
       <c r="E179" t="n">
-        <v>7.898667812347412</v>
+        <v>7.825274467468262</v>
       </c>
       <c r="F179" t="n">
-        <v>7.54448413848877</v>
+        <v>7.579625606536865</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="n">
-        <v>-13.91110324859619</v>
+        <v>-12.28884410858154</v>
       </c>
       <c r="B180" t="n">
-        <v>-13.61024951934814</v>
+        <v>-10.89487457275391</v>
       </c>
       <c r="C180" t="n">
-        <v>-6.115724086761475</v>
+        <v>-8.64189338684082</v>
       </c>
       <c r="D180" t="n">
-        <v>-5.520925998687744</v>
+        <v>-8.24576473236084</v>
       </c>
       <c r="E180" t="n">
-        <v>5.887160301208496</v>
+        <v>6.876692295074463</v>
       </c>
       <c r="F180" t="n">
-        <v>5.321905136108398</v>
+        <v>8.142946243286133</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="n">
-        <v>-13.97365665435791</v>
+        <v>-12.85606861114502</v>
       </c>
       <c r="B181" t="n">
-        <v>-13.48293018341064</v>
+        <v>-11.55646514892578</v>
       </c>
       <c r="C181" t="n">
-        <v>-4.027486801147461</v>
+        <v>-8.143010139465332</v>
       </c>
       <c r="D181" t="n">
-        <v>-3.253233194351196</v>
+        <v>-8.034177780151367</v>
       </c>
       <c r="E181" t="n">
-        <v>2.364431142807007</v>
+        <v>6.087427616119385</v>
       </c>
       <c r="F181" t="n">
-        <v>1.732303500175476</v>
+        <v>7.756747722625732</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="n">
-        <v>-13.34439373016357</v>
+        <v>-12.90018081665039</v>
       </c>
       <c r="B182" t="n">
-        <v>-12.86685848236084</v>
+        <v>-12.16386222839355</v>
       </c>
       <c r="C182" t="n">
-        <v>-1.348086714744568</v>
+        <v>-7.153439998626709</v>
       </c>
       <c r="D182" t="n">
-        <v>-0.349753350019455</v>
+        <v>-7.056865692138672</v>
       </c>
       <c r="E182" t="n">
-        <v>-2.491809606552124</v>
+        <v>4.673365592956543</v>
       </c>
       <c r="F182" t="n">
-        <v>-2.873561143875122</v>
+        <v>6.903215408325195</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" t="n">
-        <v>-12.33521842956543</v>
+        <v>-12.71222019195557</v>
       </c>
       <c r="B183" t="n">
-        <v>-11.51731014251709</v>
+        <v>-12.37745761871338</v>
       </c>
       <c r="C183" t="n">
-        <v>1.844487905502319</v>
+        <v>-5.521965026855469</v>
       </c>
       <c r="D183" t="n">
-        <v>3.267530918121338</v>
+        <v>-6.181131839752197</v>
       </c>
       <c r="E183" t="n">
-        <v>-7.631916999816895</v>
+        <v>2.098588705062866</v>
       </c>
       <c r="F183" t="n">
-        <v>-7.442561626434326</v>
+        <v>3.825935125350952</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" t="n">
-        <v>-10.64226913452148</v>
+        <v>-11.93287563323975</v>
       </c>
       <c r="B184" t="n">
-        <v>-10.13154125213623</v>
+        <v>-12.07088756561279</v>
       </c>
       <c r="C184" t="n">
-        <v>5.629137516021729</v>
+        <v>-2.353869915008545</v>
       </c>
       <c r="D184" t="n">
-        <v>7.331361770629883</v>
+        <v>-3.857618808746338</v>
       </c>
       <c r="E184" t="n">
-        <v>-11.73280811309814</v>
+        <v>-1.484185457229614</v>
       </c>
       <c r="F184" t="n">
-        <v>-10.70149230957031</v>
+        <v>-0.9166492223739624</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" t="n">
-        <v>-8.843070983886719</v>
+        <v>-10.78934669494629</v>
       </c>
       <c r="B185" t="n">
-        <v>-8.11263370513916</v>
+        <v>-11.15220737457275</v>
       </c>
       <c r="C185" t="n">
-        <v>9.512282371520996</v>
+        <v>0.6648557186126709</v>
       </c>
       <c r="D185" t="n">
-        <v>11.47560405731201</v>
+        <v>-1.473656296730042</v>
       </c>
       <c r="E185" t="n">
-        <v>-13.77475929260254</v>
+        <v>-5.811217784881592</v>
       </c>
       <c r="F185" t="n">
-        <v>-11.98012828826904</v>
+        <v>-6.640920162200928</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" t="n">
-        <v>-6.698103904724121</v>
+        <v>-8.738559722900391</v>
       </c>
       <c r="B186" t="n">
-        <v>-5.846478462219238</v>
+        <v>-9.350002288818359</v>
       </c>
       <c r="C186" t="n">
-        <v>13.53400802612305</v>
+        <v>4.427823543548584</v>
       </c>
       <c r="D186" t="n">
-        <v>15.34450435638428</v>
+        <v>2.267921447753906</v>
       </c>
       <c r="E186" t="n">
-        <v>-13.24478721618652</v>
+        <v>-9.964729309082031</v>
       </c>
       <c r="F186" t="n">
-        <v>-11.10198783874512</v>
+        <v>-10.60227584838867</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" t="n">
-        <v>-4.145327568054199</v>
+        <v>-6.37178897857666</v>
       </c>
       <c r="B187" t="n">
-        <v>-3.440412759780884</v>
+        <v>-7.327793121337891</v>
       </c>
       <c r="C187" t="n">
-        <v>17.00727653503418</v>
+        <v>9.238507270812988</v>
       </c>
       <c r="D187" t="n">
-        <v>18.30563163757324</v>
+        <v>7.176513671875</v>
       </c>
       <c r="E187" t="n">
-        <v>-11.28758811950684</v>
+        <v>-12.36748886108398</v>
       </c>
       <c r="F187" t="n">
-        <v>-8.957548141479492</v>
+        <v>-13.14877605438232</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" t="n">
-        <v>-1.696849942207336</v>
+        <v>-4.191680908203125</v>
       </c>
       <c r="B188" t="n">
-        <v>-1.194143056869507</v>
+        <v>-5.400899887084961</v>
       </c>
       <c r="C188" t="n">
-        <v>19.65819358825684</v>
+        <v>13.7373685836792</v>
       </c>
       <c r="D188" t="n">
-        <v>20.50361824035645</v>
+        <v>11.47220802307129</v>
       </c>
       <c r="E188" t="n">
-        <v>-8.292428016662598</v>
+        <v>-12.5572452545166</v>
       </c>
       <c r="F188" t="n">
-        <v>-6.235747814178467</v>
+        <v>-13.41733264923096</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" t="n">
-        <v>0.6257454752922058</v>
+        <v>-1.454597949981689</v>
       </c>
       <c r="B189" t="n">
-        <v>1.06821620464325</v>
+        <v>-3.038855075836182</v>
       </c>
       <c r="C189" t="n">
-        <v>21.22909545898438</v>
+        <v>17.04108047485352</v>
       </c>
       <c r="D189" t="n">
-        <v>21.28360366821289</v>
+        <v>15.6748628616333</v>
       </c>
       <c r="E189" t="n">
-        <v>-5.261950969696045</v>
+        <v>-10.61021041870117</v>
       </c>
       <c r="F189" t="n">
-        <v>-3.43452262878418</v>
+        <v>-11.06622791290283</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" t="n">
-        <v>2.725973129272461</v>
+        <v>0.9751965403556824</v>
       </c>
       <c r="B190" t="n">
-        <v>2.975835800170898</v>
+        <v>-0.5249065756797791</v>
       </c>
       <c r="C190" t="n">
-        <v>21.43631553649902</v>
+        <v>20.08400726318359</v>
       </c>
       <c r="D190" t="n">
-        <v>21.16542434692383</v>
+        <v>19.03470039367676</v>
       </c>
       <c r="E190" t="n">
-        <v>-2.428090333938599</v>
+        <v>-7.649008750915527</v>
       </c>
       <c r="F190" t="n">
-        <v>-0.9950404167175293</v>
+        <v>-8.180941581726074</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" t="n">
-        <v>4.451839923858643</v>
+        <v>3.408696889877319</v>
       </c>
       <c r="B191" t="n">
-        <v>4.658326148986816</v>
+        <v>1.460718154907227</v>
       </c>
       <c r="C191" t="n">
-        <v>20.44131469726562</v>
+        <v>20.93360710144043</v>
       </c>
       <c r="D191" t="n">
-        <v>19.56413841247559</v>
+        <v>21.42728233337402</v>
       </c>
       <c r="E191" t="n">
-        <v>-0.05772263929247856</v>
+        <v>-4.751370429992676</v>
       </c>
       <c r="F191" t="n">
-        <v>0.9936701655387878</v>
+        <v>-5.377562522888184</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" t="n">
-        <v>5.866304397583008</v>
+        <v>5.067764759063721</v>
       </c>
       <c r="B192" t="n">
-        <v>5.99954891204834</v>
+        <v>3.23177433013916</v>
       </c>
       <c r="C192" t="n">
-        <v>18.48780632019043</v>
+        <v>20.57010269165039</v>
       </c>
       <c r="D192" t="n">
-        <v>17.32114028930664</v>
+        <v>21.40493011474609</v>
       </c>
       <c r="E192" t="n">
-        <v>1.946370601654053</v>
+        <v>-2.286858320236206</v>
       </c>
       <c r="F192" t="n">
-        <v>2.568455457687378</v>
+        <v>-3.077066898345947</v>
       </c>
     </row>
     <row r="193">
       <c r="A193" t="n">
-        <v>6.862144470214844</v>
+        <v>6.659926891326904</v>
       </c>
       <c r="B193" t="n">
-        <v>7.069207668304443</v>
+        <v>4.73351001739502</v>
       </c>
       <c r="C193" t="n">
-        <v>15.74659824371338</v>
+        <v>19.39048004150391</v>
       </c>
       <c r="D193" t="n">
-        <v>14.55064964294434</v>
+        <v>20.56073760986328</v>
       </c>
       <c r="E193" t="n">
-        <v>3.315567016601562</v>
+        <v>-0.7148243188858032</v>
       </c>
       <c r="F193" t="n">
-        <v>3.564549207687378</v>
+        <v>-1.048917293548584</v>
       </c>
     </row>
     <row r="194">
       <c r="A194" t="n">
-        <v>7.657283782958984</v>
+        <v>7.668560028076172</v>
       </c>
       <c r="B194" t="n">
-        <v>7.910121917724609</v>
+        <v>5.59324312210083</v>
       </c>
       <c r="C194" t="n">
-        <v>12.03492641448975</v>
+        <v>17.39853096008301</v>
       </c>
       <c r="D194" t="n">
-        <v>11.47564888000488</v>
+        <v>18.8549747467041</v>
       </c>
       <c r="E194" t="n">
-        <v>4.343854904174805</v>
+        <v>0.6998971104621887</v>
       </c>
       <c r="F194" t="n">
-        <v>4.05323314666748</v>
+        <v>0.8181558847427368</v>
       </c>
     </row>
     <row r="195">
       <c r="A195" t="n">
-        <v>7.954610824584961</v>
+        <v>8.642208099365234</v>
       </c>
       <c r="B195" t="n">
-        <v>8.457545280456543</v>
+        <v>6.41772985458374</v>
       </c>
       <c r="C195" t="n">
-        <v>8.313369750976562</v>
+        <v>14.41398048400879</v>
       </c>
       <c r="D195" t="n">
-        <v>7.849618911743164</v>
+        <v>16.2658863067627</v>
       </c>
       <c r="E195" t="n">
-        <v>4.562392711639404</v>
+        <v>1.71569550037384</v>
       </c>
       <c r="F195" t="n">
-        <v>3.971249341964722</v>
+        <v>2.058188915252686</v>
       </c>
     </row>
     <row r="196">
       <c r="A196" t="n">
-        <v>8.27182674407959</v>
+        <v>8.771271705627441</v>
       </c>
       <c r="B196" t="n">
-        <v>8.644790649414062</v>
+        <v>6.955177307128906</v>
       </c>
       <c r="C196" t="n">
-        <v>4.000449180603027</v>
+        <v>11.07637596130371</v>
       </c>
       <c r="D196" t="n">
-        <v>3.979997634887695</v>
+        <v>13.02493190765381</v>
       </c>
       <c r="E196" t="n">
-        <v>4.243198871612549</v>
+        <v>1.938181042671204</v>
       </c>
       <c r="F196" t="n">
-        <v>3.464187622070312</v>
+        <v>3.074538230895996</v>
       </c>
     </row>
     <row r="197">
       <c r="A197" t="n">
-        <v>8.32015323638916</v>
+        <v>9.14189624786377</v>
       </c>
       <c r="B197" t="n">
-        <v>8.914909362792969</v>
+        <v>7.601990699768066</v>
       </c>
       <c r="C197" t="n">
-        <v>-0.3317832946777344</v>
+        <v>7.684740543365479</v>
       </c>
       <c r="D197" t="n">
-        <v>-0.007602415513247252</v>
+        <v>9.001688003540039</v>
       </c>
       <c r="E197" t="n">
-        <v>3.549790143966675</v>
+        <v>1.658312320709229</v>
       </c>
       <c r="F197" t="n">
-        <v>2.791239738464355</v>
+        <v>3.121232986450195</v>
       </c>
     </row>
     <row r="198">
       <c r="A198" t="n">
-        <v>8.25394344329834</v>
+        <v>9.404899597167969</v>
       </c>
       <c r="B198" t="n">
-        <v>9.022392272949219</v>
+        <v>8.030614852905273</v>
       </c>
       <c r="C198" t="n">
-        <v>-4.297881126403809</v>
+        <v>3.335007429122925</v>
       </c>
       <c r="D198" t="n">
-        <v>-3.741886377334595</v>
+        <v>5.488752841949463</v>
       </c>
       <c r="E198" t="n">
-        <v>2.710767269134521</v>
+        <v>0.6487654447555542</v>
       </c>
       <c r="F198" t="n">
-        <v>2.174933433532715</v>
+        <v>2.492669582366943</v>
       </c>
     </row>
     <row r="199">
       <c r="A199" t="n">
-        <v>8.188079833984375</v>
+        <v>9.45484447479248</v>
       </c>
       <c r="B199" t="n">
-        <v>8.881134986877441</v>
+        <v>8.15614128112793</v>
       </c>
       <c r="C199" t="n">
-        <v>-7.517875194549561</v>
+        <v>0.269707202911377</v>
       </c>
       <c r="D199" t="n">
-        <v>-6.922391891479492</v>
+        <v>1.572888731956482</v>
       </c>
       <c r="E199" t="n">
-        <v>2.056529998779297</v>
+        <v>-0.7672531604766846</v>
       </c>
       <c r="F199" t="n">
-        <v>1.85568642616272</v>
+        <v>1.635335922241211</v>
       </c>
     </row>
     <row r="200">
       <c r="A200" t="n">
-        <v>8.201822280883789</v>
+        <v>9.564017295837402</v>
       </c>
       <c r="B200" t="n">
-        <v>8.823219299316406</v>
+        <v>7.987307548522949</v>
       </c>
       <c r="C200" t="n">
-        <v>-9.984945297241211</v>
+        <v>-3.776835203170776</v>
       </c>
       <c r="D200" t="n">
-        <v>-9.227566719055176</v>
+        <v>-1.695863246917725</v>
       </c>
       <c r="E200" t="n">
-        <v>1.763671636581421</v>
+        <v>-2.075445413589478</v>
       </c>
       <c r="F200" t="n">
-        <v>1.831215381622314</v>
+        <v>1.113041996955872</v>
       </c>
     </row>
     <row r="201">
       <c r="A201" t="n">
-        <v>8.124483108520508</v>
+        <v>10.2765417098999</v>
       </c>
       <c r="B201" t="n">
-        <v>8.632226943969727</v>
+        <v>7.146866321563721</v>
       </c>
       <c r="C201" t="n">
-        <v>-11.22221374511719</v>
+        <v>-6.519362449645996</v>
       </c>
       <c r="D201" t="n">
-        <v>-10.74305152893066</v>
+        <v>-5.070078372955322</v>
       </c>
       <c r="E201" t="n">
-        <v>1.745635032653809</v>
+        <v>-3.007976531982422</v>
       </c>
       <c r="F201" t="n">
-        <v>1.89247190952301</v>
+        <v>0.8295078873634338</v>
       </c>
     </row>
     <row r="202">
       <c r="A202" t="n">
-        <v>8.076296806335449</v>
+        <v>10.59509944915771</v>
       </c>
       <c r="B202" t="n">
-        <v>8.66202449798584</v>
+        <v>6.722361087799072</v>
       </c>
       <c r="C202" t="n">
-        <v>-11.55087661743164</v>
+        <v>-8.559576034545898</v>
       </c>
       <c r="D202" t="n">
-        <v>-10.83114242553711</v>
+        <v>-8.204349517822266</v>
       </c>
       <c r="E202" t="n">
-        <v>1.531986117362976</v>
+        <v>-3.202171564102173</v>
       </c>
       <c r="F202" t="n">
-        <v>1.544460535049438</v>
+        <v>0.86331707239151</v>
       </c>
     </row>
     <row r="203">
       <c r="A203" t="n">
-        <v>7.817726135253906</v>
+        <v>10.34036636352539</v>
       </c>
       <c r="B203" t="n">
-        <v>8.279141426086426</v>
+        <v>5.842531204223633</v>
       </c>
       <c r="C203" t="n">
-        <v>-10.98438167572021</v>
+        <v>-10.03210830688477</v>
       </c>
       <c r="D203" t="n">
-        <v>-10.74065017700195</v>
+        <v>-10.20892524719238</v>
       </c>
       <c r="E203" t="n">
-        <v>0.7307124733924866</v>
+        <v>-3.143052101135254</v>
       </c>
       <c r="F203" t="n">
-        <v>0.5293505787849426</v>
+        <v>0.718711256980896</v>
       </c>
     </row>
     <row r="204">
       <c r="A204" t="n">
-        <v>7.611870765686035</v>
+        <v>9.329419136047363</v>
       </c>
       <c r="B204" t="n">
-        <v>7.756002426147461</v>
+        <v>5.5710768699646</v>
       </c>
       <c r="C204" t="n">
-        <v>-9.877004623413086</v>
+        <v>-10.37690830230713</v>
       </c>
       <c r="D204" t="n">
-        <v>-9.914321899414062</v>
+        <v>-11.63829231262207</v>
       </c>
       <c r="E204" t="n">
-        <v>-0.6513728499412537</v>
+        <v>-2.442514181137085</v>
       </c>
       <c r="F204" t="n">
-        <v>-1.081871390342712</v>
+        <v>0.4047237634658813</v>
       </c>
     </row>
     <row r="205">
       <c r="A205" t="n">
-        <v>7.338942527770996</v>
+        <v>7.180771827697754</v>
       </c>
       <c r="B205" t="n">
-        <v>7.116716861724854</v>
+        <v>6.08820104598999</v>
       </c>
       <c r="C205" t="n">
-        <v>-8.626770973205566</v>
+        <v>-9.887517929077148</v>
       </c>
       <c r="D205" t="n">
-        <v>-9.114619255065918</v>
+        <v>-10.9064474105835</v>
       </c>
       <c r="E205" t="n">
-        <v>-2.466666698455811</v>
+        <v>-1.539682269096375</v>
       </c>
       <c r="F205" t="n">
-        <v>-2.906725168228149</v>
+        <v>0.08096729218959808</v>
       </c>
     </row>
   </sheetData>

--- a/Predictions/timestamps_cp_cnn.xlsx
+++ b/Predictions/timestamps_cp_cnn.xlsx
@@ -467,4082 +467,4082 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>5.341075897216797</v>
+        <v>5.582568168640137</v>
       </c>
       <c r="B2" t="n">
-        <v>3.789140224456787</v>
+        <v>5.709909915924072</v>
       </c>
       <c r="C2" t="n">
-        <v>-4.114442348480225</v>
+        <v>-8.219338417053223</v>
       </c>
       <c r="D2" t="n">
-        <v>-4.937913417816162</v>
+        <v>-5.732343196868896</v>
       </c>
       <c r="E2" t="n">
-        <v>0.221308097243309</v>
+        <v>-2.671645879745483</v>
       </c>
       <c r="F2" t="n">
-        <v>-0.7708334922790527</v>
+        <v>-3.827714920043945</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>5.510904312133789</v>
+        <v>3.512452363967896</v>
       </c>
       <c r="B3" t="n">
-        <v>3.676112651824951</v>
+        <v>3.320345401763916</v>
       </c>
       <c r="C3" t="n">
-        <v>-2.738396406173706</v>
+        <v>-7.291317462921143</v>
       </c>
       <c r="D3" t="n">
-        <v>-4.756807804107666</v>
+        <v>-4.3099684715271</v>
       </c>
       <c r="E3" t="n">
-        <v>0.8826736211776733</v>
+        <v>-1.342159271240234</v>
       </c>
       <c r="F3" t="n">
-        <v>-1.018068671226501</v>
+        <v>-2.772674560546875</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>5.869416236877441</v>
+        <v>5.037606716156006</v>
       </c>
       <c r="B4" t="n">
-        <v>4.385374069213867</v>
+        <v>4.353262424468994</v>
       </c>
       <c r="C4" t="n">
-        <v>-4.145289421081543</v>
+        <v>-2.367348194122314</v>
       </c>
       <c r="D4" t="n">
-        <v>-4.393573760986328</v>
+        <v>-3.806039094924927</v>
       </c>
       <c r="E4" t="n">
-        <v>0.6302013397216797</v>
+        <v>-2.428502798080444</v>
       </c>
       <c r="F4" t="n">
-        <v>-3.124888896942139</v>
+        <v>-1.658520102500916</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>5.485182285308838</v>
+        <v>4.711338996887207</v>
       </c>
       <c r="B5" t="n">
-        <v>2.01043438911438</v>
+        <v>1.616053581237793</v>
       </c>
       <c r="C5" t="n">
-        <v>-2.576218366622925</v>
+        <v>-3.242414474487305</v>
       </c>
       <c r="D5" t="n">
-        <v>-4.381672382354736</v>
+        <v>-1.801262021064758</v>
       </c>
       <c r="E5" t="n">
-        <v>-0.5505373477935791</v>
+        <v>-1.876458764076233</v>
       </c>
       <c r="F5" t="n">
-        <v>-2.904477596282959</v>
+        <v>-1.592131853103638</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>2.358286142349243</v>
+        <v>3.648024320602417</v>
       </c>
       <c r="B6" t="n">
-        <v>3.417327404022217</v>
+        <v>2.636449575424194</v>
       </c>
       <c r="C6" t="n">
-        <v>-2.893062114715576</v>
+        <v>-0.8584495186805725</v>
       </c>
       <c r="D6" t="n">
-        <v>-4.581929683685303</v>
+        <v>-2.151457071304321</v>
       </c>
       <c r="E6" t="n">
-        <v>-1.009270787239075</v>
+        <v>-0.4597509205341339</v>
       </c>
       <c r="F6" t="n">
-        <v>-4.139161586761475</v>
+        <v>0.6649014353752136</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>1.608275651931763</v>
+        <v>2.348967552185059</v>
       </c>
       <c r="B7" t="n">
-        <v>2.259759187698364</v>
+        <v>0.008021249435842037</v>
       </c>
       <c r="C7" t="n">
-        <v>-4.13417911529541</v>
+        <v>-4.585651397705078</v>
       </c>
       <c r="D7" t="n">
-        <v>-4.830228805541992</v>
+        <v>-1.412589430809021</v>
       </c>
       <c r="E7" t="n">
-        <v>-1.628941535949707</v>
+        <v>-0.4888320863246918</v>
       </c>
       <c r="F7" t="n">
-        <v>-3.380276441574097</v>
+        <v>0.8385321497917175</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>1.607346534729004</v>
+        <v>3.303134679794312</v>
       </c>
       <c r="B8" t="n">
-        <v>1.287793159484863</v>
+        <v>0.7571316957473755</v>
       </c>
       <c r="C8" t="n">
-        <v>-6.124356746673584</v>
+        <v>-2.072835683822632</v>
       </c>
       <c r="D8" t="n">
-        <v>-7.443312644958496</v>
+        <v>-1.541669368743896</v>
       </c>
       <c r="E8" t="n">
-        <v>-1.001510620117188</v>
+        <v>-1.348529100418091</v>
       </c>
       <c r="F8" t="n">
-        <v>-3.717541217803955</v>
+        <v>0.678036093711853</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>1.068527460098267</v>
+        <v>0.0898493230342865</v>
       </c>
       <c r="B9" t="n">
-        <v>0.5024601221084595</v>
+        <v>0.7554048299789429</v>
       </c>
       <c r="C9" t="n">
-        <v>-3.71915602684021</v>
+        <v>-4.975222587585449</v>
       </c>
       <c r="D9" t="n">
-        <v>-5.326217174530029</v>
+        <v>-2.481424808502197</v>
       </c>
       <c r="E9" t="n">
-        <v>-1.425590395927429</v>
+        <v>1.476007580757141</v>
       </c>
       <c r="F9" t="n">
-        <v>-2.222352743148804</v>
+        <v>1.734786152839661</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>-0.3930775225162506</v>
+        <v>0.02116700634360313</v>
       </c>
       <c r="B10" t="n">
-        <v>-1.382188200950623</v>
+        <v>-0.8965478539466858</v>
       </c>
       <c r="C10" t="n">
-        <v>-5.254693984985352</v>
+        <v>-3.54701042175293</v>
       </c>
       <c r="D10" t="n">
-        <v>-5.82945728302002</v>
+        <v>-2.878746271133423</v>
       </c>
       <c r="E10" t="n">
-        <v>0.1447751373052597</v>
+        <v>1.827284812927246</v>
       </c>
       <c r="F10" t="n">
-        <v>-1.57086718082428</v>
+        <v>1.455327749252319</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>-1.14173698425293</v>
+        <v>-0.365463525056839</v>
       </c>
       <c r="B11" t="n">
-        <v>-2.896779775619507</v>
+        <v>-0.9125776886940002</v>
       </c>
       <c r="C11" t="n">
-        <v>-3.821441888809204</v>
+        <v>-6.317650318145752</v>
       </c>
       <c r="D11" t="n">
-        <v>-7.536385536193848</v>
+        <v>-4.736019611358643</v>
       </c>
       <c r="E11" t="n">
-        <v>-0.01189720258116722</v>
+        <v>1.370157480239868</v>
       </c>
       <c r="F11" t="n">
-        <v>-1.105415940284729</v>
+        <v>1.070475816726685</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>-1.219204068183899</v>
+        <v>-2.067999362945557</v>
       </c>
       <c r="B12" t="n">
-        <v>-1.825621128082275</v>
+        <v>-2.302920579910278</v>
       </c>
       <c r="C12" t="n">
-        <v>-3.962049961090088</v>
+        <v>-5.367450714111328</v>
       </c>
       <c r="D12" t="n">
-        <v>-7.052568912506104</v>
+        <v>-4.683515548706055</v>
       </c>
       <c r="E12" t="n">
-        <v>0.9243453145027161</v>
+        <v>2.155807256698608</v>
       </c>
       <c r="F12" t="n">
-        <v>-0.7983512878417969</v>
+        <v>1.819854617118835</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>-0.8085849285125732</v>
+        <v>-2.468990087509155</v>
       </c>
       <c r="B13" t="n">
-        <v>-3.789312124252319</v>
+        <v>-1.933566331863403</v>
       </c>
       <c r="C13" t="n">
-        <v>-3.825755834579468</v>
+        <v>-5.315278053283691</v>
       </c>
       <c r="D13" t="n">
-        <v>-7.347460269927979</v>
+        <v>-5.982283592224121</v>
       </c>
       <c r="E13" t="n">
-        <v>1.79594349861145</v>
+        <v>1.07963240146637</v>
       </c>
       <c r="F13" t="n">
-        <v>-1.690876722335815</v>
+        <v>2.316527843475342</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>-0.1243274509906769</v>
+        <v>-4.121798038482666</v>
       </c>
       <c r="B14" t="n">
-        <v>-2.519072771072388</v>
+        <v>-2.916686296463013</v>
       </c>
       <c r="C14" t="n">
-        <v>-3.640737295150757</v>
+        <v>-7.265992164611816</v>
       </c>
       <c r="D14" t="n">
-        <v>-7.539787292480469</v>
+        <v>-3.942502737045288</v>
       </c>
       <c r="E14" t="n">
-        <v>2.593387842178345</v>
+        <v>2.088790416717529</v>
       </c>
       <c r="F14" t="n">
-        <v>-0.4654204845428467</v>
+        <v>2.218817234039307</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>-0.7672872543334961</v>
+        <v>-3.29886794090271</v>
       </c>
       <c r="B15" t="n">
-        <v>-2.467044353485107</v>
+        <v>-3.359254837036133</v>
       </c>
       <c r="C15" t="n">
-        <v>-4.259759902954102</v>
+        <v>-5.794853210449219</v>
       </c>
       <c r="D15" t="n">
-        <v>-6.561509132385254</v>
+        <v>-6.933933258056641</v>
       </c>
       <c r="E15" t="n">
-        <v>2.230390548706055</v>
+        <v>2.386826753616333</v>
       </c>
       <c r="F15" t="n">
-        <v>1.521065592765808</v>
+        <v>2.798182725906372</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>-2.964976787567139</v>
+        <v>-4.077460289001465</v>
       </c>
       <c r="B16" t="n">
-        <v>-2.069855213165283</v>
+        <v>-2.985797882080078</v>
       </c>
       <c r="C16" t="n">
-        <v>-5.217990398406982</v>
+        <v>-5.561226367950439</v>
       </c>
       <c r="D16" t="n">
-        <v>-5.843337059020996</v>
+        <v>-4.343197822570801</v>
       </c>
       <c r="E16" t="n">
-        <v>3.043673753738403</v>
+        <v>3.139485120773315</v>
       </c>
       <c r="F16" t="n">
-        <v>3.348442554473877</v>
+        <v>3.760410785675049</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>-2.666846036911011</v>
+        <v>-5.56515645980835</v>
       </c>
       <c r="B17" t="n">
-        <v>-2.464003801345825</v>
+        <v>-2.036970853805542</v>
       </c>
       <c r="C17" t="n">
-        <v>-4.029764652252197</v>
+        <v>-6.582993030548096</v>
       </c>
       <c r="D17" t="n">
-        <v>-6.89911937713623</v>
+        <v>-5.918999195098877</v>
       </c>
       <c r="E17" t="n">
-        <v>3.619013071060181</v>
+        <v>3.795608043670654</v>
       </c>
       <c r="F17" t="n">
-        <v>3.812895059585571</v>
+        <v>3.423274993896484</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>-2.537491083145142</v>
+        <v>-5.432087898254395</v>
       </c>
       <c r="B18" t="n">
-        <v>-1.837266683578491</v>
+        <v>-4.483302593231201</v>
       </c>
       <c r="C18" t="n">
-        <v>-3.310506820678711</v>
+        <v>-7.379995346069336</v>
       </c>
       <c r="D18" t="n">
-        <v>-6.78446102142334</v>
+        <v>-7.757960796356201</v>
       </c>
       <c r="E18" t="n">
-        <v>3.386230230331421</v>
+        <v>4.190491676330566</v>
       </c>
       <c r="F18" t="n">
-        <v>4.11394739151001</v>
+        <v>4.409193515777588</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>-3.390332937240601</v>
+        <v>-5.040127277374268</v>
       </c>
       <c r="B19" t="n">
-        <v>-2.442878484725952</v>
+        <v>-4.721042633056641</v>
       </c>
       <c r="C19" t="n">
-        <v>-5.230494499206543</v>
+        <v>-7.241107940673828</v>
       </c>
       <c r="D19" t="n">
-        <v>-4.916979789733887</v>
+        <v>-6.944648742675781</v>
       </c>
       <c r="E19" t="n">
-        <v>4.414701461791992</v>
+        <v>5.168360233306885</v>
       </c>
       <c r="F19" t="n">
-        <v>4.410951137542725</v>
+        <v>4.75119161605835</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>-3.941720485687256</v>
+        <v>-6.210784435272217</v>
       </c>
       <c r="B20" t="n">
-        <v>-2.265558481216431</v>
+        <v>-4.842182636260986</v>
       </c>
       <c r="C20" t="n">
-        <v>-5.989253997802734</v>
+        <v>-7.874269485473633</v>
       </c>
       <c r="D20" t="n">
-        <v>-3.474862813949585</v>
+        <v>-7.594219207763672</v>
       </c>
       <c r="E20" t="n">
-        <v>4.234624862670898</v>
+        <v>4.735635280609131</v>
       </c>
       <c r="F20" t="n">
-        <v>6.578449726104736</v>
+        <v>5.593050956726074</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>-4.701345920562744</v>
+        <v>-5.656375408172607</v>
       </c>
       <c r="B21" t="n">
-        <v>-2.057013034820557</v>
+        <v>-4.942012310028076</v>
       </c>
       <c r="C21" t="n">
-        <v>-6.229182720184326</v>
+        <v>-7.819230079650879</v>
       </c>
       <c r="D21" t="n">
-        <v>-5.461517333984375</v>
+        <v>-7.423690795898438</v>
       </c>
       <c r="E21" t="n">
-        <v>5.7552170753479</v>
+        <v>5.109001159667969</v>
       </c>
       <c r="F21" t="n">
-        <v>6.179160118103027</v>
+        <v>6.154072761535645</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>-4.633857727050781</v>
+        <v>-6.477687835693359</v>
       </c>
       <c r="B22" t="n">
-        <v>-2.992355823516846</v>
+        <v>-5.770505428314209</v>
       </c>
       <c r="C22" t="n">
-        <v>-6.117084503173828</v>
+        <v>-7.89535665512085</v>
       </c>
       <c r="D22" t="n">
-        <v>-6.114386558532715</v>
+        <v>-5.9321608543396</v>
       </c>
       <c r="E22" t="n">
-        <v>6.514015674591064</v>
+        <v>3.86689305305481</v>
       </c>
       <c r="F22" t="n">
-        <v>6.183799266815186</v>
+        <v>5.631470680236816</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>-7.789844036102295</v>
+        <v>-7.843156814575195</v>
       </c>
       <c r="B23" t="n">
-        <v>-5.066633701324463</v>
+        <v>-8.080196380615234</v>
       </c>
       <c r="C23" t="n">
-        <v>-7.879684448242188</v>
+        <v>-7.672142505645752</v>
       </c>
       <c r="D23" t="n">
-        <v>-5.817891597747803</v>
+        <v>-7.168544292449951</v>
       </c>
       <c r="E23" t="n">
-        <v>5.17811918258667</v>
+        <v>5.698523044586182</v>
       </c>
       <c r="F23" t="n">
-        <v>6.697356224060059</v>
+        <v>6.743171215057373</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>-8.115723609924316</v>
+        <v>-8.660000801086426</v>
       </c>
       <c r="B24" t="n">
-        <v>-5.471560478210449</v>
+        <v>-9.978091239929199</v>
       </c>
       <c r="C24" t="n">
-        <v>-9.972294807434082</v>
+        <v>-8.73383903503418</v>
       </c>
       <c r="D24" t="n">
-        <v>-9.0047607421875</v>
+        <v>-9.334870338439941</v>
       </c>
       <c r="E24" t="n">
-        <v>4.978911876678467</v>
+        <v>4.758449077606201</v>
       </c>
       <c r="F24" t="n">
-        <v>6.926492691040039</v>
+        <v>6.316103935241699</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>-10.08284187316895</v>
+        <v>-9.745678901672363</v>
       </c>
       <c r="B25" t="n">
-        <v>-6.541023254394531</v>
+        <v>-8.635356903076172</v>
       </c>
       <c r="C25" t="n">
-        <v>-9.374497413635254</v>
+        <v>-9.032903671264648</v>
       </c>
       <c r="D25" t="n">
-        <v>-9.301182746887207</v>
+        <v>-7.735648155212402</v>
       </c>
       <c r="E25" t="n">
-        <v>5.558010101318359</v>
+        <v>4.26954984664917</v>
       </c>
       <c r="F25" t="n">
-        <v>6.945689678192139</v>
+        <v>6.362290859222412</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>-10.15412616729736</v>
+        <v>-10.28555583953857</v>
       </c>
       <c r="B26" t="n">
-        <v>-8.557605743408203</v>
+        <v>-9.30510425567627</v>
       </c>
       <c r="C26" t="n">
-        <v>-11.12394237518311</v>
+        <v>-9.354741096496582</v>
       </c>
       <c r="D26" t="n">
-        <v>-8.58901309967041</v>
+        <v>-6.811368465423584</v>
       </c>
       <c r="E26" t="n">
-        <v>5.116896152496338</v>
+        <v>5.644543170928955</v>
       </c>
       <c r="F26" t="n">
-        <v>8.904275894165039</v>
+        <v>6.992528915405273</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>-10.50601196289062</v>
+        <v>-11.78495788574219</v>
       </c>
       <c r="B27" t="n">
-        <v>-9.201539993286133</v>
+        <v>-11.2381420135498</v>
       </c>
       <c r="C27" t="n">
-        <v>-10.19891262054443</v>
+        <v>-8.788806915283203</v>
       </c>
       <c r="D27" t="n">
-        <v>-9.027560234069824</v>
+        <v>-7.421614170074463</v>
       </c>
       <c r="E27" t="n">
-        <v>5.208929061889648</v>
+        <v>5.971385478973389</v>
       </c>
       <c r="F27" t="n">
-        <v>9.34820556640625</v>
+        <v>6.11305046081543</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>-11.47901725769043</v>
+        <v>-12.00975894927979</v>
       </c>
       <c r="B28" t="n">
-        <v>-9.67108154296875</v>
+        <v>-11.4492654800415</v>
       </c>
       <c r="C28" t="n">
-        <v>-9.90560245513916</v>
+        <v>-7.388631343841553</v>
       </c>
       <c r="D28" t="n">
-        <v>-9.742817878723145</v>
+        <v>-7.276041984558105</v>
       </c>
       <c r="E28" t="n">
-        <v>6.921327590942383</v>
+        <v>4.695642948150635</v>
       </c>
       <c r="F28" t="n">
-        <v>9.83028507232666</v>
+        <v>5.912543773651123</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>-10.59904289245605</v>
+        <v>-11.99794101715088</v>
       </c>
       <c r="B29" t="n">
-        <v>-11.35736846923828</v>
+        <v>-12.35254001617432</v>
       </c>
       <c r="C29" t="n">
-        <v>-7.951946258544922</v>
+        <v>-7.805713653564453</v>
       </c>
       <c r="D29" t="n">
-        <v>-8.699705123901367</v>
+        <v>-6.870856285095215</v>
       </c>
       <c r="E29" t="n">
-        <v>7.600774765014648</v>
+        <v>5.163454532623291</v>
       </c>
       <c r="F29" t="n">
-        <v>9.528407096862793</v>
+        <v>6.281115531921387</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>-12.17693424224854</v>
+        <v>-13.43096733093262</v>
       </c>
       <c r="B30" t="n">
-        <v>-12.81080436706543</v>
+        <v>-11.83919525146484</v>
       </c>
       <c r="C30" t="n">
-        <v>-6.091897964477539</v>
+        <v>-6.267479419708252</v>
       </c>
       <c r="D30" t="n">
-        <v>-7.794402599334717</v>
+        <v>-5.863696098327637</v>
       </c>
       <c r="E30" t="n">
-        <v>6.231314659118652</v>
+        <v>5.724966526031494</v>
       </c>
       <c r="F30" t="n">
-        <v>7.692532062530518</v>
+        <v>3.131980895996094</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>-12.22781372070312</v>
+        <v>-12.29637718200684</v>
       </c>
       <c r="B31" t="n">
-        <v>-12.39709281921387</v>
+        <v>-11.69559669494629</v>
       </c>
       <c r="C31" t="n">
-        <v>-6.284017086029053</v>
+        <v>-4.486729621887207</v>
       </c>
       <c r="D31" t="n">
-        <v>-5.957658290863037</v>
+        <v>-4.745892524719238</v>
       </c>
       <c r="E31" t="n">
-        <v>1.474377274513245</v>
+        <v>4.72567081451416</v>
       </c>
       <c r="F31" t="n">
-        <v>3.599897861480713</v>
+        <v>-0.6361422538757324</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>-10.46024608612061</v>
+        <v>-10.77419567108154</v>
       </c>
       <c r="B32" t="n">
-        <v>-10.76510524749756</v>
+        <v>-12.45870304107666</v>
       </c>
       <c r="C32" t="n">
-        <v>-1.372106313705444</v>
+        <v>-0.03088033385574818</v>
       </c>
       <c r="D32" t="n">
-        <v>-2.711624145507812</v>
+        <v>-0.9970532655715942</v>
       </c>
       <c r="E32" t="n">
-        <v>-3.369877338409424</v>
+        <v>1.153201222419739</v>
       </c>
       <c r="F32" t="n">
-        <v>-2.658366918563843</v>
+        <v>-6.547706127166748</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>-9.378979682922363</v>
+        <v>-8.986638069152832</v>
       </c>
       <c r="B33" t="n">
-        <v>-10.53834438323975</v>
+        <v>-10.5843505859375</v>
       </c>
       <c r="C33" t="n">
-        <v>0.996074914932251</v>
+        <v>6.04155445098877</v>
       </c>
       <c r="D33" t="n">
-        <v>-0.4655263125896454</v>
+        <v>1.685431599617004</v>
       </c>
       <c r="E33" t="n">
-        <v>-8.653908729553223</v>
+        <v>-5.918323993682861</v>
       </c>
       <c r="F33" t="n">
-        <v>-8.399163246154785</v>
+        <v>-10.55922794342041</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>-7.460377216339111</v>
+        <v>-7.259774684906006</v>
       </c>
       <c r="B34" t="n">
-        <v>-9.316865921020508</v>
+        <v>-7.474461078643799</v>
       </c>
       <c r="C34" t="n">
-        <v>7.497047901153564</v>
+        <v>7.476318836212158</v>
       </c>
       <c r="D34" t="n">
-        <v>6.278867721557617</v>
+        <v>6.091389179229736</v>
       </c>
       <c r="E34" t="n">
-        <v>-11.29873657226562</v>
+        <v>-12.66981601715088</v>
       </c>
       <c r="F34" t="n">
-        <v>-11.24169254302979</v>
+        <v>-11.9295482635498</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>-5.001822948455811</v>
+        <v>-4.956679344177246</v>
       </c>
       <c r="B35" t="n">
-        <v>-7.391382694244385</v>
+        <v>-6.301475048065186</v>
       </c>
       <c r="C35" t="n">
-        <v>9.489468574523926</v>
+        <v>12.58070945739746</v>
       </c>
       <c r="D35" t="n">
-        <v>9.246975898742676</v>
+        <v>10.49392890930176</v>
       </c>
       <c r="E35" t="n">
-        <v>-12.18837833404541</v>
+        <v>-14.70626640319824</v>
       </c>
       <c r="F35" t="n">
-        <v>-11.90433502197266</v>
+        <v>-10.78603839874268</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>-1.327868819236755</v>
+        <v>-3.034206628799438</v>
       </c>
       <c r="B36" t="n">
-        <v>-4.144145011901855</v>
+        <v>-3.22043514251709</v>
       </c>
       <c r="C36" t="n">
-        <v>13.39359188079834</v>
+        <v>17.36606788635254</v>
       </c>
       <c r="D36" t="n">
-        <v>13.54470634460449</v>
+        <v>14.78419399261475</v>
       </c>
       <c r="E36" t="n">
-        <v>-9.676984786987305</v>
+        <v>-11.67231178283691</v>
       </c>
       <c r="F36" t="n">
-        <v>-11.15194702148438</v>
+        <v>-8.114016532897949</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>0.2679544389247894</v>
+        <v>-0.1509175598621368</v>
       </c>
       <c r="B37" t="n">
-        <v>-1.688554644584656</v>
+        <v>-1.290094256401062</v>
       </c>
       <c r="C37" t="n">
-        <v>18.40678405761719</v>
+        <v>17.4885368347168</v>
       </c>
       <c r="D37" t="n">
-        <v>17.52190971374512</v>
+        <v>18.28475379943848</v>
       </c>
       <c r="E37" t="n">
-        <v>-6.657522678375244</v>
+        <v>-6.99515962600708</v>
       </c>
       <c r="F37" t="n">
-        <v>-8.679743766784668</v>
+        <v>-7.047714710235596</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>2.914289951324463</v>
+        <v>2.167677164077759</v>
       </c>
       <c r="B38" t="n">
-        <v>-0.334063708782196</v>
+        <v>0.4665073156356812</v>
       </c>
       <c r="C38" t="n">
-        <v>19.16931915283203</v>
+        <v>16.73342132568359</v>
       </c>
       <c r="D38" t="n">
-        <v>19.56704330444336</v>
+        <v>18.0008373260498</v>
       </c>
       <c r="E38" t="n">
-        <v>-4.421826362609863</v>
+        <v>-4.051735401153564</v>
       </c>
       <c r="F38" t="n">
-        <v>-7.191336154937744</v>
+        <v>-5.043021202087402</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>3.866770505905151</v>
+        <v>4.436484813690186</v>
       </c>
       <c r="B39" t="n">
-        <v>2.430773258209229</v>
+        <v>2.089983701705933</v>
       </c>
       <c r="C39" t="n">
-        <v>18.42575836181641</v>
+        <v>15.74656200408936</v>
       </c>
       <c r="D39" t="n">
-        <v>22.36660957336426</v>
+        <v>17.14773178100586</v>
       </c>
       <c r="E39" t="n">
-        <v>-1.925934195518494</v>
+        <v>-1.007037401199341</v>
       </c>
       <c r="F39" t="n">
-        <v>-4.230114459991455</v>
+        <v>-3.117977857589722</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>5.167166233062744</v>
+        <v>5.680887699127197</v>
       </c>
       <c r="B40" t="n">
-        <v>3.610002517700195</v>
+        <v>3.800690650939941</v>
       </c>
       <c r="C40" t="n">
-        <v>21.36434173583984</v>
+        <v>15.29259777069092</v>
       </c>
       <c r="D40" t="n">
-        <v>24.13652229309082</v>
+        <v>14.7959098815918</v>
       </c>
       <c r="E40" t="n">
-        <v>-0.271499902009964</v>
+        <v>1.015067577362061</v>
       </c>
       <c r="F40" t="n">
-        <v>-1.126656770706177</v>
+        <v>-2.564366817474365</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>8.814842224121094</v>
+        <v>6.994811534881592</v>
       </c>
       <c r="B41" t="n">
-        <v>5.880642414093018</v>
+        <v>4.057119846343994</v>
       </c>
       <c r="C41" t="n">
-        <v>18.69846343994141</v>
+        <v>13.49236583709717</v>
       </c>
       <c r="D41" t="n">
-        <v>21.5522403717041</v>
+        <v>13.85258769989014</v>
       </c>
       <c r="E41" t="n">
-        <v>-0.29065802693367</v>
+        <v>0.345532238483429</v>
       </c>
       <c r="F41" t="n">
-        <v>-0.2771056890487671</v>
+        <v>0.3849335014820099</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>7.592464447021484</v>
+        <v>5.954270839691162</v>
       </c>
       <c r="B42" t="n">
-        <v>6.40201997756958</v>
+        <v>5.350172996520996</v>
       </c>
       <c r="C42" t="n">
-        <v>17.38057136535645</v>
+        <v>10.53188705444336</v>
       </c>
       <c r="D42" t="n">
-        <v>18.61466789245605</v>
+        <v>11.07052230834961</v>
       </c>
       <c r="E42" t="n">
-        <v>1.22773551940918</v>
+        <v>3.01265549659729</v>
       </c>
       <c r="F42" t="n">
-        <v>2.218768119812012</v>
+        <v>0.07191075384616852</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>10.0028247833252</v>
+        <v>6.530438423156738</v>
       </c>
       <c r="B43" t="n">
-        <v>8.375033378601074</v>
+        <v>6.180160522460938</v>
       </c>
       <c r="C43" t="n">
-        <v>15.36614513397217</v>
+        <v>7.17519998550415</v>
       </c>
       <c r="D43" t="n">
-        <v>15.35445308685303</v>
+        <v>9.84304141998291</v>
       </c>
       <c r="E43" t="n">
-        <v>1.333443403244019</v>
+        <v>2.722352266311646</v>
       </c>
       <c r="F43" t="n">
-        <v>2.11353063583374</v>
+        <v>1.403770923614502</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>10.27324676513672</v>
+        <v>8.993087768554688</v>
       </c>
       <c r="B44" t="n">
-        <v>8.480819702148438</v>
+        <v>6.07520866394043</v>
       </c>
       <c r="C44" t="n">
-        <v>11.4796257019043</v>
+        <v>2.787395238876343</v>
       </c>
       <c r="D44" t="n">
-        <v>14.03840637207031</v>
+        <v>4.934103012084961</v>
       </c>
       <c r="E44" t="n">
-        <v>1.044433116912842</v>
+        <v>1.373521447181702</v>
       </c>
       <c r="F44" t="n">
-        <v>1.958779811859131</v>
+        <v>0.9349069595336914</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>11.46793270111084</v>
+        <v>9.526359558105469</v>
       </c>
       <c r="B45" t="n">
-        <v>7.831548690795898</v>
+        <v>9.30410099029541</v>
       </c>
       <c r="C45" t="n">
-        <v>7.641767024993896</v>
+        <v>1.424739122390747</v>
       </c>
       <c r="D45" t="n">
-        <v>8.501130104064941</v>
+        <v>3.581333160400391</v>
       </c>
       <c r="E45" t="n">
-        <v>1.314155578613281</v>
+        <v>1.011625289916992</v>
       </c>
       <c r="F45" t="n">
-        <v>0.003504512598738074</v>
+        <v>0.1957817375659943</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>12.19121170043945</v>
+        <v>10.45777988433838</v>
       </c>
       <c r="B46" t="n">
-        <v>9.134726524353027</v>
+        <v>9.260894775390625</v>
       </c>
       <c r="C46" t="n">
-        <v>4.450664520263672</v>
+        <v>-2.248945951461792</v>
       </c>
       <c r="D46" t="n">
-        <v>3.766404151916504</v>
+        <v>-0.1527514606714249</v>
       </c>
       <c r="E46" t="n">
-        <v>-1.880739808082581</v>
+        <v>-2.020983695983887</v>
       </c>
       <c r="F46" t="n">
-        <v>-1.161643743515015</v>
+        <v>-1.150470972061157</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>12.41031837463379</v>
+        <v>10.02708148956299</v>
       </c>
       <c r="B47" t="n">
-        <v>9.269013404846191</v>
+        <v>9.310085296630859</v>
       </c>
       <c r="C47" t="n">
-        <v>-0.06651842594146729</v>
+        <v>-5.029356956481934</v>
       </c>
       <c r="D47" t="n">
-        <v>0.08121947199106216</v>
+        <v>-1.145509481430054</v>
       </c>
       <c r="E47" t="n">
-        <v>-2.90369725227356</v>
+        <v>-3.075310707092285</v>
       </c>
       <c r="F47" t="n">
-        <v>-1.826214551925659</v>
+        <v>-1.489438414573669</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>11.72910690307617</v>
+        <v>12.70323657989502</v>
       </c>
       <c r="B48" t="n">
-        <v>7.587963104248047</v>
+        <v>9.929962158203125</v>
       </c>
       <c r="C48" t="n">
-        <v>-3.649408102035522</v>
+        <v>-7.08379602432251</v>
       </c>
       <c r="D48" t="n">
-        <v>-3.308171987533569</v>
+        <v>-6.126177787780762</v>
       </c>
       <c r="E48" t="n">
-        <v>-3.330989360809326</v>
+        <v>-3.787253141403198</v>
       </c>
       <c r="F48" t="n">
-        <v>-2.892780065536499</v>
+        <v>-2.071758270263672</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>11.86368179321289</v>
+        <v>8.982620239257812</v>
       </c>
       <c r="B49" t="n">
-        <v>7.466022491455078</v>
+        <v>9.58454704284668</v>
       </c>
       <c r="C49" t="n">
-        <v>-6.786663055419922</v>
+        <v>-8.63723087310791</v>
       </c>
       <c r="D49" t="n">
-        <v>-8.219574928283691</v>
+        <v>-6.486493110656738</v>
       </c>
       <c r="E49" t="n">
-        <v>-4.5474853515625</v>
+        <v>-3.837363004684448</v>
       </c>
       <c r="F49" t="n">
-        <v>-3.008040428161621</v>
+        <v>-0.8254784345626831</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>13.00337791442871</v>
+        <v>12.05776691436768</v>
       </c>
       <c r="B50" t="n">
-        <v>6.156636714935303</v>
+        <v>11.40125560760498</v>
       </c>
       <c r="C50" t="n">
-        <v>-9.937597274780273</v>
+        <v>-9.069931983947754</v>
       </c>
       <c r="D50" t="n">
-        <v>-13.03742408752441</v>
+        <v>-9.365156173706055</v>
       </c>
       <c r="E50" t="n">
-        <v>-3.847369909286499</v>
+        <v>-4.543804168701172</v>
       </c>
       <c r="F50" t="n">
-        <v>-1.589845180511475</v>
+        <v>-0.738467812538147</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>11.52660083770752</v>
+        <v>11.93603324890137</v>
       </c>
       <c r="B51" t="n">
-        <v>5.051541328430176</v>
+        <v>9.289484024047852</v>
       </c>
       <c r="C51" t="n">
-        <v>-10.73826122283936</v>
+        <v>-11.16266632080078</v>
       </c>
       <c r="D51" t="n">
-        <v>-13.17550659179688</v>
+        <v>-9.634700775146484</v>
       </c>
       <c r="E51" t="n">
-        <v>-1.749519348144531</v>
+        <v>-3.434473991394043</v>
       </c>
       <c r="F51" t="n">
-        <v>-0.06755250692367554</v>
+        <v>-1.628177046775818</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>6.750088691711426</v>
+        <v>8.101595878601074</v>
       </c>
       <c r="B52" t="n">
-        <v>4.466901779174805</v>
+        <v>7.115489482879639</v>
       </c>
       <c r="C52" t="n">
-        <v>-10.67889976501465</v>
+        <v>-8.640172004699707</v>
       </c>
       <c r="D52" t="n">
-        <v>-13.121018409729</v>
+        <v>-9.741493225097656</v>
       </c>
       <c r="E52" t="n">
-        <v>0.710671603679657</v>
+        <v>-1.131132841110229</v>
       </c>
       <c r="F52" t="n">
-        <v>-0.7373031377792358</v>
+        <v>-2.154492378234863</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>6.209830284118652</v>
+        <v>6.284984588623047</v>
       </c>
       <c r="B53" t="n">
-        <v>4.904058456420898</v>
+        <v>6.442661762237549</v>
       </c>
       <c r="C53" t="n">
-        <v>-6.421353340148926</v>
+        <v>-7.256380081176758</v>
       </c>
       <c r="D53" t="n">
-        <v>-5.341867446899414</v>
+        <v>-6.053324222564697</v>
       </c>
       <c r="E53" t="n">
-        <v>-1.129907011985779</v>
+        <v>-2.722050189971924</v>
       </c>
       <c r="F53" t="n">
-        <v>-1.967385292053223</v>
+        <v>-2.397743463516235</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>6.363873481750488</v>
+        <v>5.400911808013916</v>
       </c>
       <c r="B54" t="n">
-        <v>4.460938453674316</v>
+        <v>5.035347938537598</v>
       </c>
       <c r="C54" t="n">
-        <v>-4.130359649658203</v>
+        <v>-6.148524284362793</v>
       </c>
       <c r="D54" t="n">
-        <v>-5.13202428817749</v>
+        <v>-5.375106811523438</v>
       </c>
       <c r="E54" t="n">
-        <v>-0.4237951338291168</v>
+        <v>-2.794945955276489</v>
       </c>
       <c r="F54" t="n">
-        <v>-2.667548894882202</v>
+        <v>-1.984055280685425</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>6.05034351348877</v>
+        <v>5.79946756362915</v>
       </c>
       <c r="B55" t="n">
-        <v>4.083810806274414</v>
+        <v>4.642302513122559</v>
       </c>
       <c r="C55" t="n">
-        <v>-3.365654468536377</v>
+        <v>-3.667094945907593</v>
       </c>
       <c r="D55" t="n">
-        <v>-5.522947788238525</v>
+        <v>-4.753727436065674</v>
       </c>
       <c r="E55" t="n">
-        <v>-0.5349814295768738</v>
+        <v>-2.314907312393188</v>
       </c>
       <c r="F55" t="n">
-        <v>-3.803980350494385</v>
+        <v>-1.526596069335938</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>5.379842758178711</v>
+        <v>4.807944297790527</v>
       </c>
       <c r="B56" t="n">
-        <v>2.741874694824219</v>
+        <v>3.389349460601807</v>
       </c>
       <c r="C56" t="n">
-        <v>-3.080613613128662</v>
+        <v>-3.614291906356812</v>
       </c>
       <c r="D56" t="n">
-        <v>-5.974016189575195</v>
+        <v>-3.335658073425293</v>
       </c>
       <c r="E56" t="n">
-        <v>-0.8815563917160034</v>
+        <v>-1.523959755897522</v>
       </c>
       <c r="F56" t="n">
-        <v>-3.786127090454102</v>
+        <v>-1.153505921363831</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>3.803935289382935</v>
+        <v>3.728265047073364</v>
       </c>
       <c r="B57" t="n">
-        <v>1.852869510650635</v>
+        <v>2.303917169570923</v>
       </c>
       <c r="C57" t="n">
-        <v>-3.628980159759521</v>
+        <v>-3.041486263275146</v>
       </c>
       <c r="D57" t="n">
-        <v>-6.077945232391357</v>
+        <v>-3.519523859024048</v>
       </c>
       <c r="E57" t="n">
-        <v>-1.103502988815308</v>
+        <v>-0.5759340524673462</v>
       </c>
       <c r="F57" t="n">
-        <v>-3.967211723327637</v>
+        <v>-0.2495715618133545</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>2.720708131790161</v>
+        <v>2.40062403678894</v>
       </c>
       <c r="B58" t="n">
-        <v>1.144892930984497</v>
+        <v>1.155022740364075</v>
       </c>
       <c r="C58" t="n">
-        <v>-4.257269859313965</v>
+        <v>-4.772458553314209</v>
       </c>
       <c r="D58" t="n">
-        <v>-6.257906436920166</v>
+        <v>-3.714517593383789</v>
       </c>
       <c r="E58" t="n">
-        <v>-1.377992153167725</v>
+        <v>-0.4266336262226105</v>
       </c>
       <c r="F58" t="n">
-        <v>-3.434115648269653</v>
+        <v>0.480403870344162</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>1.762121438980103</v>
+        <v>2.226098537445068</v>
       </c>
       <c r="B59" t="n">
-        <v>0.6278269290924072</v>
+        <v>0.6098541021347046</v>
       </c>
       <c r="C59" t="n">
-        <v>-4.701382637023926</v>
+        <v>-4.520830631256104</v>
       </c>
       <c r="D59" t="n">
-        <v>-6.697952270507812</v>
+        <v>-3.463486909866333</v>
       </c>
       <c r="E59" t="n">
-        <v>-1.067187666893005</v>
+        <v>-0.3732660114765167</v>
       </c>
       <c r="F59" t="n">
-        <v>-3.132296562194824</v>
+        <v>0.6659079790115356</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>1.10208523273468</v>
+        <v>0.6608863472938538</v>
       </c>
       <c r="B60" t="n">
-        <v>-0.4798446595668793</v>
+        <v>0.4509521722793579</v>
       </c>
       <c r="C60" t="n">
-        <v>-4.522715091705322</v>
+        <v>-5.674220561981201</v>
       </c>
       <c r="D60" t="n">
-        <v>-6.864532947540283</v>
+        <v>-4.308358192443848</v>
       </c>
       <c r="E60" t="n">
-        <v>-0.9329900741577148</v>
+        <v>0.6704242825508118</v>
       </c>
       <c r="F60" t="n">
-        <v>-2.302083969116211</v>
+        <v>1.711098432540894</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>0.2797945439815521</v>
+        <v>-0.3020924627780914</v>
       </c>
       <c r="B61" t="n">
-        <v>-1.350562453269958</v>
+        <v>-0.3427214920520782</v>
       </c>
       <c r="C61" t="n">
-        <v>-4.912574768066406</v>
+        <v>-5.544485092163086</v>
       </c>
       <c r="D61" t="n">
-        <v>-6.83304500579834</v>
+        <v>-4.694806098937988</v>
       </c>
       <c r="E61" t="n">
-        <v>-0.2394867390394211</v>
+        <v>1.103936910629272</v>
       </c>
       <c r="F61" t="n">
-        <v>-1.822036981582642</v>
+        <v>1.762813210487366</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>-0.2254061996936798</v>
+        <v>-1.033802151679993</v>
       </c>
       <c r="B62" t="n">
-        <v>-1.995627164840698</v>
+        <v>-1.033440113067627</v>
       </c>
       <c r="C62" t="n">
-        <v>-4.956683158874512</v>
+        <v>-6.081509113311768</v>
       </c>
       <c r="D62" t="n">
-        <v>-7.104308605194092</v>
+        <v>-5.238606452941895</v>
       </c>
       <c r="E62" t="n">
-        <v>0.2884894609451294</v>
+        <v>1.233041882514954</v>
       </c>
       <c r="F62" t="n">
-        <v>-1.321120619773865</v>
+        <v>2.092201948165894</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>-0.9530276656150818</v>
+        <v>-1.852293252944946</v>
       </c>
       <c r="B63" t="n">
-        <v>-2.380229234695435</v>
+        <v>-1.903016567230225</v>
       </c>
       <c r="C63" t="n">
-        <v>-4.856700420379639</v>
+        <v>-6.006360054016113</v>
       </c>
       <c r="D63" t="n">
-        <v>-7.480708599090576</v>
+        <v>-5.495103359222412</v>
       </c>
       <c r="E63" t="n">
-        <v>0.9351884126663208</v>
+        <v>1.859117984771729</v>
       </c>
       <c r="F63" t="n">
-        <v>-0.8481838703155518</v>
+        <v>2.225884199142456</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>-1.679582715034485</v>
+        <v>-2.492490291595459</v>
       </c>
       <c r="B64" t="n">
-        <v>-2.885807275772095</v>
+        <v>-2.120947122573853</v>
       </c>
       <c r="C64" t="n">
-        <v>-4.868009567260742</v>
+        <v>-6.470156669616699</v>
       </c>
       <c r="D64" t="n">
-        <v>-7.351220607757568</v>
+        <v>-6.015366554260254</v>
       </c>
       <c r="E64" t="n">
-        <v>1.393382668495178</v>
+        <v>1.864468455314636</v>
       </c>
       <c r="F64" t="n">
-        <v>-0.4819684624671936</v>
+        <v>2.149325370788574</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>-1.740994811058044</v>
+        <v>-3.326810598373413</v>
       </c>
       <c r="B65" t="n">
-        <v>-3.047208309173584</v>
+        <v>-2.601855993270874</v>
       </c>
       <c r="C65" t="n">
-        <v>-5.212019443511963</v>
+        <v>-6.761997222900391</v>
       </c>
       <c r="D65" t="n">
-        <v>-6.961416244506836</v>
+        <v>-5.51671314239502</v>
       </c>
       <c r="E65" t="n">
-        <v>1.979191064834595</v>
+        <v>2.288304805755615</v>
       </c>
       <c r="F65" t="n">
-        <v>0.3427842855453491</v>
+        <v>2.673504590988159</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>-2.476300001144409</v>
+        <v>-3.959123849868774</v>
       </c>
       <c r="B66" t="n">
-        <v>-2.975993156433105</v>
+        <v>-3.373558282852173</v>
       </c>
       <c r="C66" t="n">
-        <v>-5.349125385284424</v>
+        <v>-6.943678855895996</v>
       </c>
       <c r="D66" t="n">
-        <v>-6.832589149475098</v>
+        <v>-6.834521293640137</v>
       </c>
       <c r="E66" t="n">
-        <v>2.45125412940979</v>
+        <v>2.77076530456543</v>
       </c>
       <c r="F66" t="n">
-        <v>1.335084915161133</v>
+        <v>2.982750654220581</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>-3.204120874404907</v>
+        <v>-4.691798210144043</v>
       </c>
       <c r="B67" t="n">
-        <v>-2.732334136962891</v>
+        <v>-3.517372608184814</v>
       </c>
       <c r="C67" t="n">
-        <v>-5.485862731933594</v>
+        <v>-7.000406265258789</v>
       </c>
       <c r="D67" t="n">
-        <v>-6.350067138671875</v>
+        <v>-6.529913902282715</v>
       </c>
       <c r="E67" t="n">
-        <v>3.002164125442505</v>
+        <v>3.491142272949219</v>
       </c>
       <c r="F67" t="n">
-        <v>2.522506713867188</v>
+        <v>3.508282423019409</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>-3.547648429870605</v>
+        <v>-5.657354354858398</v>
       </c>
       <c r="B68" t="n">
-        <v>-3.089801549911499</v>
+        <v>-3.835119485855103</v>
       </c>
       <c r="C68" t="n">
-        <v>-5.306323051452637</v>
+        <v>-6.863380908966064</v>
       </c>
       <c r="D68" t="n">
-        <v>-6.302619457244873</v>
+        <v>-6.721756458282471</v>
       </c>
       <c r="E68" t="n">
-        <v>3.6287682056427</v>
+        <v>3.746343374252319</v>
       </c>
       <c r="F68" t="n">
-        <v>3.208507299423218</v>
+        <v>3.541890621185303</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>-4.097753524780273</v>
+        <v>-6.073068618774414</v>
       </c>
       <c r="B69" t="n">
-        <v>-3.314480066299438</v>
+        <v>-4.650603771209717</v>
       </c>
       <c r="C69" t="n">
-        <v>-5.594681262969971</v>
+        <v>-7.731451511383057</v>
       </c>
       <c r="D69" t="n">
-        <v>-6.163748264312744</v>
+        <v>-7.395523071289062</v>
       </c>
       <c r="E69" t="n">
-        <v>3.911922931671143</v>
+        <v>4.15488862991333</v>
       </c>
       <c r="F69" t="n">
-        <v>4.25972318649292</v>
+        <v>4.355839252471924</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>-4.686662673950195</v>
+        <v>-6.201671600341797</v>
       </c>
       <c r="B70" t="n">
-        <v>-3.582798719406128</v>
+        <v>-5.196924209594727</v>
       </c>
       <c r="C70" t="n">
-        <v>-6.055830001831055</v>
+        <v>-7.859935283660889</v>
       </c>
       <c r="D70" t="n">
-        <v>-5.935451030731201</v>
+        <v>-7.25839376449585</v>
       </c>
       <c r="E70" t="n">
-        <v>4.770337104797363</v>
+        <v>4.80485200881958</v>
       </c>
       <c r="F70" t="n">
-        <v>4.863617897033691</v>
+        <v>4.760969638824463</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>-5.233198642730713</v>
+        <v>-6.976143360137939</v>
       </c>
       <c r="B71" t="n">
-        <v>-3.994559526443481</v>
+        <v>-5.842061519622803</v>
       </c>
       <c r="C71" t="n">
-        <v>-6.42525053024292</v>
+        <v>-8.348854064941406</v>
       </c>
       <c r="D71" t="n">
-        <v>-5.690656185150146</v>
+        <v>-7.855532646179199</v>
       </c>
       <c r="E71" t="n">
-        <v>5.145943641662598</v>
+        <v>4.935136795043945</v>
       </c>
       <c r="F71" t="n">
-        <v>5.537182807922363</v>
+        <v>5.364265441894531</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>-5.807812690734863</v>
+        <v>-7.054979801177979</v>
       </c>
       <c r="B72" t="n">
-        <v>-4.000180244445801</v>
+        <v>-6.034068584442139</v>
       </c>
       <c r="C72" t="n">
-        <v>-7.086403846740723</v>
+        <v>-8.214401245117188</v>
       </c>
       <c r="D72" t="n">
-        <v>-6.150904178619385</v>
+        <v>-8.308992385864258</v>
       </c>
       <c r="E72" t="n">
-        <v>5.934869289398193</v>
+        <v>5.273675918579102</v>
       </c>
       <c r="F72" t="n">
-        <v>6.104663372039795</v>
+        <v>5.687267303466797</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>-6.533936023712158</v>
+        <v>-7.534406185150146</v>
       </c>
       <c r="B73" t="n">
-        <v>-4.666525363922119</v>
+        <v>-6.705233573913574</v>
       </c>
       <c r="C73" t="n">
-        <v>-7.312906742095947</v>
+        <v>-8.150127410888672</v>
       </c>
       <c r="D73" t="n">
-        <v>-6.611366271972656</v>
+        <v>-7.515131950378418</v>
       </c>
       <c r="E73" t="n">
-        <v>6.573604106903076</v>
+        <v>5.18195104598999</v>
       </c>
       <c r="F73" t="n">
-        <v>6.625851154327393</v>
+        <v>5.579022884368896</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>-7.8738694190979</v>
+        <v>-8.364682197570801</v>
       </c>
       <c r="B74" t="n">
-        <v>-5.948079586029053</v>
+        <v>-7.97306489944458</v>
       </c>
       <c r="C74" t="n">
-        <v>-8.377367973327637</v>
+        <v>-8.874896049499512</v>
       </c>
       <c r="D74" t="n">
-        <v>-7.115171432495117</v>
+        <v>-7.948935031890869</v>
       </c>
       <c r="E74" t="n">
-        <v>6.628722667694092</v>
+        <v>5.783843040466309</v>
       </c>
       <c r="F74" t="n">
-        <v>7.089591503143311</v>
+        <v>6.119352340698242</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="n">
-        <v>-8.647128105163574</v>
+        <v>-9.27613353729248</v>
       </c>
       <c r="B75" t="n">
-        <v>-6.780957698822021</v>
+        <v>-9.038912773132324</v>
       </c>
       <c r="C75" t="n">
-        <v>-8.829715728759766</v>
+        <v>-8.586915969848633</v>
       </c>
       <c r="D75" t="n">
-        <v>-7.900413036346436</v>
+        <v>-8.602272033691406</v>
       </c>
       <c r="E75" t="n">
-        <v>6.49735164642334</v>
+        <v>5.35542631149292</v>
       </c>
       <c r="F75" t="n">
-        <v>7.262655735015869</v>
+        <v>6.107404708862305</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>-10.01813316345215</v>
+        <v>-9.813647270202637</v>
       </c>
       <c r="B76" t="n">
-        <v>-7.765187740325928</v>
+        <v>-9.074947357177734</v>
       </c>
       <c r="C76" t="n">
-        <v>-9.082272529602051</v>
+        <v>-9.182173728942871</v>
       </c>
       <c r="D76" t="n">
-        <v>-8.153273582458496</v>
+        <v>-8.125544548034668</v>
       </c>
       <c r="E76" t="n">
-        <v>6.497793674468994</v>
+        <v>5.209408760070801</v>
       </c>
       <c r="F76" t="n">
-        <v>7.215307712554932</v>
+        <v>5.941611289978027</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>-10.62358951568604</v>
+        <v>-10.39594173431396</v>
       </c>
       <c r="B77" t="n">
-        <v>-8.935657501220703</v>
+        <v>-9.669121742248535</v>
       </c>
       <c r="C77" t="n">
-        <v>-9.827740669250488</v>
+        <v>-9.300959587097168</v>
       </c>
       <c r="D77" t="n">
-        <v>-8.200678825378418</v>
+        <v>-7.674380302429199</v>
       </c>
       <c r="E77" t="n">
-        <v>6.493808746337891</v>
+        <v>4.995758533477783</v>
       </c>
       <c r="F77" t="n">
-        <v>7.840319633483887</v>
+        <v>5.756973743438721</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>-11.47140979766846</v>
+        <v>-11.98878002166748</v>
       </c>
       <c r="B78" t="n">
-        <v>-10.00631809234619</v>
+        <v>-10.87471675872803</v>
       </c>
       <c r="C78" t="n">
-        <v>-9.574228286743164</v>
+        <v>-8.410649299621582</v>
       </c>
       <c r="D78" t="n">
-        <v>-8.621543884277344</v>
+        <v>-7.071452140808105</v>
       </c>
       <c r="E78" t="n">
-        <v>6.022228717803955</v>
+        <v>4.888525009155273</v>
       </c>
       <c r="F78" t="n">
-        <v>8.338047027587891</v>
+        <v>5.714736938476562</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>-12.15696620941162</v>
+        <v>-12.28911113739014</v>
       </c>
       <c r="B79" t="n">
-        <v>-10.74240303039551</v>
+        <v>-11.32615661621094</v>
       </c>
       <c r="C79" t="n">
-        <v>-8.974305152893066</v>
+        <v>-8.073623657226562</v>
       </c>
       <c r="D79" t="n">
-        <v>-8.317198753356934</v>
+        <v>-7.112508773803711</v>
       </c>
       <c r="E79" t="n">
-        <v>6.08188533782959</v>
+        <v>4.459052085876465</v>
       </c>
       <c r="F79" t="n">
-        <v>8.395782470703125</v>
+        <v>5.506048202514648</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="n">
-        <v>-12.27025699615479</v>
+        <v>-12.57635116577148</v>
       </c>
       <c r="B80" t="n">
-        <v>-11.68986701965332</v>
+        <v>-12.17219829559326</v>
       </c>
       <c r="C80" t="n">
-        <v>-7.80803918838501</v>
+        <v>-6.890183448791504</v>
       </c>
       <c r="D80" t="n">
-        <v>-7.427690029144287</v>
+        <v>-6.671243190765381</v>
       </c>
       <c r="E80" t="n">
-        <v>5.394477844238281</v>
+        <v>3.992140054702759</v>
       </c>
       <c r="F80" t="n">
-        <v>7.807860851287842</v>
+        <v>5.031835079193115</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="n">
-        <v>-12.27826690673828</v>
+        <v>-12.79114627838135</v>
       </c>
       <c r="B81" t="n">
-        <v>-12.25121593475342</v>
+        <v>-12.01734256744385</v>
       </c>
       <c r="C81" t="n">
-        <v>-6.236248016357422</v>
+        <v>-5.995248317718506</v>
       </c>
       <c r="D81" t="n">
-        <v>-6.420969009399414</v>
+        <v>-5.384190559387207</v>
       </c>
       <c r="E81" t="n">
-        <v>3.587762594223022</v>
+        <v>3.63253927230835</v>
       </c>
       <c r="F81" t="n">
-        <v>5.16778564453125</v>
+        <v>2.23563289642334</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="n">
-        <v>-11.54992580413818</v>
+        <v>-12.16519451141357</v>
       </c>
       <c r="B82" t="n">
-        <v>-11.8339958190918</v>
+        <v>-11.58966827392578</v>
       </c>
       <c r="C82" t="n">
-        <v>-3.728975772857666</v>
+        <v>-3.332165002822876</v>
       </c>
       <c r="D82" t="n">
-        <v>-4.43785285949707</v>
+        <v>-3.361543655395508</v>
       </c>
       <c r="E82" t="n">
-        <v>-0.2417790442705154</v>
+        <v>1.265249729156494</v>
       </c>
       <c r="F82" t="n">
-        <v>0.9222500324249268</v>
+        <v>-1.510026574134827</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>-10.44554328918457</v>
+        <v>-10.77818870544434</v>
       </c>
       <c r="B83" t="n">
-        <v>-10.89188671112061</v>
+        <v>-11.28769207000732</v>
       </c>
       <c r="C83" t="n">
-        <v>-0.2297568917274475</v>
+        <v>0.3926681280136108</v>
       </c>
       <c r="D83" t="n">
-        <v>-1.86625063419342</v>
+        <v>-0.540554404258728</v>
       </c>
       <c r="E83" t="n">
-        <v>-4.761725425720215</v>
+        <v>-2.232901811599731</v>
       </c>
       <c r="F83" t="n">
-        <v>-4.679391860961914</v>
+        <v>-7.152854442596436</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="n">
-        <v>-8.601849555969238</v>
+        <v>-8.54649543762207</v>
       </c>
       <c r="B84" t="n">
-        <v>-9.526596069335938</v>
+        <v>-9.704791069030762</v>
       </c>
       <c r="C84" t="n">
-        <v>3.184739351272583</v>
+        <v>5.935554981231689</v>
       </c>
       <c r="D84" t="n">
-        <v>1.710918068885803</v>
+        <v>2.752800941467285</v>
       </c>
       <c r="E84" t="n">
-        <v>-9.200329780578613</v>
+        <v>-8.025617599487305</v>
       </c>
       <c r="F84" t="n">
-        <v>-9.276721954345703</v>
+        <v>-11.20261764526367</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="n">
-        <v>-6.453960418701172</v>
+        <v>-6.190732955932617</v>
       </c>
       <c r="B85" t="n">
-        <v>-7.800161838531494</v>
+        <v>-6.695076465606689</v>
       </c>
       <c r="C85" t="n">
-        <v>8.201651573181152</v>
+        <v>9.688848495483398</v>
       </c>
       <c r="D85" t="n">
-        <v>6.47817325592041</v>
+        <v>7.137259483337402</v>
       </c>
       <c r="E85" t="n">
-        <v>-11.82577037811279</v>
+        <v>-12.347975730896</v>
       </c>
       <c r="F85" t="n">
-        <v>-12.02529335021973</v>
+        <v>-12.87938499450684</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="n">
-        <v>-4.091588020324707</v>
+        <v>-3.575406789779663</v>
       </c>
       <c r="B86" t="n">
-        <v>-5.935885429382324</v>
+        <v>-4.979935169219971</v>
       </c>
       <c r="C86" t="n">
-        <v>12.09797096252441</v>
+        <v>14.35756397247314</v>
       </c>
       <c r="D86" t="n">
-        <v>10.40050983428955</v>
+        <v>11.84492015838623</v>
       </c>
       <c r="E86" t="n">
-        <v>-12.13215923309326</v>
+        <v>-13.50295734405518</v>
       </c>
       <c r="F86" t="n">
-        <v>-12.65456676483154</v>
+        <v>-11.90073776245117</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="n">
-        <v>-1.42004120349884</v>
+        <v>-1.483127593994141</v>
       </c>
       <c r="B87" t="n">
-        <v>-3.501742601394653</v>
+        <v>-2.365241050720215</v>
       </c>
       <c r="C87" t="n">
-        <v>15.71006679534912</v>
+        <v>18.0229377746582</v>
       </c>
       <c r="D87" t="n">
-        <v>14.81532573699951</v>
+        <v>15.7589807510376</v>
       </c>
       <c r="E87" t="n">
-        <v>-10.37148380279541</v>
+        <v>-11.19572067260742</v>
       </c>
       <c r="F87" t="n">
-        <v>-11.08517265319824</v>
+        <v>-9.064521789550781</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="n">
-        <v>0.8156583905220032</v>
+        <v>1.041138648986816</v>
       </c>
       <c r="B88" t="n">
-        <v>-1.209328770637512</v>
+        <v>-0.3380287289619446</v>
       </c>
       <c r="C88" t="n">
-        <v>19.05379676818848</v>
+        <v>19.38101768493652</v>
       </c>
       <c r="D88" t="n">
-        <v>18.4526481628418</v>
+        <v>18.51577186584473</v>
       </c>
       <c r="E88" t="n">
-        <v>-7.463959693908691</v>
+        <v>-7.308784008026123</v>
       </c>
       <c r="F88" t="n">
-        <v>-8.482412338256836</v>
+        <v>-6.761521816253662</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="n">
-        <v>3.344087362289429</v>
+        <v>3.181753873825073</v>
       </c>
       <c r="B89" t="n">
-        <v>0.6902061700820923</v>
+        <v>1.217247724533081</v>
       </c>
       <c r="C89" t="n">
-        <v>19.90046310424805</v>
+        <v>19.86897087097168</v>
       </c>
       <c r="D89" t="n">
-        <v>20.4093017578125</v>
+        <v>19.02492141723633</v>
       </c>
       <c r="E89" t="n">
-        <v>-4.702657699584961</v>
+        <v>-4.086232662200928</v>
       </c>
       <c r="F89" t="n">
-        <v>-6.077734470367432</v>
+        <v>-4.34632682800293</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="n">
-        <v>4.854475498199463</v>
+        <v>5.002627849578857</v>
       </c>
       <c r="B90" t="n">
-        <v>2.639219522476196</v>
+        <v>2.649582147598267</v>
       </c>
       <c r="C90" t="n">
-        <v>19.76141357421875</v>
+        <v>18.62399101257324</v>
       </c>
       <c r="D90" t="n">
-        <v>21.49444961547852</v>
+        <v>18.45922470092773</v>
       </c>
       <c r="E90" t="n">
-        <v>-2.469382286071777</v>
+        <v>-1.128772854804993</v>
       </c>
       <c r="F90" t="n">
-        <v>-3.750116348266602</v>
+        <v>-2.554731845855713</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="n">
-        <v>6.477858066558838</v>
+        <v>6.319136142730713</v>
       </c>
       <c r="B91" t="n">
-        <v>4.048161029815674</v>
+        <v>3.997532844543457</v>
       </c>
       <c r="C91" t="n">
-        <v>19.87391090393066</v>
+        <v>17.44380569458008</v>
       </c>
       <c r="D91" t="n">
-        <v>21.56834411621094</v>
+        <v>16.4974193572998</v>
       </c>
       <c r="E91" t="n">
-        <v>-0.8863298892974854</v>
+        <v>1.029248476028442</v>
       </c>
       <c r="F91" t="n">
-        <v>-1.545677661895752</v>
+        <v>-1.200774908065796</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="n">
-        <v>8.126139640808105</v>
+        <v>7.031084537506104</v>
       </c>
       <c r="B92" t="n">
-        <v>5.309580326080322</v>
+        <v>4.963037490844727</v>
       </c>
       <c r="C92" t="n">
-        <v>17.89321517944336</v>
+        <v>14.83487606048584</v>
       </c>
       <c r="D92" t="n">
-        <v>20.01666069030762</v>
+        <v>14.77360916137695</v>
       </c>
       <c r="E92" t="n">
-        <v>0.1033489406108856</v>
+        <v>1.935507535934448</v>
       </c>
       <c r="F92" t="n">
-        <v>0.2761323750019073</v>
+        <v>0.5468153953552246</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="n">
-        <v>9.038937568664551</v>
+        <v>7.16925048828125</v>
       </c>
       <c r="B93" t="n">
-        <v>6.36945629119873</v>
+        <v>5.614122867584229</v>
       </c>
       <c r="C93" t="n">
-        <v>15.76859378814697</v>
+        <v>11.17836952209473</v>
       </c>
       <c r="D93" t="n">
-        <v>17.71445465087891</v>
+        <v>11.91502475738525</v>
       </c>
       <c r="E93" t="n">
-        <v>1.376449227333069</v>
+        <v>3.170056104660034</v>
       </c>
       <c r="F93" t="n">
-        <v>1.655109882354736</v>
+        <v>0.9564177393913269</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="n">
-        <v>9.620625495910645</v>
+        <v>7.864269256591797</v>
       </c>
       <c r="B94" t="n">
-        <v>7.480892181396484</v>
+        <v>6.245520114898682</v>
       </c>
       <c r="C94" t="n">
-        <v>12.9519214630127</v>
+        <v>7.751326084136963</v>
       </c>
       <c r="D94" t="n">
-        <v>14.60998725891113</v>
+        <v>9.15446949005127</v>
       </c>
       <c r="E94" t="n">
-        <v>1.717960357666016</v>
+        <v>3.108603000640869</v>
       </c>
       <c r="F94" t="n">
-        <v>2.461296319961548</v>
+        <v>1.42350971698761</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="n">
-        <v>10.18990421295166</v>
+        <v>8.819189071655273</v>
       </c>
       <c r="B95" t="n">
-        <v>8.014823913574219</v>
+        <v>7.034124374389648</v>
       </c>
       <c r="C95" t="n">
-        <v>9.832080841064453</v>
+        <v>2.861613512039185</v>
       </c>
       <c r="D95" t="n">
-        <v>11.15319728851318</v>
+        <v>5.220818042755127</v>
       </c>
       <c r="E95" t="n">
-        <v>1.488295674324036</v>
+        <v>2.199895143508911</v>
       </c>
       <c r="F95" t="n">
-        <v>2.359695911407471</v>
+        <v>1.274506330490112</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="n">
-        <v>10.67028999328613</v>
+        <v>8.996767044067383</v>
       </c>
       <c r="B96" t="n">
-        <v>8.269389152526855</v>
+        <v>8.470763206481934</v>
       </c>
       <c r="C96" t="n">
-        <v>5.567639350891113</v>
+        <v>-0.2780637741088867</v>
       </c>
       <c r="D96" t="n">
-        <v>7.446515083312988</v>
+        <v>3.099437713623047</v>
       </c>
       <c r="E96" t="n">
-        <v>0.8576405048370361</v>
+        <v>0.7524127960205078</v>
       </c>
       <c r="F96" t="n">
-        <v>1.314482569694519</v>
+        <v>0.7416244745254517</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="n">
-        <v>10.96444892883301</v>
+        <v>9.531951904296875</v>
       </c>
       <c r="B97" t="n">
-        <v>8.604787826538086</v>
+        <v>8.973282814025879</v>
       </c>
       <c r="C97" t="n">
-        <v>2.31293797492981</v>
+        <v>-3.802520990371704</v>
       </c>
       <c r="D97" t="n">
-        <v>3.049210548400879</v>
+        <v>-0.6974923610687256</v>
       </c>
       <c r="E97" t="n">
-        <v>-0.7657407522201538</v>
+        <v>-1.740520000457764</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1857134848833084</v>
+        <v>-0.1940382719039917</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="n">
-        <v>10.99624729156494</v>
+        <v>9.508715629577637</v>
       </c>
       <c r="B98" t="n">
-        <v>8.659662246704102</v>
+        <v>9.691636085510254</v>
       </c>
       <c r="C98" t="n">
-        <v>-1.997253775596619</v>
+        <v>-6.092700004577637</v>
       </c>
       <c r="D98" t="n">
-        <v>-0.6758038997650146</v>
+        <v>-2.838151216506958</v>
       </c>
       <c r="E98" t="n">
-        <v>-2.18440318107605</v>
+        <v>-3.189677953720093</v>
       </c>
       <c r="F98" t="n">
-        <v>-0.3908758759498596</v>
+        <v>-0.7310159206390381</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="n">
-        <v>11.35276031494141</v>
+        <v>10.26124286651611</v>
       </c>
       <c r="B99" t="n">
-        <v>7.610278129577637</v>
+        <v>9.51332950592041</v>
       </c>
       <c r="C99" t="n">
-        <v>-5.153692722320557</v>
+        <v>-8.688373565673828</v>
       </c>
       <c r="D99" t="n">
-        <v>-4.202277183532715</v>
+        <v>-6.233551502227783</v>
       </c>
       <c r="E99" t="n">
-        <v>-3.023565769195557</v>
+        <v>-4.009417057037354</v>
       </c>
       <c r="F99" t="n">
-        <v>-0.7499908208847046</v>
+        <v>-1.192824959754944</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="n">
-        <v>11.57670307159424</v>
+        <v>9.130588531494141</v>
       </c>
       <c r="B100" t="n">
-        <v>7.105775833129883</v>
+        <v>9.336097717285156</v>
       </c>
       <c r="C100" t="n">
-        <v>-7.785983085632324</v>
+        <v>-9.516086578369141</v>
       </c>
       <c r="D100" t="n">
-        <v>-8.501277923583984</v>
+        <v>-8.228216171264648</v>
       </c>
       <c r="E100" t="n">
-        <v>-3.213672637939453</v>
+        <v>-4.216460227966309</v>
       </c>
       <c r="F100" t="n">
-        <v>-0.6854422688484192</v>
+        <v>-0.9287153482437134</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="n">
-        <v>11.82778072357178</v>
+        <v>10.47012996673584</v>
       </c>
       <c r="B101" t="n">
-        <v>6.237935543060303</v>
+        <v>9.583486557006836</v>
       </c>
       <c r="C101" t="n">
-        <v>-10.00479507446289</v>
+        <v>-10.57058715820312</v>
       </c>
       <c r="D101" t="n">
-        <v>-11.16340732574463</v>
+        <v>-9.806607246398926</v>
       </c>
       <c r="E101" t="n">
-        <v>-2.946634292602539</v>
+        <v>-4.351583480834961</v>
       </c>
       <c r="F101" t="n">
-        <v>-0.3377520442008972</v>
+        <v>-1.296658515930176</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="n">
-        <v>10.44905662536621</v>
+        <v>10.15120506286621</v>
       </c>
       <c r="B102" t="n">
-        <v>5.50178861618042</v>
+        <v>8.353891372680664</v>
       </c>
       <c r="C102" t="n">
-        <v>-10.44786548614502</v>
+        <v>-11.15126323699951</v>
       </c>
       <c r="D102" t="n">
-        <v>-12.23234844207764</v>
+        <v>-9.829251289367676</v>
       </c>
       <c r="E102" t="n">
-        <v>-1.723725914955139</v>
+        <v>-4.259195804595947</v>
       </c>
       <c r="F102" t="n">
-        <v>-0.02458024211227894</v>
+        <v>-2.265553951263428</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="n">
-        <v>7.079992771148682</v>
+        <v>7.460274696350098</v>
       </c>
       <c r="B103" t="n">
-        <v>5.469281196594238</v>
+        <v>6.831722259521484</v>
       </c>
       <c r="C103" t="n">
-        <v>-10.13661098480225</v>
+        <v>-9.59471607208252</v>
       </c>
       <c r="D103" t="n">
-        <v>-12.25094604492188</v>
+        <v>-9.121687889099121</v>
       </c>
       <c r="E103" t="n">
-        <v>-0.4241890609264374</v>
+        <v>-2.666447877883911</v>
       </c>
       <c r="F103" t="n">
-        <v>0.1613837331533432</v>
+        <v>-2.301292419433594</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="n">
-        <v>6.658324241638184</v>
+        <v>6.523857116699219</v>
       </c>
       <c r="B104" t="n">
-        <v>5.025653839111328</v>
+        <v>6.486357688903809</v>
       </c>
       <c r="C104" t="n">
-        <v>-6.947257041931152</v>
+        <v>-7.329830646514893</v>
       </c>
       <c r="D104" t="n">
-        <v>-5.987809181213379</v>
+        <v>-6.789074420928955</v>
       </c>
       <c r="E104" t="n">
-        <v>-1.813085198402405</v>
+        <v>-3.008544683456421</v>
       </c>
       <c r="F104" t="n">
-        <v>-2.487177133560181</v>
+        <v>-2.247557640075684</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="n">
-        <v>6.553290367126465</v>
+        <v>6.006002902984619</v>
       </c>
       <c r="B105" t="n">
-        <v>4.114026546478271</v>
+        <v>5.139388084411621</v>
       </c>
       <c r="C105" t="n">
-        <v>-4.258525848388672</v>
+        <v>-6.328459739685059</v>
       </c>
       <c r="D105" t="n">
-        <v>-5.526779174804688</v>
+        <v>-6.361244678497314</v>
       </c>
       <c r="E105" t="n">
-        <v>-1.264274716377258</v>
+        <v>-3.136640071868896</v>
       </c>
       <c r="F105" t="n">
-        <v>-3.40402626991272</v>
+        <v>-2.206739187240601</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="n">
-        <v>6.177794933319092</v>
+        <v>6.102521419525146</v>
       </c>
       <c r="B106" t="n">
-        <v>3.413785934448242</v>
+        <v>4.427767276763916</v>
       </c>
       <c r="C106" t="n">
-        <v>-2.64045262336731</v>
+        <v>-4.247772216796875</v>
       </c>
       <c r="D106" t="n">
-        <v>-5.964203834533691</v>
+        <v>-5.675629138946533</v>
       </c>
       <c r="E106" t="n">
-        <v>-1.132468461990356</v>
+        <v>-2.198523998260498</v>
       </c>
       <c r="F106" t="n">
-        <v>-4.197235584259033</v>
+        <v>-1.827870607376099</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="n">
-        <v>5.36754846572876</v>
+        <v>4.99597692489624</v>
       </c>
       <c r="B107" t="n">
-        <v>2.477389097213745</v>
+        <v>3.617403507232666</v>
       </c>
       <c r="C107" t="n">
-        <v>-2.719198703765869</v>
+        <v>-3.942843675613403</v>
       </c>
       <c r="D107" t="n">
-        <v>-6.437614917755127</v>
+        <v>-4.237934112548828</v>
       </c>
       <c r="E107" t="n">
-        <v>-1.136448860168457</v>
+        <v>-1.277819991111755</v>
       </c>
       <c r="F107" t="n">
-        <v>-3.963060855865479</v>
+        <v>-1.217101812362671</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="n">
-        <v>4.17775821685791</v>
+        <v>3.81335711479187</v>
       </c>
       <c r="B108" t="n">
-        <v>1.256537199020386</v>
+        <v>2.449010610580444</v>
       </c>
       <c r="C108" t="n">
-        <v>-3.325236558914185</v>
+        <v>-3.921006679534912</v>
       </c>
       <c r="D108" t="n">
-        <v>-6.330257415771484</v>
+        <v>-4.346718788146973</v>
       </c>
       <c r="E108" t="n">
-        <v>-1.128632307052612</v>
+        <v>-0.8038525581359863</v>
       </c>
       <c r="F108" t="n">
-        <v>-3.783739566802979</v>
+        <v>-0.4515169262886047</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="n">
-        <v>3.082589149475098</v>
+        <v>2.583014965057373</v>
       </c>
       <c r="B109" t="n">
-        <v>0.6659945249557495</v>
+        <v>1.251598358154297</v>
       </c>
       <c r="C109" t="n">
-        <v>-3.733386278152466</v>
+        <v>-4.734705924987793</v>
       </c>
       <c r="D109" t="n">
-        <v>-6.396618843078613</v>
+        <v>-4.539648532867432</v>
       </c>
       <c r="E109" t="n">
-        <v>-1.273345351219177</v>
+        <v>-0.3505323231220245</v>
       </c>
       <c r="F109" t="n">
-        <v>-3.342709541320801</v>
+        <v>0.2227583080530167</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="n">
-        <v>1.797974824905396</v>
+        <v>1.917063474655151</v>
       </c>
       <c r="B110" t="n">
-        <v>0.1521816402673721</v>
+        <v>0.6272869110107422</v>
       </c>
       <c r="C110" t="n">
-        <v>-4.099960803985596</v>
+        <v>-5.281318187713623</v>
       </c>
       <c r="D110" t="n">
-        <v>-6.587733268737793</v>
+        <v>-4.468778610229492</v>
       </c>
       <c r="E110" t="n">
-        <v>-0.9860624074935913</v>
+        <v>-0.1097560971975327</v>
       </c>
       <c r="F110" t="n">
-        <v>-2.826200485229492</v>
+        <v>0.640706479549408</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="n">
-        <v>1.058997392654419</v>
+        <v>0.7614635825157166</v>
       </c>
       <c r="B111" t="n">
-        <v>-0.8838658928871155</v>
+        <v>0.1291416436433792</v>
       </c>
       <c r="C111" t="n">
-        <v>-4.485991954803467</v>
+        <v>-5.825123310089111</v>
       </c>
       <c r="D111" t="n">
-        <v>-7.039525985717773</v>
+        <v>-4.917495250701904</v>
       </c>
       <c r="E111" t="n">
-        <v>-0.7552604675292969</v>
+        <v>0.2459166795015335</v>
       </c>
       <c r="F111" t="n">
-        <v>-2.22503137588501</v>
+        <v>1.480236530303955</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="n">
-        <v>0.3350760638713837</v>
+        <v>-0.1641986668109894</v>
       </c>
       <c r="B112" t="n">
-        <v>-1.506307601928711</v>
+        <v>-0.2130657881498337</v>
       </c>
       <c r="C112" t="n">
-        <v>-4.683201313018799</v>
+        <v>-5.874966144561768</v>
       </c>
       <c r="D112" t="n">
-        <v>-6.941986560821533</v>
+        <v>-5.457828521728516</v>
       </c>
       <c r="E112" t="n">
-        <v>-0.1760756224393845</v>
+        <v>0.7280051112174988</v>
       </c>
       <c r="F112" t="n">
-        <v>-1.756170988082886</v>
+        <v>1.800464391708374</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="n">
-        <v>-0.1670131981372833</v>
+        <v>-1.19891881942749</v>
       </c>
       <c r="B113" t="n">
-        <v>-1.953488707542419</v>
+        <v>-1.059672951698303</v>
       </c>
       <c r="C113" t="n">
-        <v>-5.111945629119873</v>
+        <v>-5.918870449066162</v>
       </c>
       <c r="D113" t="n">
-        <v>-6.961699962615967</v>
+        <v>-5.408890724182129</v>
       </c>
       <c r="E113" t="n">
-        <v>0.3201943039894104</v>
+        <v>1.314082026481628</v>
       </c>
       <c r="F113" t="n">
-        <v>-1.134973764419556</v>
+        <v>2.245766878128052</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="n">
-        <v>-0.8874015808105469</v>
+        <v>-1.803120493888855</v>
       </c>
       <c r="B114" t="n">
-        <v>-2.584572315216064</v>
+        <v>-2.031243562698364</v>
       </c>
       <c r="C114" t="n">
-        <v>-5.001899719238281</v>
+        <v>-6.204925060272217</v>
       </c>
       <c r="D114" t="n">
-        <v>-7.423858642578125</v>
+        <v>-6.097522258758545</v>
       </c>
       <c r="E114" t="n">
-        <v>0.9067106246948242</v>
+        <v>1.815045714378357</v>
       </c>
       <c r="F114" t="n">
-        <v>-0.7039966583251953</v>
+        <v>2.22585654258728</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="n">
-        <v>-1.988920211791992</v>
+        <v>-2.544877767562866</v>
       </c>
       <c r="B115" t="n">
-        <v>-2.747619867324829</v>
+        <v>-2.371031999588013</v>
       </c>
       <c r="C115" t="n">
-        <v>-5.220447063446045</v>
+        <v>-6.81065559387207</v>
       </c>
       <c r="D115" t="n">
-        <v>-7.254546165466309</v>
+        <v>-6.192762851715088</v>
       </c>
       <c r="E115" t="n">
-        <v>1.31873893737793</v>
+        <v>2.036955595016479</v>
       </c>
       <c r="F115" t="n">
-        <v>-0.186859130859375</v>
+        <v>2.231894493103027</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="n">
-        <v>-2.274977445602417</v>
+        <v>-3.267937898635864</v>
       </c>
       <c r="B116" t="n">
-        <v>-3.120268583297729</v>
+        <v>-2.630512237548828</v>
       </c>
       <c r="C116" t="n">
-        <v>-5.620524883270264</v>
+        <v>-6.714493751525879</v>
       </c>
       <c r="D116" t="n">
-        <v>-6.824784278869629</v>
+        <v>-6.163781642913818</v>
       </c>
       <c r="E116" t="n">
-        <v>1.937914729118347</v>
+        <v>2.457193851470947</v>
       </c>
       <c r="F116" t="n">
-        <v>0.5819320678710938</v>
+        <v>2.84330415725708</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="n">
-        <v>-3.10997486114502</v>
+        <v>-4.197868347167969</v>
       </c>
       <c r="B117" t="n">
-        <v>-3.300499439239502</v>
+        <v>-3.165410041809082</v>
       </c>
       <c r="C117" t="n">
-        <v>-5.800642013549805</v>
+        <v>-7.245944023132324</v>
       </c>
       <c r="D117" t="n">
-        <v>-6.905552387237549</v>
+        <v>-6.972611904144287</v>
       </c>
       <c r="E117" t="n">
-        <v>2.459029197692871</v>
+        <v>2.988380432128906</v>
       </c>
       <c r="F117" t="n">
-        <v>1.31242847442627</v>
+        <v>3.080697536468506</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="n">
-        <v>-3.46701455116272</v>
+        <v>-5.001914024353027</v>
       </c>
       <c r="B118" t="n">
-        <v>-3.108516931533813</v>
+        <v>-3.922784566879272</v>
       </c>
       <c r="C118" t="n">
-        <v>-5.717460155487061</v>
+        <v>-7.502520084381104</v>
       </c>
       <c r="D118" t="n">
-        <v>-6.410054683685303</v>
+        <v>-7.216314792633057</v>
       </c>
       <c r="E118" t="n">
-        <v>2.922605752944946</v>
+        <v>3.512014627456665</v>
       </c>
       <c r="F118" t="n">
-        <v>2.307713508605957</v>
+        <v>3.407546520233154</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="n">
-        <v>-3.997516393661499</v>
+        <v>-5.950902938842773</v>
       </c>
       <c r="B119" t="n">
-        <v>-3.527313232421875</v>
+        <v>-4.316573619842529</v>
       </c>
       <c r="C119" t="n">
-        <v>-5.910048961639404</v>
+        <v>-7.204301834106445</v>
       </c>
       <c r="D119" t="n">
-        <v>-6.220814228057861</v>
+        <v>-7.316268920898438</v>
       </c>
       <c r="E119" t="n">
-        <v>3.585119247436523</v>
+        <v>3.814625024795532</v>
       </c>
       <c r="F119" t="n">
-        <v>3.052437543869019</v>
+        <v>3.546280145645142</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="n">
-        <v>-4.767438888549805</v>
+        <v>-6.629513740539551</v>
       </c>
       <c r="B120" t="n">
-        <v>-3.929165124893188</v>
+        <v>-4.779009819030762</v>
       </c>
       <c r="C120" t="n">
-        <v>-6.450595378875732</v>
+        <v>-8.114036560058594</v>
       </c>
       <c r="D120" t="n">
-        <v>-6.303682804107666</v>
+        <v>-7.733907699584961</v>
       </c>
       <c r="E120" t="n">
-        <v>4.033804416656494</v>
+        <v>4.273848533630371</v>
       </c>
       <c r="F120" t="n">
-        <v>4.058377265930176</v>
+        <v>4.203494548797607</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="n">
-        <v>-5.093635559082031</v>
+        <v>-6.904550075531006</v>
       </c>
       <c r="B121" t="n">
-        <v>-4.174069404602051</v>
+        <v>-5.520753383636475</v>
       </c>
       <c r="C121" t="n">
-        <v>-6.699326038360596</v>
+        <v>-8.371818542480469</v>
       </c>
       <c r="D121" t="n">
-        <v>-6.365056037902832</v>
+        <v>-7.66660213470459</v>
       </c>
       <c r="E121" t="n">
-        <v>4.714656352996826</v>
+        <v>4.742965698242188</v>
       </c>
       <c r="F121" t="n">
-        <v>4.675564765930176</v>
+        <v>4.726994514465332</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="n">
-        <v>-5.852052211761475</v>
+        <v>-7.422578811645508</v>
       </c>
       <c r="B122" t="n">
-        <v>-4.824973106384277</v>
+        <v>-6.075841903686523</v>
       </c>
       <c r="C122" t="n">
-        <v>-6.762172222137451</v>
+        <v>-8.920251846313477</v>
       </c>
       <c r="D122" t="n">
-        <v>-6.4757399559021</v>
+        <v>-8.078797340393066</v>
       </c>
       <c r="E122" t="n">
-        <v>5.310141563415527</v>
+        <v>5.072368621826172</v>
       </c>
       <c r="F122" t="n">
-        <v>5.249570846557617</v>
+        <v>5.240435123443604</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="n">
-        <v>-6.385677337646484</v>
+        <v>-7.725718975067139</v>
       </c>
       <c r="B123" t="n">
-        <v>-4.840495109558105</v>
+        <v>-6.549234390258789</v>
       </c>
       <c r="C123" t="n">
-        <v>-7.639784336090088</v>
+        <v>-8.573018074035645</v>
       </c>
       <c r="D123" t="n">
-        <v>-6.657272338867188</v>
+        <v>-8.640572547912598</v>
       </c>
       <c r="E123" t="n">
-        <v>5.949691295623779</v>
+        <v>5.430419921875</v>
       </c>
       <c r="F123" t="n">
-        <v>5.987610340118408</v>
+        <v>5.441334247589111</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="n">
-        <v>-7.225673675537109</v>
+        <v>-8.175758361816406</v>
       </c>
       <c r="B124" t="n">
-        <v>-5.530809879302979</v>
+        <v>-7.272836208343506</v>
       </c>
       <c r="C124" t="n">
-        <v>-7.869004249572754</v>
+        <v>-8.644712448120117</v>
       </c>
       <c r="D124" t="n">
-        <v>-6.955989837646484</v>
+        <v>-8.279940605163574</v>
       </c>
       <c r="E124" t="n">
-        <v>6.78388500213623</v>
+        <v>5.872867584228516</v>
       </c>
       <c r="F124" t="n">
-        <v>6.601810455322266</v>
+        <v>5.421507358551025</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="n">
-        <v>-8.216239929199219</v>
+        <v>-8.879148483276367</v>
       </c>
       <c r="B125" t="n">
-        <v>-6.53462553024292</v>
+        <v>-8.098167419433594</v>
       </c>
       <c r="C125" t="n">
-        <v>-8.572845458984375</v>
+        <v>-9.064587593078613</v>
       </c>
       <c r="D125" t="n">
-        <v>-7.542657852172852</v>
+        <v>-8.668038368225098</v>
       </c>
       <c r="E125" t="n">
-        <v>7.213222980499268</v>
+        <v>6.012638568878174</v>
       </c>
       <c r="F125" t="n">
-        <v>7.067256450653076</v>
+        <v>5.814406394958496</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="n">
-        <v>-8.983822822570801</v>
+        <v>-9.613144874572754</v>
       </c>
       <c r="B126" t="n">
-        <v>-7.369949340820312</v>
+        <v>-8.963410377502441</v>
       </c>
       <c r="C126" t="n">
-        <v>-8.620521545410156</v>
+        <v>-8.72878360748291</v>
       </c>
       <c r="D126" t="n">
-        <v>-7.713476657867432</v>
+        <v>-8.46040153503418</v>
       </c>
       <c r="E126" t="n">
-        <v>7.079204559326172</v>
+        <v>5.970552444458008</v>
       </c>
       <c r="F126" t="n">
-        <v>7.372494697570801</v>
+        <v>5.874116897583008</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="n">
-        <v>-10.03976440429688</v>
+        <v>-10.28833770751953</v>
       </c>
       <c r="B127" t="n">
-        <v>-8.418342590332031</v>
+        <v>-9.271201133728027</v>
       </c>
       <c r="C127" t="n">
-        <v>-8.981508255004883</v>
+        <v>-9.153688430786133</v>
       </c>
       <c r="D127" t="n">
-        <v>-8.089795112609863</v>
+        <v>-8.447002410888672</v>
       </c>
       <c r="E127" t="n">
-        <v>7.162223815917969</v>
+        <v>5.951414585113525</v>
       </c>
       <c r="F127" t="n">
-        <v>7.300601959228516</v>
+        <v>5.803832530975342</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="n">
-        <v>-10.9825382232666</v>
+        <v>-10.73843002319336</v>
       </c>
       <c r="B128" t="n">
-        <v>-9.490296363830566</v>
+        <v>-10.03807353973389</v>
       </c>
       <c r="C128" t="n">
-        <v>-9.217219352722168</v>
+        <v>-9.222718238830566</v>
       </c>
       <c r="D128" t="n">
-        <v>-8.061253547668457</v>
+        <v>-8.032953262329102</v>
       </c>
       <c r="E128" t="n">
-        <v>7.317312240600586</v>
+        <v>5.315911769866943</v>
       </c>
       <c r="F128" t="n">
-        <v>7.530791282653809</v>
+        <v>5.514791965484619</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="n">
-        <v>-11.97616863250732</v>
+        <v>-12.3645133972168</v>
       </c>
       <c r="B129" t="n">
-        <v>-10.46412754058838</v>
+        <v>-11.21460151672363</v>
       </c>
       <c r="C129" t="n">
-        <v>-8.968140602111816</v>
+        <v>-8.319849014282227</v>
       </c>
       <c r="D129" t="n">
-        <v>-8.261430740356445</v>
+        <v>-7.386528491973877</v>
       </c>
       <c r="E129" t="n">
-        <v>6.529848098754883</v>
+        <v>4.837998390197754</v>
       </c>
       <c r="F129" t="n">
-        <v>8.118852615356445</v>
+        <v>5.421548843383789</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="n">
-        <v>-12.58033180236816</v>
+        <v>-12.63307285308838</v>
       </c>
       <c r="B130" t="n">
-        <v>-11.19315910339355</v>
+        <v>-11.47806262969971</v>
       </c>
       <c r="C130" t="n">
-        <v>-8.455181121826172</v>
+        <v>-7.865026473999023</v>
       </c>
       <c r="D130" t="n">
-        <v>-8.015781402587891</v>
+        <v>-7.053200721740723</v>
       </c>
       <c r="E130" t="n">
-        <v>6.002820014953613</v>
+        <v>4.320452690124512</v>
       </c>
       <c r="F130" t="n">
-        <v>7.840164661407471</v>
+        <v>5.31330680847168</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="n">
-        <v>-12.66497039794922</v>
+        <v>-13.09972476959229</v>
       </c>
       <c r="B131" t="n">
-        <v>-11.86053562164307</v>
+        <v>-12.45204830169678</v>
       </c>
       <c r="C131" t="n">
-        <v>-7.467915058135986</v>
+        <v>-6.55636739730835</v>
       </c>
       <c r="D131" t="n">
-        <v>-7.048551559448242</v>
+        <v>-6.608708381652832</v>
       </c>
       <c r="E131" t="n">
-        <v>4.801398754119873</v>
+        <v>3.305382251739502</v>
       </c>
       <c r="F131" t="n">
-        <v>7.125147342681885</v>
+        <v>4.565135478973389</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="n">
-        <v>-12.50095462799072</v>
+        <v>-12.97117519378662</v>
       </c>
       <c r="B132" t="n">
-        <v>-12.14614200592041</v>
+        <v>-12.19017314910889</v>
       </c>
       <c r="C132" t="n">
-        <v>-5.832375049591064</v>
+        <v>-5.293566703796387</v>
       </c>
       <c r="D132" t="n">
-        <v>-6.134440422058105</v>
+        <v>-5.203535079956055</v>
       </c>
       <c r="E132" t="n">
-        <v>2.527451276779175</v>
+        <v>2.469264030456543</v>
       </c>
       <c r="F132" t="n">
-        <v>4.232646465301514</v>
+        <v>1.845825552940369</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="n">
-        <v>-11.72093868255615</v>
+        <v>-12.3897533416748</v>
       </c>
       <c r="B133" t="n">
-        <v>-11.81262397766113</v>
+        <v>-11.90225696563721</v>
       </c>
       <c r="C133" t="n">
-        <v>-2.815008878707886</v>
+        <v>-2.457298994064331</v>
       </c>
       <c r="D133" t="n">
-        <v>-3.912145137786865</v>
+        <v>-3.022471189498901</v>
       </c>
       <c r="E133" t="n">
-        <v>-1.051743388175964</v>
+        <v>-0.03158478066325188</v>
       </c>
       <c r="F133" t="n">
-        <v>-0.2886082530021667</v>
+        <v>-1.907030344009399</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="n">
-        <v>-10.56693458557129</v>
+        <v>-10.89534664154053</v>
       </c>
       <c r="B134" t="n">
-        <v>-10.94224739074707</v>
+        <v>-11.13287448883057</v>
       </c>
       <c r="C134" t="n">
-        <v>0.3239709138870239</v>
+        <v>1.136725425720215</v>
       </c>
       <c r="D134" t="n">
-        <v>-1.492213249206543</v>
+        <v>-0.2665674388408661</v>
       </c>
       <c r="E134" t="n">
-        <v>-5.433252811431885</v>
+        <v>-3.715923309326172</v>
       </c>
       <c r="F134" t="n">
-        <v>-5.806396484375</v>
+        <v>-7.627929210662842</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="n">
-        <v>-8.589289665222168</v>
+        <v>-8.570324897766113</v>
       </c>
       <c r="B135" t="n">
-        <v>-9.309226036071777</v>
+        <v>-9.533733367919922</v>
       </c>
       <c r="C135" t="n">
-        <v>4.074688911437988</v>
+        <v>6.163617610931396</v>
       </c>
       <c r="D135" t="n">
-        <v>2.163190841674805</v>
+        <v>3.295700550079346</v>
       </c>
       <c r="E135" t="n">
-        <v>-9.619072914123535</v>
+        <v>-8.804141998291016</v>
       </c>
       <c r="F135" t="n">
-        <v>-9.952409744262695</v>
+        <v>-11.54685592651367</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="n">
-        <v>-6.296164989471436</v>
+        <v>-5.957184314727783</v>
       </c>
       <c r="B136" t="n">
-        <v>-7.352311611175537</v>
+        <v>-6.763288497924805</v>
       </c>
       <c r="C136" t="n">
-        <v>8.801159858703613</v>
+        <v>10.68898868560791</v>
       </c>
       <c r="D136" t="n">
-        <v>6.867287635803223</v>
+        <v>8.148961067199707</v>
       </c>
       <c r="E136" t="n">
-        <v>-12.11166095733643</v>
+        <v>-12.3552770614624</v>
       </c>
       <c r="F136" t="n">
-        <v>-12.63082790374756</v>
+        <v>-13.48538780212402</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="n">
-        <v>-4.041685581207275</v>
+        <v>-3.18107795715332</v>
       </c>
       <c r="B137" t="n">
-        <v>-5.473484039306641</v>
+        <v>-4.770442962646484</v>
       </c>
       <c r="C137" t="n">
-        <v>13.171142578125</v>
+        <v>15.23096370697021</v>
       </c>
       <c r="D137" t="n">
-        <v>11.06875801086426</v>
+        <v>12.83298969268799</v>
       </c>
       <c r="E137" t="n">
-        <v>-12.34673023223877</v>
+        <v>-13.35667705535889</v>
       </c>
       <c r="F137" t="n">
-        <v>-13.05557918548584</v>
+        <v>-12.33881568908691</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="n">
-        <v>-1.422199845314026</v>
+        <v>-0.9053714275360107</v>
       </c>
       <c r="B138" t="n">
-        <v>-3.216379404067993</v>
+        <v>-2.376812696456909</v>
       </c>
       <c r="C138" t="n">
-        <v>16.52648544311523</v>
+        <v>18.7191333770752</v>
       </c>
       <c r="D138" t="n">
-        <v>15.25859928131104</v>
+        <v>16.34645652770996</v>
       </c>
       <c r="E138" t="n">
-        <v>-10.51496315002441</v>
+        <v>-11.02336692810059</v>
       </c>
       <c r="F138" t="n">
-        <v>-10.99656581878662</v>
+        <v>-9.416435241699219</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="n">
-        <v>0.9636746048927307</v>
+        <v>1.345392942428589</v>
       </c>
       <c r="B139" t="n">
-        <v>-0.7899408340454102</v>
+        <v>-0.2859302759170532</v>
       </c>
       <c r="C139" t="n">
-        <v>19.62994575500488</v>
+        <v>20.3584156036377</v>
       </c>
       <c r="D139" t="n">
-        <v>18.75659561157227</v>
+        <v>18.95616722106934</v>
       </c>
       <c r="E139" t="n">
-        <v>-7.650217056274414</v>
+        <v>-7.434615135192871</v>
       </c>
       <c r="F139" t="n">
-        <v>-8.300108909606934</v>
+        <v>-6.738265037536621</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="n">
-        <v>3.430325269699097</v>
+        <v>3.635820150375366</v>
       </c>
       <c r="B140" t="n">
-        <v>1.183633804321289</v>
+        <v>1.441543340682983</v>
       </c>
       <c r="C140" t="n">
-        <v>20.49311447143555</v>
+        <v>21.09714698791504</v>
       </c>
       <c r="D140" t="n">
-        <v>20.97600364685059</v>
+        <v>19.75290870666504</v>
       </c>
       <c r="E140" t="n">
-        <v>-4.814517021179199</v>
+        <v>-4.043464183807373</v>
       </c>
       <c r="F140" t="n">
-        <v>-5.643204689025879</v>
+        <v>-4.220648765563965</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="n">
-        <v>5.082632064819336</v>
+        <v>5.296707630157471</v>
       </c>
       <c r="B141" t="n">
-        <v>2.959390163421631</v>
+        <v>3.014845371246338</v>
       </c>
       <c r="C141" t="n">
-        <v>20.3155689239502</v>
+        <v>19.78100204467773</v>
       </c>
       <c r="D141" t="n">
-        <v>21.26410865783691</v>
+        <v>19.47643280029297</v>
       </c>
       <c r="E141" t="n">
-        <v>-2.439407348632812</v>
+        <v>-1.200891375541687</v>
       </c>
       <c r="F141" t="n">
-        <v>-3.379985094070435</v>
+        <v>-2.365867853164673</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="n">
-        <v>6.667520999908447</v>
+        <v>6.367079257965088</v>
       </c>
       <c r="B142" t="n">
-        <v>4.412851333618164</v>
+        <v>4.025129318237305</v>
       </c>
       <c r="C142" t="n">
-        <v>19.4312744140625</v>
+        <v>17.99069213867188</v>
       </c>
       <c r="D142" t="n">
-        <v>20.70848846435547</v>
+        <v>17.3945198059082</v>
       </c>
       <c r="E142" t="n">
-        <v>-0.8716175556182861</v>
+        <v>0.8908789753913879</v>
       </c>
       <c r="F142" t="n">
-        <v>-1.348027348518372</v>
+        <v>-0.7945220470428467</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="n">
-        <v>7.819127082824707</v>
+        <v>7.169739723205566</v>
       </c>
       <c r="B143" t="n">
-        <v>5.375615119934082</v>
+        <v>4.987841606140137</v>
       </c>
       <c r="C143" t="n">
-        <v>17.54151344299316</v>
+        <v>15.15335178375244</v>
       </c>
       <c r="D143" t="n">
-        <v>19.15780448913574</v>
+        <v>15.48504734039307</v>
       </c>
       <c r="E143" t="n">
-        <v>0.4604735374450684</v>
+        <v>2.136032819747925</v>
       </c>
       <c r="F143" t="n">
-        <v>0.5430789589881897</v>
+        <v>0.6990149021148682</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="n">
-        <v>8.878837585449219</v>
+        <v>7.769223213195801</v>
       </c>
       <c r="B144" t="n">
-        <v>6.349178314208984</v>
+        <v>5.614554882049561</v>
       </c>
       <c r="C144" t="n">
-        <v>14.86337566375732</v>
+        <v>11.34754180908203</v>
       </c>
       <c r="D144" t="n">
-        <v>16.71780776977539</v>
+        <v>12.18776988983154</v>
       </c>
       <c r="E144" t="n">
-        <v>1.572430729866028</v>
+        <v>3.126650333404541</v>
       </c>
       <c r="F144" t="n">
-        <v>1.797526121139526</v>
+        <v>1.278329968452454</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="n">
-        <v>9.148676872253418</v>
+        <v>8.07319164276123</v>
       </c>
       <c r="B145" t="n">
-        <v>7.038180351257324</v>
+        <v>6.064979553222656</v>
       </c>
       <c r="C145" t="n">
-        <v>11.73222351074219</v>
+        <v>7.747144222259521</v>
       </c>
       <c r="D145" t="n">
-        <v>13.64329624176025</v>
+        <v>8.911506652832031</v>
       </c>
       <c r="E145" t="n">
-        <v>1.837999105453491</v>
+        <v>3.219323873519897</v>
       </c>
       <c r="F145" t="n">
-        <v>2.774602651596069</v>
+        <v>1.730375528335571</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="n">
-        <v>9.625536918640137</v>
+        <v>8.56358814239502</v>
       </c>
       <c r="B146" t="n">
-        <v>7.71294116973877</v>
+        <v>6.965354919433594</v>
       </c>
       <c r="C146" t="n">
-        <v>8.510493278503418</v>
+        <v>2.911926031112671</v>
       </c>
       <c r="D146" t="n">
-        <v>9.795374870300293</v>
+        <v>5.277059555053711</v>
       </c>
       <c r="E146" t="n">
-        <v>1.607122898101807</v>
+        <v>2.318808794021606</v>
       </c>
       <c r="F146" t="n">
-        <v>2.767966270446777</v>
+        <v>1.781670928001404</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="n">
-        <v>9.962818145751953</v>
+        <v>8.751964569091797</v>
       </c>
       <c r="B147" t="n">
-        <v>8.175003051757812</v>
+        <v>7.875045776367188</v>
       </c>
       <c r="C147" t="n">
-        <v>4.200452327728271</v>
+        <v>-0.9287548661231995</v>
       </c>
       <c r="D147" t="n">
-        <v>6.295793533325195</v>
+        <v>2.558232069015503</v>
       </c>
       <c r="E147" t="n">
-        <v>0.6989452838897705</v>
+        <v>0.8586800098419189</v>
       </c>
       <c r="F147" t="n">
-        <v>2.056798219680786</v>
+        <v>1.376344680786133</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="n">
-        <v>10.07049465179443</v>
+        <v>9.090851783752441</v>
       </c>
       <c r="B148" t="n">
-        <v>8.377326965332031</v>
+        <v>8.687554359436035</v>
       </c>
       <c r="C148" t="n">
-        <v>1.087139844894409</v>
+        <v>-4.245232105255127</v>
       </c>
       <c r="D148" t="n">
-        <v>2.305474042892456</v>
+        <v>-1.012607455253601</v>
       </c>
       <c r="E148" t="n">
-        <v>-0.6801592111587524</v>
+        <v>-1.407022476196289</v>
       </c>
       <c r="F148" t="n">
-        <v>1.076843619346619</v>
+        <v>0.5336867570877075</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="n">
-        <v>10.1933536529541</v>
+        <v>9.210980415344238</v>
       </c>
       <c r="B149" t="n">
-        <v>8.272195816040039</v>
+        <v>9.175113677978516</v>
       </c>
       <c r="C149" t="n">
-        <v>-3.039076089859009</v>
+        <v>-6.632546424865723</v>
       </c>
       <c r="D149" t="n">
-        <v>-1.22209107875824</v>
+        <v>-3.71867036819458</v>
       </c>
       <c r="E149" t="n">
-        <v>-2.039364814758301</v>
+        <v>-3.059666156768799</v>
       </c>
       <c r="F149" t="n">
-        <v>0.534055769443512</v>
+        <v>-0.052801463752985</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="n">
-        <v>10.79259777069092</v>
+        <v>9.678115844726562</v>
       </c>
       <c r="B150" t="n">
-        <v>7.404532432556152</v>
+        <v>9.014046669006348</v>
       </c>
       <c r="C150" t="n">
-        <v>-5.994595527648926</v>
+        <v>-8.929847717285156</v>
       </c>
       <c r="D150" t="n">
-        <v>-4.741860866546631</v>
+        <v>-6.609986305236816</v>
       </c>
       <c r="E150" t="n">
-        <v>-2.966300010681152</v>
+        <v>-3.826533079147339</v>
       </c>
       <c r="F150" t="n">
-        <v>0.2838154137134552</v>
+        <v>-0.4685178399085999</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="n">
-        <v>11.17437171936035</v>
+        <v>9.201683044433594</v>
       </c>
       <c r="B151" t="n">
-        <v>6.937188148498535</v>
+        <v>8.562623977661133</v>
       </c>
       <c r="C151" t="n">
-        <v>-8.336470603942871</v>
+        <v>-10.04377555847168</v>
       </c>
       <c r="D151" t="n">
-        <v>-8.332809448242188</v>
+        <v>-8.767356872558594</v>
       </c>
       <c r="E151" t="n">
-        <v>-3.105288743972778</v>
+        <v>-4.067949771881104</v>
       </c>
       <c r="F151" t="n">
-        <v>0.3474847078323364</v>
+        <v>-0.6849386692047119</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="n">
-        <v>11.10702991485596</v>
+        <v>9.968029022216797</v>
       </c>
       <c r="B152" t="n">
-        <v>6.12435245513916</v>
+        <v>8.492781639099121</v>
       </c>
       <c r="C152" t="n">
-        <v>-10.0305290222168</v>
+        <v>-10.86122798919678</v>
       </c>
       <c r="D152" t="n">
-        <v>-10.52295589447021</v>
+        <v>-10.25305080413818</v>
       </c>
       <c r="E152" t="n">
-        <v>-2.941811800003052</v>
+        <v>-4.219637393951416</v>
       </c>
       <c r="F152" t="n">
-        <v>0.3030308783054352</v>
+        <v>-1.167402029037476</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="n">
-        <v>9.896920204162598</v>
+        <v>9.111144065856934</v>
       </c>
       <c r="B153" t="n">
-        <v>5.599174499511719</v>
+        <v>7.570221900939941</v>
       </c>
       <c r="C153" t="n">
-        <v>-10.41578483581543</v>
+        <v>-11.15433597564697</v>
       </c>
       <c r="D153" t="n">
-        <v>-11.85253143310547</v>
+        <v>-10.45542144775391</v>
       </c>
       <c r="E153" t="n">
-        <v>-2.076783895492554</v>
+        <v>-4.533671855926514</v>
       </c>
       <c r="F153" t="n">
-        <v>0.2364612072706223</v>
+        <v>-2.284504175186157</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="n">
-        <v>7.147123336791992</v>
+        <v>7.270106315612793</v>
       </c>
       <c r="B154" t="n">
-        <v>5.86531400680542</v>
+        <v>6.683979034423828</v>
       </c>
       <c r="C154" t="n">
-        <v>-10.02194690704346</v>
+        <v>-9.972231864929199</v>
       </c>
       <c r="D154" t="n">
-        <v>-11.41172885894775</v>
+        <v>-9.429611206054688</v>
       </c>
       <c r="E154" t="n">
-        <v>-1.072892785072327</v>
+        <v>-3.264484643936157</v>
       </c>
       <c r="F154" t="n">
-        <v>0.2102609425783157</v>
+        <v>-2.326760292053223</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="n">
-        <v>6.980368614196777</v>
+        <v>6.72723913192749</v>
       </c>
       <c r="B155" t="n">
-        <v>5.004226684570312</v>
+        <v>6.321942806243896</v>
       </c>
       <c r="C155" t="n">
-        <v>-7.153735637664795</v>
+        <v>-7.683262825012207</v>
       </c>
       <c r="D155" t="n">
-        <v>-6.470138549804688</v>
+        <v>-7.548214435577393</v>
       </c>
       <c r="E155" t="n">
-        <v>-2.227246284484863</v>
+        <v>-3.19346022605896</v>
       </c>
       <c r="F155" t="n">
-        <v>-2.795366525650024</v>
+        <v>-2.408044576644897</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="n">
-        <v>6.669603824615479</v>
+        <v>6.255934715270996</v>
       </c>
       <c r="B156" t="n">
-        <v>3.735443115234375</v>
+        <v>4.884363651275635</v>
       </c>
       <c r="C156" t="n">
-        <v>-4.099438190460205</v>
+        <v>-6.588904857635498</v>
       </c>
       <c r="D156" t="n">
-        <v>-5.949134349822998</v>
+        <v>-7.262835025787354</v>
       </c>
       <c r="E156" t="n">
-        <v>-1.782862067222595</v>
+        <v>-3.181327819824219</v>
       </c>
       <c r="F156" t="n">
-        <v>-3.827798843383789</v>
+        <v>-2.660995483398438</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="n">
-        <v>6.233388423919678</v>
+        <v>6.335831642150879</v>
       </c>
       <c r="B157" t="n">
-        <v>2.93498420715332</v>
+        <v>4.14123010635376</v>
       </c>
       <c r="C157" t="n">
-        <v>-2.153654336929321</v>
+        <v>-4.620743751525879</v>
       </c>
       <c r="D157" t="n">
-        <v>-6.264064311981201</v>
+        <v>-6.392992496490479</v>
       </c>
       <c r="E157" t="n">
-        <v>-1.502114772796631</v>
+        <v>-2.079413890838623</v>
       </c>
       <c r="F157" t="n">
-        <v>-4.545175075531006</v>
+        <v>-2.234473943710327</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="n">
-        <v>5.441729545593262</v>
+        <v>5.154993057250977</v>
       </c>
       <c r="B158" t="n">
-        <v>2.146125555038452</v>
+        <v>3.578466415405273</v>
       </c>
       <c r="C158" t="n">
-        <v>-2.302695512771606</v>
+        <v>-4.125828742980957</v>
       </c>
       <c r="D158" t="n">
-        <v>-6.695189476013184</v>
+        <v>-4.960047721862793</v>
       </c>
       <c r="E158" t="n">
-        <v>-1.243751049041748</v>
+        <v>-1.185302495956421</v>
       </c>
       <c r="F158" t="n">
-        <v>-4.100780963897705</v>
+        <v>-1.377297401428223</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="n">
-        <v>4.38067626953125</v>
+        <v>3.985792875289917</v>
       </c>
       <c r="B159" t="n">
-        <v>0.9808324575424194</v>
+        <v>2.427545309066772</v>
       </c>
       <c r="C159" t="n">
-        <v>-2.930293798446655</v>
+        <v>-4.222648143768311</v>
       </c>
       <c r="D159" t="n">
-        <v>-6.413666725158691</v>
+        <v>-4.870170593261719</v>
       </c>
       <c r="E159" t="n">
-        <v>-1.025059223175049</v>
+        <v>-0.9339439868927002</v>
       </c>
       <c r="F159" t="n">
-        <v>-3.770146369934082</v>
+        <v>-0.6723383665084839</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="n">
-        <v>3.242888212203979</v>
+        <v>2.798311233520508</v>
       </c>
       <c r="B160" t="n">
-        <v>0.4021666049957275</v>
+        <v>1.27259349822998</v>
       </c>
       <c r="C160" t="n">
-        <v>-3.313901901245117</v>
+        <v>-4.630157470703125</v>
       </c>
       <c r="D160" t="n">
-        <v>-6.404505252838135</v>
+        <v>-4.962664604187012</v>
       </c>
       <c r="E160" t="n">
-        <v>-1.128883957862854</v>
+        <v>-0.3475430309772491</v>
       </c>
       <c r="F160" t="n">
-        <v>-3.263489007949829</v>
+        <v>-0.005156667903065681</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="n">
-        <v>1.794355869293213</v>
+        <v>1.987481117248535</v>
       </c>
       <c r="B161" t="n">
-        <v>-0.08279965817928314</v>
+        <v>0.692425012588501</v>
       </c>
       <c r="C161" t="n">
-        <v>-3.756663084030151</v>
+        <v>-5.348997116088867</v>
       </c>
       <c r="D161" t="n">
-        <v>-6.573211669921875</v>
+        <v>-5.086482524871826</v>
       </c>
       <c r="E161" t="n">
-        <v>-0.854814887046814</v>
+        <v>0.01187831535935402</v>
       </c>
       <c r="F161" t="n">
-        <v>-2.701191902160645</v>
+        <v>0.5538427233695984</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="n">
-        <v>1.058885455131531</v>
+        <v>0.9822767376899719</v>
       </c>
       <c r="B162" t="n">
-        <v>-1.057407379150391</v>
+        <v>-0.01514147315174341</v>
       </c>
       <c r="C162" t="n">
-        <v>-4.355574131011963</v>
+        <v>-5.649735450744629</v>
       </c>
       <c r="D162" t="n">
-        <v>-7.005549430847168</v>
+        <v>-5.361135482788086</v>
       </c>
       <c r="E162" t="n">
-        <v>-0.6203433275222778</v>
+        <v>0.09137433767318726</v>
       </c>
       <c r="F162" t="n">
-        <v>-2.138222217559814</v>
+        <v>1.229512095451355</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="n">
-        <v>0.2832735478878021</v>
+        <v>0.0227949284017086</v>
       </c>
       <c r="B163" t="n">
-        <v>-1.618935227394104</v>
+        <v>-0.1981450766324997</v>
       </c>
       <c r="C163" t="n">
-        <v>-4.474424839019775</v>
+        <v>-5.771726131439209</v>
       </c>
       <c r="D163" t="n">
-        <v>-6.841745376586914</v>
+        <v>-5.822870254516602</v>
       </c>
       <c r="E163" t="n">
-        <v>-0.03607220575213432</v>
+        <v>0.6014165878295898</v>
       </c>
       <c r="F163" t="n">
-        <v>-1.672651290893555</v>
+        <v>1.660516142845154</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="n">
-        <v>-0.2317741811275482</v>
+        <v>-1.121384739875793</v>
       </c>
       <c r="B164" t="n">
-        <v>-2.009445667266846</v>
+        <v>-1.095239639282227</v>
       </c>
       <c r="C164" t="n">
-        <v>-5.089148044586182</v>
+        <v>-5.67290735244751</v>
       </c>
       <c r="D164" t="n">
-        <v>-6.863450050354004</v>
+        <v>-5.657163143157959</v>
       </c>
       <c r="E164" t="n">
-        <v>0.3967683017253876</v>
+        <v>1.348270058631897</v>
       </c>
       <c r="F164" t="n">
-        <v>-0.9853850603103638</v>
+        <v>2.209694623947144</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="n">
-        <v>-0.9210702180862427</v>
+        <v>-1.667087912559509</v>
       </c>
       <c r="B165" t="n">
-        <v>-2.667642593383789</v>
+        <v>-2.123658418655396</v>
       </c>
       <c r="C165" t="n">
-        <v>-4.93960428237915</v>
+        <v>-6.200017929077148</v>
       </c>
       <c r="D165" t="n">
-        <v>-7.313900470733643</v>
+        <v>-6.456337928771973</v>
       </c>
       <c r="E165" t="n">
-        <v>0.9728145003318787</v>
+        <v>1.722966432571411</v>
       </c>
       <c r="F165" t="n">
-        <v>-0.5733289122581482</v>
+        <v>2.118027687072754</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="n">
-        <v>-2.131214141845703</v>
+        <v>-2.549142599105835</v>
       </c>
       <c r="B166" t="n">
-        <v>-2.790162801742554</v>
+        <v>-2.499750852584839</v>
       </c>
       <c r="C166" t="n">
-        <v>-5.326972007751465</v>
+        <v>-6.885158061981201</v>
       </c>
       <c r="D166" t="n">
-        <v>-7.174994945526123</v>
+        <v>-6.351667404174805</v>
       </c>
       <c r="E166" t="n">
-        <v>1.354963064193726</v>
+        <v>2.091773748397827</v>
       </c>
       <c r="F166" t="n">
-        <v>-0.06343120336532593</v>
+        <v>2.219069957733154</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="n">
-        <v>-2.517119884490967</v>
+        <v>-3.232406616210938</v>
       </c>
       <c r="B167" t="n">
-        <v>-3.194644212722778</v>
+        <v>-2.643504619598389</v>
       </c>
       <c r="C167" t="n">
-        <v>-5.833410739898682</v>
+        <v>-6.775253772735596</v>
       </c>
       <c r="D167" t="n">
-        <v>-6.734015941619873</v>
+        <v>-6.54789400100708</v>
       </c>
       <c r="E167" t="n">
-        <v>1.992114305496216</v>
+        <v>2.455137014389038</v>
       </c>
       <c r="F167" t="n">
-        <v>0.6650902032852173</v>
+        <v>2.806811571121216</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="n">
-        <v>-3.409848928451538</v>
+        <v>-4.314801216125488</v>
       </c>
       <c r="B168" t="n">
-        <v>-3.510137557983398</v>
+        <v>-3.146686792373657</v>
       </c>
       <c r="C168" t="n">
-        <v>-6.105000495910645</v>
+        <v>-7.440920352935791</v>
       </c>
       <c r="D168" t="n">
-        <v>-6.930589199066162</v>
+        <v>-7.094793319702148</v>
       </c>
       <c r="E168" t="n">
-        <v>2.491790294647217</v>
+        <v>3.003151655197144</v>
       </c>
       <c r="F168" t="n">
-        <v>1.330063939094543</v>
+        <v>3.064902782440186</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="n">
-        <v>-3.766331911087036</v>
+        <v>-5.115771293640137</v>
       </c>
       <c r="B169" t="n">
-        <v>-3.389770746231079</v>
+        <v>-4.104673385620117</v>
       </c>
       <c r="C169" t="n">
-        <v>-5.997808456420898</v>
+        <v>-7.826984882354736</v>
       </c>
       <c r="D169" t="n">
-        <v>-6.523405075073242</v>
+        <v>-7.524363994598389</v>
       </c>
       <c r="E169" t="n">
-        <v>2.94294285774231</v>
+        <v>3.491137027740479</v>
       </c>
       <c r="F169" t="n">
-        <v>2.256345272064209</v>
+        <v>3.293174028396606</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="n">
-        <v>-4.372649192810059</v>
+        <v>-6.060811996459961</v>
       </c>
       <c r="B170" t="n">
-        <v>-3.82317066192627</v>
+        <v>-4.622606754302979</v>
       </c>
       <c r="C170" t="n">
-        <v>-6.281770706176758</v>
+        <v>-7.502663612365723</v>
       </c>
       <c r="D170" t="n">
-        <v>-6.363189697265625</v>
+        <v>-7.619822025299072</v>
       </c>
       <c r="E170" t="n">
-        <v>3.630781650543213</v>
+        <v>3.804146289825439</v>
       </c>
       <c r="F170" t="n">
-        <v>3.009744882583618</v>
+        <v>3.48931097984314</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="n">
-        <v>-5.178515911102295</v>
+        <v>-6.900233268737793</v>
       </c>
       <c r="B171" t="n">
-        <v>-4.303952217102051</v>
+        <v>-4.985764503479004</v>
       </c>
       <c r="C171" t="n">
-        <v>-6.879997730255127</v>
+        <v>-8.43468189239502</v>
       </c>
       <c r="D171" t="n">
-        <v>-6.508501052856445</v>
+        <v>-7.978218555450439</v>
       </c>
       <c r="E171" t="n">
-        <v>4.063047885894775</v>
+        <v>4.330537796020508</v>
       </c>
       <c r="F171" t="n">
-        <v>3.963422536849976</v>
+        <v>4.077034473419189</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="n">
-        <v>-5.408543586730957</v>
+        <v>-7.270804882049561</v>
       </c>
       <c r="B172" t="n">
-        <v>-4.580109119415283</v>
+        <v>-5.83647632598877</v>
       </c>
       <c r="C172" t="n">
-        <v>-7.186842918395996</v>
+        <v>-8.780357360839844</v>
       </c>
       <c r="D172" t="n">
-        <v>-6.632887840270996</v>
+        <v>-8.004149436950684</v>
       </c>
       <c r="E172" t="n">
-        <v>4.709184646606445</v>
+        <v>4.697841167449951</v>
       </c>
       <c r="F172" t="n">
-        <v>4.557499885559082</v>
+        <v>4.673739910125732</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="n">
-        <v>-6.290136814117432</v>
+        <v>-7.754243850708008</v>
       </c>
       <c r="B173" t="n">
-        <v>-5.349754810333252</v>
+        <v>-6.350876808166504</v>
       </c>
       <c r="C173" t="n">
-        <v>-7.108339309692383</v>
+        <v>-9.29588508605957</v>
       </c>
       <c r="D173" t="n">
-        <v>-6.763908863067627</v>
+        <v>-8.346046447753906</v>
       </c>
       <c r="E173" t="n">
-        <v>5.372885704040527</v>
+        <v>5.208879947662354</v>
       </c>
       <c r="F173" t="n">
-        <v>5.169987201690674</v>
+        <v>5.157047748565674</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="n">
-        <v>-6.829705238342285</v>
+        <v>-8.178691864013672</v>
       </c>
       <c r="B174" t="n">
-        <v>-5.305856704711914</v>
+        <v>-7.006013870239258</v>
       </c>
       <c r="C174" t="n">
-        <v>-8.012415885925293</v>
+        <v>-8.887621879577637</v>
       </c>
       <c r="D174" t="n">
-        <v>-6.984150409698486</v>
+        <v>-8.955877304077148</v>
       </c>
       <c r="E174" t="n">
-        <v>6.054567813873291</v>
+        <v>5.667524337768555</v>
       </c>
       <c r="F174" t="n">
-        <v>5.910000801086426</v>
+        <v>5.344705581665039</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="n">
-        <v>-7.67420768737793</v>
+        <v>-8.637946128845215</v>
       </c>
       <c r="B175" t="n">
-        <v>-6.07236909866333</v>
+        <v>-7.739821910858154</v>
       </c>
       <c r="C175" t="n">
-        <v>-8.178722381591797</v>
+        <v>-9.021993637084961</v>
       </c>
       <c r="D175" t="n">
-        <v>-7.2048020362854</v>
+        <v>-8.752065658569336</v>
       </c>
       <c r="E175" t="n">
-        <v>7.001781940460205</v>
+        <v>6.376460075378418</v>
       </c>
       <c r="F175" t="n">
-        <v>6.580722808837891</v>
+        <v>5.453477382659912</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="n">
-        <v>-8.625611305236816</v>
+        <v>-9.323428153991699</v>
       </c>
       <c r="B176" t="n">
-        <v>-7.012478828430176</v>
+        <v>-8.381684303283691</v>
       </c>
       <c r="C176" t="n">
-        <v>-8.780667304992676</v>
+        <v>-9.266323089599609</v>
       </c>
       <c r="D176" t="n">
-        <v>-7.771538257598877</v>
+        <v>-9.175737380981445</v>
       </c>
       <c r="E176" t="n">
-        <v>7.588140964508057</v>
+        <v>6.407035827636719</v>
       </c>
       <c r="F176" t="n">
-        <v>7.108588218688965</v>
+        <v>5.80206823348999</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="n">
-        <v>-9.278241157531738</v>
+        <v>-9.972312927246094</v>
       </c>
       <c r="B177" t="n">
-        <v>-7.847651958465576</v>
+        <v>-9.160225868225098</v>
       </c>
       <c r="C177" t="n">
-        <v>-8.678657531738281</v>
+        <v>-8.965741157531738</v>
       </c>
       <c r="D177" t="n">
-        <v>-7.83869457244873</v>
+        <v>-8.624198913574219</v>
       </c>
       <c r="E177" t="n">
-        <v>7.470540523529053</v>
+        <v>6.622326850891113</v>
       </c>
       <c r="F177" t="n">
-        <v>7.48145055770874</v>
+        <v>5.898876190185547</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="n">
-        <v>-10.29511642456055</v>
+        <v>-10.78850364685059</v>
       </c>
       <c r="B178" t="n">
-        <v>-8.888690948486328</v>
+        <v>-9.563529968261719</v>
       </c>
       <c r="C178" t="n">
-        <v>-8.938906669616699</v>
+        <v>-9.217598915100098</v>
       </c>
       <c r="D178" t="n">
-        <v>-8.20384407043457</v>
+        <v>-8.761741638183594</v>
       </c>
       <c r="E178" t="n">
-        <v>7.648087978363037</v>
+        <v>6.669198989868164</v>
       </c>
       <c r="F178" t="n">
-        <v>7.409889221191406</v>
+        <v>5.9549241065979</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="n">
-        <v>-11.29840850830078</v>
+        <v>-11.32724666595459</v>
       </c>
       <c r="B179" t="n">
-        <v>-10.00503921508789</v>
+        <v>-10.44862270355225</v>
       </c>
       <c r="C179" t="n">
-        <v>-9.006890296936035</v>
+        <v>-9.074800491333008</v>
       </c>
       <c r="D179" t="n">
-        <v>-8.004703521728516</v>
+        <v>-8.302352905273438</v>
       </c>
       <c r="E179" t="n">
-        <v>7.825274467468262</v>
+        <v>5.880918979644775</v>
       </c>
       <c r="F179" t="n">
-        <v>7.579625606536865</v>
+        <v>5.631802558898926</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="n">
-        <v>-12.28884410858154</v>
+        <v>-12.86073303222656</v>
       </c>
       <c r="B180" t="n">
-        <v>-10.89487457275391</v>
+        <v>-11.63366317749023</v>
       </c>
       <c r="C180" t="n">
-        <v>-8.64189338684082</v>
+        <v>-8.220489501953125</v>
       </c>
       <c r="D180" t="n">
-        <v>-8.24576473236084</v>
+        <v>-7.719960689544678</v>
       </c>
       <c r="E180" t="n">
-        <v>6.876692295074463</v>
+        <v>5.174909591674805</v>
       </c>
       <c r="F180" t="n">
-        <v>8.142946243286133</v>
+        <v>5.549131870269775</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="n">
-        <v>-12.85606861114502</v>
+        <v>-13.07144355773926</v>
       </c>
       <c r="B181" t="n">
-        <v>-11.55646514892578</v>
+        <v>-11.89471912384033</v>
       </c>
       <c r="C181" t="n">
-        <v>-8.143010139465332</v>
+        <v>-7.596687793731689</v>
       </c>
       <c r="D181" t="n">
-        <v>-8.034177780151367</v>
+        <v>-7.188706874847412</v>
       </c>
       <c r="E181" t="n">
-        <v>6.087427616119385</v>
+        <v>4.448419570922852</v>
       </c>
       <c r="F181" t="n">
-        <v>7.756747722625732</v>
+        <v>5.365974426269531</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="n">
-        <v>-12.90018081665039</v>
+        <v>-13.59779453277588</v>
       </c>
       <c r="B182" t="n">
-        <v>-12.16386222839355</v>
+        <v>-12.85466480255127</v>
       </c>
       <c r="C182" t="n">
-        <v>-7.153439998626709</v>
+        <v>-6.109517574310303</v>
       </c>
       <c r="D182" t="n">
-        <v>-7.056865692138672</v>
+        <v>-6.704808712005615</v>
       </c>
       <c r="E182" t="n">
-        <v>4.673365592956543</v>
+        <v>3.001326084136963</v>
       </c>
       <c r="F182" t="n">
-        <v>6.903215408325195</v>
+        <v>4.391678810119629</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" t="n">
-        <v>-12.71222019195557</v>
+        <v>-13.18112373352051</v>
       </c>
       <c r="B183" t="n">
-        <v>-12.37745761871338</v>
+        <v>-12.41045761108398</v>
       </c>
       <c r="C183" t="n">
-        <v>-5.521965026855469</v>
+        <v>-4.714057445526123</v>
       </c>
       <c r="D183" t="n">
-        <v>-6.181131839752197</v>
+        <v>-5.07138729095459</v>
       </c>
       <c r="E183" t="n">
-        <v>2.098588705062866</v>
+        <v>1.768667578697205</v>
       </c>
       <c r="F183" t="n">
-        <v>3.825935125350952</v>
+        <v>1.548758983612061</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" t="n">
-        <v>-11.93287563323975</v>
+        <v>-12.6728687286377</v>
       </c>
       <c r="B184" t="n">
-        <v>-12.07088756561279</v>
+        <v>-12.1763334274292</v>
       </c>
       <c r="C184" t="n">
-        <v>-2.353869915008545</v>
+        <v>-1.762694597244263</v>
       </c>
       <c r="D184" t="n">
-        <v>-3.857618808746338</v>
+        <v>-2.844131708145142</v>
       </c>
       <c r="E184" t="n">
-        <v>-1.484185457229614</v>
+        <v>-0.8661166429519653</v>
       </c>
       <c r="F184" t="n">
-        <v>-0.9166492223739624</v>
+        <v>-2.405316829681396</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" t="n">
-        <v>-10.78934669494629</v>
+        <v>-11.0789155960083</v>
       </c>
       <c r="B185" t="n">
-        <v>-11.15220737457275</v>
+        <v>-11.22695446014404</v>
       </c>
       <c r="C185" t="n">
-        <v>0.6648557186126709</v>
+        <v>1.809607028961182</v>
       </c>
       <c r="D185" t="n">
-        <v>-1.473656296730042</v>
+        <v>-0.01550265308469534</v>
       </c>
       <c r="E185" t="n">
-        <v>-5.811217784881592</v>
+        <v>-4.598056316375732</v>
       </c>
       <c r="F185" t="n">
-        <v>-6.640920162200928</v>
+        <v>-8.174354553222656</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" t="n">
-        <v>-8.738559722900391</v>
+        <v>-8.766427993774414</v>
       </c>
       <c r="B186" t="n">
-        <v>-9.350002288818359</v>
+        <v>-9.578474044799805</v>
       </c>
       <c r="C186" t="n">
-        <v>4.427823543548584</v>
+        <v>6.594147205352783</v>
       </c>
       <c r="D186" t="n">
-        <v>2.267921447753906</v>
+        <v>3.817265033721924</v>
       </c>
       <c r="E186" t="n">
-        <v>-9.964729309082031</v>
+        <v>-9.220769882202148</v>
       </c>
       <c r="F186" t="n">
-        <v>-10.60227584838867</v>
+        <v>-12.00341415405273</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" t="n">
-        <v>-6.37178897857666</v>
+        <v>-5.956544876098633</v>
       </c>
       <c r="B187" t="n">
-        <v>-7.327793121337891</v>
+        <v>-6.959987163543701</v>
       </c>
       <c r="C187" t="n">
-        <v>9.238507270812988</v>
+        <v>11.42643356323242</v>
       </c>
       <c r="D187" t="n">
-        <v>7.176513671875</v>
+        <v>8.74193286895752</v>
       </c>
       <c r="E187" t="n">
-        <v>-12.36748886108398</v>
+        <v>-12.49570083618164</v>
       </c>
       <c r="F187" t="n">
-        <v>-13.14877605438232</v>
+        <v>-13.94341087341309</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" t="n">
-        <v>-4.191680908203125</v>
+        <v>-3.170241594314575</v>
       </c>
       <c r="B188" t="n">
-        <v>-5.400899887084961</v>
+        <v>-4.788185596466064</v>
       </c>
       <c r="C188" t="n">
-        <v>13.7373685836792</v>
+        <v>15.85282611846924</v>
       </c>
       <c r="D188" t="n">
-        <v>11.47220802307129</v>
+        <v>13.44114875793457</v>
       </c>
       <c r="E188" t="n">
-        <v>-12.5572452545166</v>
+        <v>-13.30369186401367</v>
       </c>
       <c r="F188" t="n">
-        <v>-13.41733264923096</v>
+        <v>-12.61286163330078</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" t="n">
-        <v>-1.454597949981689</v>
+        <v>-0.7475302219390869</v>
       </c>
       <c r="B189" t="n">
-        <v>-3.038855075836182</v>
+        <v>-2.49279522895813</v>
       </c>
       <c r="C189" t="n">
-        <v>17.04108047485352</v>
+        <v>19.20039367675781</v>
       </c>
       <c r="D189" t="n">
-        <v>15.6748628616333</v>
+        <v>16.93305015563965</v>
       </c>
       <c r="E189" t="n">
-        <v>-10.61021041870117</v>
+        <v>-10.97344779968262</v>
       </c>
       <c r="F189" t="n">
-        <v>-11.06622791290283</v>
+        <v>-9.633214950561523</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" t="n">
-        <v>0.9751965403556824</v>
+        <v>1.457785367965698</v>
       </c>
       <c r="B190" t="n">
-        <v>-0.5249065756797791</v>
+        <v>-0.3727793097496033</v>
       </c>
       <c r="C190" t="n">
-        <v>20.08400726318359</v>
+        <v>20.83403968811035</v>
       </c>
       <c r="D190" t="n">
-        <v>19.03470039367676</v>
+        <v>19.40762138366699</v>
       </c>
       <c r="E190" t="n">
-        <v>-7.649008750915527</v>
+        <v>-7.526278972625732</v>
       </c>
       <c r="F190" t="n">
-        <v>-8.180941581726074</v>
+        <v>-6.773108959197998</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" t="n">
-        <v>3.408696889877319</v>
+        <v>3.766067743301392</v>
       </c>
       <c r="B191" t="n">
-        <v>1.460718154907227</v>
+        <v>1.574956178665161</v>
       </c>
       <c r="C191" t="n">
-        <v>20.93360710144043</v>
+        <v>21.71212387084961</v>
       </c>
       <c r="D191" t="n">
-        <v>21.42728233337402</v>
+        <v>20.2943229675293</v>
       </c>
       <c r="E191" t="n">
-        <v>-4.751370429992676</v>
+        <v>-4.063836097717285</v>
       </c>
       <c r="F191" t="n">
-        <v>-5.377562522888184</v>
+        <v>-4.196094512939453</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" t="n">
-        <v>5.067764759063721</v>
+        <v>5.403867721557617</v>
       </c>
       <c r="B192" t="n">
-        <v>3.23177433013916</v>
+        <v>3.139183759689331</v>
       </c>
       <c r="C192" t="n">
-        <v>20.57010269165039</v>
+        <v>20.28733444213867</v>
       </c>
       <c r="D192" t="n">
-        <v>21.40493011474609</v>
+        <v>20.06465721130371</v>
       </c>
       <c r="E192" t="n">
-        <v>-2.286858320236206</v>
+        <v>-1.351767659187317</v>
       </c>
       <c r="F192" t="n">
-        <v>-3.077066898345947</v>
+        <v>-2.3274827003479</v>
       </c>
     </row>
     <row r="193">
       <c r="A193" t="n">
-        <v>6.659926891326904</v>
+        <v>6.38960075378418</v>
       </c>
       <c r="B193" t="n">
-        <v>4.73351001739502</v>
+        <v>4.159117221832275</v>
       </c>
       <c r="C193" t="n">
-        <v>19.39048004150391</v>
+        <v>18.23591423034668</v>
       </c>
       <c r="D193" t="n">
-        <v>20.56073760986328</v>
+        <v>18.00692749023438</v>
       </c>
       <c r="E193" t="n">
-        <v>-0.7148243188858032</v>
+        <v>0.6791374087333679</v>
       </c>
       <c r="F193" t="n">
-        <v>-1.048917293548584</v>
+        <v>-0.6512861847877502</v>
       </c>
     </row>
     <row r="194">
       <c r="A194" t="n">
-        <v>7.668560028076172</v>
+        <v>7.204262733459473</v>
       </c>
       <c r="B194" t="n">
-        <v>5.59324312210083</v>
+        <v>5.048099994659424</v>
       </c>
       <c r="C194" t="n">
-        <v>17.39853096008301</v>
+        <v>15.26992130279541</v>
       </c>
       <c r="D194" t="n">
-        <v>18.8549747467041</v>
+        <v>15.92033100128174</v>
       </c>
       <c r="E194" t="n">
-        <v>0.6998971104621887</v>
+        <v>2.048426151275635</v>
       </c>
       <c r="F194" t="n">
-        <v>0.8181558847427368</v>
+        <v>0.813524603843689</v>
       </c>
     </row>
     <row r="195">
       <c r="A195" t="n">
-        <v>8.642208099365234</v>
+        <v>7.974793434143066</v>
       </c>
       <c r="B195" t="n">
-        <v>6.41772985458374</v>
+        <v>5.698748111724854</v>
       </c>
       <c r="C195" t="n">
-        <v>14.41398048400879</v>
+        <v>11.34575462341309</v>
       </c>
       <c r="D195" t="n">
-        <v>16.2658863067627</v>
+        <v>12.41635990142822</v>
       </c>
       <c r="E195" t="n">
-        <v>1.71569550037384</v>
+        <v>2.89821457862854</v>
       </c>
       <c r="F195" t="n">
-        <v>2.058188915252686</v>
+        <v>1.550665736198425</v>
       </c>
     </row>
     <row r="196">
       <c r="A196" t="n">
-        <v>8.771271705627441</v>
+        <v>8.13893985748291</v>
       </c>
       <c r="B196" t="n">
-        <v>6.955177307128906</v>
+        <v>6.147993087768555</v>
       </c>
       <c r="C196" t="n">
-        <v>11.07637596130371</v>
+        <v>7.641810894012451</v>
       </c>
       <c r="D196" t="n">
-        <v>13.02493190765381</v>
+        <v>8.78058910369873</v>
       </c>
       <c r="E196" t="n">
-        <v>1.938181042671204</v>
+        <v>3.126079082489014</v>
       </c>
       <c r="F196" t="n">
-        <v>3.074538230895996</v>
+        <v>2.07206916809082</v>
       </c>
     </row>
     <row r="197">
       <c r="A197" t="n">
-        <v>9.14189624786377</v>
+        <v>8.425618171691895</v>
       </c>
       <c r="B197" t="n">
-        <v>7.601990699768066</v>
+        <v>6.951076984405518</v>
       </c>
       <c r="C197" t="n">
-        <v>7.684740543365479</v>
+        <v>2.847187757492065</v>
       </c>
       <c r="D197" t="n">
-        <v>9.001688003540039</v>
+        <v>5.283669471740723</v>
       </c>
       <c r="E197" t="n">
-        <v>1.658312320709229</v>
+        <v>2.278491735458374</v>
       </c>
       <c r="F197" t="n">
-        <v>3.121232986450195</v>
+        <v>2.246389627456665</v>
       </c>
     </row>
     <row r="198">
       <c r="A198" t="n">
-        <v>9.404899597167969</v>
+        <v>8.685885429382324</v>
       </c>
       <c r="B198" t="n">
-        <v>8.030614852905273</v>
+        <v>7.608023643493652</v>
       </c>
       <c r="C198" t="n">
-        <v>3.335007429122925</v>
+        <v>-1.322021961212158</v>
       </c>
       <c r="D198" t="n">
-        <v>5.488752841949463</v>
+        <v>2.145745515823364</v>
       </c>
       <c r="E198" t="n">
-        <v>0.6487654447555542</v>
+        <v>0.8999522924423218</v>
       </c>
       <c r="F198" t="n">
-        <v>2.492669582366943</v>
+        <v>1.924358010292053</v>
       </c>
     </row>
     <row r="199">
       <c r="A199" t="n">
-        <v>9.45484447479248</v>
+        <v>8.967840194702148</v>
       </c>
       <c r="B199" t="n">
-        <v>8.15614128112793</v>
+        <v>8.373489379882812</v>
       </c>
       <c r="C199" t="n">
-        <v>0.269707202911377</v>
+        <v>-4.464756011962891</v>
       </c>
       <c r="D199" t="n">
-        <v>1.572888731956482</v>
+        <v>-1.325815558433533</v>
       </c>
       <c r="E199" t="n">
-        <v>-0.7672531604766846</v>
+        <v>-1.19627058506012</v>
       </c>
       <c r="F199" t="n">
-        <v>1.635335922241211</v>
+        <v>1.128204226493835</v>
       </c>
     </row>
     <row r="200">
       <c r="A200" t="n">
-        <v>9.564017295837402</v>
+        <v>9.163966178894043</v>
       </c>
       <c r="B200" t="n">
-        <v>7.987307548522949</v>
+        <v>8.75810432434082</v>
       </c>
       <c r="C200" t="n">
-        <v>-3.776835203170776</v>
+        <v>-6.927166938781738</v>
       </c>
       <c r="D200" t="n">
-        <v>-1.695863246917725</v>
+        <v>-4.331555843353271</v>
       </c>
       <c r="E200" t="n">
-        <v>-2.075445413589478</v>
+        <v>-2.826779365539551</v>
       </c>
       <c r="F200" t="n">
-        <v>1.113041996955872</v>
+        <v>0.5092374086380005</v>
       </c>
     </row>
     <row r="201">
       <c r="A201" t="n">
-        <v>10.2765417098999</v>
+        <v>9.520821571350098</v>
       </c>
       <c r="B201" t="n">
-        <v>7.146866321563721</v>
+        <v>8.628132820129395</v>
       </c>
       <c r="C201" t="n">
-        <v>-6.519362449645996</v>
+        <v>-9.022421836853027</v>
       </c>
       <c r="D201" t="n">
-        <v>-5.070078372955322</v>
+        <v>-7.09977388381958</v>
       </c>
       <c r="E201" t="n">
-        <v>-3.007976531982422</v>
+        <v>-3.597328662872314</v>
       </c>
       <c r="F201" t="n">
-        <v>0.8295078873634338</v>
+        <v>0.05893191322684288</v>
       </c>
     </row>
     <row r="202">
       <c r="A202" t="n">
-        <v>10.59509944915771</v>
+        <v>9.37606143951416</v>
       </c>
       <c r="B202" t="n">
-        <v>6.722361087799072</v>
+        <v>8.052149772644043</v>
       </c>
       <c r="C202" t="n">
-        <v>-8.559576034545898</v>
+        <v>-10.30532550811768</v>
       </c>
       <c r="D202" t="n">
-        <v>-8.204349517822266</v>
+        <v>-9.162267684936523</v>
       </c>
       <c r="E202" t="n">
-        <v>-3.202171564102173</v>
+        <v>-3.850336313247681</v>
       </c>
       <c r="F202" t="n">
-        <v>0.86331707239151</v>
+        <v>-0.3084868788719177</v>
       </c>
     </row>
     <row r="203">
       <c r="A203" t="n">
-        <v>10.34036636352539</v>
+        <v>9.853466987609863</v>
       </c>
       <c r="B203" t="n">
-        <v>5.842531204223633</v>
+        <v>7.770432472229004</v>
       </c>
       <c r="C203" t="n">
-        <v>-10.03210830688477</v>
+        <v>-11.0641565322876</v>
       </c>
       <c r="D203" t="n">
-        <v>-10.20892524719238</v>
+        <v>-10.65465927124023</v>
       </c>
       <c r="E203" t="n">
-        <v>-3.143052101135254</v>
+        <v>-4.065157413482666</v>
       </c>
       <c r="F203" t="n">
-        <v>0.718711256980896</v>
+        <v>-0.8016736507415771</v>
       </c>
     </row>
     <row r="204">
       <c r="A204" t="n">
-        <v>9.329419136047363</v>
+        <v>8.722099304199219</v>
       </c>
       <c r="B204" t="n">
-        <v>5.5710768699646</v>
+        <v>7.025497436523438</v>
       </c>
       <c r="C204" t="n">
-        <v>-10.37690830230713</v>
+        <v>-11.14633464813232</v>
       </c>
       <c r="D204" t="n">
-        <v>-11.63829231262207</v>
+        <v>-11.04456901550293</v>
       </c>
       <c r="E204" t="n">
-        <v>-2.442514181137085</v>
+        <v>-4.58311128616333</v>
       </c>
       <c r="F204" t="n">
-        <v>0.4047237634658813</v>
+        <v>-1.996070146560669</v>
       </c>
     </row>
     <row r="205">
       <c r="A205" t="n">
-        <v>7.180771827697754</v>
+        <v>7.348087310791016</v>
       </c>
       <c r="B205" t="n">
-        <v>6.08820104598999</v>
+        <v>6.651752471923828</v>
       </c>
       <c r="C205" t="n">
-        <v>-9.887517929077148</v>
+        <v>-10.13299083709717</v>
       </c>
       <c r="D205" t="n">
-        <v>-10.9064474105835</v>
+        <v>-9.705318450927734</v>
       </c>
       <c r="E205" t="n">
-        <v>-1.539682269096375</v>
+        <v>-3.525950908660889</v>
       </c>
       <c r="F205" t="n">
-        <v>0.08096729218959808</v>
+        <v>-2.209662914276123</v>
       </c>
     </row>
   </sheetData>

--- a/Predictions/timestamps_cp_cnn.xlsx
+++ b/Predictions/timestamps_cp_cnn.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -467,4082 +467,4082 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>5.582568168640137</v>
+        <v>-0.1909238398075104</v>
       </c>
       <c r="B2" t="n">
-        <v>5.709909915924072</v>
+        <v>-6.298025608062744</v>
       </c>
       <c r="C2" t="n">
-        <v>-8.219338417053223</v>
+        <v>-9.239474296569824</v>
       </c>
       <c r="D2" t="n">
-        <v>-5.732343196868896</v>
+        <v>-2.893458604812622</v>
       </c>
       <c r="E2" t="n">
-        <v>-2.671645879745483</v>
+        <v>-3.96809458732605</v>
       </c>
       <c r="F2" t="n">
-        <v>-3.827714920043945</v>
+        <v>-5.830041408538818</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>3.512452363967896</v>
+        <v>-2.476048707962036</v>
       </c>
       <c r="B3" t="n">
-        <v>3.320345401763916</v>
+        <v>-4.889416217803955</v>
       </c>
       <c r="C3" t="n">
-        <v>-7.291317462921143</v>
+        <v>-12.17807197570801</v>
       </c>
       <c r="D3" t="n">
-        <v>-4.3099684715271</v>
+        <v>2.56779146194458</v>
       </c>
       <c r="E3" t="n">
-        <v>-1.342159271240234</v>
+        <v>-2.452547073364258</v>
       </c>
       <c r="F3" t="n">
-        <v>-2.772674560546875</v>
+        <v>-7.571565628051758</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>5.037606716156006</v>
+        <v>-3.560877799987793</v>
       </c>
       <c r="B4" t="n">
-        <v>4.353262424468994</v>
+        <v>-4.939877033233643</v>
       </c>
       <c r="C4" t="n">
-        <v>-2.367348194122314</v>
+        <v>-11.08667659759521</v>
       </c>
       <c r="D4" t="n">
-        <v>-3.806039094924927</v>
+        <v>0.7996229529380798</v>
       </c>
       <c r="E4" t="n">
-        <v>-2.428502798080444</v>
+        <v>-3.369555711746216</v>
       </c>
       <c r="F4" t="n">
-        <v>-1.658520102500916</v>
+        <v>-7.631301879882812</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>4.711338996887207</v>
+        <v>-1.802541732788086</v>
       </c>
       <c r="B5" t="n">
-        <v>1.616053581237793</v>
+        <v>-5.871181964874268</v>
       </c>
       <c r="C5" t="n">
-        <v>-3.242414474487305</v>
+        <v>-12.60615253448486</v>
       </c>
       <c r="D5" t="n">
-        <v>-1.801262021064758</v>
+        <v>2.541728973388672</v>
       </c>
       <c r="E5" t="n">
-        <v>-1.876458764076233</v>
+        <v>-3.612229108810425</v>
       </c>
       <c r="F5" t="n">
-        <v>-1.592131853103638</v>
+        <v>-8.513945579528809</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>3.648024320602417</v>
+        <v>-4.068070888519287</v>
       </c>
       <c r="B6" t="n">
-        <v>2.636449575424194</v>
+        <v>-2.776262283325195</v>
       </c>
       <c r="C6" t="n">
-        <v>-0.8584495186805725</v>
+        <v>-6.483035564422607</v>
       </c>
       <c r="D6" t="n">
-        <v>-2.151457071304321</v>
+        <v>4.614546298980713</v>
       </c>
       <c r="E6" t="n">
-        <v>-0.4597509205341339</v>
+        <v>-5.008708000183105</v>
       </c>
       <c r="F6" t="n">
-        <v>0.6649014353752136</v>
+        <v>-7.855275630950928</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>2.348967552185059</v>
+        <v>-1.67331874370575</v>
       </c>
       <c r="B7" t="n">
-        <v>0.008021249435842037</v>
+        <v>-3.348516464233398</v>
       </c>
       <c r="C7" t="n">
-        <v>-4.585651397705078</v>
+        <v>-4.548294544219971</v>
       </c>
       <c r="D7" t="n">
-        <v>-1.412589430809021</v>
+        <v>4.696873188018799</v>
       </c>
       <c r="E7" t="n">
-        <v>-0.4888320863246918</v>
+        <v>-1.353248953819275</v>
       </c>
       <c r="F7" t="n">
-        <v>0.8385321497917175</v>
+        <v>-6.013115882873535</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>3.303134679794312</v>
+        <v>-3.852968215942383</v>
       </c>
       <c r="B8" t="n">
-        <v>0.7571316957473755</v>
+        <v>-6.194405078887939</v>
       </c>
       <c r="C8" t="n">
-        <v>-2.072835683822632</v>
+        <v>-2.892450332641602</v>
       </c>
       <c r="D8" t="n">
-        <v>-1.541669368743896</v>
+        <v>4.397037029266357</v>
       </c>
       <c r="E8" t="n">
-        <v>-1.348529100418091</v>
+        <v>-3.012971162796021</v>
       </c>
       <c r="F8" t="n">
-        <v>0.678036093711853</v>
+        <v>-3.176148176193237</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>0.0898493230342865</v>
+        <v>-0.5591644048690796</v>
       </c>
       <c r="B9" t="n">
-        <v>0.7554048299789429</v>
+        <v>-5.008137226104736</v>
       </c>
       <c r="C9" t="n">
-        <v>-4.975222587585449</v>
+        <v>-9.22386646270752</v>
       </c>
       <c r="D9" t="n">
-        <v>-2.481424808502197</v>
+        <v>6.88606071472168</v>
       </c>
       <c r="E9" t="n">
-        <v>1.476007580757141</v>
+        <v>-3.23044490814209</v>
       </c>
       <c r="F9" t="n">
-        <v>1.734786152839661</v>
+        <v>-5.500547409057617</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>0.02116700634360313</v>
+        <v>-0.2101332247257233</v>
       </c>
       <c r="B10" t="n">
-        <v>-0.8965478539466858</v>
+        <v>-2.927239656448364</v>
       </c>
       <c r="C10" t="n">
-        <v>-3.54701042175293</v>
+        <v>-7.08946704864502</v>
       </c>
       <c r="D10" t="n">
-        <v>-2.878746271133423</v>
+        <v>7.674947738647461</v>
       </c>
       <c r="E10" t="n">
-        <v>1.827284812927246</v>
+        <v>0.7362547516822815</v>
       </c>
       <c r="F10" t="n">
-        <v>1.455327749252319</v>
+        <v>-4.646574974060059</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>-0.365463525056839</v>
+        <v>-0.5869600772857666</v>
       </c>
       <c r="B11" t="n">
-        <v>-0.9125776886940002</v>
+        <v>0.7488572597503662</v>
       </c>
       <c r="C11" t="n">
-        <v>-6.317650318145752</v>
+        <v>-8.102777481079102</v>
       </c>
       <c r="D11" t="n">
-        <v>-4.736019611358643</v>
+        <v>10.22167015075684</v>
       </c>
       <c r="E11" t="n">
-        <v>1.370157480239868</v>
+        <v>-1.050786375999451</v>
       </c>
       <c r="F11" t="n">
-        <v>1.070475816726685</v>
+        <v>-4.388913154602051</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>-2.067999362945557</v>
+        <v>-3.625552654266357</v>
       </c>
       <c r="B12" t="n">
-        <v>-2.302920579910278</v>
+        <v>-1.756373882293701</v>
       </c>
       <c r="C12" t="n">
-        <v>-5.367450714111328</v>
+        <v>-7.240918636322021</v>
       </c>
       <c r="D12" t="n">
-        <v>-4.683515548706055</v>
+        <v>9.314948081970215</v>
       </c>
       <c r="E12" t="n">
-        <v>2.155807256698608</v>
+        <v>-1.108780980110168</v>
       </c>
       <c r="F12" t="n">
-        <v>1.819854617118835</v>
+        <v>-3.314946889877319</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>-2.468990087509155</v>
+        <v>-2.028541326522827</v>
       </c>
       <c r="B13" t="n">
-        <v>-1.933566331863403</v>
+        <v>1.176977872848511</v>
       </c>
       <c r="C13" t="n">
-        <v>-5.315278053283691</v>
+        <v>-9.032223701477051</v>
       </c>
       <c r="D13" t="n">
-        <v>-5.982283592224121</v>
+        <v>9.428484916687012</v>
       </c>
       <c r="E13" t="n">
-        <v>1.07963240146637</v>
+        <v>0.1540887951850891</v>
       </c>
       <c r="F13" t="n">
-        <v>2.316527843475342</v>
+        <v>1.064854621887207</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>-4.121798038482666</v>
+        <v>-2.180033445358276</v>
       </c>
       <c r="B14" t="n">
-        <v>-2.916686296463013</v>
+        <v>1.967358827590942</v>
       </c>
       <c r="C14" t="n">
-        <v>-7.265992164611816</v>
+        <v>-8.798089027404785</v>
       </c>
       <c r="D14" t="n">
-        <v>-3.942502737045288</v>
+        <v>2.136263608932495</v>
       </c>
       <c r="E14" t="n">
-        <v>2.088790416717529</v>
+        <v>1.036600232124329</v>
       </c>
       <c r="F14" t="n">
-        <v>2.218817234039307</v>
+        <v>-1.265289664268494</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>-3.29886794090271</v>
+        <v>-1.744635343551636</v>
       </c>
       <c r="B15" t="n">
-        <v>-3.359254837036133</v>
+        <v>4.765476703643799</v>
       </c>
       <c r="C15" t="n">
-        <v>-5.794853210449219</v>
+        <v>-12.82957172393799</v>
       </c>
       <c r="D15" t="n">
-        <v>-6.933933258056641</v>
+        <v>4.027158737182617</v>
       </c>
       <c r="E15" t="n">
-        <v>2.386826753616333</v>
+        <v>0.3133502006530762</v>
       </c>
       <c r="F15" t="n">
-        <v>2.798182725906372</v>
+        <v>2.756221771240234</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>-4.077460289001465</v>
+        <v>0.6661247611045837</v>
       </c>
       <c r="B16" t="n">
-        <v>-2.985797882080078</v>
+        <v>1.705266952514648</v>
       </c>
       <c r="C16" t="n">
-        <v>-5.561226367950439</v>
+        <v>-9.399066925048828</v>
       </c>
       <c r="D16" t="n">
-        <v>-4.343197822570801</v>
+        <v>2.553545951843262</v>
       </c>
       <c r="E16" t="n">
-        <v>3.139485120773315</v>
+        <v>0.1307865828275681</v>
       </c>
       <c r="F16" t="n">
-        <v>3.760410785675049</v>
+        <v>0.6488944888114929</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>-5.56515645980835</v>
+        <v>-2.66082763671875</v>
       </c>
       <c r="B17" t="n">
-        <v>-2.036970853805542</v>
+        <v>1.117578744888306</v>
       </c>
       <c r="C17" t="n">
-        <v>-6.582993030548096</v>
+        <v>-10.80423736572266</v>
       </c>
       <c r="D17" t="n">
-        <v>-5.918999195098877</v>
+        <v>-3.754347562789917</v>
       </c>
       <c r="E17" t="n">
-        <v>3.795608043670654</v>
+        <v>3.232392072677612</v>
       </c>
       <c r="F17" t="n">
-        <v>3.423274993896484</v>
+        <v>1.104660034179688</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>-5.432087898254395</v>
+        <v>-3.796723365783691</v>
       </c>
       <c r="B18" t="n">
-        <v>-4.483302593231201</v>
+        <v>2.683104753494263</v>
       </c>
       <c r="C18" t="n">
-        <v>-7.379995346069336</v>
+        <v>-11.86940956115723</v>
       </c>
       <c r="D18" t="n">
-        <v>-7.757960796356201</v>
+        <v>-3.031520366668701</v>
       </c>
       <c r="E18" t="n">
-        <v>4.190491676330566</v>
+        <v>7.901781558990479</v>
       </c>
       <c r="F18" t="n">
-        <v>4.409193515777588</v>
+        <v>0.2122951000928879</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>-5.040127277374268</v>
+        <v>-8.500644683837891</v>
       </c>
       <c r="B19" t="n">
-        <v>-4.721042633056641</v>
+        <v>3.435544013977051</v>
       </c>
       <c r="C19" t="n">
-        <v>-7.241107940673828</v>
+        <v>-9.036133766174316</v>
       </c>
       <c r="D19" t="n">
-        <v>-6.944648742675781</v>
+        <v>-2.958395481109619</v>
       </c>
       <c r="E19" t="n">
-        <v>5.168360233306885</v>
+        <v>8.664135932922363</v>
       </c>
       <c r="F19" t="n">
-        <v>4.75119161605835</v>
+        <v>-1.294278979301453</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>-6.210784435272217</v>
+        <v>-6.20371675491333</v>
       </c>
       <c r="B20" t="n">
-        <v>-4.842182636260986</v>
+        <v>-0.04550890624523163</v>
       </c>
       <c r="C20" t="n">
-        <v>-7.874269485473633</v>
+        <v>-6.710865497589111</v>
       </c>
       <c r="D20" t="n">
-        <v>-7.594219207763672</v>
+        <v>-9.541435241699219</v>
       </c>
       <c r="E20" t="n">
-        <v>4.735635280609131</v>
+        <v>8.834095001220703</v>
       </c>
       <c r="F20" t="n">
-        <v>5.593050956726074</v>
+        <v>-2.186424493789673</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>-5.656375408172607</v>
+        <v>-6.601298332214355</v>
       </c>
       <c r="B21" t="n">
-        <v>-4.942012310028076</v>
+        <v>0.4176962375640869</v>
       </c>
       <c r="C21" t="n">
-        <v>-7.819230079650879</v>
+        <v>-4.196112155914307</v>
       </c>
       <c r="D21" t="n">
-        <v>-7.423690795898438</v>
+        <v>-6.613122940063477</v>
       </c>
       <c r="E21" t="n">
-        <v>5.109001159667969</v>
+        <v>7.484870910644531</v>
       </c>
       <c r="F21" t="n">
-        <v>6.154072761535645</v>
+        <v>-1.335243463516235</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>-6.477687835693359</v>
+        <v>-6.257730484008789</v>
       </c>
       <c r="B22" t="n">
-        <v>-5.770505428314209</v>
+        <v>0.6966590881347656</v>
       </c>
       <c r="C22" t="n">
-        <v>-7.89535665512085</v>
+        <v>-8.247612953186035</v>
       </c>
       <c r="D22" t="n">
-        <v>-5.9321608543396</v>
+        <v>-7.520235538482666</v>
       </c>
       <c r="E22" t="n">
-        <v>3.86689305305481</v>
+        <v>5.781160831451416</v>
       </c>
       <c r="F22" t="n">
-        <v>5.631470680236816</v>
+        <v>-6.2204909324646</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>-7.843156814575195</v>
+        <v>-6.004064559936523</v>
       </c>
       <c r="B23" t="n">
-        <v>-8.080196380615234</v>
+        <v>0.5076923370361328</v>
       </c>
       <c r="C23" t="n">
-        <v>-7.672142505645752</v>
+        <v>-5.464747905731201</v>
       </c>
       <c r="D23" t="n">
-        <v>-7.168544292449951</v>
+        <v>-8.795007705688477</v>
       </c>
       <c r="E23" t="n">
-        <v>5.698523044586182</v>
+        <v>2.527460813522339</v>
       </c>
       <c r="F23" t="n">
-        <v>6.743171215057373</v>
+        <v>-3.693651676177979</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>-8.660000801086426</v>
+        <v>-8.93516731262207</v>
       </c>
       <c r="B24" t="n">
-        <v>-9.978091239929199</v>
+        <v>7.293685913085938</v>
       </c>
       <c r="C24" t="n">
-        <v>-8.73383903503418</v>
+        <v>-5.530662059783936</v>
       </c>
       <c r="D24" t="n">
-        <v>-9.334870338439941</v>
+        <v>-10.30422401428223</v>
       </c>
       <c r="E24" t="n">
-        <v>4.758449077606201</v>
+        <v>1.294944763183594</v>
       </c>
       <c r="F24" t="n">
-        <v>6.316103935241699</v>
+        <v>-4.507205486297607</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>-9.745678901672363</v>
+        <v>-8.715185165405273</v>
       </c>
       <c r="B25" t="n">
-        <v>-8.635356903076172</v>
+        <v>2.406887292861938</v>
       </c>
       <c r="C25" t="n">
-        <v>-9.032903671264648</v>
+        <v>-6.040027618408203</v>
       </c>
       <c r="D25" t="n">
-        <v>-7.735648155212402</v>
+        <v>-6.867825984954834</v>
       </c>
       <c r="E25" t="n">
-        <v>4.26954984664917</v>
+        <v>1.421797156333923</v>
       </c>
       <c r="F25" t="n">
-        <v>6.362290859222412</v>
+        <v>-3.017460346221924</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>-10.28555583953857</v>
+        <v>-9.082881927490234</v>
       </c>
       <c r="B26" t="n">
-        <v>-9.30510425567627</v>
+        <v>6.072880268096924</v>
       </c>
       <c r="C26" t="n">
-        <v>-9.354741096496582</v>
+        <v>-5.178640842437744</v>
       </c>
       <c r="D26" t="n">
-        <v>-6.811368465423584</v>
+        <v>-12.91174697875977</v>
       </c>
       <c r="E26" t="n">
-        <v>5.644543170928955</v>
+        <v>0.8991565704345703</v>
       </c>
       <c r="F26" t="n">
-        <v>6.992528915405273</v>
+        <v>-4.209218978881836</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>-11.78495788574219</v>
+        <v>-9.534829139709473</v>
       </c>
       <c r="B27" t="n">
-        <v>-11.2381420135498</v>
+        <v>7.162008285522461</v>
       </c>
       <c r="C27" t="n">
-        <v>-8.788806915283203</v>
+        <v>-1.963868737220764</v>
       </c>
       <c r="D27" t="n">
-        <v>-7.421614170074463</v>
+        <v>-8.769345283508301</v>
       </c>
       <c r="E27" t="n">
-        <v>5.971385478973389</v>
+        <v>-0.9416123628616333</v>
       </c>
       <c r="F27" t="n">
-        <v>6.11305046081543</v>
+        <v>-3.9405837059021</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>-12.00975894927979</v>
+        <v>-7.831348896026611</v>
       </c>
       <c r="B28" t="n">
-        <v>-11.4492654800415</v>
+        <v>7.059828281402588</v>
       </c>
       <c r="C28" t="n">
-        <v>-7.388631343841553</v>
+        <v>-3.669695138931274</v>
       </c>
       <c r="D28" t="n">
-        <v>-7.276041984558105</v>
+        <v>-4.17486047744751</v>
       </c>
       <c r="E28" t="n">
-        <v>4.695642948150635</v>
+        <v>-0.8106037378311157</v>
       </c>
       <c r="F28" t="n">
-        <v>5.912543773651123</v>
+        <v>0.0006205717800185084</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>-11.99794101715088</v>
+        <v>-8.607810020446777</v>
       </c>
       <c r="B29" t="n">
-        <v>-12.35254001617432</v>
+        <v>8.928061485290527</v>
       </c>
       <c r="C29" t="n">
-        <v>-7.805713653564453</v>
+        <v>-1.387499809265137</v>
       </c>
       <c r="D29" t="n">
-        <v>-6.870856285095215</v>
+        <v>-2.689268112182617</v>
       </c>
       <c r="E29" t="n">
-        <v>5.163454532623291</v>
+        <v>-3.106040477752686</v>
       </c>
       <c r="F29" t="n">
-        <v>6.281115531921387</v>
+        <v>0.813020646572113</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>-13.43096733093262</v>
+        <v>-8.973100662231445</v>
       </c>
       <c r="B30" t="n">
-        <v>-11.83919525146484</v>
+        <v>10.50579833984375</v>
       </c>
       <c r="C30" t="n">
-        <v>-6.267479419708252</v>
+        <v>-0.4081408977508545</v>
       </c>
       <c r="D30" t="n">
-        <v>-5.863696098327637</v>
+        <v>1.271856188774109</v>
       </c>
       <c r="E30" t="n">
-        <v>5.724966526031494</v>
+        <v>-2.673938512802124</v>
       </c>
       <c r="F30" t="n">
-        <v>3.131980895996094</v>
+        <v>4.344375610351562</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>-12.29637718200684</v>
+        <v>-6.890826225280762</v>
       </c>
       <c r="B31" t="n">
-        <v>-11.69559669494629</v>
+        <v>10.38279628753662</v>
       </c>
       <c r="C31" t="n">
-        <v>-4.486729621887207</v>
+        <v>4.161034107208252</v>
       </c>
       <c r="D31" t="n">
-        <v>-4.745892524719238</v>
+        <v>-0.6367602348327637</v>
       </c>
       <c r="E31" t="n">
-        <v>4.72567081451416</v>
+        <v>-4.459500789642334</v>
       </c>
       <c r="F31" t="n">
-        <v>-0.6361422538757324</v>
+        <v>5.228190898895264</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>-10.77419567108154</v>
+        <v>-10.81567573547363</v>
       </c>
       <c r="B32" t="n">
-        <v>-12.45870304107666</v>
+        <v>10.4877347946167</v>
       </c>
       <c r="C32" t="n">
-        <v>-0.03088033385574818</v>
+        <v>6.476799011230469</v>
       </c>
       <c r="D32" t="n">
-        <v>-0.9970532655715942</v>
+        <v>4.799139022827148</v>
       </c>
       <c r="E32" t="n">
-        <v>1.153201222419739</v>
+        <v>-7.671807765960693</v>
       </c>
       <c r="F32" t="n">
-        <v>-6.547706127166748</v>
+        <v>3.936810255050659</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>-8.986638069152832</v>
+        <v>-6.649347305297852</v>
       </c>
       <c r="B33" t="n">
-        <v>-10.5843505859375</v>
+        <v>9.930507659912109</v>
       </c>
       <c r="C33" t="n">
-        <v>6.04155445098877</v>
+        <v>7.395218372344971</v>
       </c>
       <c r="D33" t="n">
-        <v>1.685431599617004</v>
+        <v>2.72784161567688</v>
       </c>
       <c r="E33" t="n">
-        <v>-5.918323993682861</v>
+        <v>-7.61409854888916</v>
       </c>
       <c r="F33" t="n">
-        <v>-10.55922794342041</v>
+        <v>2.856308460235596</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>-7.259774684906006</v>
+        <v>-5.141129970550537</v>
       </c>
       <c r="B34" t="n">
-        <v>-7.474461078643799</v>
+        <v>8.38538932800293</v>
       </c>
       <c r="C34" t="n">
-        <v>7.476318836212158</v>
+        <v>12.42359733581543</v>
       </c>
       <c r="D34" t="n">
-        <v>6.091389179229736</v>
+        <v>2.21378231048584</v>
       </c>
       <c r="E34" t="n">
-        <v>-12.66981601715088</v>
+        <v>-8.480869293212891</v>
       </c>
       <c r="F34" t="n">
-        <v>-11.9295482635498</v>
+        <v>6.464483737945557</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>-4.956679344177246</v>
+        <v>-3.951643228530884</v>
       </c>
       <c r="B35" t="n">
-        <v>-6.301475048065186</v>
+        <v>5.240982532501221</v>
       </c>
       <c r="C35" t="n">
-        <v>12.58070945739746</v>
+        <v>16.99694442749023</v>
       </c>
       <c r="D35" t="n">
-        <v>10.49392890930176</v>
+        <v>1.906603217124939</v>
       </c>
       <c r="E35" t="n">
-        <v>-14.70626640319824</v>
+        <v>-10.32650184631348</v>
       </c>
       <c r="F35" t="n">
-        <v>-10.78603839874268</v>
+        <v>5.626800060272217</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>-3.034206628799438</v>
+        <v>-2.105135202407837</v>
       </c>
       <c r="B36" t="n">
-        <v>-3.22043514251709</v>
+        <v>7.665546417236328</v>
       </c>
       <c r="C36" t="n">
-        <v>17.36606788635254</v>
+        <v>15.86536121368408</v>
       </c>
       <c r="D36" t="n">
-        <v>14.78419399261475</v>
+        <v>-1.429921507835388</v>
       </c>
       <c r="E36" t="n">
-        <v>-11.67231178283691</v>
+        <v>-6.698766708374023</v>
       </c>
       <c r="F36" t="n">
-        <v>-8.114016532897949</v>
+        <v>6.357274532318115</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>-0.1509175598621368</v>
+        <v>1.62416934967041</v>
       </c>
       <c r="B37" t="n">
-        <v>-1.290094256401062</v>
+        <v>0.4760540723800659</v>
       </c>
       <c r="C37" t="n">
-        <v>17.4885368347168</v>
+        <v>15.84781551361084</v>
       </c>
       <c r="D37" t="n">
-        <v>18.28475379943848</v>
+        <v>4.08489465713501</v>
       </c>
       <c r="E37" t="n">
-        <v>-6.99515962600708</v>
+        <v>-3.179537296295166</v>
       </c>
       <c r="F37" t="n">
-        <v>-7.047714710235596</v>
+        <v>5.669048309326172</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>2.167677164077759</v>
+        <v>0.622738778591156</v>
       </c>
       <c r="B38" t="n">
-        <v>0.4665073156356812</v>
+        <v>-0.571765661239624</v>
       </c>
       <c r="C38" t="n">
-        <v>16.73342132568359</v>
+        <v>22.15473937988281</v>
       </c>
       <c r="D38" t="n">
-        <v>18.0008373260498</v>
+        <v>-4.095998287200928</v>
       </c>
       <c r="E38" t="n">
-        <v>-4.051735401153564</v>
+        <v>-3.157437324523926</v>
       </c>
       <c r="F38" t="n">
-        <v>-5.043021202087402</v>
+        <v>7.845922946929932</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>4.436484813690186</v>
+        <v>7.871789932250977</v>
       </c>
       <c r="B39" t="n">
-        <v>2.089983701705933</v>
+        <v>-1.188912391662598</v>
       </c>
       <c r="C39" t="n">
-        <v>15.74656200408936</v>
+        <v>18.99466896057129</v>
       </c>
       <c r="D39" t="n">
-        <v>17.14773178100586</v>
+        <v>-4.909331798553467</v>
       </c>
       <c r="E39" t="n">
-        <v>-1.007037401199341</v>
+        <v>-0.31069216132164</v>
       </c>
       <c r="F39" t="n">
-        <v>-3.117977857589722</v>
+        <v>6.250590324401855</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>5.680887699127197</v>
+        <v>5.195667266845703</v>
       </c>
       <c r="B40" t="n">
-        <v>3.800690650939941</v>
+        <v>-3.362343549728394</v>
       </c>
       <c r="C40" t="n">
-        <v>15.29259777069092</v>
+        <v>19.5187816619873</v>
       </c>
       <c r="D40" t="n">
-        <v>14.7959098815918</v>
+        <v>-7.527064323425293</v>
       </c>
       <c r="E40" t="n">
-        <v>1.015067577362061</v>
+        <v>2.189297676086426</v>
       </c>
       <c r="F40" t="n">
-        <v>-2.564366817474365</v>
+        <v>7.390950679779053</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>6.994811534881592</v>
+        <v>4.750582695007324</v>
       </c>
       <c r="B41" t="n">
-        <v>4.057119846343994</v>
+        <v>-2.40643310546875</v>
       </c>
       <c r="C41" t="n">
-        <v>13.49236583709717</v>
+        <v>16.04874610900879</v>
       </c>
       <c r="D41" t="n">
-        <v>13.85258769989014</v>
+        <v>-8.152120590209961</v>
       </c>
       <c r="E41" t="n">
-        <v>0.345532238483429</v>
+        <v>1.194861769676208</v>
       </c>
       <c r="F41" t="n">
-        <v>0.3849335014820099</v>
+        <v>6.847448348999023</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>5.954270839691162</v>
+        <v>9.971102714538574</v>
       </c>
       <c r="B42" t="n">
-        <v>5.350172996520996</v>
+        <v>-3.148123502731323</v>
       </c>
       <c r="C42" t="n">
-        <v>10.53188705444336</v>
+        <v>16.02768135070801</v>
       </c>
       <c r="D42" t="n">
-        <v>11.07052230834961</v>
+        <v>-6.233438491821289</v>
       </c>
       <c r="E42" t="n">
-        <v>3.01265549659729</v>
+        <v>2.611306428909302</v>
       </c>
       <c r="F42" t="n">
-        <v>0.07191075384616852</v>
+        <v>6.545291423797607</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>6.530438423156738</v>
+        <v>8.769487380981445</v>
       </c>
       <c r="B43" t="n">
-        <v>6.180160522460938</v>
+        <v>-5.53219747543335</v>
       </c>
       <c r="C43" t="n">
-        <v>7.17519998550415</v>
+        <v>14.30724239349365</v>
       </c>
       <c r="D43" t="n">
-        <v>9.84304141998291</v>
+        <v>-8.338447570800781</v>
       </c>
       <c r="E43" t="n">
-        <v>2.722352266311646</v>
+        <v>2.834534168243408</v>
       </c>
       <c r="F43" t="n">
-        <v>1.403770923614502</v>
+        <v>8.691776275634766</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>8.993087768554688</v>
+        <v>12.06398868560791</v>
       </c>
       <c r="B44" t="n">
-        <v>6.07520866394043</v>
+        <v>-8.35395336151123</v>
       </c>
       <c r="C44" t="n">
-        <v>2.787395238876343</v>
+        <v>4.423717021942139</v>
       </c>
       <c r="D44" t="n">
-        <v>4.934103012084961</v>
+        <v>-10.33520221710205</v>
       </c>
       <c r="E44" t="n">
-        <v>1.373521447181702</v>
+        <v>3.247843503952026</v>
       </c>
       <c r="F44" t="n">
-        <v>0.9349069595336914</v>
+        <v>8.891870498657227</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>9.526359558105469</v>
+        <v>11.41714477539062</v>
       </c>
       <c r="B45" t="n">
-        <v>9.30410099029541</v>
+        <v>-9.37067699432373</v>
       </c>
       <c r="C45" t="n">
-        <v>1.424739122390747</v>
+        <v>5.651330471038818</v>
       </c>
       <c r="D45" t="n">
-        <v>3.581333160400391</v>
+        <v>-10.16550731658936</v>
       </c>
       <c r="E45" t="n">
-        <v>1.011625289916992</v>
+        <v>6.01924991607666</v>
       </c>
       <c r="F45" t="n">
-        <v>0.1957817375659943</v>
+        <v>6.352371215820312</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>10.45777988433838</v>
+        <v>13.9735803604126</v>
       </c>
       <c r="B46" t="n">
-        <v>9.260894775390625</v>
+        <v>-9.784536361694336</v>
       </c>
       <c r="C46" t="n">
-        <v>-2.248945951461792</v>
+        <v>-4.00468921661377</v>
       </c>
       <c r="D46" t="n">
-        <v>-0.1527514606714249</v>
+        <v>-10.70851612091064</v>
       </c>
       <c r="E46" t="n">
-        <v>-2.020983695983887</v>
+        <v>4.331405639648438</v>
       </c>
       <c r="F46" t="n">
-        <v>-1.150470972061157</v>
+        <v>7.866099834442139</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>10.02708148956299</v>
+        <v>14.16716194152832</v>
       </c>
       <c r="B47" t="n">
-        <v>9.310085296630859</v>
+        <v>-9.423042297363281</v>
       </c>
       <c r="C47" t="n">
-        <v>-5.029356956481934</v>
+        <v>-6.094896793365479</v>
       </c>
       <c r="D47" t="n">
-        <v>-1.145509481430054</v>
+        <v>-11.33349704742432</v>
       </c>
       <c r="E47" t="n">
-        <v>-3.075310707092285</v>
+        <v>8.074902534484863</v>
       </c>
       <c r="F47" t="n">
-        <v>-1.489438414573669</v>
+        <v>11.63194179534912</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>12.70323657989502</v>
+        <v>17.1947078704834</v>
       </c>
       <c r="B48" t="n">
-        <v>9.929962158203125</v>
+        <v>-15.2150993347168</v>
       </c>
       <c r="C48" t="n">
-        <v>-7.08379602432251</v>
+        <v>-13.21260833740234</v>
       </c>
       <c r="D48" t="n">
-        <v>-6.126177787780762</v>
+        <v>-11.0976095199585</v>
       </c>
       <c r="E48" t="n">
-        <v>-3.787253141403198</v>
+        <v>10.1438102722168</v>
       </c>
       <c r="F48" t="n">
-        <v>-2.071758270263672</v>
+        <v>9.85368824005127</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>8.982620239257812</v>
+        <v>14.61251258850098</v>
       </c>
       <c r="B49" t="n">
-        <v>9.58454704284668</v>
+        <v>-13.50038433074951</v>
       </c>
       <c r="C49" t="n">
-        <v>-8.63723087310791</v>
+        <v>-18.95372581481934</v>
       </c>
       <c r="D49" t="n">
-        <v>-6.486493110656738</v>
+        <v>-8.873727798461914</v>
       </c>
       <c r="E49" t="n">
-        <v>-3.837363004684448</v>
+        <v>8.544650077819824</v>
       </c>
       <c r="F49" t="n">
-        <v>-0.8254784345626831</v>
+        <v>9.488755226135254</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>12.05776691436768</v>
+        <v>7.201017379760742</v>
       </c>
       <c r="B50" t="n">
-        <v>11.40125560760498</v>
+        <v>-12.20405578613281</v>
       </c>
       <c r="C50" t="n">
-        <v>-9.069931983947754</v>
+        <v>-19.94283103942871</v>
       </c>
       <c r="D50" t="n">
-        <v>-9.365156173706055</v>
+        <v>-9.361089706420898</v>
       </c>
       <c r="E50" t="n">
-        <v>-4.543804168701172</v>
+        <v>7.12786865234375</v>
       </c>
       <c r="F50" t="n">
-        <v>-0.738467812538147</v>
+        <v>11.25729560852051</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>11.93603324890137</v>
+        <v>7.367996215820312</v>
       </c>
       <c r="B51" t="n">
-        <v>9.289484024047852</v>
+        <v>-17.66965675354004</v>
       </c>
       <c r="C51" t="n">
-        <v>-11.16266632080078</v>
+        <v>-18.24383926391602</v>
       </c>
       <c r="D51" t="n">
-        <v>-9.634700775146484</v>
+        <v>-5.414198398590088</v>
       </c>
       <c r="E51" t="n">
-        <v>-3.434473991394043</v>
+        <v>4.664916038513184</v>
       </c>
       <c r="F51" t="n">
-        <v>-1.628177046775818</v>
+        <v>6.580013275146484</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>8.101595878601074</v>
+        <v>4.020651817321777</v>
       </c>
       <c r="B52" t="n">
-        <v>7.115489482879639</v>
+        <v>-15.40380096435547</v>
       </c>
       <c r="C52" t="n">
-        <v>-8.640172004699707</v>
+        <v>-13.56879711151123</v>
       </c>
       <c r="D52" t="n">
-        <v>-9.741493225097656</v>
+        <v>-3.246548652648926</v>
       </c>
       <c r="E52" t="n">
-        <v>-1.131132841110229</v>
+        <v>1.893471002578735</v>
       </c>
       <c r="F52" t="n">
-        <v>-2.154492378234863</v>
+        <v>2.662016868591309</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>6.284984588623047</v>
+        <v>2.960629224777222</v>
       </c>
       <c r="B53" t="n">
-        <v>6.442661762237549</v>
+        <v>-9.515446662902832</v>
       </c>
       <c r="C53" t="n">
-        <v>-7.256380081176758</v>
+        <v>-6.455374240875244</v>
       </c>
       <c r="D53" t="n">
-        <v>-6.053324222564697</v>
+        <v>-4.148094177246094</v>
       </c>
       <c r="E53" t="n">
-        <v>-2.722050189971924</v>
+        <v>-2.568165063858032</v>
       </c>
       <c r="F53" t="n">
-        <v>-2.397743463516235</v>
+        <v>-4.545432567596436</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>5.400911808013916</v>
+        <v>1.808830976486206</v>
       </c>
       <c r="B54" t="n">
-        <v>5.035347938537598</v>
+        <v>-8.815933227539062</v>
       </c>
       <c r="C54" t="n">
-        <v>-6.148524284362793</v>
+        <v>-8.771190643310547</v>
       </c>
       <c r="D54" t="n">
-        <v>-5.375106811523438</v>
+        <v>-1.098094582557678</v>
       </c>
       <c r="E54" t="n">
-        <v>-2.794945955276489</v>
+        <v>-2.95718240737915</v>
       </c>
       <c r="F54" t="n">
-        <v>-1.984055280685425</v>
+        <v>-6.69935417175293</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>5.79946756362915</v>
+        <v>1.044437050819397</v>
       </c>
       <c r="B55" t="n">
-        <v>4.642302513122559</v>
+        <v>-8.477913856506348</v>
       </c>
       <c r="C55" t="n">
-        <v>-3.667094945907593</v>
+        <v>-8.522507667541504</v>
       </c>
       <c r="D55" t="n">
-        <v>-4.753727436065674</v>
+        <v>-0.02194067090749741</v>
       </c>
       <c r="E55" t="n">
-        <v>-2.314907312393188</v>
+        <v>-3.212653875350952</v>
       </c>
       <c r="F55" t="n">
-        <v>-1.526596069335938</v>
+        <v>-8.300144195556641</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>4.807944297790527</v>
+        <v>0.653516948223114</v>
       </c>
       <c r="B56" t="n">
-        <v>3.389349460601807</v>
+        <v>-7.906301498413086</v>
       </c>
       <c r="C56" t="n">
-        <v>-3.614291906356812</v>
+        <v>-9.974926948547363</v>
       </c>
       <c r="D56" t="n">
-        <v>-3.335658073425293</v>
+        <v>1.360394835472107</v>
       </c>
       <c r="E56" t="n">
-        <v>-1.523959755897522</v>
+        <v>-3.632606744766235</v>
       </c>
       <c r="F56" t="n">
-        <v>-1.153505921363831</v>
+        <v>-9.336730003356934</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>3.728265047073364</v>
+        <v>0.3269910514354706</v>
       </c>
       <c r="B57" t="n">
-        <v>2.303917169570923</v>
+        <v>-6.174520969390869</v>
       </c>
       <c r="C57" t="n">
-        <v>-3.041486263275146</v>
+        <v>-9.312509536743164</v>
       </c>
       <c r="D57" t="n">
-        <v>-3.519523859024048</v>
+        <v>4.008678913116455</v>
       </c>
       <c r="E57" t="n">
-        <v>-0.5759340524673462</v>
+        <v>-3.056709051132202</v>
       </c>
       <c r="F57" t="n">
-        <v>-0.2495715618133545</v>
+        <v>-8.823513984680176</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>2.40062403678894</v>
+        <v>-0.5610085129737854</v>
       </c>
       <c r="B58" t="n">
-        <v>1.155022740364075</v>
+        <v>-5.071981906890869</v>
       </c>
       <c r="C58" t="n">
-        <v>-4.772458553314209</v>
+        <v>-8.740697860717773</v>
       </c>
       <c r="D58" t="n">
-        <v>-3.714517593383789</v>
+        <v>6.705766201019287</v>
       </c>
       <c r="E58" t="n">
-        <v>-0.4266336262226105</v>
+        <v>-3.417073011398315</v>
       </c>
       <c r="F58" t="n">
-        <v>0.480403870344162</v>
+        <v>-7.648010730743408</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>2.226098537445068</v>
+        <v>-0.02094230428338051</v>
       </c>
       <c r="B59" t="n">
-        <v>0.6098541021347046</v>
+        <v>-4.940727233886719</v>
       </c>
       <c r="C59" t="n">
-        <v>-4.520830631256104</v>
+        <v>-7.861276149749756</v>
       </c>
       <c r="D59" t="n">
-        <v>-3.463486909866333</v>
+        <v>7.899842262268066</v>
       </c>
       <c r="E59" t="n">
-        <v>-0.3732660114765167</v>
+        <v>-3.198364496231079</v>
       </c>
       <c r="F59" t="n">
-        <v>0.6659079790115356</v>
+        <v>-6.130441188812256</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>0.6608863472938538</v>
+        <v>-0.4098397493362427</v>
       </c>
       <c r="B60" t="n">
-        <v>0.4509521722793579</v>
+        <v>-3.155760765075684</v>
       </c>
       <c r="C60" t="n">
-        <v>-5.674220561981201</v>
+        <v>-9.657618522644043</v>
       </c>
       <c r="D60" t="n">
-        <v>-4.308358192443848</v>
+        <v>11.26365184783936</v>
       </c>
       <c r="E60" t="n">
-        <v>0.6704242825508118</v>
+        <v>-1.96054470539093</v>
       </c>
       <c r="F60" t="n">
-        <v>1.711098432540894</v>
+        <v>-5.031886577606201</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>-0.3020924627780914</v>
+        <v>-0.3302692472934723</v>
       </c>
       <c r="B61" t="n">
-        <v>-0.3427214920520782</v>
+        <v>-1.277153134346008</v>
       </c>
       <c r="C61" t="n">
-        <v>-5.544485092163086</v>
+        <v>-9.468728065490723</v>
       </c>
       <c r="D61" t="n">
-        <v>-4.694806098937988</v>
+        <v>11.85909748077393</v>
       </c>
       <c r="E61" t="n">
-        <v>1.103936910629272</v>
+        <v>-0.7606776356697083</v>
       </c>
       <c r="F61" t="n">
-        <v>1.762813210487366</v>
+        <v>-3.903041362762451</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>-1.033802151679993</v>
+        <v>-0.4849078953266144</v>
       </c>
       <c r="B62" t="n">
-        <v>-1.033440113067627</v>
+        <v>1.617278099060059</v>
       </c>
       <c r="C62" t="n">
-        <v>-6.081509113311768</v>
+        <v>-9.234598159790039</v>
       </c>
       <c r="D62" t="n">
-        <v>-5.238606452941895</v>
+        <v>13.22469139099121</v>
       </c>
       <c r="E62" t="n">
-        <v>1.233041882514954</v>
+        <v>-0.4167287647724152</v>
       </c>
       <c r="F62" t="n">
-        <v>2.092201948165894</v>
+        <v>-1.718149423599243</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>-1.852293252944946</v>
+        <v>-2.568110227584839</v>
       </c>
       <c r="B63" t="n">
-        <v>-1.903016567230225</v>
+        <v>1.05033802986145</v>
       </c>
       <c r="C63" t="n">
-        <v>-6.006360054016113</v>
+        <v>-8.20763111114502</v>
       </c>
       <c r="D63" t="n">
-        <v>-5.495103359222412</v>
+        <v>14.11222267150879</v>
       </c>
       <c r="E63" t="n">
-        <v>1.859117984771729</v>
+        <v>-0.2858817279338837</v>
       </c>
       <c r="F63" t="n">
-        <v>2.225884199142456</v>
+        <v>-0.6048832535743713</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>-2.492490291595459</v>
+        <v>-1.961272358894348</v>
       </c>
       <c r="B64" t="n">
-        <v>-2.120947122573853</v>
+        <v>2.638890266418457</v>
       </c>
       <c r="C64" t="n">
-        <v>-6.470156669616699</v>
+        <v>-8.290030479431152</v>
       </c>
       <c r="D64" t="n">
-        <v>-6.015366554260254</v>
+        <v>11.81202983856201</v>
       </c>
       <c r="E64" t="n">
-        <v>1.864468455314636</v>
+        <v>0.6794904470443726</v>
       </c>
       <c r="F64" t="n">
-        <v>2.149325370788574</v>
+        <v>0.729015588760376</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>-3.326810598373413</v>
+        <v>-3.431622505187988</v>
       </c>
       <c r="B65" t="n">
-        <v>-2.601855993270874</v>
+        <v>2.322998762130737</v>
       </c>
       <c r="C65" t="n">
-        <v>-6.761997222900391</v>
+        <v>-9.593082427978516</v>
       </c>
       <c r="D65" t="n">
-        <v>-5.51671314239502</v>
+        <v>8.057583808898926</v>
       </c>
       <c r="E65" t="n">
-        <v>2.288304805755615</v>
+        <v>1.343367576599121</v>
       </c>
       <c r="F65" t="n">
-        <v>2.673504590988159</v>
+        <v>0.3620602488517761</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>-3.959123849868774</v>
+        <v>-3.580189228057861</v>
       </c>
       <c r="B66" t="n">
-        <v>-3.373558282852173</v>
+        <v>3.144879341125488</v>
       </c>
       <c r="C66" t="n">
-        <v>-6.943678855895996</v>
+        <v>-9.725529670715332</v>
       </c>
       <c r="D66" t="n">
-        <v>-6.834521293640137</v>
+        <v>7.317571640014648</v>
       </c>
       <c r="E66" t="n">
-        <v>2.77076530456543</v>
+        <v>1.845989346504211</v>
       </c>
       <c r="F66" t="n">
-        <v>2.982750654220581</v>
+        <v>1.917036652565002</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>-4.691798210144043</v>
+        <v>-2.59381628036499</v>
       </c>
       <c r="B67" t="n">
-        <v>-3.517372608184814</v>
+        <v>1.668010473251343</v>
       </c>
       <c r="C67" t="n">
-        <v>-7.000406265258789</v>
+        <v>-8.558896064758301</v>
       </c>
       <c r="D67" t="n">
-        <v>-6.529913902282715</v>
+        <v>3.863404273986816</v>
       </c>
       <c r="E67" t="n">
-        <v>3.491142272949219</v>
+        <v>1.895483136177063</v>
       </c>
       <c r="F67" t="n">
-        <v>3.508282423019409</v>
+        <v>0.4203090667724609</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>-5.657354354858398</v>
+        <v>-4.289632797241211</v>
       </c>
       <c r="B68" t="n">
-        <v>-3.835119485855103</v>
+        <v>2.431114673614502</v>
       </c>
       <c r="C68" t="n">
-        <v>-6.863380908966064</v>
+        <v>-10.341721534729</v>
       </c>
       <c r="D68" t="n">
-        <v>-6.721756458282471</v>
+        <v>-0.6837676167488098</v>
       </c>
       <c r="E68" t="n">
-        <v>3.746343374252319</v>
+        <v>3.932891607284546</v>
       </c>
       <c r="F68" t="n">
-        <v>3.541890621185303</v>
+        <v>0.8402456045150757</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>-6.073068618774414</v>
+        <v>-5.343257904052734</v>
       </c>
       <c r="B69" t="n">
-        <v>-4.650603771209717</v>
+        <v>2.881502151489258</v>
       </c>
       <c r="C69" t="n">
-        <v>-7.731451511383057</v>
+        <v>-8.791584968566895</v>
       </c>
       <c r="D69" t="n">
-        <v>-7.395523071289062</v>
+        <v>-1.494980931282043</v>
       </c>
       <c r="E69" t="n">
-        <v>4.15488862991333</v>
+        <v>6.973016262054443</v>
       </c>
       <c r="F69" t="n">
-        <v>4.355839252471924</v>
+        <v>0.02516302280128002</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>-6.201671600341797</v>
+        <v>-7.206717014312744</v>
       </c>
       <c r="B70" t="n">
-        <v>-5.196924209594727</v>
+        <v>2.603901386260986</v>
       </c>
       <c r="C70" t="n">
-        <v>-7.859935283660889</v>
+        <v>-6.653127193450928</v>
       </c>
       <c r="D70" t="n">
-        <v>-7.25839376449585</v>
+        <v>-4.373082637786865</v>
       </c>
       <c r="E70" t="n">
-        <v>4.80485200881958</v>
+        <v>7.70872163772583</v>
       </c>
       <c r="F70" t="n">
-        <v>4.760969638824463</v>
+        <v>-0.9899768829345703</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>-6.976143360137939</v>
+        <v>-6.144501686096191</v>
       </c>
       <c r="B71" t="n">
-        <v>-5.842061519622803</v>
+        <v>1.184910297393799</v>
       </c>
       <c r="C71" t="n">
-        <v>-8.348854064941406</v>
+        <v>-8.369667053222656</v>
       </c>
       <c r="D71" t="n">
-        <v>-7.855532646179199</v>
+        <v>-9.990631103515625</v>
       </c>
       <c r="E71" t="n">
-        <v>4.935136795043945</v>
+        <v>8.121044158935547</v>
       </c>
       <c r="F71" t="n">
-        <v>5.364265441894531</v>
+        <v>-1.189406752586365</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>-7.054979801177979</v>
+        <v>-7.095869541168213</v>
       </c>
       <c r="B72" t="n">
-        <v>-6.034068584442139</v>
+        <v>1.27789831161499</v>
       </c>
       <c r="C72" t="n">
-        <v>-8.214401245117188</v>
+        <v>-6.168959140777588</v>
       </c>
       <c r="D72" t="n">
-        <v>-8.308992385864258</v>
+        <v>-8.641205787658691</v>
       </c>
       <c r="E72" t="n">
-        <v>5.273675918579102</v>
+        <v>7.097227573394775</v>
       </c>
       <c r="F72" t="n">
-        <v>5.687267303466797</v>
+        <v>-2.766654491424561</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>-7.534406185150146</v>
+        <v>-7.081192016601562</v>
       </c>
       <c r="B73" t="n">
-        <v>-6.705233573913574</v>
+        <v>0.9504024982452393</v>
       </c>
       <c r="C73" t="n">
-        <v>-8.150127410888672</v>
+        <v>-8.338559150695801</v>
       </c>
       <c r="D73" t="n">
-        <v>-7.515131950378418</v>
+        <v>-9.008530616760254</v>
       </c>
       <c r="E73" t="n">
-        <v>5.18195104598999</v>
+        <v>6.782641887664795</v>
       </c>
       <c r="F73" t="n">
-        <v>5.579022884368896</v>
+        <v>-4.748495578765869</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>-8.364682197570801</v>
+        <v>-7.455182075500488</v>
       </c>
       <c r="B74" t="n">
-        <v>-7.97306489944458</v>
+        <v>0.8067517280578613</v>
       </c>
       <c r="C74" t="n">
-        <v>-8.874896049499512</v>
+        <v>-6.761017799377441</v>
       </c>
       <c r="D74" t="n">
-        <v>-7.948935031890869</v>
+        <v>-10.00191402435303</v>
       </c>
       <c r="E74" t="n">
-        <v>5.783843040466309</v>
+        <v>4.062927722930908</v>
       </c>
       <c r="F74" t="n">
-        <v>6.119352340698242</v>
+        <v>-4.224831104278564</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="n">
-        <v>-9.27613353729248</v>
+        <v>-8.985252380371094</v>
       </c>
       <c r="B75" t="n">
-        <v>-9.038912773132324</v>
+        <v>3.984743595123291</v>
       </c>
       <c r="C75" t="n">
-        <v>-8.586915969848633</v>
+        <v>-7.020370960235596</v>
       </c>
       <c r="D75" t="n">
-        <v>-8.602272033691406</v>
+        <v>-9.912216186523438</v>
       </c>
       <c r="E75" t="n">
-        <v>5.35542631149292</v>
+        <v>4.078294277191162</v>
       </c>
       <c r="F75" t="n">
-        <v>6.107404708862305</v>
+        <v>-4.232601642608643</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>-9.813647270202637</v>
+        <v>-8.666964530944824</v>
       </c>
       <c r="B76" t="n">
-        <v>-9.074947357177734</v>
+        <v>3.862509727478027</v>
       </c>
       <c r="C76" t="n">
-        <v>-9.182173728942871</v>
+        <v>-5.746870994567871</v>
       </c>
       <c r="D76" t="n">
-        <v>-8.125544548034668</v>
+        <v>-8.815567970275879</v>
       </c>
       <c r="E76" t="n">
-        <v>5.209408760070801</v>
+        <v>3.557295799255371</v>
       </c>
       <c r="F76" t="n">
-        <v>5.941611289978027</v>
+        <v>-3.810778617858887</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>-10.39594173431396</v>
+        <v>-9.003983497619629</v>
       </c>
       <c r="B77" t="n">
-        <v>-9.669121742248535</v>
+        <v>5.282958030700684</v>
       </c>
       <c r="C77" t="n">
-        <v>-9.300959587097168</v>
+        <v>-6.503222942352295</v>
       </c>
       <c r="D77" t="n">
-        <v>-7.674380302429199</v>
+        <v>-9.163716316223145</v>
       </c>
       <c r="E77" t="n">
-        <v>4.995758533477783</v>
+        <v>2.531546831130981</v>
       </c>
       <c r="F77" t="n">
-        <v>5.756973743438721</v>
+        <v>-3.220379590988159</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>-11.98878002166748</v>
+        <v>-9.680100440979004</v>
       </c>
       <c r="B78" t="n">
-        <v>-10.87471675872803</v>
+        <v>7.264375686645508</v>
       </c>
       <c r="C78" t="n">
-        <v>-8.410649299621582</v>
+        <v>-4.092062950134277</v>
       </c>
       <c r="D78" t="n">
-        <v>-7.071452140808105</v>
+        <v>-6.74301815032959</v>
       </c>
       <c r="E78" t="n">
-        <v>4.888525009155273</v>
+        <v>0.1455092430114746</v>
       </c>
       <c r="F78" t="n">
-        <v>5.714736938476562</v>
+        <v>-3.16120171546936</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>-12.28911113739014</v>
+        <v>-10.01405429840088</v>
       </c>
       <c r="B79" t="n">
-        <v>-11.32615661621094</v>
+        <v>8.033966064453125</v>
       </c>
       <c r="C79" t="n">
-        <v>-8.073623657226562</v>
+        <v>-2.522999286651611</v>
       </c>
       <c r="D79" t="n">
-        <v>-7.112508773803711</v>
+        <v>-3.640577793121338</v>
       </c>
       <c r="E79" t="n">
-        <v>4.459052085876465</v>
+        <v>-1.209059238433838</v>
       </c>
       <c r="F79" t="n">
-        <v>5.506048202514648</v>
+        <v>-1.023264408111572</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="n">
-        <v>-12.57635116577148</v>
+        <v>-8.81618595123291</v>
       </c>
       <c r="B80" t="n">
-        <v>-12.17219829559326</v>
+        <v>9.997673034667969</v>
       </c>
       <c r="C80" t="n">
-        <v>-6.890183448791504</v>
+        <v>-0.9536665081977844</v>
       </c>
       <c r="D80" t="n">
-        <v>-6.671243190765381</v>
+        <v>-2.328541040420532</v>
       </c>
       <c r="E80" t="n">
-        <v>3.992140054702759</v>
+        <v>-3.191650629043579</v>
       </c>
       <c r="F80" t="n">
-        <v>5.031835079193115</v>
+        <v>-0.2989856600761414</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="n">
-        <v>-12.79114627838135</v>
+        <v>-8.335511207580566</v>
       </c>
       <c r="B81" t="n">
-        <v>-12.01734256744385</v>
+        <v>10.37534809112549</v>
       </c>
       <c r="C81" t="n">
-        <v>-5.995248317718506</v>
+        <v>1.148569345474243</v>
       </c>
       <c r="D81" t="n">
-        <v>-5.384190559387207</v>
+        <v>0.9459908604621887</v>
       </c>
       <c r="E81" t="n">
-        <v>3.63253927230835</v>
+        <v>-4.380460739135742</v>
       </c>
       <c r="F81" t="n">
-        <v>2.23563289642334</v>
+        <v>2.116179466247559</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="n">
-        <v>-12.16519451141357</v>
+        <v>-7.399814128875732</v>
       </c>
       <c r="B82" t="n">
-        <v>-11.58966827392578</v>
+        <v>10.39707279205322</v>
       </c>
       <c r="C82" t="n">
-        <v>-3.332165002822876</v>
+        <v>4.650503635406494</v>
       </c>
       <c r="D82" t="n">
-        <v>-3.361543655395508</v>
+        <v>-0.1796991378068924</v>
       </c>
       <c r="E82" t="n">
-        <v>1.265249729156494</v>
+        <v>-6.448393821716309</v>
       </c>
       <c r="F82" t="n">
-        <v>-1.510026574134827</v>
+        <v>2.520500898361206</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>-10.77818870544434</v>
+        <v>-7.558385848999023</v>
       </c>
       <c r="B83" t="n">
-        <v>-11.28769207000732</v>
+        <v>9.31071949005127</v>
       </c>
       <c r="C83" t="n">
-        <v>0.3926681280136108</v>
+        <v>6.777597904205322</v>
       </c>
       <c r="D83" t="n">
-        <v>-0.540554404258728</v>
+        <v>1.517465949058533</v>
       </c>
       <c r="E83" t="n">
-        <v>-2.232901811599731</v>
+        <v>-9.050006866455078</v>
       </c>
       <c r="F83" t="n">
-        <v>-7.152854442596436</v>
+        <v>2.348421573638916</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="n">
-        <v>-8.54649543762207</v>
+        <v>-4.162707328796387</v>
       </c>
       <c r="B84" t="n">
-        <v>-9.704791069030762</v>
+        <v>8.499502182006836</v>
       </c>
       <c r="C84" t="n">
-        <v>5.935554981231689</v>
+        <v>9.077466011047363</v>
       </c>
       <c r="D84" t="n">
-        <v>2.752800941467285</v>
+        <v>2.224510669708252</v>
       </c>
       <c r="E84" t="n">
-        <v>-8.025617599487305</v>
+        <v>-9.358798980712891</v>
       </c>
       <c r="F84" t="n">
-        <v>-11.20261764526367</v>
+        <v>3.180825233459473</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="n">
-        <v>-6.190732955932617</v>
+        <v>-3.051225423812866</v>
       </c>
       <c r="B85" t="n">
-        <v>-6.695076465606689</v>
+        <v>7.794119834899902</v>
       </c>
       <c r="C85" t="n">
-        <v>9.688848495483398</v>
+        <v>14.13134098052979</v>
       </c>
       <c r="D85" t="n">
-        <v>7.137259483337402</v>
+        <v>2.372513055801392</v>
       </c>
       <c r="E85" t="n">
-        <v>-12.347975730896</v>
+        <v>-9.718762397766113</v>
       </c>
       <c r="F85" t="n">
-        <v>-12.87938499450684</v>
+        <v>3.996331453323364</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="n">
-        <v>-3.575406789779663</v>
+        <v>-1.858313918113708</v>
       </c>
       <c r="B86" t="n">
-        <v>-4.979935169219971</v>
+        <v>5.629640579223633</v>
       </c>
       <c r="C86" t="n">
-        <v>14.35756397247314</v>
+        <v>16.54776573181152</v>
       </c>
       <c r="D86" t="n">
-        <v>11.84492015838623</v>
+        <v>0.884880006313324</v>
       </c>
       <c r="E86" t="n">
-        <v>-13.50295734405518</v>
+        <v>-8.423248291015625</v>
       </c>
       <c r="F86" t="n">
-        <v>-11.90073776245117</v>
+        <v>4.433278560638428</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="n">
-        <v>-1.483127593994141</v>
+        <v>0.5473451018333435</v>
       </c>
       <c r="B87" t="n">
-        <v>-2.365241050720215</v>
+        <v>5.186384201049805</v>
       </c>
       <c r="C87" t="n">
-        <v>18.0229377746582</v>
+        <v>17.93838500976562</v>
       </c>
       <c r="D87" t="n">
-        <v>15.7589807510376</v>
+        <v>0.2600829899311066</v>
       </c>
       <c r="E87" t="n">
-        <v>-11.19572067260742</v>
+        <v>-6.619094371795654</v>
       </c>
       <c r="F87" t="n">
-        <v>-9.064521789550781</v>
+        <v>5.059962749481201</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="n">
-        <v>1.041138648986816</v>
+        <v>2.347488403320312</v>
       </c>
       <c r="B88" t="n">
-        <v>-0.3380287289619446</v>
+        <v>2.052893400192261</v>
       </c>
       <c r="C88" t="n">
-        <v>19.38101768493652</v>
+        <v>17.25776481628418</v>
       </c>
       <c r="D88" t="n">
-        <v>18.51577186584473</v>
+        <v>1.259180903434753</v>
       </c>
       <c r="E88" t="n">
-        <v>-7.308784008026123</v>
+        <v>-3.866584539413452</v>
       </c>
       <c r="F88" t="n">
-        <v>-6.761521816253662</v>
+        <v>5.389160633087158</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="n">
-        <v>3.181753873825073</v>
+        <v>3.632991552352905</v>
       </c>
       <c r="B89" t="n">
-        <v>1.217247724533081</v>
+        <v>1.868965625762939</v>
       </c>
       <c r="C89" t="n">
-        <v>19.86897087097168</v>
+        <v>19.22791862487793</v>
       </c>
       <c r="D89" t="n">
-        <v>19.02492141723633</v>
+        <v>-2.288788318634033</v>
       </c>
       <c r="E89" t="n">
-        <v>-4.086232662200928</v>
+        <v>-1.694450736045837</v>
       </c>
       <c r="F89" t="n">
-        <v>-4.34632682800293</v>
+        <v>6.365508079528809</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="n">
-        <v>5.002627849578857</v>
+        <v>6.576530933380127</v>
       </c>
       <c r="B90" t="n">
-        <v>2.649582147598267</v>
+        <v>-0.07096002995967865</v>
       </c>
       <c r="C90" t="n">
-        <v>18.62399101257324</v>
+        <v>19.20001983642578</v>
       </c>
       <c r="D90" t="n">
-        <v>18.45922470092773</v>
+        <v>-4.029871940612793</v>
       </c>
       <c r="E90" t="n">
-        <v>-1.128772854804993</v>
+        <v>0.02992771938443184</v>
       </c>
       <c r="F90" t="n">
-        <v>-2.554731845855713</v>
+        <v>5.86247444152832</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="n">
-        <v>6.319136142730713</v>
+        <v>6.113280296325684</v>
       </c>
       <c r="B91" t="n">
-        <v>3.997532844543457</v>
+        <v>-1.374600052833557</v>
       </c>
       <c r="C91" t="n">
-        <v>17.44380569458008</v>
+        <v>19.7490348815918</v>
       </c>
       <c r="D91" t="n">
-        <v>16.4974193572998</v>
+        <v>-5.09340763092041</v>
       </c>
       <c r="E91" t="n">
-        <v>1.029248476028442</v>
+        <v>1.639422416687012</v>
       </c>
       <c r="F91" t="n">
-        <v>-1.200774908065796</v>
+        <v>6.439114570617676</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="n">
-        <v>7.031084537506104</v>
+        <v>7.668247222900391</v>
       </c>
       <c r="B92" t="n">
-        <v>4.963037490844727</v>
+        <v>-2.371356010437012</v>
       </c>
       <c r="C92" t="n">
-        <v>14.83487606048584</v>
+        <v>16.03617668151855</v>
       </c>
       <c r="D92" t="n">
-        <v>14.77360916137695</v>
+        <v>-5.752706527709961</v>
       </c>
       <c r="E92" t="n">
-        <v>1.935507535934448</v>
+        <v>2.867247104644775</v>
       </c>
       <c r="F92" t="n">
-        <v>0.5468153953552246</v>
+        <v>6.041668891906738</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="n">
-        <v>7.16925048828125</v>
+        <v>9.314929962158203</v>
       </c>
       <c r="B93" t="n">
-        <v>5.614122867584229</v>
+        <v>-3.637248992919922</v>
       </c>
       <c r="C93" t="n">
-        <v>11.17836952209473</v>
+        <v>13.75851917266846</v>
       </c>
       <c r="D93" t="n">
-        <v>11.91502475738525</v>
+        <v>-6.485639572143555</v>
       </c>
       <c r="E93" t="n">
-        <v>3.170056104660034</v>
+        <v>2.816585540771484</v>
       </c>
       <c r="F93" t="n">
-        <v>0.9564177393913269</v>
+        <v>6.208843231201172</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="n">
-        <v>7.864269256591797</v>
+        <v>10.17869663238525</v>
       </c>
       <c r="B94" t="n">
-        <v>6.245520114898682</v>
+        <v>-5.977675437927246</v>
       </c>
       <c r="C94" t="n">
-        <v>7.751326084136963</v>
+        <v>9.865334510803223</v>
       </c>
       <c r="D94" t="n">
-        <v>9.15446949005127</v>
+        <v>-8.086475372314453</v>
       </c>
       <c r="E94" t="n">
-        <v>3.108603000640869</v>
+        <v>3.184376239776611</v>
       </c>
       <c r="F94" t="n">
-        <v>1.42350971698761</v>
+        <v>6.857814788818359</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="n">
-        <v>8.819189071655273</v>
+        <v>10.56805324554443</v>
       </c>
       <c r="B95" t="n">
-        <v>7.034124374389648</v>
+        <v>-7.66037130355835</v>
       </c>
       <c r="C95" t="n">
-        <v>2.861613512039185</v>
+        <v>4.738641738891602</v>
       </c>
       <c r="D95" t="n">
-        <v>5.220818042755127</v>
+        <v>-9.06261157989502</v>
       </c>
       <c r="E95" t="n">
-        <v>2.199895143508911</v>
+        <v>3.442399740219116</v>
       </c>
       <c r="F95" t="n">
-        <v>1.274506330490112</v>
+        <v>7.049724102020264</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="n">
-        <v>8.996767044067383</v>
+        <v>10.35499000549316</v>
       </c>
       <c r="B96" t="n">
-        <v>8.470763206481934</v>
+        <v>-6.905868530273438</v>
       </c>
       <c r="C96" t="n">
-        <v>-0.2780637741088867</v>
+        <v>2.17594051361084</v>
       </c>
       <c r="D96" t="n">
-        <v>3.099437713623047</v>
+        <v>-9.173418998718262</v>
       </c>
       <c r="E96" t="n">
-        <v>0.7524127960205078</v>
+        <v>4.317501544952393</v>
       </c>
       <c r="F96" t="n">
-        <v>0.7416244745254517</v>
+        <v>6.834920883178711</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="n">
-        <v>9.531951904296875</v>
+        <v>11.94529438018799</v>
       </c>
       <c r="B97" t="n">
-        <v>8.973282814025879</v>
+        <v>-9.024169921875</v>
       </c>
       <c r="C97" t="n">
-        <v>-3.802520990371704</v>
+        <v>-3.648892879486084</v>
       </c>
       <c r="D97" t="n">
-        <v>-0.6974923610687256</v>
+        <v>-8.920080184936523</v>
       </c>
       <c r="E97" t="n">
-        <v>-1.740520000457764</v>
+        <v>3.71655797958374</v>
       </c>
       <c r="F97" t="n">
-        <v>-0.1940382719039917</v>
+        <v>7.317638397216797</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="n">
-        <v>9.508715629577637</v>
+        <v>12.32882785797119</v>
       </c>
       <c r="B98" t="n">
-        <v>9.691636085510254</v>
+        <v>-8.23726749420166</v>
       </c>
       <c r="C98" t="n">
-        <v>-6.092700004577637</v>
+        <v>-7.765649318695068</v>
       </c>
       <c r="D98" t="n">
-        <v>-2.838151216506958</v>
+        <v>-11.22326374053955</v>
       </c>
       <c r="E98" t="n">
-        <v>-3.189677953720093</v>
+        <v>5.066256046295166</v>
       </c>
       <c r="F98" t="n">
-        <v>-0.7310159206390381</v>
+        <v>8.489249229431152</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="n">
-        <v>10.26124286651611</v>
+        <v>13.23824787139893</v>
       </c>
       <c r="B99" t="n">
-        <v>9.51332950592041</v>
+        <v>-10.41771602630615</v>
       </c>
       <c r="C99" t="n">
-        <v>-8.688373565673828</v>
+        <v>-10.56462860107422</v>
       </c>
       <c r="D99" t="n">
-        <v>-6.233551502227783</v>
+        <v>-10.17026233673096</v>
       </c>
       <c r="E99" t="n">
-        <v>-4.009417057037354</v>
+        <v>5.576729297637939</v>
       </c>
       <c r="F99" t="n">
-        <v>-1.192824959754944</v>
+        <v>8.781649589538574</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="n">
-        <v>9.130588531494141</v>
+        <v>10.22719573974609</v>
       </c>
       <c r="B100" t="n">
-        <v>9.336097717285156</v>
+        <v>-11.0183162689209</v>
       </c>
       <c r="C100" t="n">
-        <v>-9.516086578369141</v>
+        <v>-14.49513053894043</v>
       </c>
       <c r="D100" t="n">
-        <v>-8.228216171264648</v>
+        <v>-9.075315475463867</v>
       </c>
       <c r="E100" t="n">
-        <v>-4.216460227966309</v>
+        <v>5.24363374710083</v>
       </c>
       <c r="F100" t="n">
-        <v>-0.9287153482437134</v>
+        <v>7.985798358917236</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="n">
-        <v>10.47012996673584</v>
+        <v>5.091658592224121</v>
       </c>
       <c r="B101" t="n">
-        <v>9.583486557006836</v>
+        <v>-11.90548229217529</v>
       </c>
       <c r="C101" t="n">
-        <v>-10.57058715820312</v>
+        <v>-15.93747520446777</v>
       </c>
       <c r="D101" t="n">
-        <v>-9.806607246398926</v>
+        <v>-9.201266288757324</v>
       </c>
       <c r="E101" t="n">
-        <v>-4.351583480834961</v>
+        <v>2.925984859466553</v>
       </c>
       <c r="F101" t="n">
-        <v>-1.296658515930176</v>
+        <v>8.65810489654541</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="n">
-        <v>10.15120506286621</v>
+        <v>2.12753963470459</v>
       </c>
       <c r="B102" t="n">
-        <v>8.353891372680664</v>
+        <v>-12.97758293151855</v>
       </c>
       <c r="C102" t="n">
-        <v>-11.15126323699951</v>
+        <v>-14.28712177276611</v>
       </c>
       <c r="D102" t="n">
-        <v>-9.829251289367676</v>
+        <v>-8.180824279785156</v>
       </c>
       <c r="E102" t="n">
-        <v>-4.259195804595947</v>
+        <v>2.789781808853149</v>
       </c>
       <c r="F102" t="n">
-        <v>-2.265553951263428</v>
+        <v>6.44792652130127</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="n">
-        <v>7.460274696350098</v>
+        <v>2.191389560699463</v>
       </c>
       <c r="B103" t="n">
-        <v>6.831722259521484</v>
+        <v>-13.48169326782227</v>
       </c>
       <c r="C103" t="n">
-        <v>-9.59471607208252</v>
+        <v>-12.34800910949707</v>
       </c>
       <c r="D103" t="n">
-        <v>-9.121687889099121</v>
+        <v>-5.246792316436768</v>
       </c>
       <c r="E103" t="n">
-        <v>-2.666447877883911</v>
+        <v>1.21434485912323</v>
       </c>
       <c r="F103" t="n">
-        <v>-2.301292419433594</v>
+        <v>4.676773071289062</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="n">
-        <v>6.523857116699219</v>
+        <v>4.190893650054932</v>
       </c>
       <c r="B104" t="n">
-        <v>6.486357688903809</v>
+        <v>-10.72259712219238</v>
       </c>
       <c r="C104" t="n">
-        <v>-7.329830646514893</v>
+        <v>-5.740509033203125</v>
       </c>
       <c r="D104" t="n">
-        <v>-6.789074420928955</v>
+        <v>-4.202826499938965</v>
       </c>
       <c r="E104" t="n">
-        <v>-3.008544683456421</v>
+        <v>-2.543827056884766</v>
       </c>
       <c r="F104" t="n">
-        <v>-2.247557640075684</v>
+        <v>-4.293550968170166</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="n">
-        <v>6.006002902984619</v>
+        <v>3.157986879348755</v>
       </c>
       <c r="B105" t="n">
-        <v>5.139388084411621</v>
+        <v>-9.646758079528809</v>
       </c>
       <c r="C105" t="n">
-        <v>-6.328459739685059</v>
+        <v>-8.104454040527344</v>
       </c>
       <c r="D105" t="n">
-        <v>-6.361244678497314</v>
+        <v>-1.95631730556488</v>
       </c>
       <c r="E105" t="n">
-        <v>-3.136640071868896</v>
+        <v>-2.921073436737061</v>
       </c>
       <c r="F105" t="n">
-        <v>-2.206739187240601</v>
+        <v>-6.531843662261963</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="n">
-        <v>6.102521419525146</v>
+        <v>2.63017463684082</v>
       </c>
       <c r="B106" t="n">
-        <v>4.427767276763916</v>
+        <v>-9.450913429260254</v>
       </c>
       <c r="C106" t="n">
-        <v>-4.247772216796875</v>
+        <v>-7.810243129730225</v>
       </c>
       <c r="D106" t="n">
-        <v>-5.675629138946533</v>
+        <v>-0.7468132972717285</v>
       </c>
       <c r="E106" t="n">
-        <v>-2.198523998260498</v>
+        <v>-3.02606725692749</v>
       </c>
       <c r="F106" t="n">
-        <v>-1.827870607376099</v>
+        <v>-8.157138824462891</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="n">
-        <v>4.99597692489624</v>
+        <v>2.524985313415527</v>
       </c>
       <c r="B107" t="n">
-        <v>3.617403507232666</v>
+        <v>-8.064873695373535</v>
       </c>
       <c r="C107" t="n">
-        <v>-3.942843675613403</v>
+        <v>-9.189496040344238</v>
       </c>
       <c r="D107" t="n">
-        <v>-4.237934112548828</v>
+        <v>1.717361330986023</v>
       </c>
       <c r="E107" t="n">
-        <v>-1.277819991111755</v>
+        <v>-3.683477640151978</v>
       </c>
       <c r="F107" t="n">
-        <v>-1.217101812362671</v>
+        <v>-9.099404335021973</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="n">
-        <v>3.81335711479187</v>
+        <v>1.989458799362183</v>
       </c>
       <c r="B108" t="n">
-        <v>2.449010610580444</v>
+        <v>-7.120344161987305</v>
       </c>
       <c r="C108" t="n">
-        <v>-3.921006679534912</v>
+        <v>-8.743429183959961</v>
       </c>
       <c r="D108" t="n">
-        <v>-4.346718788146973</v>
+        <v>4.889306545257568</v>
       </c>
       <c r="E108" t="n">
-        <v>-0.8038525581359863</v>
+        <v>-3.078413486480713</v>
       </c>
       <c r="F108" t="n">
-        <v>-0.4515169262886047</v>
+        <v>-8.634357452392578</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="n">
-        <v>2.583014965057373</v>
+        <v>0.8066815733909607</v>
       </c>
       <c r="B109" t="n">
-        <v>1.251598358154297</v>
+        <v>-5.05025053024292</v>
       </c>
       <c r="C109" t="n">
-        <v>-4.734705924987793</v>
+        <v>-8.669818878173828</v>
       </c>
       <c r="D109" t="n">
-        <v>-4.539648532867432</v>
+        <v>7.933335304260254</v>
       </c>
       <c r="E109" t="n">
-        <v>-0.3505323231220245</v>
+        <v>-3.40111517906189</v>
       </c>
       <c r="F109" t="n">
-        <v>0.2227583080530167</v>
+        <v>-7.61316967010498</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="n">
-        <v>1.917063474655151</v>
+        <v>1.006341576576233</v>
       </c>
       <c r="B110" t="n">
-        <v>0.6272869110107422</v>
+        <v>-4.295897483825684</v>
       </c>
       <c r="C110" t="n">
-        <v>-5.281318187713623</v>
+        <v>-8.367611885070801</v>
       </c>
       <c r="D110" t="n">
-        <v>-4.468778610229492</v>
+        <v>9.7288818359375</v>
       </c>
       <c r="E110" t="n">
-        <v>-0.1097560971975327</v>
+        <v>-2.950120449066162</v>
       </c>
       <c r="F110" t="n">
-        <v>0.640706479549408</v>
+        <v>-6.074266910552979</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="n">
-        <v>0.7614635825157166</v>
+        <v>0.03908100351691246</v>
       </c>
       <c r="B111" t="n">
-        <v>0.1291416436433792</v>
+        <v>-2.511780023574829</v>
       </c>
       <c r="C111" t="n">
-        <v>-5.825123310089111</v>
+        <v>-9.0491943359375</v>
       </c>
       <c r="D111" t="n">
-        <v>-4.917495250701904</v>
+        <v>12.64992237091064</v>
       </c>
       <c r="E111" t="n">
-        <v>0.2459166795015335</v>
+        <v>-2.115060329437256</v>
       </c>
       <c r="F111" t="n">
-        <v>1.480236530303955</v>
+        <v>-4.719957828521729</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="n">
-        <v>-0.1641986668109894</v>
+        <v>-0.01711014285683632</v>
       </c>
       <c r="B112" t="n">
-        <v>-0.2130657881498337</v>
+        <v>-1.032119393348694</v>
       </c>
       <c r="C112" t="n">
-        <v>-5.874966144561768</v>
+        <v>-9.118563652038574</v>
       </c>
       <c r="D112" t="n">
-        <v>-5.457828521728516</v>
+        <v>13.98570823669434</v>
       </c>
       <c r="E112" t="n">
-        <v>0.7280051112174988</v>
+        <v>-1.117783904075623</v>
       </c>
       <c r="F112" t="n">
-        <v>1.800464391708374</v>
+        <v>-3.411561250686646</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="n">
-        <v>-1.19891881942749</v>
+        <v>-0.7067230343818665</v>
       </c>
       <c r="B113" t="n">
-        <v>-1.059672951698303</v>
+        <v>1.609199523925781</v>
       </c>
       <c r="C113" t="n">
-        <v>-5.918870449066162</v>
+        <v>-9.30931568145752</v>
       </c>
       <c r="D113" t="n">
-        <v>-5.408890724182129</v>
+        <v>14.94379997253418</v>
       </c>
       <c r="E113" t="n">
-        <v>1.314082026481628</v>
+        <v>-0.4559529721736908</v>
       </c>
       <c r="F113" t="n">
-        <v>2.245766878128052</v>
+        <v>-1.393359422683716</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="n">
-        <v>-1.803120493888855</v>
+        <v>-2.53343939781189</v>
       </c>
       <c r="B114" t="n">
-        <v>-2.031243562698364</v>
+        <v>1.516900777816772</v>
       </c>
       <c r="C114" t="n">
-        <v>-6.204925060272217</v>
+        <v>-8.216988563537598</v>
       </c>
       <c r="D114" t="n">
-        <v>-6.097522258758545</v>
+        <v>15.26564121246338</v>
       </c>
       <c r="E114" t="n">
-        <v>1.815045714378357</v>
+        <v>0.07426376640796661</v>
       </c>
       <c r="F114" t="n">
-        <v>2.22585654258728</v>
+        <v>-0.2796398401260376</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="n">
-        <v>-2.544877767562866</v>
+        <v>-2.009146451950073</v>
       </c>
       <c r="B115" t="n">
-        <v>-2.371031999588013</v>
+        <v>2.851009130477905</v>
       </c>
       <c r="C115" t="n">
-        <v>-6.81065559387207</v>
+        <v>-8.235649108886719</v>
       </c>
       <c r="D115" t="n">
-        <v>-6.192762851715088</v>
+        <v>13.14350891113281</v>
       </c>
       <c r="E115" t="n">
-        <v>2.036955595016479</v>
+        <v>0.7771742939949036</v>
       </c>
       <c r="F115" t="n">
-        <v>2.231894493103027</v>
+        <v>0.6594274044036865</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="n">
-        <v>-3.267937898635864</v>
+        <v>-3.143701791763306</v>
       </c>
       <c r="B116" t="n">
-        <v>-2.630512237548828</v>
+        <v>2.649487733840942</v>
       </c>
       <c r="C116" t="n">
-        <v>-6.714493751525879</v>
+        <v>-8.617917060852051</v>
       </c>
       <c r="D116" t="n">
-        <v>-6.163781642913818</v>
+        <v>9.819503784179688</v>
       </c>
       <c r="E116" t="n">
-        <v>2.457193851470947</v>
+        <v>1.954995274543762</v>
       </c>
       <c r="F116" t="n">
-        <v>2.84330415725708</v>
+        <v>0.7922956347465515</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="n">
-        <v>-4.197868347167969</v>
+        <v>-3.521690845489502</v>
       </c>
       <c r="B117" t="n">
-        <v>-3.165410041809082</v>
+        <v>3.172601699829102</v>
       </c>
       <c r="C117" t="n">
-        <v>-7.245944023132324</v>
+        <v>-8.59783935546875</v>
       </c>
       <c r="D117" t="n">
-        <v>-6.972611904144287</v>
+        <v>8.207283973693848</v>
       </c>
       <c r="E117" t="n">
-        <v>2.988380432128906</v>
+        <v>2.247281074523926</v>
       </c>
       <c r="F117" t="n">
-        <v>3.080697536468506</v>
+        <v>1.60086727142334</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="n">
-        <v>-5.001914024353027</v>
+        <v>-3.17968225479126</v>
       </c>
       <c r="B118" t="n">
-        <v>-3.922784566879272</v>
+        <v>2.270971775054932</v>
       </c>
       <c r="C118" t="n">
-        <v>-7.502520084381104</v>
+        <v>-8.151294708251953</v>
       </c>
       <c r="D118" t="n">
-        <v>-7.216314792633057</v>
+        <v>4.806903839111328</v>
       </c>
       <c r="E118" t="n">
-        <v>3.512014627456665</v>
+        <v>2.83684253692627</v>
       </c>
       <c r="F118" t="n">
-        <v>3.407546520233154</v>
+        <v>0.625702440738678</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="n">
-        <v>-5.950902938842773</v>
+        <v>-4.58240795135498</v>
       </c>
       <c r="B119" t="n">
-        <v>-4.316573619842529</v>
+        <v>2.57247257232666</v>
       </c>
       <c r="C119" t="n">
-        <v>-7.204301834106445</v>
+        <v>-9.627382278442383</v>
       </c>
       <c r="D119" t="n">
-        <v>-7.316268920898438</v>
+        <v>0.6006632447242737</v>
       </c>
       <c r="E119" t="n">
-        <v>3.814625024795532</v>
+        <v>4.427278995513916</v>
       </c>
       <c r="F119" t="n">
-        <v>3.546280145645142</v>
+        <v>0.8234441876411438</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="n">
-        <v>-6.629513740539551</v>
+        <v>-5.618589401245117</v>
       </c>
       <c r="B120" t="n">
-        <v>-4.779009819030762</v>
+        <v>3.044208288192749</v>
       </c>
       <c r="C120" t="n">
-        <v>-8.114036560058594</v>
+        <v>-8.560500144958496</v>
       </c>
       <c r="D120" t="n">
-        <v>-7.733907699584961</v>
+        <v>-1.670216202735901</v>
       </c>
       <c r="E120" t="n">
-        <v>4.273848533630371</v>
+        <v>6.773653030395508</v>
       </c>
       <c r="F120" t="n">
-        <v>4.203494548797607</v>
+        <v>-0.08048906922340393</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="n">
-        <v>-6.904550075531006</v>
+        <v>-6.656725883483887</v>
       </c>
       <c r="B121" t="n">
-        <v>-5.520753383636475</v>
+        <v>2.592503070831299</v>
       </c>
       <c r="C121" t="n">
-        <v>-8.371818542480469</v>
+        <v>-6.801812171936035</v>
       </c>
       <c r="D121" t="n">
-        <v>-7.66660213470459</v>
+        <v>-4.730263233184814</v>
       </c>
       <c r="E121" t="n">
-        <v>4.742965698242188</v>
+        <v>7.216702938079834</v>
       </c>
       <c r="F121" t="n">
-        <v>4.726994514465332</v>
+        <v>-1.023256063461304</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="n">
-        <v>-7.422578811645508</v>
+        <v>-6.241579532623291</v>
       </c>
       <c r="B122" t="n">
-        <v>-6.075841903686523</v>
+        <v>2.31782865524292</v>
       </c>
       <c r="C122" t="n">
-        <v>-8.920251846313477</v>
+        <v>-8.725675582885742</v>
       </c>
       <c r="D122" t="n">
-        <v>-8.078797340393066</v>
+        <v>-9.347393035888672</v>
       </c>
       <c r="E122" t="n">
-        <v>5.072368621826172</v>
+        <v>7.915678977966309</v>
       </c>
       <c r="F122" t="n">
-        <v>5.240435123443604</v>
+        <v>-1.088194608688354</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="n">
-        <v>-7.725718975067139</v>
+        <v>-7.23290491104126</v>
       </c>
       <c r="B123" t="n">
-        <v>-6.549234390258789</v>
+        <v>1.751559734344482</v>
       </c>
       <c r="C123" t="n">
-        <v>-8.573018074035645</v>
+        <v>-7.259792804718018</v>
       </c>
       <c r="D123" t="n">
-        <v>-8.640572547912598</v>
+        <v>-9.38115406036377</v>
       </c>
       <c r="E123" t="n">
-        <v>5.430419921875</v>
+        <v>7.20984935760498</v>
       </c>
       <c r="F123" t="n">
-        <v>5.441334247589111</v>
+        <v>-2.767877340316772</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="n">
-        <v>-8.175758361816406</v>
+        <v>-7.719562530517578</v>
       </c>
       <c r="B124" t="n">
-        <v>-7.272836208343506</v>
+        <v>1.212712526321411</v>
       </c>
       <c r="C124" t="n">
-        <v>-8.644712448120117</v>
+        <v>-8.413722038269043</v>
       </c>
       <c r="D124" t="n">
-        <v>-8.279940605163574</v>
+        <v>-9.920535087585449</v>
       </c>
       <c r="E124" t="n">
-        <v>5.872867584228516</v>
+        <v>7.212309837341309</v>
       </c>
       <c r="F124" t="n">
-        <v>5.421507358551025</v>
+        <v>-4.225982666015625</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="n">
-        <v>-8.879148483276367</v>
+        <v>-8.051556587219238</v>
       </c>
       <c r="B125" t="n">
-        <v>-8.098167419433594</v>
+        <v>1.16495943069458</v>
       </c>
       <c r="C125" t="n">
-        <v>-9.064587593078613</v>
+        <v>-7.540610313415527</v>
       </c>
       <c r="D125" t="n">
-        <v>-8.668038368225098</v>
+        <v>-10.79648971557617</v>
       </c>
       <c r="E125" t="n">
-        <v>6.012638568878174</v>
+        <v>5.237551212310791</v>
       </c>
       <c r="F125" t="n">
-        <v>5.814406394958496</v>
+        <v>-3.92446756362915</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="n">
-        <v>-9.613144874572754</v>
+        <v>-9.520357131958008</v>
       </c>
       <c r="B126" t="n">
-        <v>-8.963410377502441</v>
+        <v>3.55366325378418</v>
       </c>
       <c r="C126" t="n">
-        <v>-8.72878360748291</v>
+        <v>-7.395748138427734</v>
       </c>
       <c r="D126" t="n">
-        <v>-8.46040153503418</v>
+        <v>-10.19340229034424</v>
       </c>
       <c r="E126" t="n">
-        <v>5.970552444458008</v>
+        <v>5.24497127532959</v>
       </c>
       <c r="F126" t="n">
-        <v>5.874116897583008</v>
+        <v>-3.703483104705811</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="n">
-        <v>-10.28833770751953</v>
+        <v>-9.316238403320312</v>
       </c>
       <c r="B127" t="n">
-        <v>-9.271201133728027</v>
+        <v>4.19207763671875</v>
       </c>
       <c r="C127" t="n">
-        <v>-9.153688430786133</v>
+        <v>-6.886593818664551</v>
       </c>
       <c r="D127" t="n">
-        <v>-8.447002410888672</v>
+        <v>-9.460447311401367</v>
       </c>
       <c r="E127" t="n">
-        <v>5.951414585113525</v>
+        <v>4.435034275054932</v>
       </c>
       <c r="F127" t="n">
-        <v>5.803832530975342</v>
+        <v>-3.344012260437012</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="n">
-        <v>-10.73843002319336</v>
+        <v>-9.853775978088379</v>
       </c>
       <c r="B128" t="n">
-        <v>-10.03807353973389</v>
+        <v>5.786623477935791</v>
       </c>
       <c r="C128" t="n">
-        <v>-9.222718238830566</v>
+        <v>-6.731420993804932</v>
       </c>
       <c r="D128" t="n">
-        <v>-8.032953262329102</v>
+        <v>-8.653970718383789</v>
       </c>
       <c r="E128" t="n">
-        <v>5.315911769866943</v>
+        <v>3.110188722610474</v>
       </c>
       <c r="F128" t="n">
-        <v>5.514791965484619</v>
+        <v>-2.811675548553467</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="n">
-        <v>-12.3645133972168</v>
+        <v>-10.59270000457764</v>
       </c>
       <c r="B129" t="n">
-        <v>-11.21460151672363</v>
+        <v>7.454069137573242</v>
       </c>
       <c r="C129" t="n">
-        <v>-8.319849014282227</v>
+        <v>-4.460872650146484</v>
       </c>
       <c r="D129" t="n">
-        <v>-7.386528491973877</v>
+        <v>-6.395357608795166</v>
       </c>
       <c r="E129" t="n">
-        <v>4.837998390197754</v>
+        <v>1.180122852325439</v>
       </c>
       <c r="F129" t="n">
-        <v>5.421548843383789</v>
+        <v>-3.015492916107178</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="n">
-        <v>-12.63307285308838</v>
+        <v>-10.21800899505615</v>
       </c>
       <c r="B130" t="n">
-        <v>-11.47806262969971</v>
+        <v>8.177582740783691</v>
       </c>
       <c r="C130" t="n">
-        <v>-7.865026473999023</v>
+        <v>-2.793510437011719</v>
       </c>
       <c r="D130" t="n">
-        <v>-7.053200721740723</v>
+        <v>-3.981050729751587</v>
       </c>
       <c r="E130" t="n">
-        <v>4.320452690124512</v>
+        <v>-1.003319621086121</v>
       </c>
       <c r="F130" t="n">
-        <v>5.31330680847168</v>
+        <v>-1.506865262985229</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="n">
-        <v>-13.09972476959229</v>
+        <v>-10.04240608215332</v>
       </c>
       <c r="B131" t="n">
-        <v>-12.45204830169678</v>
+        <v>10.03525352478027</v>
       </c>
       <c r="C131" t="n">
-        <v>-6.55636739730835</v>
+        <v>-0.8585075736045837</v>
       </c>
       <c r="D131" t="n">
-        <v>-6.608708381652832</v>
+        <v>-2.416682004928589</v>
       </c>
       <c r="E131" t="n">
-        <v>3.305382251739502</v>
+        <v>-3.330660581588745</v>
       </c>
       <c r="F131" t="n">
-        <v>4.565135478973389</v>
+        <v>-0.7592431306838989</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="n">
-        <v>-12.97117519378662</v>
+        <v>-8.727572441101074</v>
       </c>
       <c r="B132" t="n">
-        <v>-12.19017314910889</v>
+        <v>10.75321483612061</v>
       </c>
       <c r="C132" t="n">
-        <v>-5.293566703796387</v>
+        <v>1.967672109603882</v>
       </c>
       <c r="D132" t="n">
-        <v>-5.203535079956055</v>
+        <v>0.1533016413450241</v>
       </c>
       <c r="E132" t="n">
-        <v>2.469264030456543</v>
+        <v>-5.066511154174805</v>
       </c>
       <c r="F132" t="n">
-        <v>1.845825552940369</v>
+        <v>1.102869629859924</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="n">
-        <v>-12.3897533416748</v>
+        <v>-7.647484302520752</v>
       </c>
       <c r="B133" t="n">
-        <v>-11.90225696563721</v>
+        <v>10.41351509094238</v>
       </c>
       <c r="C133" t="n">
-        <v>-2.457298994064331</v>
+        <v>5.003508567810059</v>
       </c>
       <c r="D133" t="n">
-        <v>-3.022471189498901</v>
+        <v>-0.6430531144142151</v>
       </c>
       <c r="E133" t="n">
-        <v>-0.03158478066325188</v>
+        <v>-7.067495346069336</v>
       </c>
       <c r="F133" t="n">
-        <v>-1.907030344009399</v>
+        <v>1.558090686798096</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="n">
-        <v>-10.89534664154053</v>
+        <v>-6.888274669647217</v>
       </c>
       <c r="B134" t="n">
-        <v>-11.13287448883057</v>
+        <v>9.210001945495605</v>
       </c>
       <c r="C134" t="n">
-        <v>1.136725425720215</v>
+        <v>7.514830112457275</v>
       </c>
       <c r="D134" t="n">
-        <v>-0.2665674388408661</v>
+        <v>1.146407723426819</v>
       </c>
       <c r="E134" t="n">
-        <v>-3.715923309326172</v>
+        <v>-9.556748390197754</v>
       </c>
       <c r="F134" t="n">
-        <v>-7.627929210662842</v>
+        <v>1.616182208061218</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="n">
-        <v>-8.570324897766113</v>
+        <v>-4.200909614562988</v>
       </c>
       <c r="B135" t="n">
-        <v>-9.533733367919922</v>
+        <v>8.111502647399902</v>
       </c>
       <c r="C135" t="n">
-        <v>6.163617610931396</v>
+        <v>10.3109188079834</v>
       </c>
       <c r="D135" t="n">
-        <v>3.295700550079346</v>
+        <v>1.712866187095642</v>
       </c>
       <c r="E135" t="n">
-        <v>-8.804141998291016</v>
+        <v>-9.633588790893555</v>
       </c>
       <c r="F135" t="n">
-        <v>-11.54685592651367</v>
+        <v>2.568159580230713</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="n">
-        <v>-5.957184314727783</v>
+        <v>-2.926138877868652</v>
       </c>
       <c r="B136" t="n">
-        <v>-6.763288497924805</v>
+        <v>7.208709716796875</v>
       </c>
       <c r="C136" t="n">
-        <v>10.68898868560791</v>
+        <v>14.49820518493652</v>
       </c>
       <c r="D136" t="n">
-        <v>8.148961067199707</v>
+        <v>1.727497935295105</v>
       </c>
       <c r="E136" t="n">
-        <v>-12.3552770614624</v>
+        <v>-9.698677062988281</v>
       </c>
       <c r="F136" t="n">
-        <v>-13.48538780212402</v>
+        <v>3.122929573059082</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="n">
-        <v>-3.18107795715332</v>
+        <v>-0.7963241934776306</v>
       </c>
       <c r="B137" t="n">
-        <v>-4.770442962646484</v>
+        <v>5.603877544403076</v>
       </c>
       <c r="C137" t="n">
-        <v>15.23096370697021</v>
+        <v>17.68072319030762</v>
       </c>
       <c r="D137" t="n">
-        <v>12.83298969268799</v>
+        <v>0.6304540038108826</v>
       </c>
       <c r="E137" t="n">
-        <v>-13.35667705535889</v>
+        <v>-7.873508930206299</v>
       </c>
       <c r="F137" t="n">
-        <v>-12.33881568908691</v>
+        <v>3.941707849502563</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="n">
-        <v>-0.9053714275360107</v>
+        <v>1.183941602706909</v>
       </c>
       <c r="B138" t="n">
-        <v>-2.376812696456909</v>
+        <v>4.469149112701416</v>
       </c>
       <c r="C138" t="n">
-        <v>18.7191333770752</v>
+        <v>18.46381187438965</v>
       </c>
       <c r="D138" t="n">
-        <v>16.34645652770996</v>
+        <v>-0.3414979875087738</v>
       </c>
       <c r="E138" t="n">
-        <v>-11.02336692810059</v>
+        <v>-6.261577129364014</v>
       </c>
       <c r="F138" t="n">
-        <v>-9.416435241699219</v>
+        <v>4.825573921203613</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="n">
-        <v>1.345392942428589</v>
+        <v>2.736278533935547</v>
       </c>
       <c r="B139" t="n">
-        <v>-0.2859302759170532</v>
+        <v>2.460628032684326</v>
       </c>
       <c r="C139" t="n">
-        <v>20.3584156036377</v>
+        <v>17.74189376831055</v>
       </c>
       <c r="D139" t="n">
-        <v>18.95616722106934</v>
+        <v>0.7046920657157898</v>
       </c>
       <c r="E139" t="n">
-        <v>-7.434615135192871</v>
+        <v>-3.52254056930542</v>
       </c>
       <c r="F139" t="n">
-        <v>-6.738265037536621</v>
+        <v>5.035472393035889</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="n">
-        <v>3.635820150375366</v>
+        <v>4.227255344390869</v>
       </c>
       <c r="B140" t="n">
-        <v>1.441543340682983</v>
+        <v>1.974683523178101</v>
       </c>
       <c r="C140" t="n">
-        <v>21.09714698791504</v>
+        <v>18.9051456451416</v>
       </c>
       <c r="D140" t="n">
-        <v>19.75290870666504</v>
+        <v>-1.809918761253357</v>
       </c>
       <c r="E140" t="n">
-        <v>-4.043464183807373</v>
+        <v>-1.207176446914673</v>
       </c>
       <c r="F140" t="n">
-        <v>-4.220648765563965</v>
+        <v>5.908286571502686</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="n">
-        <v>5.296707630157471</v>
+        <v>6.475218772888184</v>
       </c>
       <c r="B141" t="n">
-        <v>3.014845371246338</v>
+        <v>0.1655758768320084</v>
       </c>
       <c r="C141" t="n">
-        <v>19.78100204467773</v>
+        <v>18.80867004394531</v>
       </c>
       <c r="D141" t="n">
-        <v>19.47643280029297</v>
+        <v>-3.544872999191284</v>
       </c>
       <c r="E141" t="n">
-        <v>-1.200891375541687</v>
+        <v>0.3197512626647949</v>
       </c>
       <c r="F141" t="n">
-        <v>-2.365867853164673</v>
+        <v>5.721928596496582</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="n">
-        <v>6.367079257965088</v>
+        <v>6.399517059326172</v>
       </c>
       <c r="B142" t="n">
-        <v>4.025129318237305</v>
+        <v>-0.9177758693695068</v>
       </c>
       <c r="C142" t="n">
-        <v>17.99069213867188</v>
+        <v>18.41707038879395</v>
       </c>
       <c r="D142" t="n">
-        <v>17.3945198059082</v>
+        <v>-4.494279384613037</v>
       </c>
       <c r="E142" t="n">
-        <v>0.8908789753913879</v>
+        <v>1.677665948867798</v>
       </c>
       <c r="F142" t="n">
-        <v>-0.7945220470428467</v>
+        <v>6.244011878967285</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="n">
-        <v>7.169739723205566</v>
+        <v>8.009521484375</v>
       </c>
       <c r="B143" t="n">
-        <v>4.987841606140137</v>
+        <v>-2.546547889709473</v>
       </c>
       <c r="C143" t="n">
-        <v>15.15335178375244</v>
+        <v>15.18371486663818</v>
       </c>
       <c r="D143" t="n">
-        <v>15.48504734039307</v>
+        <v>-5.218521118164062</v>
       </c>
       <c r="E143" t="n">
-        <v>2.136032819747925</v>
+        <v>3.141833305358887</v>
       </c>
       <c r="F143" t="n">
-        <v>0.6990149021148682</v>
+        <v>6.114051342010498</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="n">
-        <v>7.769223213195801</v>
+        <v>9.269281387329102</v>
       </c>
       <c r="B144" t="n">
-        <v>5.614554882049561</v>
+        <v>-3.50447940826416</v>
       </c>
       <c r="C144" t="n">
-        <v>11.34754180908203</v>
+        <v>12.06964302062988</v>
       </c>
       <c r="D144" t="n">
-        <v>12.18776988983154</v>
+        <v>-6.496117115020752</v>
       </c>
       <c r="E144" t="n">
-        <v>3.126650333404541</v>
+        <v>2.860825538635254</v>
       </c>
       <c r="F144" t="n">
-        <v>1.278329968452454</v>
+        <v>6.180111408233643</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="n">
-        <v>8.07319164276123</v>
+        <v>10.15806579589844</v>
       </c>
       <c r="B145" t="n">
-        <v>6.064979553222656</v>
+        <v>-5.743986129760742</v>
       </c>
       <c r="C145" t="n">
-        <v>7.747144222259521</v>
+        <v>8.110786437988281</v>
       </c>
       <c r="D145" t="n">
-        <v>8.911506652832031</v>
+        <v>-7.527231693267822</v>
       </c>
       <c r="E145" t="n">
-        <v>3.219323873519897</v>
+        <v>3.177301645278931</v>
       </c>
       <c r="F145" t="n">
-        <v>1.730375528335571</v>
+        <v>6.777917861938477</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="n">
-        <v>8.56358814239502</v>
+        <v>10.28253936767578</v>
       </c>
       <c r="B146" t="n">
-        <v>6.965354919433594</v>
+        <v>-6.985155582427979</v>
       </c>
       <c r="C146" t="n">
-        <v>2.911926031112671</v>
+        <v>4.539307594299316</v>
       </c>
       <c r="D146" t="n">
-        <v>5.277059555053711</v>
+        <v>-8.499427795410156</v>
       </c>
       <c r="E146" t="n">
-        <v>2.318808794021606</v>
+        <v>3.333561420440674</v>
       </c>
       <c r="F146" t="n">
-        <v>1.781670928001404</v>
+        <v>6.74298095703125</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="n">
-        <v>8.751964569091797</v>
+        <v>10.45980072021484</v>
       </c>
       <c r="B147" t="n">
-        <v>7.875045776367188</v>
+        <v>-6.732088565826416</v>
       </c>
       <c r="C147" t="n">
-        <v>-0.9287548661231995</v>
+        <v>0.9343330860137939</v>
       </c>
       <c r="D147" t="n">
-        <v>2.558232069015503</v>
+        <v>-9.260059356689453</v>
       </c>
       <c r="E147" t="n">
-        <v>0.8586800098419189</v>
+        <v>3.675284147262573</v>
       </c>
       <c r="F147" t="n">
-        <v>1.376344680786133</v>
+        <v>6.877898693084717</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="n">
-        <v>9.090851783752441</v>
+        <v>11.56759357452393</v>
       </c>
       <c r="B148" t="n">
-        <v>8.687554359436035</v>
+        <v>-8.369424819946289</v>
       </c>
       <c r="C148" t="n">
-        <v>-4.245232105255127</v>
+        <v>-3.845014810562134</v>
       </c>
       <c r="D148" t="n">
-        <v>-1.012607455253601</v>
+        <v>-8.634254455566406</v>
       </c>
       <c r="E148" t="n">
-        <v>-1.407022476196289</v>
+        <v>3.293726444244385</v>
       </c>
       <c r="F148" t="n">
-        <v>0.5336867570877075</v>
+        <v>7.421284675598145</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="n">
-        <v>9.210980415344238</v>
+        <v>11.64807510375977</v>
       </c>
       <c r="B149" t="n">
-        <v>9.175113677978516</v>
+        <v>-8.232379913330078</v>
       </c>
       <c r="C149" t="n">
-        <v>-6.632546424865723</v>
+        <v>-8.005972862243652</v>
       </c>
       <c r="D149" t="n">
-        <v>-3.71867036819458</v>
+        <v>-10.55087757110596</v>
       </c>
       <c r="E149" t="n">
-        <v>-3.059666156768799</v>
+        <v>3.936310291290283</v>
       </c>
       <c r="F149" t="n">
-        <v>-0.052801463752985</v>
+        <v>8.30412769317627</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="n">
-        <v>9.678115844726562</v>
+        <v>12.26609325408936</v>
       </c>
       <c r="B150" t="n">
-        <v>9.014046669006348</v>
+        <v>-9.658105850219727</v>
       </c>
       <c r="C150" t="n">
-        <v>-8.929847717285156</v>
+        <v>-9.778321266174316</v>
       </c>
       <c r="D150" t="n">
-        <v>-6.609986305236816</v>
+        <v>-9.84349536895752</v>
       </c>
       <c r="E150" t="n">
-        <v>-3.826533079147339</v>
+        <v>4.36741828918457</v>
       </c>
       <c r="F150" t="n">
-        <v>-0.4685178399085999</v>
+        <v>8.789985656738281</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="n">
-        <v>9.201683044433594</v>
+        <v>9.247514724731445</v>
       </c>
       <c r="B151" t="n">
-        <v>8.562623977661133</v>
+        <v>-10.72941303253174</v>
       </c>
       <c r="C151" t="n">
-        <v>-10.04377555847168</v>
+        <v>-13.30181980133057</v>
       </c>
       <c r="D151" t="n">
-        <v>-8.767356872558594</v>
+        <v>-8.81280517578125</v>
       </c>
       <c r="E151" t="n">
-        <v>-4.067949771881104</v>
+        <v>4.008879661560059</v>
       </c>
       <c r="F151" t="n">
-        <v>-0.6849386692047119</v>
+        <v>8.050651550292969</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="n">
-        <v>9.968029022216797</v>
+        <v>4.919249057769775</v>
       </c>
       <c r="B152" t="n">
-        <v>8.492781639099121</v>
+        <v>-11.52538204193115</v>
       </c>
       <c r="C152" t="n">
-        <v>-10.86122798919678</v>
+        <v>-14.60201454162598</v>
       </c>
       <c r="D152" t="n">
-        <v>-10.25305080413818</v>
+        <v>-8.939136505126953</v>
       </c>
       <c r="E152" t="n">
-        <v>-4.219637393951416</v>
+        <v>1.996215462684631</v>
       </c>
       <c r="F152" t="n">
-        <v>-1.167402029037476</v>
+        <v>8.466518402099609</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="n">
-        <v>9.111144065856934</v>
+        <v>1.449530601501465</v>
       </c>
       <c r="B153" t="n">
-        <v>7.570221900939941</v>
+        <v>-12.17265129089355</v>
       </c>
       <c r="C153" t="n">
-        <v>-11.15433597564697</v>
+        <v>-13.30907154083252</v>
       </c>
       <c r="D153" t="n">
-        <v>-10.45542144775391</v>
+        <v>-8.723419189453125</v>
       </c>
       <c r="E153" t="n">
-        <v>-4.533671855926514</v>
+        <v>1.871142506599426</v>
       </c>
       <c r="F153" t="n">
-        <v>-2.284504175186157</v>
+        <v>7.029394626617432</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="n">
-        <v>7.270106315612793</v>
+        <v>2.312010526657104</v>
       </c>
       <c r="B154" t="n">
-        <v>6.683979034423828</v>
+        <v>-12.74336528778076</v>
       </c>
       <c r="C154" t="n">
-        <v>-9.972231864929199</v>
+        <v>-11.55259609222412</v>
       </c>
       <c r="D154" t="n">
-        <v>-9.429611206054688</v>
+        <v>-6.431984424591064</v>
       </c>
       <c r="E154" t="n">
-        <v>-3.264484643936157</v>
+        <v>0.5941600203514099</v>
       </c>
       <c r="F154" t="n">
-        <v>-2.326760292053223</v>
+        <v>5.22246789932251</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="n">
-        <v>6.72723913192749</v>
+        <v>4.840683937072754</v>
       </c>
       <c r="B155" t="n">
-        <v>6.321942806243896</v>
+        <v>-11.27188014984131</v>
       </c>
       <c r="C155" t="n">
-        <v>-7.683262825012207</v>
+        <v>-5.569923877716064</v>
       </c>
       <c r="D155" t="n">
-        <v>-7.548214435577393</v>
+        <v>-3.977664232254028</v>
       </c>
       <c r="E155" t="n">
-        <v>-3.19346022605896</v>
+        <v>-2.424220085144043</v>
       </c>
       <c r="F155" t="n">
-        <v>-2.408044576644897</v>
+        <v>-4.040925025939941</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="n">
-        <v>6.255934715270996</v>
+        <v>4.171136379241943</v>
       </c>
       <c r="B156" t="n">
-        <v>4.884363651275635</v>
+        <v>-10.03847312927246</v>
       </c>
       <c r="C156" t="n">
-        <v>-6.588904857635498</v>
+        <v>-7.791147708892822</v>
       </c>
       <c r="D156" t="n">
-        <v>-7.262835025787354</v>
+        <v>-1.84099280834198</v>
       </c>
       <c r="E156" t="n">
-        <v>-3.181327819824219</v>
+        <v>-2.863166809082031</v>
       </c>
       <c r="F156" t="n">
-        <v>-2.660995483398438</v>
+        <v>-6.332622528076172</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="n">
-        <v>6.335831642150879</v>
+        <v>3.656438112258911</v>
       </c>
       <c r="B157" t="n">
-        <v>4.14123010635376</v>
+        <v>-9.953946113586426</v>
       </c>
       <c r="C157" t="n">
-        <v>-4.620743751525879</v>
+        <v>-7.469003200531006</v>
       </c>
       <c r="D157" t="n">
-        <v>-6.392992496490479</v>
+        <v>-0.2168204933404922</v>
       </c>
       <c r="E157" t="n">
-        <v>-2.079413890838623</v>
+        <v>-2.866278171539307</v>
       </c>
       <c r="F157" t="n">
-        <v>-2.234473943710327</v>
+        <v>-8.028329849243164</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="n">
-        <v>5.154993057250977</v>
+        <v>3.44495701789856</v>
       </c>
       <c r="B158" t="n">
-        <v>3.578466415405273</v>
+        <v>-8.447261810302734</v>
       </c>
       <c r="C158" t="n">
-        <v>-4.125828742980957</v>
+        <v>-8.788599014282227</v>
       </c>
       <c r="D158" t="n">
-        <v>-4.960047721862793</v>
+        <v>2.488957643508911</v>
       </c>
       <c r="E158" t="n">
-        <v>-1.185302495956421</v>
+        <v>-3.542465448379517</v>
       </c>
       <c r="F158" t="n">
-        <v>-1.377297401428223</v>
+        <v>-9.010855674743652</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="n">
-        <v>3.985792875289917</v>
+        <v>2.71211314201355</v>
       </c>
       <c r="B159" t="n">
-        <v>2.427545309066772</v>
+        <v>-7.410842895507812</v>
       </c>
       <c r="C159" t="n">
-        <v>-4.222648143768311</v>
+        <v>-8.516877174377441</v>
       </c>
       <c r="D159" t="n">
-        <v>-4.870170593261719</v>
+        <v>5.86748218536377</v>
       </c>
       <c r="E159" t="n">
-        <v>-0.9339439868927002</v>
+        <v>-3.088652372360229</v>
       </c>
       <c r="F159" t="n">
-        <v>-0.6723383665084839</v>
+        <v>-8.586860656738281</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="n">
-        <v>2.798311233520508</v>
+        <v>1.484402179718018</v>
       </c>
       <c r="B160" t="n">
-        <v>1.27259349822998</v>
+        <v>-5.235561847686768</v>
       </c>
       <c r="C160" t="n">
-        <v>-4.630157470703125</v>
+        <v>-8.572909355163574</v>
       </c>
       <c r="D160" t="n">
-        <v>-4.962664604187012</v>
+        <v>9.22928524017334</v>
       </c>
       <c r="E160" t="n">
-        <v>-0.3475430309772491</v>
+        <v>-3.290530443191528</v>
       </c>
       <c r="F160" t="n">
-        <v>-0.005156667903065681</v>
+        <v>-7.627985954284668</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="n">
-        <v>1.987481117248535</v>
+        <v>1.479482412338257</v>
       </c>
       <c r="B161" t="n">
-        <v>0.692425012588501</v>
+        <v>-4.039136409759521</v>
       </c>
       <c r="C161" t="n">
-        <v>-5.348997116088867</v>
+        <v>-8.383063316345215</v>
       </c>
       <c r="D161" t="n">
-        <v>-5.086482524871826</v>
+        <v>10.93716430664062</v>
       </c>
       <c r="E161" t="n">
-        <v>0.01187831535935402</v>
+        <v>-2.872655153274536</v>
       </c>
       <c r="F161" t="n">
-        <v>0.5538427233695984</v>
+        <v>-5.945037841796875</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="n">
-        <v>0.9822767376899719</v>
+        <v>0.2828494012355804</v>
       </c>
       <c r="B162" t="n">
-        <v>-0.01514147315174341</v>
+        <v>-2.329965829849243</v>
       </c>
       <c r="C162" t="n">
-        <v>-5.649735450744629</v>
+        <v>-8.752290725708008</v>
       </c>
       <c r="D162" t="n">
-        <v>-5.361135482788086</v>
+        <v>13.9145040512085</v>
       </c>
       <c r="E162" t="n">
-        <v>0.09137433767318726</v>
+        <v>-2.147406816482544</v>
       </c>
       <c r="F162" t="n">
-        <v>1.229512095451355</v>
+        <v>-4.634900569915771</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="n">
-        <v>0.0227949284017086</v>
+        <v>0.07618668675422668</v>
       </c>
       <c r="B163" t="n">
-        <v>-0.1981450766324997</v>
+        <v>-0.8158175349235535</v>
       </c>
       <c r="C163" t="n">
-        <v>-5.771726131439209</v>
+        <v>-8.915389060974121</v>
       </c>
       <c r="D163" t="n">
-        <v>-5.822870254516602</v>
+        <v>15.41830730438232</v>
       </c>
       <c r="E163" t="n">
-        <v>0.6014165878295898</v>
+        <v>-1.190981864929199</v>
       </c>
       <c r="F163" t="n">
-        <v>1.660516142845154</v>
+        <v>-3.098111391067505</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="n">
-        <v>-1.121384739875793</v>
+        <v>-0.8165783882141113</v>
       </c>
       <c r="B164" t="n">
-        <v>-1.095239639282227</v>
+        <v>1.608616590499878</v>
       </c>
       <c r="C164" t="n">
-        <v>-5.67290735244751</v>
+        <v>-9.05889892578125</v>
       </c>
       <c r="D164" t="n">
-        <v>-5.657163143157959</v>
+        <v>15.9284143447876</v>
       </c>
       <c r="E164" t="n">
-        <v>1.348270058631897</v>
+        <v>-0.4724399149417877</v>
       </c>
       <c r="F164" t="n">
-        <v>2.209694623947144</v>
+        <v>-1.216390013694763</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="n">
-        <v>-1.667087912559509</v>
+        <v>-2.385930776596069</v>
       </c>
       <c r="B165" t="n">
-        <v>-2.123658418655396</v>
+        <v>1.772893667221069</v>
       </c>
       <c r="C165" t="n">
-        <v>-6.200017929077148</v>
+        <v>-8.237638473510742</v>
       </c>
       <c r="D165" t="n">
-        <v>-6.456337928771973</v>
+        <v>15.99398326873779</v>
       </c>
       <c r="E165" t="n">
-        <v>1.722966432571411</v>
+        <v>0.256863534450531</v>
       </c>
       <c r="F165" t="n">
-        <v>2.118027687072754</v>
+        <v>-0.09870809316635132</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="n">
-        <v>-2.549142599105835</v>
+        <v>-2.206063270568848</v>
       </c>
       <c r="B166" t="n">
-        <v>-2.499750852584839</v>
+        <v>3.095220327377319</v>
       </c>
       <c r="C166" t="n">
-        <v>-6.885158061981201</v>
+        <v>-7.92055082321167</v>
       </c>
       <c r="D166" t="n">
-        <v>-6.351667404174805</v>
+        <v>13.77469825744629</v>
       </c>
       <c r="E166" t="n">
-        <v>2.091773748397827</v>
+        <v>1.008660674095154</v>
       </c>
       <c r="F166" t="n">
-        <v>2.219069957733154</v>
+        <v>0.7455602884292603</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="n">
-        <v>-3.232406616210938</v>
+        <v>-3.121154308319092</v>
       </c>
       <c r="B167" t="n">
-        <v>-2.643504619598389</v>
+        <v>3.027456760406494</v>
       </c>
       <c r="C167" t="n">
-        <v>-6.775253772735596</v>
+        <v>-8.287128448486328</v>
       </c>
       <c r="D167" t="n">
-        <v>-6.54789400100708</v>
+        <v>10.72951221466064</v>
       </c>
       <c r="E167" t="n">
-        <v>2.455137014389038</v>
+        <v>2.29058575630188</v>
       </c>
       <c r="F167" t="n">
-        <v>2.806811571121216</v>
+        <v>0.9830235838890076</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="n">
-        <v>-4.314801216125488</v>
+        <v>-3.606780052185059</v>
       </c>
       <c r="B168" t="n">
-        <v>-3.146686792373657</v>
+        <v>3.496219158172607</v>
       </c>
       <c r="C168" t="n">
-        <v>-7.440920352935791</v>
+        <v>-8.224540710449219</v>
       </c>
       <c r="D168" t="n">
-        <v>-7.094793319702148</v>
+        <v>8.524135589599609</v>
       </c>
       <c r="E168" t="n">
-        <v>3.003151655197144</v>
+        <v>2.596991539001465</v>
       </c>
       <c r="F168" t="n">
-        <v>3.064902782440186</v>
+        <v>1.476811528205872</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="n">
-        <v>-5.115771293640137</v>
+        <v>-3.578822135925293</v>
       </c>
       <c r="B169" t="n">
-        <v>-4.104673385620117</v>
+        <v>2.850295305252075</v>
       </c>
       <c r="C169" t="n">
-        <v>-7.826984882354736</v>
+        <v>-7.890098571777344</v>
       </c>
       <c r="D169" t="n">
-        <v>-7.524363994598389</v>
+        <v>5.319565296173096</v>
       </c>
       <c r="E169" t="n">
-        <v>3.491137027740479</v>
+        <v>3.384911298751831</v>
       </c>
       <c r="F169" t="n">
-        <v>3.293174028396606</v>
+        <v>0.7673402428627014</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="n">
-        <v>-6.060811996459961</v>
+        <v>-4.816834926605225</v>
       </c>
       <c r="B170" t="n">
-        <v>-4.622606754302979</v>
+        <v>2.703966856002808</v>
       </c>
       <c r="C170" t="n">
-        <v>-7.502663612365723</v>
+        <v>-9.074531555175781</v>
       </c>
       <c r="D170" t="n">
-        <v>-7.619822025299072</v>
+        <v>0.9763283133506775</v>
       </c>
       <c r="E170" t="n">
-        <v>3.804146289825439</v>
+        <v>4.773398876190186</v>
       </c>
       <c r="F170" t="n">
-        <v>3.48931097984314</v>
+        <v>0.8170924782752991</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="n">
-        <v>-6.900233268737793</v>
+        <v>-5.859570503234863</v>
       </c>
       <c r="B171" t="n">
-        <v>-4.985764503479004</v>
+        <v>3.27239465713501</v>
       </c>
       <c r="C171" t="n">
-        <v>-8.43468189239502</v>
+        <v>-8.246087074279785</v>
       </c>
       <c r="D171" t="n">
-        <v>-7.978218555450439</v>
+        <v>-1.90970516204834</v>
       </c>
       <c r="E171" t="n">
-        <v>4.330537796020508</v>
+        <v>6.662060737609863</v>
       </c>
       <c r="F171" t="n">
-        <v>4.077034473419189</v>
+        <v>-0.0421961285173893</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="n">
-        <v>-7.270804882049561</v>
+        <v>-6.447477340698242</v>
       </c>
       <c r="B172" t="n">
-        <v>-5.83647632598877</v>
+        <v>2.814604997634888</v>
       </c>
       <c r="C172" t="n">
-        <v>-8.780357360839844</v>
+        <v>-7.039581775665283</v>
       </c>
       <c r="D172" t="n">
-        <v>-8.004149436950684</v>
+        <v>-5.107924461364746</v>
       </c>
       <c r="E172" t="n">
-        <v>4.697841167449951</v>
+        <v>7.051972389221191</v>
       </c>
       <c r="F172" t="n">
-        <v>4.673739910125732</v>
+        <v>-0.8930454254150391</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="n">
-        <v>-7.754243850708008</v>
+        <v>-6.395514011383057</v>
       </c>
       <c r="B173" t="n">
-        <v>-6.350876808166504</v>
+        <v>2.952274322509766</v>
       </c>
       <c r="C173" t="n">
-        <v>-9.29588508605957</v>
+        <v>-8.799084663391113</v>
       </c>
       <c r="D173" t="n">
-        <v>-8.346046447753906</v>
+        <v>-9.031747817993164</v>
       </c>
       <c r="E173" t="n">
-        <v>5.208879947662354</v>
+        <v>7.753761768341064</v>
       </c>
       <c r="F173" t="n">
-        <v>5.157047748565674</v>
+        <v>-1.081132650375366</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="n">
-        <v>-8.178691864013672</v>
+        <v>-7.422965526580811</v>
       </c>
       <c r="B174" t="n">
-        <v>-7.006013870239258</v>
+        <v>2.245490312576294</v>
       </c>
       <c r="C174" t="n">
-        <v>-8.887621879577637</v>
+        <v>-7.752691268920898</v>
       </c>
       <c r="D174" t="n">
-        <v>-8.955877304077148</v>
+        <v>-9.810615539550781</v>
       </c>
       <c r="E174" t="n">
-        <v>5.667524337768555</v>
+        <v>7.227478981018066</v>
       </c>
       <c r="F174" t="n">
-        <v>5.344705581665039</v>
+        <v>-2.44682788848877</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="n">
-        <v>-8.637946128845215</v>
+        <v>-8.01251220703125</v>
       </c>
       <c r="B175" t="n">
-        <v>-7.739821910858154</v>
+        <v>1.736575126647949</v>
       </c>
       <c r="C175" t="n">
-        <v>-9.021993637084961</v>
+        <v>-8.492392539978027</v>
       </c>
       <c r="D175" t="n">
-        <v>-8.752065658569336</v>
+        <v>-10.30970859527588</v>
       </c>
       <c r="E175" t="n">
-        <v>6.376460075378418</v>
+        <v>7.300515174865723</v>
       </c>
       <c r="F175" t="n">
-        <v>5.453477382659912</v>
+        <v>-3.756538867950439</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="n">
-        <v>-9.323428153991699</v>
+        <v>-8.482144355773926</v>
       </c>
       <c r="B176" t="n">
-        <v>-8.381684303283691</v>
+        <v>1.555935144424438</v>
       </c>
       <c r="C176" t="n">
-        <v>-9.266323089599609</v>
+        <v>-7.910770893096924</v>
       </c>
       <c r="D176" t="n">
-        <v>-9.175737380981445</v>
+        <v>-11.22406101226807</v>
       </c>
       <c r="E176" t="n">
-        <v>6.407035827636719</v>
+        <v>5.848726272583008</v>
       </c>
       <c r="F176" t="n">
-        <v>5.80206823348999</v>
+        <v>-3.561470746994019</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="n">
-        <v>-9.972312927246094</v>
+        <v>-9.857442855834961</v>
       </c>
       <c r="B177" t="n">
-        <v>-9.160225868225098</v>
+        <v>3.720042705535889</v>
       </c>
       <c r="C177" t="n">
-        <v>-8.965741157531738</v>
+        <v>-7.644596576690674</v>
       </c>
       <c r="D177" t="n">
-        <v>-8.624198913574219</v>
+        <v>-10.45830631256104</v>
       </c>
       <c r="E177" t="n">
-        <v>6.622326850891113</v>
+        <v>5.757906913757324</v>
       </c>
       <c r="F177" t="n">
-        <v>5.898876190185547</v>
+        <v>-3.402553558349609</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="n">
-        <v>-10.78850364685059</v>
+        <v>-9.697827339172363</v>
       </c>
       <c r="B178" t="n">
-        <v>-9.563529968261719</v>
+        <v>4.466966152191162</v>
       </c>
       <c r="C178" t="n">
-        <v>-9.217598915100098</v>
+        <v>-7.326929092407227</v>
       </c>
       <c r="D178" t="n">
-        <v>-8.761741638183594</v>
+        <v>-9.679259300231934</v>
       </c>
       <c r="E178" t="n">
-        <v>6.669198989868164</v>
+        <v>4.897533416748047</v>
       </c>
       <c r="F178" t="n">
-        <v>5.9549241065979</v>
+        <v>-3.026495933532715</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="n">
-        <v>-11.32724666595459</v>
+        <v>-10.56651306152344</v>
       </c>
       <c r="B179" t="n">
-        <v>-10.44862270355225</v>
+        <v>6.013883590698242</v>
       </c>
       <c r="C179" t="n">
-        <v>-9.074800491333008</v>
+        <v>-6.802328586578369</v>
       </c>
       <c r="D179" t="n">
-        <v>-8.302352905273438</v>
+        <v>-8.531604766845703</v>
       </c>
       <c r="E179" t="n">
-        <v>5.880918979644775</v>
+        <v>3.443646907806396</v>
       </c>
       <c r="F179" t="n">
-        <v>5.631802558898926</v>
+        <v>-2.675196647644043</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="n">
-        <v>-12.86073303222656</v>
+        <v>-11.18671035766602</v>
       </c>
       <c r="B180" t="n">
-        <v>-11.63366317749023</v>
+        <v>7.41523551940918</v>
       </c>
       <c r="C180" t="n">
-        <v>-8.220489501953125</v>
+        <v>-4.971728324890137</v>
       </c>
       <c r="D180" t="n">
-        <v>-7.719960689544678</v>
+        <v>-6.348679065704346</v>
       </c>
       <c r="E180" t="n">
-        <v>5.174909591674805</v>
+        <v>1.663750171661377</v>
       </c>
       <c r="F180" t="n">
-        <v>5.549131870269775</v>
+        <v>-3.109398365020752</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="n">
-        <v>-13.07144355773926</v>
+        <v>-10.71111106872559</v>
       </c>
       <c r="B181" t="n">
-        <v>-11.89471912384033</v>
+        <v>8.07176399230957</v>
       </c>
       <c r="C181" t="n">
-        <v>-7.596687793731689</v>
+        <v>-3.205416917800903</v>
       </c>
       <c r="D181" t="n">
-        <v>-7.188706874847412</v>
+        <v>-4.408559322357178</v>
       </c>
       <c r="E181" t="n">
-        <v>4.448419570922852</v>
+        <v>-0.7639038562774658</v>
       </c>
       <c r="F181" t="n">
-        <v>5.365974426269531</v>
+        <v>-1.889047861099243</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="n">
-        <v>-13.59779453277588</v>
+        <v>-10.70317935943604</v>
       </c>
       <c r="B182" t="n">
-        <v>-12.85466480255127</v>
+        <v>9.736072540283203</v>
       </c>
       <c r="C182" t="n">
-        <v>-6.109517574310303</v>
+        <v>-1.009940266609192</v>
       </c>
       <c r="D182" t="n">
-        <v>-6.704808712005615</v>
+        <v>-2.815012216567993</v>
       </c>
       <c r="E182" t="n">
-        <v>3.001326084136963</v>
+        <v>-3.375978469848633</v>
       </c>
       <c r="F182" t="n">
-        <v>4.391678810119629</v>
+        <v>-1.253564834594727</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" t="n">
-        <v>-13.18112373352051</v>
+        <v>-9.211352348327637</v>
       </c>
       <c r="B183" t="n">
-        <v>-12.41045761108398</v>
+        <v>10.41527271270752</v>
       </c>
       <c r="C183" t="n">
-        <v>-4.714057445526123</v>
+        <v>2.160329103469849</v>
       </c>
       <c r="D183" t="n">
-        <v>-5.07138729095459</v>
+        <v>-0.6693171858787537</v>
       </c>
       <c r="E183" t="n">
-        <v>1.768667578697205</v>
+        <v>-5.44974946975708</v>
       </c>
       <c r="F183" t="n">
-        <v>1.548758983612061</v>
+        <v>0.2491786777973175</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" t="n">
-        <v>-12.6728687286377</v>
+        <v>-7.92000675201416</v>
       </c>
       <c r="B184" t="n">
-        <v>-12.1763334274292</v>
+        <v>9.9344482421875</v>
       </c>
       <c r="C184" t="n">
-        <v>-1.762694597244263</v>
+        <v>5.064553737640381</v>
       </c>
       <c r="D184" t="n">
-        <v>-2.844131708145142</v>
+        <v>-1.225174903869629</v>
       </c>
       <c r="E184" t="n">
-        <v>-0.8661166429519653</v>
+        <v>-7.460258960723877</v>
       </c>
       <c r="F184" t="n">
-        <v>-2.405316829681396</v>
+        <v>0.7445545196533203</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" t="n">
-        <v>-11.0789155960083</v>
+        <v>-6.848381996154785</v>
       </c>
       <c r="B185" t="n">
-        <v>-11.22695446014404</v>
+        <v>8.885990142822266</v>
       </c>
       <c r="C185" t="n">
-        <v>1.809607028961182</v>
+        <v>7.904577732086182</v>
       </c>
       <c r="D185" t="n">
-        <v>-0.01550265308469534</v>
+        <v>0.5065721869468689</v>
       </c>
       <c r="E185" t="n">
-        <v>-4.598056316375732</v>
+        <v>-9.671304702758789</v>
       </c>
       <c r="F185" t="n">
-        <v>-8.174354553222656</v>
+        <v>0.9170566201210022</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" t="n">
-        <v>-8.766427993774414</v>
+        <v>-4.406479835510254</v>
       </c>
       <c r="B186" t="n">
-        <v>-9.578474044799805</v>
+        <v>7.632905960083008</v>
       </c>
       <c r="C186" t="n">
-        <v>6.594147205352783</v>
+        <v>11.00039863586426</v>
       </c>
       <c r="D186" t="n">
-        <v>3.817265033721924</v>
+        <v>1.058415532112122</v>
       </c>
       <c r="E186" t="n">
-        <v>-9.220769882202148</v>
+        <v>-9.81916332244873</v>
       </c>
       <c r="F186" t="n">
-        <v>-12.00341415405273</v>
+        <v>1.850064396858215</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" t="n">
-        <v>-5.956544876098633</v>
+        <v>-2.973331689834595</v>
       </c>
       <c r="B187" t="n">
-        <v>-6.959987163543701</v>
+        <v>6.801379203796387</v>
       </c>
       <c r="C187" t="n">
-        <v>11.42643356323242</v>
+        <v>14.81434631347656</v>
       </c>
       <c r="D187" t="n">
-        <v>8.74193286895752</v>
+        <v>1.113162875175476</v>
       </c>
       <c r="E187" t="n">
-        <v>-12.49570083618164</v>
+        <v>-9.675568580627441</v>
       </c>
       <c r="F187" t="n">
-        <v>-13.94341087341309</v>
+        <v>2.503081083297729</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" t="n">
-        <v>-3.170241594314575</v>
+        <v>-0.5971806049346924</v>
       </c>
       <c r="B188" t="n">
-        <v>-4.788185596466064</v>
+        <v>5.30836296081543</v>
       </c>
       <c r="C188" t="n">
-        <v>15.85282611846924</v>
+        <v>18.05851745605469</v>
       </c>
       <c r="D188" t="n">
-        <v>13.44114875793457</v>
+        <v>0.3167419731616974</v>
       </c>
       <c r="E188" t="n">
-        <v>-13.30369186401367</v>
+        <v>-7.898550510406494</v>
       </c>
       <c r="F188" t="n">
-        <v>-12.61286163330078</v>
+        <v>3.444491386413574</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" t="n">
-        <v>-0.7475302219390869</v>
+        <v>1.311789989471436</v>
       </c>
       <c r="B189" t="n">
-        <v>-2.49279522895813</v>
+        <v>4.148536682128906</v>
       </c>
       <c r="C189" t="n">
-        <v>19.20039367675781</v>
+        <v>19.0189037322998</v>
       </c>
       <c r="D189" t="n">
-        <v>16.93305015563965</v>
+        <v>-0.5807507634162903</v>
       </c>
       <c r="E189" t="n">
-        <v>-10.97344779968262</v>
+        <v>-6.314918994903564</v>
       </c>
       <c r="F189" t="n">
-        <v>-9.633214950561523</v>
+        <v>4.390748023986816</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" t="n">
-        <v>1.457785367965698</v>
+        <v>2.73778510093689</v>
       </c>
       <c r="B190" t="n">
-        <v>-0.3727793097496033</v>
+        <v>2.332091569900513</v>
       </c>
       <c r="C190" t="n">
-        <v>20.83403968811035</v>
+        <v>18.26823425292969</v>
       </c>
       <c r="D190" t="n">
-        <v>19.40762138366699</v>
+        <v>0.2692305147647858</v>
       </c>
       <c r="E190" t="n">
-        <v>-7.526278972625732</v>
+        <v>-3.5809326171875</v>
       </c>
       <c r="F190" t="n">
-        <v>-6.773108959197998</v>
+        <v>4.846837520599365</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" t="n">
-        <v>3.766067743301392</v>
+        <v>4.440396785736084</v>
       </c>
       <c r="B191" t="n">
-        <v>1.574956178665161</v>
+        <v>1.7479248046875</v>
       </c>
       <c r="C191" t="n">
-        <v>21.71212387084961</v>
+        <v>19.09976196289062</v>
       </c>
       <c r="D191" t="n">
-        <v>20.2943229675293</v>
+        <v>-1.740219950675964</v>
       </c>
       <c r="E191" t="n">
-        <v>-4.063836097717285</v>
+        <v>-1.306748747825623</v>
       </c>
       <c r="F191" t="n">
-        <v>-4.196094512939453</v>
+        <v>5.617984294891357</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" t="n">
-        <v>5.403867721557617</v>
+        <v>6.551914215087891</v>
       </c>
       <c r="B192" t="n">
-        <v>3.139183759689331</v>
+        <v>0.1196834594011307</v>
       </c>
       <c r="C192" t="n">
-        <v>20.28733444213867</v>
+        <v>18.60126495361328</v>
       </c>
       <c r="D192" t="n">
-        <v>20.06465721130371</v>
+        <v>-3.226842403411865</v>
       </c>
       <c r="E192" t="n">
-        <v>-1.351767659187317</v>
+        <v>0.3363319635391235</v>
       </c>
       <c r="F192" t="n">
-        <v>-2.3274827003479</v>
+        <v>5.558707714080811</v>
       </c>
     </row>
     <row r="193">
       <c r="A193" t="n">
-        <v>6.38960075378418</v>
+        <v>6.658970355987549</v>
       </c>
       <c r="B193" t="n">
-        <v>4.159117221832275</v>
+        <v>-0.8396443724632263</v>
       </c>
       <c r="C193" t="n">
-        <v>18.23591423034668</v>
+        <v>17.66132354736328</v>
       </c>
       <c r="D193" t="n">
-        <v>18.00692749023438</v>
+        <v>-4.215574264526367</v>
       </c>
       <c r="E193" t="n">
-        <v>0.6791374087333679</v>
+        <v>1.681322813034058</v>
       </c>
       <c r="F193" t="n">
-        <v>-0.6512861847877502</v>
+        <v>6.124551296234131</v>
       </c>
     </row>
     <row r="194">
       <c r="A194" t="n">
-        <v>7.204262733459473</v>
+        <v>8.322654724121094</v>
       </c>
       <c r="B194" t="n">
-        <v>5.048099994659424</v>
+        <v>-2.389311075210571</v>
       </c>
       <c r="C194" t="n">
-        <v>15.26992130279541</v>
+        <v>14.66473388671875</v>
       </c>
       <c r="D194" t="n">
-        <v>15.92033100128174</v>
+        <v>-4.900149822235107</v>
       </c>
       <c r="E194" t="n">
-        <v>2.048426151275635</v>
+        <v>3.103360652923584</v>
       </c>
       <c r="F194" t="n">
-        <v>0.813524603843689</v>
+        <v>6.134042263031006</v>
       </c>
     </row>
     <row r="195">
       <c r="A195" t="n">
-        <v>7.974793434143066</v>
+        <v>9.499933242797852</v>
       </c>
       <c r="B195" t="n">
-        <v>5.698748111724854</v>
+        <v>-3.422369241714478</v>
       </c>
       <c r="C195" t="n">
-        <v>11.34575462341309</v>
+        <v>11.08641624450684</v>
       </c>
       <c r="D195" t="n">
-        <v>12.41635990142822</v>
+        <v>-6.306623935699463</v>
       </c>
       <c r="E195" t="n">
-        <v>2.89821457862854</v>
+        <v>2.901269435882568</v>
       </c>
       <c r="F195" t="n">
-        <v>1.550665736198425</v>
+        <v>6.193187236785889</v>
       </c>
     </row>
     <row r="196">
       <c r="A196" t="n">
-        <v>8.13893985748291</v>
+        <v>10.31435394287109</v>
       </c>
       <c r="B196" t="n">
-        <v>6.147993087768555</v>
+        <v>-5.453829288482666</v>
       </c>
       <c r="C196" t="n">
-        <v>7.641810894012451</v>
+        <v>7.510918140411377</v>
       </c>
       <c r="D196" t="n">
-        <v>8.78058910369873</v>
+        <v>-7.255294322967529</v>
       </c>
       <c r="E196" t="n">
-        <v>3.126079082489014</v>
+        <v>3.262341022491455</v>
       </c>
       <c r="F196" t="n">
-        <v>2.07206916809082</v>
+        <v>6.872927188873291</v>
       </c>
     </row>
     <row r="197">
       <c r="A197" t="n">
-        <v>8.425618171691895</v>
+        <v>10.44509983062744</v>
       </c>
       <c r="B197" t="n">
-        <v>6.951076984405518</v>
+        <v>-6.337108135223389</v>
       </c>
       <c r="C197" t="n">
-        <v>2.847187757492065</v>
+        <v>4.102433204650879</v>
       </c>
       <c r="D197" t="n">
-        <v>5.283669471740723</v>
+        <v>-8.230093002319336</v>
       </c>
       <c r="E197" t="n">
-        <v>2.278491735458374</v>
+        <v>3.339647531509399</v>
       </c>
       <c r="F197" t="n">
-        <v>2.246389627456665</v>
+        <v>6.6936354637146</v>
       </c>
     </row>
     <row r="198">
       <c r="A198" t="n">
-        <v>8.685885429382324</v>
+        <v>10.7175350189209</v>
       </c>
       <c r="B198" t="n">
-        <v>7.608023643493652</v>
+        <v>-6.493431091308594</v>
       </c>
       <c r="C198" t="n">
-        <v>-1.322021961212158</v>
+        <v>0.1666594743728638</v>
       </c>
       <c r="D198" t="n">
-        <v>2.145745515823364</v>
+        <v>-9.150881767272949</v>
       </c>
       <c r="E198" t="n">
-        <v>0.8999522924423218</v>
+        <v>3.476905584335327</v>
       </c>
       <c r="F198" t="n">
-        <v>1.924358010292053</v>
+        <v>6.950455188751221</v>
       </c>
     </row>
     <row r="199">
       <c r="A199" t="n">
-        <v>8.967840194702148</v>
+        <v>11.46384334564209</v>
       </c>
       <c r="B199" t="n">
-        <v>8.373489379882812</v>
+        <v>-7.828876972198486</v>
       </c>
       <c r="C199" t="n">
-        <v>-4.464756011962891</v>
+        <v>-4.094898700714111</v>
       </c>
       <c r="D199" t="n">
-        <v>-1.325815558433533</v>
+        <v>-8.631424903869629</v>
       </c>
       <c r="E199" t="n">
-        <v>-1.19627058506012</v>
+        <v>3.137593269348145</v>
       </c>
       <c r="F199" t="n">
-        <v>1.128204226493835</v>
+        <v>7.422642230987549</v>
       </c>
     </row>
     <row r="200">
       <c r="A200" t="n">
-        <v>9.163966178894043</v>
+        <v>11.61057758331299</v>
       </c>
       <c r="B200" t="n">
-        <v>8.75810432434082</v>
+        <v>-8.145745277404785</v>
       </c>
       <c r="C200" t="n">
-        <v>-6.927166938781738</v>
+        <v>-7.94624662399292</v>
       </c>
       <c r="D200" t="n">
-        <v>-4.331555843353271</v>
+        <v>-9.98766040802002</v>
       </c>
       <c r="E200" t="n">
-        <v>-2.826779365539551</v>
+        <v>3.392822027206421</v>
       </c>
       <c r="F200" t="n">
-        <v>0.5092374086380005</v>
+        <v>8.229009628295898</v>
       </c>
     </row>
     <row r="201">
       <c r="A201" t="n">
-        <v>9.520821571350098</v>
+        <v>11.98268985748291</v>
       </c>
       <c r="B201" t="n">
-        <v>8.628132820129395</v>
+        <v>-9.349946022033691</v>
       </c>
       <c r="C201" t="n">
-        <v>-9.022421836853027</v>
+        <v>-9.71131706237793</v>
       </c>
       <c r="D201" t="n">
-        <v>-7.09977388381958</v>
+        <v>-9.658958435058594</v>
       </c>
       <c r="E201" t="n">
-        <v>-3.597328662872314</v>
+        <v>3.614377975463867</v>
       </c>
       <c r="F201" t="n">
-        <v>0.05893191322684288</v>
+        <v>8.852081298828125</v>
       </c>
     </row>
     <row r="202">
       <c r="A202" t="n">
-        <v>9.37606143951416</v>
+        <v>9.220364570617676</v>
       </c>
       <c r="B202" t="n">
-        <v>8.052149772644043</v>
+        <v>-10.38603019714355</v>
       </c>
       <c r="C202" t="n">
-        <v>-10.30532550811768</v>
+        <v>-12.61126613616943</v>
       </c>
       <c r="D202" t="n">
-        <v>-9.162267684936523</v>
+        <v>-8.890324592590332</v>
       </c>
       <c r="E202" t="n">
-        <v>-3.850336313247681</v>
+        <v>3.285880088806152</v>
       </c>
       <c r="F202" t="n">
-        <v>-0.3084868788719177</v>
+        <v>8.236108779907227</v>
       </c>
     </row>
     <row r="203">
       <c r="A203" t="n">
-        <v>9.853466987609863</v>
+        <v>5.003898620605469</v>
       </c>
       <c r="B203" t="n">
-        <v>7.770432472229004</v>
+        <v>-11.15600109100342</v>
       </c>
       <c r="C203" t="n">
-        <v>-11.0641565322876</v>
+        <v>-13.97274589538574</v>
       </c>
       <c r="D203" t="n">
-        <v>-10.65465927124023</v>
+        <v>-9.130885124206543</v>
       </c>
       <c r="E203" t="n">
-        <v>-4.065157413482666</v>
+        <v>1.575043559074402</v>
       </c>
       <c r="F203" t="n">
-        <v>-0.8016736507415771</v>
+        <v>8.638432502746582</v>
       </c>
     </row>
     <row r="204">
       <c r="A204" t="n">
-        <v>8.722099304199219</v>
+        <v>1.726267337799072</v>
       </c>
       <c r="B204" t="n">
-        <v>7.025497436523438</v>
+        <v>-11.81199550628662</v>
       </c>
       <c r="C204" t="n">
-        <v>-11.14633464813232</v>
+        <v>-12.8960542678833</v>
       </c>
       <c r="D204" t="n">
-        <v>-11.04456901550293</v>
+        <v>-8.964240074157715</v>
       </c>
       <c r="E204" t="n">
-        <v>-4.58311128616333</v>
+        <v>1.254180550575256</v>
       </c>
       <c r="F204" t="n">
-        <v>-1.996070146560669</v>
+        <v>7.50058126449585</v>
       </c>
     </row>
     <row r="205">
       <c r="A205" t="n">
-        <v>7.348087310791016</v>
+        <v>2.404749870300293</v>
       </c>
       <c r="B205" t="n">
-        <v>6.651752471923828</v>
+        <v>-12.53464603424072</v>
       </c>
       <c r="C205" t="n">
-        <v>-10.13299083709717</v>
+        <v>-11.12240219116211</v>
       </c>
       <c r="D205" t="n">
-        <v>-9.705318450927734</v>
+        <v>-7.04686164855957</v>
       </c>
       <c r="E205" t="n">
-        <v>-3.525950908660889</v>
+        <v>0.2231805622577667</v>
       </c>
       <c r="F205" t="n">
-        <v>-2.209662914276123</v>
+        <v>5.810770511627197</v>
       </c>
     </row>
   </sheetData>

--- a/Predictions/timestamps_cp_cnn.xlsx
+++ b/Predictions/timestamps_cp_cnn.xlsx
@@ -467,4082 +467,4082 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>-0.1909238398075104</v>
+        <v>42.44828033447266</v>
       </c>
       <c r="B2" t="n">
-        <v>-6.298025608062744</v>
+        <v>9.382632255554199</v>
       </c>
       <c r="C2" t="n">
-        <v>-9.239474296569824</v>
+        <v>14.46568489074707</v>
       </c>
       <c r="D2" t="n">
-        <v>-2.893458604812622</v>
+        <v>17.65522956848145</v>
       </c>
       <c r="E2" t="n">
-        <v>-3.96809458732605</v>
+        <v>-17.81673431396484</v>
       </c>
       <c r="F2" t="n">
-        <v>-5.830041408538818</v>
+        <v>-12.8004207611084</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>-2.476048707962036</v>
+        <v>46.17630004882812</v>
       </c>
       <c r="B3" t="n">
-        <v>-4.889416217803955</v>
+        <v>10.04437351226807</v>
       </c>
       <c r="C3" t="n">
-        <v>-12.17807197570801</v>
+        <v>15.66479587554932</v>
       </c>
       <c r="D3" t="n">
-        <v>2.56779146194458</v>
+        <v>19.05100440979004</v>
       </c>
       <c r="E3" t="n">
-        <v>-2.452547073364258</v>
+        <v>-26.70945167541504</v>
       </c>
       <c r="F3" t="n">
-        <v>-7.571565628051758</v>
+        <v>-15.358229637146</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>-3.560877799987793</v>
+        <v>41.07367706298828</v>
       </c>
       <c r="B4" t="n">
-        <v>-4.939877033233643</v>
+        <v>13.79744338989258</v>
       </c>
       <c r="C4" t="n">
-        <v>-11.08667659759521</v>
+        <v>14.13688087463379</v>
       </c>
       <c r="D4" t="n">
-        <v>0.7996229529380798</v>
+        <v>29.38343620300293</v>
       </c>
       <c r="E4" t="n">
-        <v>-3.369555711746216</v>
+        <v>-26.30660438537598</v>
       </c>
       <c r="F4" t="n">
-        <v>-7.631301879882812</v>
+        <v>-23.65353965759277</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>-1.802541732788086</v>
+        <v>40.7104606628418</v>
       </c>
       <c r="B5" t="n">
-        <v>-5.871181964874268</v>
+        <v>11.50675392150879</v>
       </c>
       <c r="C5" t="n">
-        <v>-12.60615253448486</v>
+        <v>11.13219833374023</v>
       </c>
       <c r="D5" t="n">
-        <v>2.541728973388672</v>
+        <v>32.0301628112793</v>
       </c>
       <c r="E5" t="n">
-        <v>-3.612229108810425</v>
+        <v>-21.8294620513916</v>
       </c>
       <c r="F5" t="n">
-        <v>-8.513945579528809</v>
+        <v>-24.32201385498047</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>-4.068070888519287</v>
+        <v>39.80319213867188</v>
       </c>
       <c r="B6" t="n">
-        <v>-2.776262283325195</v>
+        <v>19.36540794372559</v>
       </c>
       <c r="C6" t="n">
-        <v>-6.483035564422607</v>
+        <v>15.95080757141113</v>
       </c>
       <c r="D6" t="n">
-        <v>4.614546298980713</v>
+        <v>41.56550216674805</v>
       </c>
       <c r="E6" t="n">
-        <v>-5.008708000183105</v>
+        <v>-19.90095520019531</v>
       </c>
       <c r="F6" t="n">
-        <v>-7.855275630950928</v>
+        <v>-28.65640449523926</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>-1.67331874370575</v>
+        <v>32.17208099365234</v>
       </c>
       <c r="B7" t="n">
-        <v>-3.348516464233398</v>
+        <v>20.59418678283691</v>
       </c>
       <c r="C7" t="n">
-        <v>-4.548294544219971</v>
+        <v>13.62048149108887</v>
       </c>
       <c r="D7" t="n">
-        <v>4.696873188018799</v>
+        <v>40.48867034912109</v>
       </c>
       <c r="E7" t="n">
-        <v>-1.353248953819275</v>
+        <v>-25.20855140686035</v>
       </c>
       <c r="F7" t="n">
-        <v>-6.013115882873535</v>
+        <v>-24.80628776550293</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>-3.852968215942383</v>
+        <v>35.68960571289062</v>
       </c>
       <c r="B8" t="n">
-        <v>-6.194405078887939</v>
+        <v>27.31954574584961</v>
       </c>
       <c r="C8" t="n">
-        <v>-2.892450332641602</v>
+        <v>16.15966415405273</v>
       </c>
       <c r="D8" t="n">
-        <v>4.397037029266357</v>
+        <v>55.38603591918945</v>
       </c>
       <c r="E8" t="n">
-        <v>-3.012971162796021</v>
+        <v>-14.91192054748535</v>
       </c>
       <c r="F8" t="n">
-        <v>-3.176148176193237</v>
+        <v>-22.10972213745117</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>-0.5591644048690796</v>
+        <v>33.57453918457031</v>
       </c>
       <c r="B9" t="n">
-        <v>-5.008137226104736</v>
+        <v>27.17010116577148</v>
       </c>
       <c r="C9" t="n">
-        <v>-9.22386646270752</v>
+        <v>9.591344833374023</v>
       </c>
       <c r="D9" t="n">
-        <v>6.88606071472168</v>
+        <v>55.24725723266602</v>
       </c>
       <c r="E9" t="n">
-        <v>-3.23044490814209</v>
+        <v>-19.38619041442871</v>
       </c>
       <c r="F9" t="n">
-        <v>-5.500547409057617</v>
+        <v>-20.84780502319336</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>-0.2101332247257233</v>
+        <v>32.5438346862793</v>
       </c>
       <c r="B10" t="n">
-        <v>-2.927239656448364</v>
+        <v>25.99707984924316</v>
       </c>
       <c r="C10" t="n">
-        <v>-7.08946704864502</v>
+        <v>7.690028190612793</v>
       </c>
       <c r="D10" t="n">
-        <v>7.674947738647461</v>
+        <v>53.50040435791016</v>
       </c>
       <c r="E10" t="n">
-        <v>0.7362547516822815</v>
+        <v>-12.61084270477295</v>
       </c>
       <c r="F10" t="n">
-        <v>-4.646574974060059</v>
+        <v>-14.01995277404785</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>-0.5869600772857666</v>
+        <v>32.20557022094727</v>
       </c>
       <c r="B11" t="n">
-        <v>0.7488572597503662</v>
+        <v>32.31654357910156</v>
       </c>
       <c r="C11" t="n">
-        <v>-8.102777481079102</v>
+        <v>9.381649017333984</v>
       </c>
       <c r="D11" t="n">
-        <v>10.22167015075684</v>
+        <v>59.61667251586914</v>
       </c>
       <c r="E11" t="n">
-        <v>-1.050786375999451</v>
+        <v>-16.3362865447998</v>
       </c>
       <c r="F11" t="n">
-        <v>-4.388913154602051</v>
+        <v>-8.446539878845215</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>-3.625552654266357</v>
+        <v>24.15507888793945</v>
       </c>
       <c r="B12" t="n">
-        <v>-1.756373882293701</v>
+        <v>33.40914154052734</v>
       </c>
       <c r="C12" t="n">
-        <v>-7.240918636322021</v>
+        <v>3.923527479171753</v>
       </c>
       <c r="D12" t="n">
-        <v>9.314948081970215</v>
+        <v>55.09735488891602</v>
       </c>
       <c r="E12" t="n">
-        <v>-1.108780980110168</v>
+        <v>-11.52877616882324</v>
       </c>
       <c r="F12" t="n">
-        <v>-3.314946889877319</v>
+        <v>3.642720222473145</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>-2.028541326522827</v>
+        <v>27.09648895263672</v>
       </c>
       <c r="B13" t="n">
-        <v>1.176977872848511</v>
+        <v>38.19873046875</v>
       </c>
       <c r="C13" t="n">
-        <v>-9.032223701477051</v>
+        <v>-0.392190158367157</v>
       </c>
       <c r="D13" t="n">
-        <v>9.428484916687012</v>
+        <v>52.05122375488281</v>
       </c>
       <c r="E13" t="n">
-        <v>0.1540887951850891</v>
+        <v>-14.97631931304932</v>
       </c>
       <c r="F13" t="n">
-        <v>1.064854621887207</v>
+        <v>0.004961424972862005</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>-2.180033445358276</v>
+        <v>19.90303802490234</v>
       </c>
       <c r="B14" t="n">
-        <v>1.967358827590942</v>
+        <v>37.90727233886719</v>
       </c>
       <c r="C14" t="n">
-        <v>-8.798089027404785</v>
+        <v>-2.089415788650513</v>
       </c>
       <c r="D14" t="n">
-        <v>2.136263608932495</v>
+        <v>53.09751129150391</v>
       </c>
       <c r="E14" t="n">
-        <v>1.036600232124329</v>
+        <v>-9.848019599914551</v>
       </c>
       <c r="F14" t="n">
-        <v>-1.265289664268494</v>
+        <v>6.145150184631348</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>-1.744635343551636</v>
+        <v>17.12619781494141</v>
       </c>
       <c r="B15" t="n">
-        <v>4.765476703643799</v>
+        <v>45.03614044189453</v>
       </c>
       <c r="C15" t="n">
-        <v>-12.82957172393799</v>
+        <v>-2.22076153755188</v>
       </c>
       <c r="D15" t="n">
-        <v>4.027158737182617</v>
+        <v>47.2638053894043</v>
       </c>
       <c r="E15" t="n">
-        <v>0.3133502006530762</v>
+        <v>-6.433285236358643</v>
       </c>
       <c r="F15" t="n">
-        <v>2.756221771240234</v>
+        <v>5.024131774902344</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>0.6661247611045837</v>
+        <v>18.01872825622559</v>
       </c>
       <c r="B16" t="n">
-        <v>1.705266952514648</v>
+        <v>42.87240219116211</v>
       </c>
       <c r="C16" t="n">
-        <v>-9.399066925048828</v>
+        <v>-1.137000203132629</v>
       </c>
       <c r="D16" t="n">
-        <v>2.553545951843262</v>
+        <v>44.22347640991211</v>
       </c>
       <c r="E16" t="n">
-        <v>0.1307865828275681</v>
+        <v>-8.819710731506348</v>
       </c>
       <c r="F16" t="n">
-        <v>0.6488944888114929</v>
+        <v>5.768010139465332</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>-2.66082763671875</v>
+        <v>12.02060031890869</v>
       </c>
       <c r="B17" t="n">
-        <v>1.117578744888306</v>
+        <v>43.52257537841797</v>
       </c>
       <c r="C17" t="n">
-        <v>-10.80423736572266</v>
+        <v>-2.735833406448364</v>
       </c>
       <c r="D17" t="n">
-        <v>-3.754347562789917</v>
+        <v>42.13126754760742</v>
       </c>
       <c r="E17" t="n">
-        <v>3.232392072677612</v>
+        <v>-6.83509635925293</v>
       </c>
       <c r="F17" t="n">
-        <v>1.104660034179688</v>
+        <v>4.291433334350586</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>-3.796723365783691</v>
+        <v>9.972182273864746</v>
       </c>
       <c r="B18" t="n">
-        <v>2.683104753494263</v>
+        <v>45.72147369384766</v>
       </c>
       <c r="C18" t="n">
-        <v>-11.86940956115723</v>
+        <v>-10.35547924041748</v>
       </c>
       <c r="D18" t="n">
-        <v>-3.031520366668701</v>
+        <v>37.53645324707031</v>
       </c>
       <c r="E18" t="n">
-        <v>7.901781558990479</v>
+        <v>-2.47898530960083</v>
       </c>
       <c r="F18" t="n">
-        <v>0.2122951000928879</v>
+        <v>7.710690498352051</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>-8.500644683837891</v>
+        <v>10.31528472900391</v>
       </c>
       <c r="B19" t="n">
-        <v>3.435544013977051</v>
+        <v>48.4642448425293</v>
       </c>
       <c r="C19" t="n">
-        <v>-9.036133766174316</v>
+        <v>0.08179742097854614</v>
       </c>
       <c r="D19" t="n">
-        <v>-2.958395481109619</v>
+        <v>29.36062049865723</v>
       </c>
       <c r="E19" t="n">
-        <v>8.664135932922363</v>
+        <v>0.8316631317138672</v>
       </c>
       <c r="F19" t="n">
-        <v>-1.294278979301453</v>
+        <v>1.964037775993347</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>-6.20371675491333</v>
+        <v>5.135862827301025</v>
       </c>
       <c r="B20" t="n">
-        <v>-0.04550890624523163</v>
+        <v>48.07696914672852</v>
       </c>
       <c r="C20" t="n">
-        <v>-6.710865497589111</v>
+        <v>-4.852089881896973</v>
       </c>
       <c r="D20" t="n">
-        <v>-9.541435241699219</v>
+        <v>32.41061401367188</v>
       </c>
       <c r="E20" t="n">
-        <v>8.834095001220703</v>
+        <v>-0.2421140670776367</v>
       </c>
       <c r="F20" t="n">
-        <v>-2.186424493789673</v>
+        <v>-2.662624835968018</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>-6.601298332214355</v>
+        <v>4.154551029205322</v>
       </c>
       <c r="B21" t="n">
-        <v>0.4176962375640869</v>
+        <v>47.75338363647461</v>
       </c>
       <c r="C21" t="n">
-        <v>-4.196112155914307</v>
+        <v>2.080368757247925</v>
       </c>
       <c r="D21" t="n">
-        <v>-6.613122940063477</v>
+        <v>30.19765090942383</v>
       </c>
       <c r="E21" t="n">
-        <v>7.484870910644531</v>
+        <v>7.125375747680664</v>
       </c>
       <c r="F21" t="n">
-        <v>-1.335243463516235</v>
+        <v>-5.497276782989502</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>-6.257730484008789</v>
+        <v>6.791422367095947</v>
       </c>
       <c r="B22" t="n">
-        <v>0.6966590881347656</v>
+        <v>50.98751449584961</v>
       </c>
       <c r="C22" t="n">
-        <v>-8.247612953186035</v>
+        <v>-0.8659107089042664</v>
       </c>
       <c r="D22" t="n">
-        <v>-7.520235538482666</v>
+        <v>25.15585517883301</v>
       </c>
       <c r="E22" t="n">
-        <v>5.781160831451416</v>
+        <v>8.996111869812012</v>
       </c>
       <c r="F22" t="n">
-        <v>-6.2204909324646</v>
+        <v>-3.816569089889526</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>-6.004064559936523</v>
+        <v>6.696182727813721</v>
       </c>
       <c r="B23" t="n">
-        <v>0.5076923370361328</v>
+        <v>45.36817932128906</v>
       </c>
       <c r="C23" t="n">
-        <v>-5.464747905731201</v>
+        <v>1.817797541618347</v>
       </c>
       <c r="D23" t="n">
-        <v>-8.795007705688477</v>
+        <v>20.0522346496582</v>
       </c>
       <c r="E23" t="n">
-        <v>2.527460813522339</v>
+        <v>4.136081695556641</v>
       </c>
       <c r="F23" t="n">
-        <v>-3.693651676177979</v>
+        <v>-2.688527584075928</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>-8.93516731262207</v>
+        <v>-2.66279935836792</v>
       </c>
       <c r="B24" t="n">
-        <v>7.293685913085938</v>
+        <v>46.49105072021484</v>
       </c>
       <c r="C24" t="n">
-        <v>-5.530662059783936</v>
+        <v>6.716408729553223</v>
       </c>
       <c r="D24" t="n">
-        <v>-10.30422401428223</v>
+        <v>19.84887504577637</v>
       </c>
       <c r="E24" t="n">
-        <v>1.294944763183594</v>
+        <v>3.553261756896973</v>
       </c>
       <c r="F24" t="n">
-        <v>-4.507205486297607</v>
+        <v>-15.35619068145752</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>-8.715185165405273</v>
+        <v>1.331787586212158</v>
       </c>
       <c r="B25" t="n">
-        <v>2.406887292861938</v>
+        <v>45.19168472290039</v>
       </c>
       <c r="C25" t="n">
-        <v>-6.040027618408203</v>
+        <v>7.382454872131348</v>
       </c>
       <c r="D25" t="n">
-        <v>-6.867825984954834</v>
+        <v>19.22884368896484</v>
       </c>
       <c r="E25" t="n">
-        <v>1.421797156333923</v>
+        <v>-1.869477272033691</v>
       </c>
       <c r="F25" t="n">
-        <v>-3.017460346221924</v>
+        <v>-20.11898231506348</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>-9.082881927490234</v>
+        <v>-2.952889919281006</v>
       </c>
       <c r="B26" t="n">
-        <v>6.072880268096924</v>
+        <v>42.46174240112305</v>
       </c>
       <c r="C26" t="n">
-        <v>-5.178640842437744</v>
+        <v>7.085566520690918</v>
       </c>
       <c r="D26" t="n">
-        <v>-12.91174697875977</v>
+        <v>19.17494010925293</v>
       </c>
       <c r="E26" t="n">
-        <v>0.8991565704345703</v>
+        <v>-3.681375741958618</v>
       </c>
       <c r="F26" t="n">
-        <v>-4.209218978881836</v>
+        <v>-25.81504821777344</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>-9.534829139709473</v>
+        <v>-9.320622444152832</v>
       </c>
       <c r="B27" t="n">
-        <v>7.162008285522461</v>
+        <v>43.48965454101562</v>
       </c>
       <c r="C27" t="n">
-        <v>-1.963868737220764</v>
+        <v>7.775288581848145</v>
       </c>
       <c r="D27" t="n">
-        <v>-8.769345283508301</v>
+        <v>19.23354339599609</v>
       </c>
       <c r="E27" t="n">
-        <v>-0.9416123628616333</v>
+        <v>-17.7784595489502</v>
       </c>
       <c r="F27" t="n">
-        <v>-3.9405837059021</v>
+        <v>-29.91281127929688</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>-7.831348896026611</v>
+        <v>-0.8455862402915955</v>
       </c>
       <c r="B28" t="n">
-        <v>7.059828281402588</v>
+        <v>42.42086791992188</v>
       </c>
       <c r="C28" t="n">
-        <v>-3.669695138931274</v>
+        <v>13.28359031677246</v>
       </c>
       <c r="D28" t="n">
-        <v>-4.17486047744751</v>
+        <v>19.56020736694336</v>
       </c>
       <c r="E28" t="n">
-        <v>-0.8106037378311157</v>
+        <v>-30.15729141235352</v>
       </c>
       <c r="F28" t="n">
-        <v>0.0006205717800185084</v>
+        <v>-34.65072250366211</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>-8.607810020446777</v>
+        <v>-7.041961193084717</v>
       </c>
       <c r="B29" t="n">
-        <v>8.928061485290527</v>
+        <v>41.62690734863281</v>
       </c>
       <c r="C29" t="n">
-        <v>-1.387499809265137</v>
+        <v>11.49095153808594</v>
       </c>
       <c r="D29" t="n">
-        <v>-2.689268112182617</v>
+        <v>22.25784301757812</v>
       </c>
       <c r="E29" t="n">
-        <v>-3.106040477752686</v>
+        <v>-38.00581741333008</v>
       </c>
       <c r="F29" t="n">
-        <v>0.813020646572113</v>
+        <v>-31.9039249420166</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>-8.973100662231445</v>
+        <v>1.648941516876221</v>
       </c>
       <c r="B30" t="n">
-        <v>10.50579833984375</v>
+        <v>41.73803329467773</v>
       </c>
       <c r="C30" t="n">
-        <v>-0.4081408977508545</v>
+        <v>24.19910049438477</v>
       </c>
       <c r="D30" t="n">
-        <v>1.271856188774109</v>
+        <v>23.78433036804199</v>
       </c>
       <c r="E30" t="n">
-        <v>-2.673938512802124</v>
+        <v>-42.1760139465332</v>
       </c>
       <c r="F30" t="n">
-        <v>4.344375610351562</v>
+        <v>-32.86944961547852</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>-6.890826225280762</v>
+        <v>-0.6122755408287048</v>
       </c>
       <c r="B31" t="n">
-        <v>10.38279628753662</v>
+        <v>35.02534103393555</v>
       </c>
       <c r="C31" t="n">
-        <v>4.161034107208252</v>
+        <v>26.18612861633301</v>
       </c>
       <c r="D31" t="n">
-        <v>-0.6367602348327637</v>
+        <v>25.89922523498535</v>
       </c>
       <c r="E31" t="n">
-        <v>-4.459500789642334</v>
+        <v>-46.67874908447266</v>
       </c>
       <c r="F31" t="n">
-        <v>5.228190898895264</v>
+        <v>-32.12313842773438</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>-10.81567573547363</v>
+        <v>4.944923877716064</v>
       </c>
       <c r="B32" t="n">
-        <v>10.4877347946167</v>
+        <v>34.90841293334961</v>
       </c>
       <c r="C32" t="n">
-        <v>6.476799011230469</v>
+        <v>29.83828735351562</v>
       </c>
       <c r="D32" t="n">
-        <v>4.799139022827148</v>
+        <v>26.95766258239746</v>
       </c>
       <c r="E32" t="n">
-        <v>-7.671807765960693</v>
+        <v>-55.27947616577148</v>
       </c>
       <c r="F32" t="n">
-        <v>3.936810255050659</v>
+        <v>-29.23880195617676</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>-6.649347305297852</v>
+        <v>4.344295978546143</v>
       </c>
       <c r="B33" t="n">
-        <v>9.930507659912109</v>
+        <v>35.28671264648438</v>
       </c>
       <c r="C33" t="n">
-        <v>7.395218372344971</v>
+        <v>35.67255020141602</v>
       </c>
       <c r="D33" t="n">
-        <v>2.72784161567688</v>
+        <v>23.50240707397461</v>
       </c>
       <c r="E33" t="n">
-        <v>-7.61409854888916</v>
+        <v>-52.34927749633789</v>
       </c>
       <c r="F33" t="n">
-        <v>2.856308460235596</v>
+        <v>-22.70493507385254</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>-5.141129970550537</v>
+        <v>9.047133445739746</v>
       </c>
       <c r="B34" t="n">
-        <v>8.38538932800293</v>
+        <v>32.76275634765625</v>
       </c>
       <c r="C34" t="n">
-        <v>12.42359733581543</v>
+        <v>42.33723068237305</v>
       </c>
       <c r="D34" t="n">
-        <v>2.21378231048584</v>
+        <v>22.00524139404297</v>
       </c>
       <c r="E34" t="n">
-        <v>-8.480869293212891</v>
+        <v>-49.47211456298828</v>
       </c>
       <c r="F34" t="n">
-        <v>6.464483737945557</v>
+        <v>-22.47307586669922</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>-3.951643228530884</v>
+        <v>15.82136631011963</v>
       </c>
       <c r="B35" t="n">
-        <v>5.240982532501221</v>
+        <v>27.00552177429199</v>
       </c>
       <c r="C35" t="n">
-        <v>16.99694442749023</v>
+        <v>46.36376190185547</v>
       </c>
       <c r="D35" t="n">
-        <v>1.906603217124939</v>
+        <v>20.46974945068359</v>
       </c>
       <c r="E35" t="n">
-        <v>-10.32650184631348</v>
+        <v>-40.07014846801758</v>
       </c>
       <c r="F35" t="n">
-        <v>5.626800060272217</v>
+        <v>-19.73801231384277</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>-2.105135202407837</v>
+        <v>21.43793296813965</v>
       </c>
       <c r="B36" t="n">
-        <v>7.665546417236328</v>
+        <v>22.42206001281738</v>
       </c>
       <c r="C36" t="n">
-        <v>15.86536121368408</v>
+        <v>52.41794204711914</v>
       </c>
       <c r="D36" t="n">
-        <v>-1.429921507835388</v>
+        <v>18.86888885498047</v>
       </c>
       <c r="E36" t="n">
-        <v>-6.698766708374023</v>
+        <v>-33.75392532348633</v>
       </c>
       <c r="F36" t="n">
-        <v>6.357274532318115</v>
+        <v>-18.22460174560547</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>1.62416934967041</v>
+        <v>23.03859329223633</v>
       </c>
       <c r="B37" t="n">
-        <v>0.4760540723800659</v>
+        <v>21.88693046569824</v>
       </c>
       <c r="C37" t="n">
-        <v>15.84781551361084</v>
+        <v>52.78162384033203</v>
       </c>
       <c r="D37" t="n">
-        <v>4.08489465713501</v>
+        <v>16.37887382507324</v>
       </c>
       <c r="E37" t="n">
-        <v>-3.179537296295166</v>
+        <v>-27.0421028137207</v>
       </c>
       <c r="F37" t="n">
-        <v>5.669048309326172</v>
+        <v>-19.74616813659668</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>0.622738778591156</v>
+        <v>30.30847930908203</v>
       </c>
       <c r="B38" t="n">
-        <v>-0.571765661239624</v>
+        <v>15.600510597229</v>
       </c>
       <c r="C38" t="n">
-        <v>22.15473937988281</v>
+        <v>59.99906158447266</v>
       </c>
       <c r="D38" t="n">
-        <v>-4.095998287200928</v>
+        <v>15.49855422973633</v>
       </c>
       <c r="E38" t="n">
-        <v>-3.157437324523926</v>
+        <v>-20.34275817871094</v>
       </c>
       <c r="F38" t="n">
-        <v>7.845922946929932</v>
+        <v>-18.78871917724609</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>7.871789932250977</v>
+        <v>29.66854858398438</v>
       </c>
       <c r="B39" t="n">
-        <v>-1.188912391662598</v>
+        <v>19.24865531921387</v>
       </c>
       <c r="C39" t="n">
-        <v>18.99466896057129</v>
+        <v>54.01678466796875</v>
       </c>
       <c r="D39" t="n">
-        <v>-4.909331798553467</v>
+        <v>14.68029022216797</v>
       </c>
       <c r="E39" t="n">
-        <v>-0.31069216132164</v>
+        <v>-12.08673191070557</v>
       </c>
       <c r="F39" t="n">
-        <v>6.250590324401855</v>
+        <v>-19.44910049438477</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>5.195667266845703</v>
+        <v>32.80584335327148</v>
       </c>
       <c r="B40" t="n">
-        <v>-3.362343549728394</v>
+        <v>12.25214385986328</v>
       </c>
       <c r="C40" t="n">
-        <v>19.5187816619873</v>
+        <v>46.86863327026367</v>
       </c>
       <c r="D40" t="n">
-        <v>-7.527064323425293</v>
+        <v>10.53071689605713</v>
       </c>
       <c r="E40" t="n">
-        <v>2.189297676086426</v>
+        <v>-12.96784114837646</v>
       </c>
       <c r="F40" t="n">
-        <v>7.390950679779053</v>
+        <v>-21.35970497131348</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>4.750582695007324</v>
+        <v>36.27605056762695</v>
       </c>
       <c r="B41" t="n">
-        <v>-2.40643310546875</v>
+        <v>11.14949512481689</v>
       </c>
       <c r="C41" t="n">
-        <v>16.04874610900879</v>
+        <v>52.78544998168945</v>
       </c>
       <c r="D41" t="n">
-        <v>-8.152120590209961</v>
+        <v>9.207764625549316</v>
       </c>
       <c r="E41" t="n">
-        <v>1.194861769676208</v>
+        <v>-10.86506843566895</v>
       </c>
       <c r="F41" t="n">
-        <v>6.847448348999023</v>
+        <v>-19.25557327270508</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>9.971102714538574</v>
+        <v>33.19496536254883</v>
       </c>
       <c r="B42" t="n">
-        <v>-3.148123502731323</v>
+        <v>5.022366523742676</v>
       </c>
       <c r="C42" t="n">
-        <v>16.02768135070801</v>
+        <v>47.73019790649414</v>
       </c>
       <c r="D42" t="n">
-        <v>-6.233438491821289</v>
+        <v>6.639416694641113</v>
       </c>
       <c r="E42" t="n">
-        <v>2.611306428909302</v>
+        <v>-9.165824890136719</v>
       </c>
       <c r="F42" t="n">
-        <v>6.545291423797607</v>
+        <v>-18.14337730407715</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>8.769487380981445</v>
+        <v>38.84679412841797</v>
       </c>
       <c r="B43" t="n">
-        <v>-5.53219747543335</v>
+        <v>8.024713516235352</v>
       </c>
       <c r="C43" t="n">
-        <v>14.30724239349365</v>
+        <v>37.74526214599609</v>
       </c>
       <c r="D43" t="n">
-        <v>-8.338447570800781</v>
+        <v>6.928093910217285</v>
       </c>
       <c r="E43" t="n">
-        <v>2.834534168243408</v>
+        <v>-8.553510665893555</v>
       </c>
       <c r="F43" t="n">
-        <v>8.691776275634766</v>
+        <v>-21.70729637145996</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>12.06398868560791</v>
+        <v>42.16953659057617</v>
       </c>
       <c r="B44" t="n">
-        <v>-8.35395336151123</v>
+        <v>2.26335597038269</v>
       </c>
       <c r="C44" t="n">
-        <v>4.423717021942139</v>
+        <v>32.01598739624023</v>
       </c>
       <c r="D44" t="n">
-        <v>-10.33520221710205</v>
+        <v>4.869336128234863</v>
       </c>
       <c r="E44" t="n">
-        <v>3.247843503952026</v>
+        <v>-9.54575252532959</v>
       </c>
       <c r="F44" t="n">
-        <v>8.891870498657227</v>
+        <v>-20.84991455078125</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>11.41714477539062</v>
+        <v>42.65392684936523</v>
       </c>
       <c r="B45" t="n">
-        <v>-9.37067699432373</v>
+        <v>6.860459327697754</v>
       </c>
       <c r="C45" t="n">
-        <v>5.651330471038818</v>
+        <v>35.54078674316406</v>
       </c>
       <c r="D45" t="n">
-        <v>-10.16550731658936</v>
+        <v>10.91290855407715</v>
       </c>
       <c r="E45" t="n">
-        <v>6.01924991607666</v>
+        <v>-10.28252983093262</v>
       </c>
       <c r="F45" t="n">
-        <v>6.352371215820312</v>
+        <v>-16.27396583557129</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>13.9735803604126</v>
+        <v>42.04957962036133</v>
       </c>
       <c r="B46" t="n">
-        <v>-9.784536361694336</v>
+        <v>6.127005577087402</v>
       </c>
       <c r="C46" t="n">
-        <v>-4.00468921661377</v>
+        <v>26.67419624328613</v>
       </c>
       <c r="D46" t="n">
-        <v>-10.70851612091064</v>
+        <v>9.462149620056152</v>
       </c>
       <c r="E46" t="n">
-        <v>4.331405639648438</v>
+        <v>-3.603662014007568</v>
       </c>
       <c r="F46" t="n">
-        <v>7.866099834442139</v>
+        <v>-20.03042984008789</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>14.16716194152832</v>
+        <v>40.22470855712891</v>
       </c>
       <c r="B47" t="n">
-        <v>-9.423042297363281</v>
+        <v>-1.16009259223938</v>
       </c>
       <c r="C47" t="n">
-        <v>-6.094896793365479</v>
+        <v>21.05835914611816</v>
       </c>
       <c r="D47" t="n">
-        <v>-11.33349704742432</v>
+        <v>3.731097459793091</v>
       </c>
       <c r="E47" t="n">
-        <v>8.074902534484863</v>
+        <v>-6.229544162750244</v>
       </c>
       <c r="F47" t="n">
-        <v>11.63194179534912</v>
+        <v>-17.87142372131348</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>17.1947078704834</v>
+        <v>41.37060165405273</v>
       </c>
       <c r="B48" t="n">
-        <v>-15.2150993347168</v>
+        <v>1.920363187789917</v>
       </c>
       <c r="C48" t="n">
-        <v>-13.21260833740234</v>
+        <v>13.59743595123291</v>
       </c>
       <c r="D48" t="n">
-        <v>-11.0976095199585</v>
+        <v>14.44006443023682</v>
       </c>
       <c r="E48" t="n">
-        <v>10.1438102722168</v>
+        <v>-2.336169242858887</v>
       </c>
       <c r="F48" t="n">
-        <v>9.85368824005127</v>
+        <v>-17.70421981811523</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>14.61251258850098</v>
+        <v>41.38136291503906</v>
       </c>
       <c r="B49" t="n">
-        <v>-13.50038433074951</v>
+        <v>-3.606356859207153</v>
       </c>
       <c r="C49" t="n">
-        <v>-18.95372581481934</v>
+        <v>14.10218524932861</v>
       </c>
       <c r="D49" t="n">
-        <v>-8.873727798461914</v>
+        <v>13.17366409301758</v>
       </c>
       <c r="E49" t="n">
-        <v>8.544650077819824</v>
+        <v>-7.378518581390381</v>
       </c>
       <c r="F49" t="n">
-        <v>9.488755226135254</v>
+        <v>-24.38528442382812</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>7.201017379760742</v>
+        <v>32.94741439819336</v>
       </c>
       <c r="B50" t="n">
-        <v>-12.20405578613281</v>
+        <v>0.6062172055244446</v>
       </c>
       <c r="C50" t="n">
-        <v>-19.94283103942871</v>
+        <v>16.40997695922852</v>
       </c>
       <c r="D50" t="n">
-        <v>-9.361089706420898</v>
+        <v>17.90943717956543</v>
       </c>
       <c r="E50" t="n">
-        <v>7.12786865234375</v>
+        <v>-8.050692558288574</v>
       </c>
       <c r="F50" t="n">
-        <v>11.25729560852051</v>
+        <v>-27.85445785522461</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>7.367996215820312</v>
+        <v>32.96933364868164</v>
       </c>
       <c r="B51" t="n">
-        <v>-17.66965675354004</v>
+        <v>-1.165898561477661</v>
       </c>
       <c r="C51" t="n">
-        <v>-18.24383926391602</v>
+        <v>19.90660095214844</v>
       </c>
       <c r="D51" t="n">
-        <v>-5.414198398590088</v>
+        <v>14.14430618286133</v>
       </c>
       <c r="E51" t="n">
-        <v>4.664916038513184</v>
+        <v>-11.06824493408203</v>
       </c>
       <c r="F51" t="n">
-        <v>6.580013275146484</v>
+        <v>-35.48879241943359</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>4.020651817321777</v>
+        <v>32.78131866455078</v>
       </c>
       <c r="B52" t="n">
-        <v>-15.40380096435547</v>
+        <v>-6.396666526794434</v>
       </c>
       <c r="C52" t="n">
-        <v>-13.56879711151123</v>
+        <v>19.07901763916016</v>
       </c>
       <c r="D52" t="n">
-        <v>-3.246548652648926</v>
+        <v>14.03298091888428</v>
       </c>
       <c r="E52" t="n">
-        <v>1.893471002578735</v>
+        <v>-6.292622089385986</v>
       </c>
       <c r="F52" t="n">
-        <v>2.662016868591309</v>
+        <v>-40.39739990234375</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>2.960629224777222</v>
+        <v>44.50467300415039</v>
       </c>
       <c r="B53" t="n">
-        <v>-9.515446662902832</v>
+        <v>6.578232765197754</v>
       </c>
       <c r="C53" t="n">
-        <v>-6.455374240875244</v>
+        <v>11.7345552444458</v>
       </c>
       <c r="D53" t="n">
-        <v>-4.148094177246094</v>
+        <v>21.05198669433594</v>
       </c>
       <c r="E53" t="n">
-        <v>-2.568165063858032</v>
+        <v>-21.05550003051758</v>
       </c>
       <c r="F53" t="n">
-        <v>-4.545432567596436</v>
+        <v>-11.2800350189209</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>1.808830976486206</v>
+        <v>43.85417556762695</v>
       </c>
       <c r="B54" t="n">
-        <v>-8.815933227539062</v>
+        <v>8.256204605102539</v>
       </c>
       <c r="C54" t="n">
-        <v>-8.771190643310547</v>
+        <v>14.78120040893555</v>
       </c>
       <c r="D54" t="n">
-        <v>-1.098094582557678</v>
+        <v>22.69087791442871</v>
       </c>
       <c r="E54" t="n">
-        <v>-2.95718240737915</v>
+        <v>-23.99295806884766</v>
       </c>
       <c r="F54" t="n">
-        <v>-6.69935417175293</v>
+        <v>-17.58294105529785</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>1.044437050819397</v>
+        <v>40.55476760864258</v>
       </c>
       <c r="B55" t="n">
-        <v>-8.477913856506348</v>
+        <v>11.29165840148926</v>
       </c>
       <c r="C55" t="n">
-        <v>-8.522507667541504</v>
+        <v>14.824875831604</v>
       </c>
       <c r="D55" t="n">
-        <v>-0.02194067090749741</v>
+        <v>30.26265335083008</v>
       </c>
       <c r="E55" t="n">
-        <v>-3.212653875350952</v>
+        <v>-25.3194751739502</v>
       </c>
       <c r="F55" t="n">
-        <v>-8.300144195556641</v>
+        <v>-23.40850639343262</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>0.653516948223114</v>
+        <v>39.13090896606445</v>
       </c>
       <c r="B56" t="n">
-        <v>-7.906301498413086</v>
+        <v>12.74038600921631</v>
       </c>
       <c r="C56" t="n">
-        <v>-9.974926948547363</v>
+        <v>11.891676902771</v>
       </c>
       <c r="D56" t="n">
-        <v>1.360394835472107</v>
+        <v>35.48243713378906</v>
       </c>
       <c r="E56" t="n">
-        <v>-3.632606744766235</v>
+        <v>-23.79793357849121</v>
       </c>
       <c r="F56" t="n">
-        <v>-9.336730003356934</v>
+        <v>-26.29228019714355</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>0.3269910514354706</v>
+        <v>38.21642303466797</v>
       </c>
       <c r="B57" t="n">
-        <v>-6.174520969390869</v>
+        <v>17.34316635131836</v>
       </c>
       <c r="C57" t="n">
-        <v>-9.312509536743164</v>
+        <v>14.49523544311523</v>
       </c>
       <c r="D57" t="n">
-        <v>4.008678913116455</v>
+        <v>44.23274230957031</v>
       </c>
       <c r="E57" t="n">
-        <v>-3.056709051132202</v>
+        <v>-21.92039489746094</v>
       </c>
       <c r="F57" t="n">
-        <v>-8.823513984680176</v>
+        <v>-29.85348129272461</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>-0.5610085129737854</v>
+        <v>34.03802108764648</v>
       </c>
       <c r="B58" t="n">
-        <v>-5.071981906890869</v>
+        <v>19.07600593566895</v>
       </c>
       <c r="C58" t="n">
-        <v>-8.740697860717773</v>
+        <v>11.45211315155029</v>
       </c>
       <c r="D58" t="n">
-        <v>6.705766201019287</v>
+        <v>47.08076858520508</v>
       </c>
       <c r="E58" t="n">
-        <v>-3.417073011398315</v>
+        <v>-21.60916328430176</v>
       </c>
       <c r="F58" t="n">
-        <v>-7.648010730743408</v>
+        <v>-28.933837890625</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>-0.02094230428338051</v>
+        <v>33.74568939208984</v>
       </c>
       <c r="B59" t="n">
-        <v>-4.940727233886719</v>
+        <v>23.90993499755859</v>
       </c>
       <c r="C59" t="n">
-        <v>-7.861276149749756</v>
+        <v>13.80386161804199</v>
       </c>
       <c r="D59" t="n">
-        <v>7.899842262268066</v>
+        <v>55.58626556396484</v>
       </c>
       <c r="E59" t="n">
-        <v>-3.198364496231079</v>
+        <v>-16.27207183837891</v>
       </c>
       <c r="F59" t="n">
-        <v>-6.130441188812256</v>
+        <v>-25.73619651794434</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>-0.4098397493362427</v>
+        <v>30.93031311035156</v>
       </c>
       <c r="B60" t="n">
-        <v>-3.155760765075684</v>
+        <v>25.90458297729492</v>
       </c>
       <c r="C60" t="n">
-        <v>-9.657618522644043</v>
+        <v>10.48522472381592</v>
       </c>
       <c r="D60" t="n">
-        <v>11.26365184783936</v>
+        <v>57.45107269287109</v>
       </c>
       <c r="E60" t="n">
-        <v>-1.96054470539093</v>
+        <v>-16.61556816101074</v>
       </c>
       <c r="F60" t="n">
-        <v>-5.031886577606201</v>
+        <v>-21.41366767883301</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>-0.3302692472934723</v>
+        <v>27.93574333190918</v>
       </c>
       <c r="B61" t="n">
-        <v>-1.277153134346008</v>
+        <v>28.68830299377441</v>
       </c>
       <c r="C61" t="n">
-        <v>-9.468728065490723</v>
+        <v>8.161396980285645</v>
       </c>
       <c r="D61" t="n">
-        <v>11.85909748077393</v>
+        <v>58.6439208984375</v>
       </c>
       <c r="E61" t="n">
-        <v>-0.7606776356697083</v>
+        <v>-12.30422115325928</v>
       </c>
       <c r="F61" t="n">
-        <v>-3.903041362762451</v>
+        <v>-14.42838191986084</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>-0.4849078953266144</v>
+        <v>26.57676124572754</v>
       </c>
       <c r="B62" t="n">
-        <v>1.617278099060059</v>
+        <v>33.19308471679688</v>
       </c>
       <c r="C62" t="n">
-        <v>-9.234598159790039</v>
+        <v>8.896252632141113</v>
       </c>
       <c r="D62" t="n">
-        <v>13.22469139099121</v>
+        <v>62.99566650390625</v>
       </c>
       <c r="E62" t="n">
-        <v>-0.4167287647724152</v>
+        <v>-12.59259700775146</v>
       </c>
       <c r="F62" t="n">
-        <v>-1.718149423599243</v>
+        <v>-8.578413009643555</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>-2.568110227584839</v>
+        <v>22.2183666229248</v>
       </c>
       <c r="B63" t="n">
-        <v>1.05033802986145</v>
+        <v>35.54384994506836</v>
       </c>
       <c r="C63" t="n">
-        <v>-8.20763111114502</v>
+        <v>4.642514228820801</v>
       </c>
       <c r="D63" t="n">
-        <v>14.11222267150879</v>
+        <v>60.14394378662109</v>
       </c>
       <c r="E63" t="n">
-        <v>-0.2858817279338837</v>
+        <v>-9.262457847595215</v>
       </c>
       <c r="F63" t="n">
-        <v>-0.6048832535743713</v>
+        <v>-0.8036852478981018</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>-1.961272358894348</v>
+        <v>20.91454696655273</v>
       </c>
       <c r="B64" t="n">
-        <v>2.638890266418457</v>
+        <v>38.03717041015625</v>
       </c>
       <c r="C64" t="n">
-        <v>-8.290030479431152</v>
+        <v>2.028284788131714</v>
       </c>
       <c r="D64" t="n">
-        <v>11.81202983856201</v>
+        <v>55.64469909667969</v>
       </c>
       <c r="E64" t="n">
-        <v>0.6794904470443726</v>
+        <v>-9.408607482910156</v>
       </c>
       <c r="F64" t="n">
-        <v>0.729015588760376</v>
+        <v>0.2826623320579529</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>-3.431622505187988</v>
+        <v>17.45125007629395</v>
       </c>
       <c r="B65" t="n">
-        <v>2.322998762130737</v>
+        <v>40.0670280456543</v>
       </c>
       <c r="C65" t="n">
-        <v>-9.593082427978516</v>
+        <v>-0.128121554851532</v>
       </c>
       <c r="D65" t="n">
-        <v>8.057583808898926</v>
+        <v>56.10722732543945</v>
       </c>
       <c r="E65" t="n">
-        <v>1.343367576599121</v>
+        <v>-7.606948852539062</v>
       </c>
       <c r="F65" t="n">
-        <v>0.3620602488517761</v>
+        <v>3.70221996307373</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>-3.580189228057861</v>
+        <v>14.09231185913086</v>
       </c>
       <c r="B66" t="n">
-        <v>3.144879341125488</v>
+        <v>44.2072868347168</v>
       </c>
       <c r="C66" t="n">
-        <v>-9.725529670715332</v>
+        <v>-0.4202567934989929</v>
       </c>
       <c r="D66" t="n">
-        <v>7.317571640014648</v>
+        <v>48.81294631958008</v>
       </c>
       <c r="E66" t="n">
-        <v>1.845989346504211</v>
+        <v>-4.773494720458984</v>
       </c>
       <c r="F66" t="n">
-        <v>1.917036652565002</v>
+        <v>5.232463836669922</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>-2.59381628036499</v>
+        <v>12.77860736846924</v>
       </c>
       <c r="B67" t="n">
-        <v>1.668010473251343</v>
+        <v>43.81042098999023</v>
       </c>
       <c r="C67" t="n">
-        <v>-8.558896064758301</v>
+        <v>-0.5164024233818054</v>
       </c>
       <c r="D67" t="n">
-        <v>3.863404273986816</v>
+        <v>43.85939788818359</v>
       </c>
       <c r="E67" t="n">
-        <v>1.895483136177063</v>
+        <v>-3.404012203216553</v>
       </c>
       <c r="F67" t="n">
-        <v>0.4203090667724609</v>
+        <v>5.481614112854004</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>-4.289632797241211</v>
+        <v>9.05394172668457</v>
       </c>
       <c r="B68" t="n">
-        <v>2.431114673614502</v>
+        <v>45.85003280639648</v>
       </c>
       <c r="C68" t="n">
-        <v>-10.341721534729</v>
+        <v>-3.076750993728638</v>
       </c>
       <c r="D68" t="n">
-        <v>-0.6837676167488098</v>
+        <v>41.07404327392578</v>
       </c>
       <c r="E68" t="n">
-        <v>3.932891607284546</v>
+        <v>-1.925510406494141</v>
       </c>
       <c r="F68" t="n">
-        <v>0.8402456045150757</v>
+        <v>4.042716026306152</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>-5.343257904052734</v>
+        <v>7.263712406158447</v>
       </c>
       <c r="B69" t="n">
-        <v>2.881502151489258</v>
+        <v>45.90402603149414</v>
       </c>
       <c r="C69" t="n">
-        <v>-8.791584968566895</v>
+        <v>-6.526896476745605</v>
       </c>
       <c r="D69" t="n">
-        <v>-1.494980931282043</v>
+        <v>36.48237991333008</v>
       </c>
       <c r="E69" t="n">
-        <v>6.973016262054443</v>
+        <v>-0.08430670946836472</v>
       </c>
       <c r="F69" t="n">
-        <v>0.02516302280128002</v>
+        <v>3.546241760253906</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>-7.206717014312744</v>
+        <v>5.873022556304932</v>
       </c>
       <c r="B70" t="n">
-        <v>2.603901386260986</v>
+        <v>47.86713790893555</v>
       </c>
       <c r="C70" t="n">
-        <v>-6.653127193450928</v>
+        <v>-4.094063758850098</v>
       </c>
       <c r="D70" t="n">
-        <v>-4.373082637786865</v>
+        <v>29.84708976745605</v>
       </c>
       <c r="E70" t="n">
-        <v>7.70872163772583</v>
+        <v>0.9234380722045898</v>
       </c>
       <c r="F70" t="n">
-        <v>-0.9899768829345703</v>
+        <v>2.04296875</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>-6.144501686096191</v>
+        <v>3.507032871246338</v>
       </c>
       <c r="B71" t="n">
-        <v>1.184910297393799</v>
+        <v>47.53758239746094</v>
       </c>
       <c r="C71" t="n">
-        <v>-8.369667053222656</v>
+        <v>-4.185986518859863</v>
       </c>
       <c r="D71" t="n">
-        <v>-9.990631103515625</v>
+        <v>27.6461067199707</v>
       </c>
       <c r="E71" t="n">
-        <v>8.121044158935547</v>
+        <v>1.501194000244141</v>
       </c>
       <c r="F71" t="n">
-        <v>-1.189406752586365</v>
+        <v>-1.895611882209778</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>-7.095869541168213</v>
+        <v>1.36965799331665</v>
       </c>
       <c r="B72" t="n">
-        <v>1.27789831161499</v>
+        <v>48.46844482421875</v>
       </c>
       <c r="C72" t="n">
-        <v>-6.168959140777588</v>
+        <v>-0.6920329928398132</v>
       </c>
       <c r="D72" t="n">
-        <v>-8.641205787658691</v>
+        <v>23.18002128601074</v>
       </c>
       <c r="E72" t="n">
-        <v>7.097227573394775</v>
+        <v>5.651037216186523</v>
       </c>
       <c r="F72" t="n">
-        <v>-2.766654491424561</v>
+        <v>-4.368753910064697</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>-7.081192016601562</v>
+        <v>1.939615726470947</v>
       </c>
       <c r="B73" t="n">
-        <v>0.9504024982452393</v>
+        <v>48.90711975097656</v>
       </c>
       <c r="C73" t="n">
-        <v>-8.338559150695801</v>
+        <v>-0.6132671236991882</v>
       </c>
       <c r="D73" t="n">
-        <v>-9.008530616760254</v>
+        <v>19.37438201904297</v>
       </c>
       <c r="E73" t="n">
-        <v>6.782641887664795</v>
+        <v>8.006582260131836</v>
       </c>
       <c r="F73" t="n">
-        <v>-4.748495578765869</v>
+        <v>-5.048459053039551</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>-7.455182075500488</v>
+        <v>2.043440341949463</v>
       </c>
       <c r="B74" t="n">
-        <v>0.8067517280578613</v>
+        <v>46.42072296142578</v>
       </c>
       <c r="C74" t="n">
-        <v>-6.761017799377441</v>
+        <v>1.402914881706238</v>
       </c>
       <c r="D74" t="n">
-        <v>-10.00191402435303</v>
+        <v>16.37551498413086</v>
       </c>
       <c r="E74" t="n">
-        <v>4.062927722930908</v>
+        <v>6.358010292053223</v>
       </c>
       <c r="F74" t="n">
-        <v>-4.224831104278564</v>
+        <v>-6.112954139709473</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="n">
-        <v>-8.985252380371094</v>
+        <v>-2.235969066619873</v>
       </c>
       <c r="B75" t="n">
-        <v>3.984743595123291</v>
+        <v>47.22403335571289</v>
       </c>
       <c r="C75" t="n">
-        <v>-7.020370960235596</v>
+        <v>3.526514768600464</v>
       </c>
       <c r="D75" t="n">
-        <v>-9.912216186523438</v>
+        <v>13.83872890472412</v>
       </c>
       <c r="E75" t="n">
-        <v>4.078294277191162</v>
+        <v>5.165091514587402</v>
       </c>
       <c r="F75" t="n">
-        <v>-4.232601642608643</v>
+        <v>-15.07260227203369</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>-8.666964530944824</v>
+        <v>-2.028726100921631</v>
       </c>
       <c r="B76" t="n">
-        <v>3.862509727478027</v>
+        <v>44.8184700012207</v>
       </c>
       <c r="C76" t="n">
-        <v>-5.746870994567871</v>
+        <v>6.742642402648926</v>
       </c>
       <c r="D76" t="n">
-        <v>-8.815567970275879</v>
+        <v>14.69010639190674</v>
       </c>
       <c r="E76" t="n">
-        <v>3.557295799255371</v>
+        <v>1.374393463134766</v>
       </c>
       <c r="F76" t="n">
-        <v>-3.810778617858887</v>
+        <v>-19.54719352722168</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>-9.003983497619629</v>
+        <v>-3.799724102020264</v>
       </c>
       <c r="B77" t="n">
-        <v>5.282958030700684</v>
+        <v>43.88290405273438</v>
       </c>
       <c r="C77" t="n">
-        <v>-6.503222942352295</v>
+        <v>8.507193565368652</v>
       </c>
       <c r="D77" t="n">
-        <v>-9.163716316223145</v>
+        <v>14.54928398132324</v>
       </c>
       <c r="E77" t="n">
-        <v>2.531546831130981</v>
+        <v>-3.406958818435669</v>
       </c>
       <c r="F77" t="n">
-        <v>-3.220379590988159</v>
+        <v>-24.37442970275879</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>-9.680100440979004</v>
+        <v>-5.50009298324585</v>
       </c>
       <c r="B78" t="n">
-        <v>7.264375686645508</v>
+        <v>42.23116683959961</v>
       </c>
       <c r="C78" t="n">
-        <v>-4.092062950134277</v>
+        <v>9.604613304138184</v>
       </c>
       <c r="D78" t="n">
-        <v>-6.74301815032959</v>
+        <v>15.94295310974121</v>
       </c>
       <c r="E78" t="n">
-        <v>0.1455092430114746</v>
+        <v>-15.24133777618408</v>
       </c>
       <c r="F78" t="n">
-        <v>-3.16120171546936</v>
+        <v>-29.89244270324707</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>-10.01405429840088</v>
+        <v>-2.715785503387451</v>
       </c>
       <c r="B79" t="n">
-        <v>8.033966064453125</v>
+        <v>40.92842864990234</v>
       </c>
       <c r="C79" t="n">
-        <v>-2.522999286651611</v>
+        <v>15.27908039093018</v>
       </c>
       <c r="D79" t="n">
-        <v>-3.640577793121338</v>
+        <v>17.16056823730469</v>
       </c>
       <c r="E79" t="n">
-        <v>-1.209059238433838</v>
+        <v>-23.82719802856445</v>
       </c>
       <c r="F79" t="n">
-        <v>-1.023264408111572</v>
+        <v>-32.02839660644531</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="n">
-        <v>-8.81618595123291</v>
+        <v>-3.06970739364624</v>
       </c>
       <c r="B80" t="n">
-        <v>9.997673034667969</v>
+        <v>37.88454818725586</v>
       </c>
       <c r="C80" t="n">
-        <v>-0.9536665081977844</v>
+        <v>18.00904846191406</v>
       </c>
       <c r="D80" t="n">
-        <v>-2.328541040420532</v>
+        <v>19.47789192199707</v>
       </c>
       <c r="E80" t="n">
-        <v>-3.191650629043579</v>
+        <v>-32.07737350463867</v>
       </c>
       <c r="F80" t="n">
-        <v>-0.2989856600761414</v>
+        <v>-34.06608581542969</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="n">
-        <v>-8.335511207580566</v>
+        <v>0.8082452416419983</v>
       </c>
       <c r="B81" t="n">
-        <v>10.37534809112549</v>
+        <v>37.78851318359375</v>
       </c>
       <c r="C81" t="n">
-        <v>1.148569345474243</v>
+        <v>25.24254989624023</v>
       </c>
       <c r="D81" t="n">
-        <v>0.9459908604621887</v>
+        <v>21.04166984558105</v>
       </c>
       <c r="E81" t="n">
-        <v>-4.380460739135742</v>
+        <v>-38.86437606811523</v>
       </c>
       <c r="F81" t="n">
-        <v>2.116179466247559</v>
+        <v>-35.38897705078125</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="n">
-        <v>-7.399814128875732</v>
+        <v>0.1833634972572327</v>
       </c>
       <c r="B82" t="n">
-        <v>10.39707279205322</v>
+        <v>34.13411712646484</v>
       </c>
       <c r="C82" t="n">
-        <v>4.650503635406494</v>
+        <v>29.56927490234375</v>
       </c>
       <c r="D82" t="n">
-        <v>-0.1796991378068924</v>
+        <v>23.1085262298584</v>
       </c>
       <c r="E82" t="n">
-        <v>-6.448393821716309</v>
+        <v>-45.76491546630859</v>
       </c>
       <c r="F82" t="n">
-        <v>2.520500898361206</v>
+        <v>-31.63702964782715</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>-7.558385848999023</v>
+        <v>5.186665058135986</v>
       </c>
       <c r="B83" t="n">
-        <v>9.31071949005127</v>
+        <v>33.72875595092773</v>
       </c>
       <c r="C83" t="n">
-        <v>6.777597904205322</v>
+        <v>36.70105743408203</v>
       </c>
       <c r="D83" t="n">
-        <v>1.517465949058533</v>
+        <v>23.63444137573242</v>
       </c>
       <c r="E83" t="n">
-        <v>-9.050006866455078</v>
+        <v>-48.37905120849609</v>
       </c>
       <c r="F83" t="n">
-        <v>2.348421573638916</v>
+        <v>-28.82677459716797</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="n">
-        <v>-4.162707328796387</v>
+        <v>7.370872974395752</v>
       </c>
       <c r="B84" t="n">
-        <v>8.499502182006836</v>
+        <v>31.70599555969238</v>
       </c>
       <c r="C84" t="n">
-        <v>9.077466011047363</v>
+        <v>42.31425476074219</v>
       </c>
       <c r="D84" t="n">
-        <v>2.224510669708252</v>
+        <v>24.26031494140625</v>
       </c>
       <c r="E84" t="n">
-        <v>-9.358798980712891</v>
+        <v>-48.75034332275391</v>
       </c>
       <c r="F84" t="n">
-        <v>3.180825233459473</v>
+        <v>-24.21898078918457</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="n">
-        <v>-3.051225423812866</v>
+        <v>11.63425350189209</v>
       </c>
       <c r="B85" t="n">
-        <v>7.794119834899902</v>
+        <v>29.64261817932129</v>
       </c>
       <c r="C85" t="n">
-        <v>14.13134098052979</v>
+        <v>49.20265197753906</v>
       </c>
       <c r="D85" t="n">
-        <v>2.372513055801392</v>
+        <v>21.83812522888184</v>
       </c>
       <c r="E85" t="n">
-        <v>-9.718762397766113</v>
+        <v>-46.75027847290039</v>
       </c>
       <c r="F85" t="n">
-        <v>3.996331453323364</v>
+        <v>-21.53230476379395</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="n">
-        <v>-1.858313918113708</v>
+        <v>17.92031097412109</v>
       </c>
       <c r="B86" t="n">
-        <v>5.629640579223633</v>
+        <v>24.85343551635742</v>
       </c>
       <c r="C86" t="n">
-        <v>16.54776573181152</v>
+        <v>51.54296112060547</v>
       </c>
       <c r="D86" t="n">
-        <v>0.884880006313324</v>
+        <v>19.77780532836914</v>
       </c>
       <c r="E86" t="n">
-        <v>-8.423248291015625</v>
+        <v>-39.8433837890625</v>
       </c>
       <c r="F86" t="n">
-        <v>4.433278560638428</v>
+        <v>-17.98616981506348</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="n">
-        <v>0.5473451018333435</v>
+        <v>22.18856811523438</v>
       </c>
       <c r="B87" t="n">
-        <v>5.186384201049805</v>
+        <v>20.80754852294922</v>
       </c>
       <c r="C87" t="n">
-        <v>17.93838500976562</v>
+        <v>57.44520950317383</v>
       </c>
       <c r="D87" t="n">
-        <v>0.2600829899311066</v>
+        <v>19.11761093139648</v>
       </c>
       <c r="E87" t="n">
-        <v>-6.619094371795654</v>
+        <v>-35.52016067504883</v>
       </c>
       <c r="F87" t="n">
-        <v>5.059962749481201</v>
+        <v>-16.58949089050293</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="n">
-        <v>2.347488403320312</v>
+        <v>24.90293121337891</v>
       </c>
       <c r="B88" t="n">
-        <v>2.052893400192261</v>
+        <v>19.43354034423828</v>
       </c>
       <c r="C88" t="n">
-        <v>17.25776481628418</v>
+        <v>58.97531890869141</v>
       </c>
       <c r="D88" t="n">
-        <v>1.259180903434753</v>
+        <v>14.98219871520996</v>
       </c>
       <c r="E88" t="n">
-        <v>-3.866584539413452</v>
+        <v>-29.0620231628418</v>
       </c>
       <c r="F88" t="n">
-        <v>5.389160633087158</v>
+        <v>-17.2080078125</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="n">
-        <v>3.632991552352905</v>
+        <v>29.7900390625</v>
       </c>
       <c r="B89" t="n">
-        <v>1.868965625762939</v>
+        <v>15.78544425964355</v>
       </c>
       <c r="C89" t="n">
-        <v>19.22791862487793</v>
+        <v>61.14794158935547</v>
       </c>
       <c r="D89" t="n">
-        <v>-2.288788318634033</v>
+        <v>14.14200687408447</v>
       </c>
       <c r="E89" t="n">
-        <v>-1.694450736045837</v>
+        <v>-22.1076717376709</v>
       </c>
       <c r="F89" t="n">
-        <v>6.365508079528809</v>
+        <v>-16.74002838134766</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="n">
-        <v>6.576530933380127</v>
+        <v>31.30344581604004</v>
       </c>
       <c r="B90" t="n">
-        <v>-0.07096002995967865</v>
+        <v>14.20599746704102</v>
       </c>
       <c r="C90" t="n">
-        <v>19.20001983642578</v>
+        <v>56.72262954711914</v>
       </c>
       <c r="D90" t="n">
-        <v>-4.029871940612793</v>
+        <v>12.43480968475342</v>
       </c>
       <c r="E90" t="n">
-        <v>0.02992771938443184</v>
+        <v>-16.9998836517334</v>
       </c>
       <c r="F90" t="n">
-        <v>5.86247444152832</v>
+        <v>-16.84233093261719</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="n">
-        <v>6.113280296325684</v>
+        <v>34.2955436706543</v>
       </c>
       <c r="B91" t="n">
-        <v>-1.374600052833557</v>
+        <v>11.07332134246826</v>
       </c>
       <c r="C91" t="n">
-        <v>19.7490348815918</v>
+        <v>52.23179626464844</v>
       </c>
       <c r="D91" t="n">
-        <v>-5.09340763092041</v>
+        <v>8.902388572692871</v>
       </c>
       <c r="E91" t="n">
-        <v>1.639422416687012</v>
+        <v>-15.08564376831055</v>
       </c>
       <c r="F91" t="n">
-        <v>6.439114570617676</v>
+        <v>-18.56233406066895</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="n">
-        <v>7.668247222900391</v>
+        <v>36.75667572021484</v>
       </c>
       <c r="B92" t="n">
-        <v>-2.371356010437012</v>
+        <v>9.316472053527832</v>
       </c>
       <c r="C92" t="n">
-        <v>16.03617668151855</v>
+        <v>51.45533752441406</v>
       </c>
       <c r="D92" t="n">
-        <v>-5.752706527709961</v>
+        <v>9.214217185974121</v>
       </c>
       <c r="E92" t="n">
-        <v>2.867247104644775</v>
+        <v>-12.35390281677246</v>
       </c>
       <c r="F92" t="n">
-        <v>6.041668891906738</v>
+        <v>-16.74490356445312</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="n">
-        <v>9.314929962158203</v>
+        <v>37.37189483642578</v>
       </c>
       <c r="B93" t="n">
-        <v>-3.637248992919922</v>
+        <v>4.773806571960449</v>
       </c>
       <c r="C93" t="n">
-        <v>13.75851917266846</v>
+        <v>44.82028961181641</v>
       </c>
       <c r="D93" t="n">
-        <v>-6.485639572143555</v>
+        <v>6.93148136138916</v>
       </c>
       <c r="E93" t="n">
-        <v>2.816585540771484</v>
+        <v>-10.53652954101562</v>
       </c>
       <c r="F93" t="n">
-        <v>6.208843231201172</v>
+        <v>-19.13432121276855</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="n">
-        <v>10.17869663238525</v>
+        <v>39.97507095336914</v>
       </c>
       <c r="B94" t="n">
-        <v>-5.977675437927246</v>
+        <v>4.578667640686035</v>
       </c>
       <c r="C94" t="n">
-        <v>9.865334510803223</v>
+        <v>36.90250778198242</v>
       </c>
       <c r="D94" t="n">
-        <v>-8.086475372314453</v>
+        <v>6.132786750793457</v>
       </c>
       <c r="E94" t="n">
-        <v>3.184376239776611</v>
+        <v>-10.10514736175537</v>
       </c>
       <c r="F94" t="n">
-        <v>6.857814788818359</v>
+        <v>-18.75045204162598</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="n">
-        <v>10.56805324554443</v>
+        <v>41.66351318359375</v>
       </c>
       <c r="B95" t="n">
-        <v>-7.66037130355835</v>
+        <v>2.605581998825073</v>
       </c>
       <c r="C95" t="n">
-        <v>4.738641738891602</v>
+        <v>31.2559642791748</v>
       </c>
       <c r="D95" t="n">
-        <v>-9.06261157989502</v>
+        <v>4.548037528991699</v>
       </c>
       <c r="E95" t="n">
-        <v>3.442399740219116</v>
+        <v>-8.449864387512207</v>
       </c>
       <c r="F95" t="n">
-        <v>7.049724102020264</v>
+        <v>-19.26155853271484</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="n">
-        <v>10.35499000549316</v>
+        <v>39.53438949584961</v>
       </c>
       <c r="B96" t="n">
-        <v>-6.905868530273438</v>
+        <v>2.37254786491394</v>
       </c>
       <c r="C96" t="n">
-        <v>2.17594051361084</v>
+        <v>28.60974884033203</v>
       </c>
       <c r="D96" t="n">
-        <v>-9.173418998718262</v>
+        <v>7.238999366760254</v>
       </c>
       <c r="E96" t="n">
-        <v>4.317501544952393</v>
+        <v>-8.743951797485352</v>
       </c>
       <c r="F96" t="n">
-        <v>6.834920883178711</v>
+        <v>-18.57388877868652</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="n">
-        <v>11.94529438018799</v>
+        <v>41.67714691162109</v>
       </c>
       <c r="B97" t="n">
-        <v>-9.024169921875</v>
+        <v>0.759817898273468</v>
       </c>
       <c r="C97" t="n">
-        <v>-3.648892879486084</v>
+        <v>22.06207084655762</v>
       </c>
       <c r="D97" t="n">
-        <v>-8.920080184936523</v>
+        <v>6.29603099822998</v>
       </c>
       <c r="E97" t="n">
-        <v>3.71655797958374</v>
+        <v>-7.118584632873535</v>
       </c>
       <c r="F97" t="n">
-        <v>7.317638397216797</v>
+        <v>-20.48007583618164</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="n">
-        <v>12.32882785797119</v>
+        <v>39.56388854980469</v>
       </c>
       <c r="B98" t="n">
-        <v>-8.23726749420166</v>
+        <v>-2.36750340461731</v>
       </c>
       <c r="C98" t="n">
-        <v>-7.765649318695068</v>
+        <v>16.34296989440918</v>
       </c>
       <c r="D98" t="n">
-        <v>-11.22326374053955</v>
+        <v>5.504231452941895</v>
       </c>
       <c r="E98" t="n">
-        <v>5.066256046295166</v>
+        <v>-8.263132095336914</v>
       </c>
       <c r="F98" t="n">
-        <v>8.489249229431152</v>
+        <v>-19.72213935852051</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="n">
-        <v>13.23824787139893</v>
+        <v>40.93505859375</v>
       </c>
       <c r="B99" t="n">
-        <v>-10.41771602630615</v>
+        <v>-1.499762773513794</v>
       </c>
       <c r="C99" t="n">
-        <v>-10.56462860107422</v>
+        <v>13.96119022369385</v>
       </c>
       <c r="D99" t="n">
-        <v>-10.17026233673096</v>
+        <v>10.85949611663818</v>
       </c>
       <c r="E99" t="n">
-        <v>5.576729297637939</v>
+        <v>-7.830348491668701</v>
       </c>
       <c r="F99" t="n">
-        <v>8.781649589538574</v>
+        <v>-20.41731834411621</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="n">
-        <v>10.22719573974609</v>
+        <v>39.38697052001953</v>
       </c>
       <c r="B100" t="n">
-        <v>-11.0183162689209</v>
+        <v>-4.881840705871582</v>
       </c>
       <c r="C100" t="n">
-        <v>-14.49513053894043</v>
+        <v>12.94915676116943</v>
       </c>
       <c r="D100" t="n">
-        <v>-9.075315475463867</v>
+        <v>12.47407054901123</v>
       </c>
       <c r="E100" t="n">
-        <v>5.24363374710083</v>
+        <v>-10.24078941345215</v>
       </c>
       <c r="F100" t="n">
-        <v>7.985798358917236</v>
+        <v>-25.52441215515137</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="n">
-        <v>5.091658592224121</v>
+        <v>30.92739105224609</v>
       </c>
       <c r="B101" t="n">
-        <v>-11.90548229217529</v>
+        <v>-3.955828905105591</v>
       </c>
       <c r="C101" t="n">
-        <v>-15.93747520446777</v>
+        <v>12.75690937042236</v>
       </c>
       <c r="D101" t="n">
-        <v>-9.201266288757324</v>
+        <v>15.25250053405762</v>
       </c>
       <c r="E101" t="n">
-        <v>2.925984859466553</v>
+        <v>-11.17098045349121</v>
       </c>
       <c r="F101" t="n">
-        <v>8.65810489654541</v>
+        <v>-29.94818878173828</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="n">
-        <v>2.12753963470459</v>
+        <v>30.68598556518555</v>
       </c>
       <c r="B102" t="n">
-        <v>-12.97758293151855</v>
+        <v>-2.927682161331177</v>
       </c>
       <c r="C102" t="n">
-        <v>-14.28712177276611</v>
+        <v>14.3520622253418</v>
       </c>
       <c r="D102" t="n">
-        <v>-8.180824279785156</v>
+        <v>16.44561576843262</v>
       </c>
       <c r="E102" t="n">
-        <v>2.789781808853149</v>
+        <v>-10.96229076385498</v>
       </c>
       <c r="F102" t="n">
-        <v>6.44792652130127</v>
+        <v>-35.01108169555664</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="n">
-        <v>2.191389560699463</v>
+        <v>30.5694465637207</v>
       </c>
       <c r="B103" t="n">
-        <v>-13.48169326782227</v>
+        <v>-6.231987953186035</v>
       </c>
       <c r="C103" t="n">
-        <v>-12.34800910949707</v>
+        <v>13.83138465881348</v>
       </c>
       <c r="D103" t="n">
-        <v>-5.246792316436768</v>
+        <v>18.33771705627441</v>
       </c>
       <c r="E103" t="n">
-        <v>1.21434485912323</v>
+        <v>-9.892260551452637</v>
       </c>
       <c r="F103" t="n">
-        <v>4.676773071289062</v>
+        <v>-41.30251312255859</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="n">
-        <v>4.190893650054932</v>
+        <v>43.59454727172852</v>
       </c>
       <c r="B104" t="n">
-        <v>-10.72259712219238</v>
+        <v>5.705901145935059</v>
       </c>
       <c r="C104" t="n">
-        <v>-5.740509033203125</v>
+        <v>10.61790561676025</v>
       </c>
       <c r="D104" t="n">
-        <v>-4.202826499938965</v>
+        <v>20.76627540588379</v>
       </c>
       <c r="E104" t="n">
-        <v>-2.543827056884766</v>
+        <v>-21.75716400146484</v>
       </c>
       <c r="F104" t="n">
-        <v>-4.293550968170166</v>
+        <v>-10.09271144866943</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="n">
-        <v>3.157986879348755</v>
+        <v>42.23090744018555</v>
       </c>
       <c r="B105" t="n">
-        <v>-9.646758079528809</v>
+        <v>7.559098243713379</v>
       </c>
       <c r="C105" t="n">
-        <v>-8.104454040527344</v>
+        <v>12.82842540740967</v>
       </c>
       <c r="D105" t="n">
-        <v>-1.95631730556488</v>
+        <v>23.78717422485352</v>
       </c>
       <c r="E105" t="n">
-        <v>-2.921073436737061</v>
+        <v>-23.54566192626953</v>
       </c>
       <c r="F105" t="n">
-        <v>-6.531843662261963</v>
+        <v>-16.4991283416748</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="n">
-        <v>2.63017463684082</v>
+        <v>39.53789138793945</v>
       </c>
       <c r="B106" t="n">
-        <v>-9.450913429260254</v>
+        <v>9.755336761474609</v>
       </c>
       <c r="C106" t="n">
-        <v>-7.810243129730225</v>
+        <v>13.47110176086426</v>
       </c>
       <c r="D106" t="n">
-        <v>-0.7468132972717285</v>
+        <v>30.10746383666992</v>
       </c>
       <c r="E106" t="n">
-        <v>-3.02606725692749</v>
+        <v>-24.84750366210938</v>
       </c>
       <c r="F106" t="n">
-        <v>-8.157138824462891</v>
+        <v>-22.95465087890625</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="n">
-        <v>2.524985313415527</v>
+        <v>38.02100372314453</v>
       </c>
       <c r="B107" t="n">
-        <v>-8.064873695373535</v>
+        <v>12.30525302886963</v>
       </c>
       <c r="C107" t="n">
-        <v>-9.189496040344238</v>
+        <v>11.93229007720947</v>
       </c>
       <c r="D107" t="n">
-        <v>1.717361330986023</v>
+        <v>36.37847518920898</v>
       </c>
       <c r="E107" t="n">
-        <v>-3.683477640151978</v>
+        <v>-24.02744674682617</v>
       </c>
       <c r="F107" t="n">
-        <v>-9.099404335021973</v>
+        <v>-26.30136871337891</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="n">
-        <v>1.989458799362183</v>
+        <v>36.28629684448242</v>
       </c>
       <c r="B108" t="n">
-        <v>-7.120344161987305</v>
+        <v>16.55652236938477</v>
       </c>
       <c r="C108" t="n">
-        <v>-8.743429183959961</v>
+        <v>14.00528907775879</v>
       </c>
       <c r="D108" t="n">
-        <v>4.889306545257568</v>
+        <v>43.83666229248047</v>
       </c>
       <c r="E108" t="n">
-        <v>-3.078413486480713</v>
+        <v>-22.56900596618652</v>
       </c>
       <c r="F108" t="n">
-        <v>-8.634357452392578</v>
+        <v>-30.26119804382324</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="n">
-        <v>0.8066815733909607</v>
+        <v>33.42518997192383</v>
       </c>
       <c r="B109" t="n">
-        <v>-5.05025053024292</v>
+        <v>18.4120922088623</v>
       </c>
       <c r="C109" t="n">
-        <v>-8.669818878173828</v>
+        <v>11.42148017883301</v>
       </c>
       <c r="D109" t="n">
-        <v>7.933335304260254</v>
+        <v>48.44025039672852</v>
       </c>
       <c r="E109" t="n">
-        <v>-3.40111517906189</v>
+        <v>-20.09244537353516</v>
       </c>
       <c r="F109" t="n">
-        <v>-7.61316967010498</v>
+        <v>-29.68528938293457</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="n">
-        <v>1.006341576576233</v>
+        <v>31.52923774719238</v>
       </c>
       <c r="B110" t="n">
-        <v>-4.295897483825684</v>
+        <v>22.7592716217041</v>
       </c>
       <c r="C110" t="n">
-        <v>-8.367611885070801</v>
+        <v>12.96592426300049</v>
       </c>
       <c r="D110" t="n">
-        <v>9.7288818359375</v>
+        <v>55.34451293945312</v>
       </c>
       <c r="E110" t="n">
-        <v>-2.950120449066162</v>
+        <v>-15.71953678131104</v>
       </c>
       <c r="F110" t="n">
-        <v>-6.074266910552979</v>
+        <v>-26.54336547851562</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="n">
-        <v>0.03908100351691246</v>
+        <v>28.92948532104492</v>
       </c>
       <c r="B111" t="n">
-        <v>-2.511780023574829</v>
+        <v>25.43443489074707</v>
       </c>
       <c r="C111" t="n">
-        <v>-9.0491943359375</v>
+        <v>10.82176685333252</v>
       </c>
       <c r="D111" t="n">
-        <v>12.64992237091064</v>
+        <v>58.06525421142578</v>
       </c>
       <c r="E111" t="n">
-        <v>-2.115060329437256</v>
+        <v>-14.97611141204834</v>
       </c>
       <c r="F111" t="n">
-        <v>-4.719957828521729</v>
+        <v>-21.51016807556152</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="n">
-        <v>-0.01711014285683632</v>
+        <v>25.76740455627441</v>
       </c>
       <c r="B112" t="n">
-        <v>-1.032119393348694</v>
+        <v>28.61599731445312</v>
       </c>
       <c r="C112" t="n">
-        <v>-9.118563652038574</v>
+        <v>8.971091270446777</v>
       </c>
       <c r="D112" t="n">
-        <v>13.98570823669434</v>
+        <v>59.67630004882812</v>
       </c>
       <c r="E112" t="n">
-        <v>-1.117783904075623</v>
+        <v>-11.75313663482666</v>
       </c>
       <c r="F112" t="n">
-        <v>-3.411561250686646</v>
+        <v>-15.27969264984131</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="n">
-        <v>-0.7067230343818665</v>
+        <v>24.0698356628418</v>
       </c>
       <c r="B113" t="n">
-        <v>1.609199523925781</v>
+        <v>32.78179931640625</v>
       </c>
       <c r="C113" t="n">
-        <v>-9.30931568145752</v>
+        <v>7.970175743103027</v>
       </c>
       <c r="D113" t="n">
-        <v>14.94379997253418</v>
+        <v>62.69207000732422</v>
       </c>
       <c r="E113" t="n">
-        <v>-0.4559529721736908</v>
+        <v>-11.2217845916748</v>
       </c>
       <c r="F113" t="n">
-        <v>-1.393359422683716</v>
+        <v>-9.364168167114258</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="n">
-        <v>-2.53343939781189</v>
+        <v>20.80306434631348</v>
       </c>
       <c r="B114" t="n">
-        <v>1.516900777816772</v>
+        <v>35.86997604370117</v>
       </c>
       <c r="C114" t="n">
-        <v>-8.216988563537598</v>
+        <v>4.725029945373535</v>
       </c>
       <c r="D114" t="n">
-        <v>15.26564121246338</v>
+        <v>60.98124694824219</v>
       </c>
       <c r="E114" t="n">
-        <v>0.07426376640796661</v>
+        <v>-8.773338317871094</v>
       </c>
       <c r="F114" t="n">
-        <v>-0.2796398401260376</v>
+        <v>-3.020044088363647</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="n">
-        <v>-2.009146451950073</v>
+        <v>18.38593864440918</v>
       </c>
       <c r="B115" t="n">
-        <v>2.851009130477905</v>
+        <v>37.73532104492188</v>
       </c>
       <c r="C115" t="n">
-        <v>-8.235649108886719</v>
+        <v>3.438227415084839</v>
       </c>
       <c r="D115" t="n">
-        <v>13.14350891113281</v>
+        <v>57.59492492675781</v>
       </c>
       <c r="E115" t="n">
-        <v>0.7771742939949036</v>
+        <v>-8.073890686035156</v>
       </c>
       <c r="F115" t="n">
-        <v>0.6594274044036865</v>
+        <v>-0.06354624778032303</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="n">
-        <v>-3.143701791763306</v>
+        <v>15.46607208251953</v>
       </c>
       <c r="B116" t="n">
-        <v>2.649487733840942</v>
+        <v>40.83847427368164</v>
       </c>
       <c r="C116" t="n">
-        <v>-8.617917060852051</v>
+        <v>0.7191513180732727</v>
       </c>
       <c r="D116" t="n">
-        <v>9.819503784179688</v>
+        <v>55.66040802001953</v>
       </c>
       <c r="E116" t="n">
-        <v>1.954995274543762</v>
+        <v>-6.318711757659912</v>
       </c>
       <c r="F116" t="n">
-        <v>0.7922956347465515</v>
+        <v>3.140854835510254</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="n">
-        <v>-3.521690845489502</v>
+        <v>12.56842613220215</v>
       </c>
       <c r="B117" t="n">
-        <v>3.172601699829102</v>
+        <v>43.27315139770508</v>
       </c>
       <c r="C117" t="n">
-        <v>-8.59783935546875</v>
+        <v>-0.004239259287714958</v>
       </c>
       <c r="D117" t="n">
-        <v>8.207283973693848</v>
+        <v>49.62619018554688</v>
       </c>
       <c r="E117" t="n">
-        <v>2.247281074523926</v>
+        <v>-3.741122961044312</v>
       </c>
       <c r="F117" t="n">
-        <v>1.60086727142334</v>
+        <v>4.600381851196289</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="n">
-        <v>-3.17968225479126</v>
+        <v>10.93808841705322</v>
       </c>
       <c r="B118" t="n">
-        <v>2.270971775054932</v>
+        <v>43.85409545898438</v>
       </c>
       <c r="C118" t="n">
-        <v>-8.151294708251953</v>
+        <v>-0.237191379070282</v>
       </c>
       <c r="D118" t="n">
-        <v>4.806903839111328</v>
+        <v>44.69765090942383</v>
       </c>
       <c r="E118" t="n">
-        <v>2.83684253692627</v>
+        <v>-3.070986747741699</v>
       </c>
       <c r="F118" t="n">
-        <v>0.625702440738678</v>
+        <v>5.238605499267578</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="n">
-        <v>-4.58240795135498</v>
+        <v>8.018296241760254</v>
       </c>
       <c r="B119" t="n">
-        <v>2.57247257232666</v>
+        <v>46.36968231201172</v>
       </c>
       <c r="C119" t="n">
-        <v>-9.627382278442383</v>
+        <v>-1.563250660896301</v>
       </c>
       <c r="D119" t="n">
-        <v>0.6006632447242737</v>
+        <v>40.31560134887695</v>
       </c>
       <c r="E119" t="n">
-        <v>4.427278995513916</v>
+        <v>-1.449756145477295</v>
       </c>
       <c r="F119" t="n">
-        <v>0.8234441876411438</v>
+        <v>4.026500701904297</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="n">
-        <v>-5.618589401245117</v>
+        <v>5.667517185211182</v>
       </c>
       <c r="B120" t="n">
-        <v>3.044208288192749</v>
+        <v>47.12189102172852</v>
       </c>
       <c r="C120" t="n">
-        <v>-8.560500144958496</v>
+        <v>-4.222559928894043</v>
       </c>
       <c r="D120" t="n">
-        <v>-1.670216202735901</v>
+        <v>35.2040901184082</v>
       </c>
       <c r="E120" t="n">
-        <v>6.773653030395508</v>
+        <v>0.1407580375671387</v>
       </c>
       <c r="F120" t="n">
-        <v>-0.08048906922340393</v>
+        <v>2.931042671203613</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="n">
-        <v>-6.656725883483887</v>
+        <v>4.146976947784424</v>
       </c>
       <c r="B121" t="n">
-        <v>2.592503070831299</v>
+        <v>47.84825134277344</v>
       </c>
       <c r="C121" t="n">
-        <v>-6.801812171936035</v>
+        <v>-3.506352663040161</v>
       </c>
       <c r="D121" t="n">
-        <v>-4.730263233184814</v>
+        <v>29.11800384521484</v>
       </c>
       <c r="E121" t="n">
-        <v>7.216702938079834</v>
+        <v>1.568096160888672</v>
       </c>
       <c r="F121" t="n">
-        <v>-1.023256063461304</v>
+        <v>2.097566604614258</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="n">
-        <v>-6.241579532623291</v>
+        <v>1.867170810699463</v>
       </c>
       <c r="B122" t="n">
-        <v>2.31782865524292</v>
+        <v>47.97709655761719</v>
       </c>
       <c r="C122" t="n">
-        <v>-8.725675582885742</v>
+        <v>-2.986384630203247</v>
       </c>
       <c r="D122" t="n">
-        <v>-9.347393035888672</v>
+        <v>24.60122489929199</v>
       </c>
       <c r="E122" t="n">
-        <v>7.915678977966309</v>
+        <v>2.75808048248291</v>
       </c>
       <c r="F122" t="n">
-        <v>-1.088194608688354</v>
+        <v>-1.266549706459045</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="n">
-        <v>-7.23290491104126</v>
+        <v>-0.007518232800066471</v>
       </c>
       <c r="B123" t="n">
-        <v>1.751559734344482</v>
+        <v>48.93635940551758</v>
       </c>
       <c r="C123" t="n">
-        <v>-7.259792804718018</v>
+        <v>-0.686755359172821</v>
       </c>
       <c r="D123" t="n">
-        <v>-9.38115406036377</v>
+        <v>20.10221099853516</v>
       </c>
       <c r="E123" t="n">
-        <v>7.20984935760498</v>
+        <v>5.354376792907715</v>
       </c>
       <c r="F123" t="n">
-        <v>-2.767877340316772</v>
+        <v>-3.469497442245483</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="n">
-        <v>-7.719562530517578</v>
+        <v>-0.09485763311386108</v>
       </c>
       <c r="B124" t="n">
-        <v>1.212712526321411</v>
+        <v>49.35800552368164</v>
       </c>
       <c r="C124" t="n">
-        <v>-8.413722038269043</v>
+        <v>0.0298126358538866</v>
       </c>
       <c r="D124" t="n">
-        <v>-9.920535087585449</v>
+        <v>15.99633884429932</v>
       </c>
       <c r="E124" t="n">
-        <v>7.212309837341309</v>
+        <v>8.037957191467285</v>
       </c>
       <c r="F124" t="n">
-        <v>-4.225982666015625</v>
+        <v>-4.7244553565979</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="n">
-        <v>-8.051556587219238</v>
+        <v>-0.2021955847740173</v>
       </c>
       <c r="B125" t="n">
-        <v>1.16495943069458</v>
+        <v>47.72464370727539</v>
       </c>
       <c r="C125" t="n">
-        <v>-7.540610313415527</v>
+        <v>2.095642805099487</v>
       </c>
       <c r="D125" t="n">
-        <v>-10.79648971557617</v>
+        <v>13.37150382995605</v>
       </c>
       <c r="E125" t="n">
-        <v>5.237551212310791</v>
+        <v>6.526212692260742</v>
       </c>
       <c r="F125" t="n">
-        <v>-3.92446756362915</v>
+        <v>-6.271755218505859</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="n">
-        <v>-9.520357131958008</v>
+        <v>-2.869912624359131</v>
       </c>
       <c r="B126" t="n">
-        <v>3.55366325378418</v>
+        <v>47.41009902954102</v>
       </c>
       <c r="C126" t="n">
-        <v>-7.395748138427734</v>
+        <v>4.419966697692871</v>
       </c>
       <c r="D126" t="n">
-        <v>-10.19340229034424</v>
+        <v>10.85161781311035</v>
       </c>
       <c r="E126" t="n">
-        <v>5.24497127532959</v>
+        <v>5.700456619262695</v>
       </c>
       <c r="F126" t="n">
-        <v>-3.703483104705811</v>
+        <v>-13.8962574005127</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="n">
-        <v>-9.316238403320312</v>
+        <v>-3.440526485443115</v>
       </c>
       <c r="B127" t="n">
-        <v>4.19207763671875</v>
+        <v>45.50239944458008</v>
       </c>
       <c r="C127" t="n">
-        <v>-6.886593818664551</v>
+        <v>7.655077934265137</v>
       </c>
       <c r="D127" t="n">
-        <v>-9.460447311401367</v>
+        <v>11.22865295410156</v>
       </c>
       <c r="E127" t="n">
-        <v>4.435034275054932</v>
+        <v>1.959253311157227</v>
       </c>
       <c r="F127" t="n">
-        <v>-3.344012260437012</v>
+        <v>-19.04107093811035</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="n">
-        <v>-9.853775978088379</v>
+        <v>-4.238391399383545</v>
       </c>
       <c r="B128" t="n">
-        <v>5.786623477935791</v>
+        <v>44.00053787231445</v>
       </c>
       <c r="C128" t="n">
-        <v>-6.731420993804932</v>
+        <v>9.67255973815918</v>
       </c>
       <c r="D128" t="n">
-        <v>-8.653970718383789</v>
+        <v>12.07026100158691</v>
       </c>
       <c r="E128" t="n">
-        <v>3.110188722610474</v>
+        <v>-3.438381910324097</v>
       </c>
       <c r="F128" t="n">
-        <v>-2.811675548553467</v>
+        <v>-23.98273468017578</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="n">
-        <v>-10.59270000457764</v>
+        <v>-5.174952983856201</v>
       </c>
       <c r="B129" t="n">
-        <v>7.454069137573242</v>
+        <v>42.56414413452148</v>
       </c>
       <c r="C129" t="n">
-        <v>-4.460872650146484</v>
+        <v>11.9409294128418</v>
       </c>
       <c r="D129" t="n">
-        <v>-6.395357608795166</v>
+        <v>13.66109848022461</v>
       </c>
       <c r="E129" t="n">
-        <v>1.180122852325439</v>
+        <v>-12.85598850250244</v>
       </c>
       <c r="F129" t="n">
-        <v>-3.015492916107178</v>
+        <v>-29.3265209197998</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="n">
-        <v>-10.21800899505615</v>
+        <v>-3.322841167449951</v>
       </c>
       <c r="B130" t="n">
-        <v>8.177582740783691</v>
+        <v>40.69404983520508</v>
       </c>
       <c r="C130" t="n">
-        <v>-2.793510437011719</v>
+        <v>16.87895774841309</v>
       </c>
       <c r="D130" t="n">
-        <v>-3.981050729751587</v>
+        <v>15.36741924285889</v>
       </c>
       <c r="E130" t="n">
-        <v>-1.003319621086121</v>
+        <v>-20.22394752502441</v>
       </c>
       <c r="F130" t="n">
-        <v>-1.506865262985229</v>
+        <v>-32.2216911315918</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="n">
-        <v>-10.04240608215332</v>
+        <v>-2.629621028900146</v>
       </c>
       <c r="B131" t="n">
-        <v>10.03525352478027</v>
+        <v>37.65908432006836</v>
       </c>
       <c r="C131" t="n">
-        <v>-0.8585075736045837</v>
+        <v>21.58178901672363</v>
       </c>
       <c r="D131" t="n">
-        <v>-2.416682004928589</v>
+        <v>17.64931297302246</v>
       </c>
       <c r="E131" t="n">
-        <v>-3.330660581588745</v>
+        <v>-28.66050720214844</v>
       </c>
       <c r="F131" t="n">
-        <v>-0.7592431306838989</v>
+        <v>-34.32634353637695</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="n">
-        <v>-8.727572441101074</v>
+        <v>-0.1117624640464783</v>
       </c>
       <c r="B132" t="n">
-        <v>10.75321483612061</v>
+        <v>36.63341903686523</v>
       </c>
       <c r="C132" t="n">
-        <v>1.967672109603882</v>
+        <v>27.38591766357422</v>
       </c>
       <c r="D132" t="n">
-        <v>0.1533016413450241</v>
+        <v>19.27197456359863</v>
       </c>
       <c r="E132" t="n">
-        <v>-5.066511154174805</v>
+        <v>-35.71953201293945</v>
       </c>
       <c r="F132" t="n">
-        <v>1.102869629859924</v>
+        <v>-35.74266052246094</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="n">
-        <v>-7.647484302520752</v>
+        <v>1.036852359771729</v>
       </c>
       <c r="B133" t="n">
-        <v>10.41351509094238</v>
+        <v>34.29844665527344</v>
       </c>
       <c r="C133" t="n">
-        <v>5.003508567810059</v>
+        <v>33.25464630126953</v>
       </c>
       <c r="D133" t="n">
-        <v>-0.6430531144142151</v>
+        <v>21.5589714050293</v>
       </c>
       <c r="E133" t="n">
-        <v>-7.067495346069336</v>
+        <v>-42.61751937866211</v>
       </c>
       <c r="F133" t="n">
-        <v>1.558090686798096</v>
+        <v>-31.5514965057373</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="n">
-        <v>-6.888274669647217</v>
+        <v>4.745430469512939</v>
       </c>
       <c r="B134" t="n">
-        <v>9.210001945495605</v>
+        <v>32.84284591674805</v>
       </c>
       <c r="C134" t="n">
-        <v>7.514830112457275</v>
+        <v>40.08430480957031</v>
       </c>
       <c r="D134" t="n">
-        <v>1.146407723426819</v>
+        <v>22.22690582275391</v>
       </c>
       <c r="E134" t="n">
-        <v>-9.556748390197754</v>
+        <v>-44.99102783203125</v>
       </c>
       <c r="F134" t="n">
-        <v>1.616182208061218</v>
+        <v>-28.02256774902344</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="n">
-        <v>-4.200909614562988</v>
+        <v>7.788744449615479</v>
       </c>
       <c r="B135" t="n">
-        <v>8.111502647399902</v>
+        <v>30.78723907470703</v>
       </c>
       <c r="C135" t="n">
-        <v>10.3109188079834</v>
+        <v>45.62351989746094</v>
       </c>
       <c r="D135" t="n">
-        <v>1.712866187095642</v>
+        <v>22.79810523986816</v>
       </c>
       <c r="E135" t="n">
-        <v>-9.633588790893555</v>
+        <v>-46.33796691894531</v>
       </c>
       <c r="F135" t="n">
-        <v>2.568159580230713</v>
+        <v>-23.99942970275879</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="n">
-        <v>-2.926138877868652</v>
+        <v>12.49581718444824</v>
       </c>
       <c r="B136" t="n">
-        <v>7.208709716796875</v>
+        <v>28.33703231811523</v>
       </c>
       <c r="C136" t="n">
-        <v>14.49820518493652</v>
+        <v>52.59792709350586</v>
       </c>
       <c r="D136" t="n">
-        <v>1.727497935295105</v>
+        <v>20.86786079406738</v>
       </c>
       <c r="E136" t="n">
-        <v>-9.698677062988281</v>
+        <v>-44.47356414794922</v>
       </c>
       <c r="F136" t="n">
-        <v>3.122929573059082</v>
+        <v>-20.58607482910156</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="n">
-        <v>-0.7963241934776306</v>
+        <v>17.66578483581543</v>
       </c>
       <c r="B137" t="n">
-        <v>5.603877544403076</v>
+        <v>24.56534576416016</v>
       </c>
       <c r="C137" t="n">
-        <v>17.68072319030762</v>
+        <v>55.78789138793945</v>
       </c>
       <c r="D137" t="n">
-        <v>0.6304540038108826</v>
+        <v>19.47697830200195</v>
       </c>
       <c r="E137" t="n">
-        <v>-7.873508930206299</v>
+        <v>-39.49839401245117</v>
       </c>
       <c r="F137" t="n">
-        <v>3.941707849502563</v>
+        <v>-17.63880157470703</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="n">
-        <v>1.183941602706909</v>
+        <v>21.84691047668457</v>
       </c>
       <c r="B138" t="n">
-        <v>4.469149112701416</v>
+        <v>21.07313919067383</v>
       </c>
       <c r="C138" t="n">
-        <v>18.46381187438965</v>
+        <v>60.02156829833984</v>
       </c>
       <c r="D138" t="n">
-        <v>-0.3414979875087738</v>
+        <v>18.13024711608887</v>
       </c>
       <c r="E138" t="n">
-        <v>-6.261577129364014</v>
+        <v>-35.48407745361328</v>
       </c>
       <c r="F138" t="n">
-        <v>4.825573921203613</v>
+        <v>-16.23062515258789</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="n">
-        <v>2.736278533935547</v>
+        <v>25.37196350097656</v>
       </c>
       <c r="B139" t="n">
-        <v>2.460628032684326</v>
+        <v>18.56876945495605</v>
       </c>
       <c r="C139" t="n">
-        <v>17.74189376831055</v>
+        <v>61.93744277954102</v>
       </c>
       <c r="D139" t="n">
-        <v>0.7046920657157898</v>
+        <v>14.66765022277832</v>
       </c>
       <c r="E139" t="n">
-        <v>-3.52254056930542</v>
+        <v>-30.24331092834473</v>
       </c>
       <c r="F139" t="n">
-        <v>5.035472393035889</v>
+        <v>-15.83562564849854</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="n">
-        <v>4.227255344390869</v>
+        <v>29.31455039978027</v>
       </c>
       <c r="B140" t="n">
-        <v>1.974683523178101</v>
+        <v>15.81979370117188</v>
       </c>
       <c r="C140" t="n">
-        <v>18.9051456451416</v>
+        <v>62.73981475830078</v>
       </c>
       <c r="D140" t="n">
-        <v>-1.809918761253357</v>
+        <v>13.58654308319092</v>
       </c>
       <c r="E140" t="n">
-        <v>-1.207176446914673</v>
+        <v>-23.57275772094727</v>
       </c>
       <c r="F140" t="n">
-        <v>5.908286571502686</v>
+        <v>-15.47678661346436</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="n">
-        <v>6.475218772888184</v>
+        <v>32.12470626831055</v>
       </c>
       <c r="B141" t="n">
-        <v>0.1655758768320084</v>
+        <v>13.05046558380127</v>
       </c>
       <c r="C141" t="n">
-        <v>18.80867004394531</v>
+        <v>59.32593536376953</v>
       </c>
       <c r="D141" t="n">
-        <v>-3.544872999191284</v>
+        <v>11.21025276184082</v>
       </c>
       <c r="E141" t="n">
-        <v>0.3197512626647949</v>
+        <v>-18.96694755554199</v>
       </c>
       <c r="F141" t="n">
-        <v>5.721928596496582</v>
+        <v>-15.79566669464111</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="n">
-        <v>6.399517059326172</v>
+        <v>34.12301635742188</v>
       </c>
       <c r="B142" t="n">
-        <v>-0.9177758693695068</v>
+        <v>10.7465238571167</v>
       </c>
       <c r="C142" t="n">
-        <v>18.41707038879395</v>
+        <v>55.29172515869141</v>
       </c>
       <c r="D142" t="n">
-        <v>-4.494279384613037</v>
+        <v>8.86909008026123</v>
       </c>
       <c r="E142" t="n">
-        <v>1.677665948867798</v>
+        <v>-15.57465839385986</v>
       </c>
       <c r="F142" t="n">
-        <v>6.244011878967285</v>
+        <v>-16.8746509552002</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="n">
-        <v>8.009521484375</v>
+        <v>36.56916427612305</v>
       </c>
       <c r="B143" t="n">
-        <v>-2.546547889709473</v>
+        <v>8.420133590698242</v>
       </c>
       <c r="C143" t="n">
-        <v>15.18371486663818</v>
+        <v>51.44199371337891</v>
       </c>
       <c r="D143" t="n">
-        <v>-5.218521118164062</v>
+        <v>8.238959312438965</v>
       </c>
       <c r="E143" t="n">
-        <v>3.141833305358887</v>
+        <v>-12.40413951873779</v>
       </c>
       <c r="F143" t="n">
-        <v>6.114051342010498</v>
+        <v>-16.29055404663086</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="n">
-        <v>9.269281387329102</v>
+        <v>38.04207992553711</v>
       </c>
       <c r="B144" t="n">
-        <v>-3.50447940826416</v>
+        <v>4.912470817565918</v>
       </c>
       <c r="C144" t="n">
-        <v>12.06964302062988</v>
+        <v>45.01711654663086</v>
       </c>
       <c r="D144" t="n">
-        <v>-6.496117115020752</v>
+        <v>6.076066017150879</v>
       </c>
       <c r="E144" t="n">
-        <v>2.860825538635254</v>
+        <v>-10.78605556488037</v>
       </c>
       <c r="F144" t="n">
-        <v>6.180111408233643</v>
+        <v>-17.36241722106934</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="n">
-        <v>10.15806579589844</v>
+        <v>39.58135604858398</v>
       </c>
       <c r="B145" t="n">
-        <v>-5.743986129760742</v>
+        <v>3.744482755661011</v>
       </c>
       <c r="C145" t="n">
-        <v>8.110786437988281</v>
+        <v>37.40006256103516</v>
       </c>
       <c r="D145" t="n">
-        <v>-7.527231693267822</v>
+        <v>5.179768562316895</v>
       </c>
       <c r="E145" t="n">
-        <v>3.177301645278931</v>
+        <v>-9.692771911621094</v>
       </c>
       <c r="F145" t="n">
-        <v>6.777917861938477</v>
+        <v>-18.41307640075684</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="n">
-        <v>10.28253936767578</v>
+        <v>40.42325592041016</v>
       </c>
       <c r="B146" t="n">
-        <v>-6.985155582427979</v>
+        <v>1.292784452438354</v>
       </c>
       <c r="C146" t="n">
-        <v>4.539307594299316</v>
+        <v>30.99090957641602</v>
       </c>
       <c r="D146" t="n">
-        <v>-8.499427795410156</v>
+        <v>3.947869539260864</v>
       </c>
       <c r="E146" t="n">
-        <v>3.333561420440674</v>
+        <v>-8.139891624450684</v>
       </c>
       <c r="F146" t="n">
-        <v>6.74298095703125</v>
+        <v>-18.82626342773438</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="n">
-        <v>10.45980072021484</v>
+        <v>38.94663238525391</v>
       </c>
       <c r="B147" t="n">
-        <v>-6.732088565826416</v>
+        <v>0.3875129818916321</v>
       </c>
       <c r="C147" t="n">
-        <v>0.9343330860137939</v>
+        <v>26.11727142333984</v>
       </c>
       <c r="D147" t="n">
-        <v>-9.260059356689453</v>
+        <v>5.081198692321777</v>
       </c>
       <c r="E147" t="n">
-        <v>3.675284147262573</v>
+        <v>-8.443526268005371</v>
       </c>
       <c r="F147" t="n">
-        <v>6.877898693084717</v>
+        <v>-18.40694808959961</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="n">
-        <v>11.56759357452393</v>
+        <v>40.80950546264648</v>
       </c>
       <c r="B148" t="n">
-        <v>-8.369424819946289</v>
+        <v>-1.468507051467896</v>
       </c>
       <c r="C148" t="n">
-        <v>-3.845014810562134</v>
+        <v>20.37550354003906</v>
       </c>
       <c r="D148" t="n">
-        <v>-8.634254455566406</v>
+        <v>4.286595344543457</v>
       </c>
       <c r="E148" t="n">
-        <v>3.293726444244385</v>
+        <v>-8.162211418151855</v>
       </c>
       <c r="F148" t="n">
-        <v>7.421284675598145</v>
+        <v>-19.90669631958008</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="n">
-        <v>11.64807510375977</v>
+        <v>39.43082427978516</v>
       </c>
       <c r="B149" t="n">
-        <v>-8.232379913330078</v>
+        <v>-3.504603624343872</v>
       </c>
       <c r="C149" t="n">
-        <v>-8.005972862243652</v>
+        <v>15.27393054962158</v>
       </c>
       <c r="D149" t="n">
-        <v>-10.55087757110596</v>
+        <v>4.724959373474121</v>
       </c>
       <c r="E149" t="n">
-        <v>3.936310291290283</v>
+        <v>-9.308835029602051</v>
       </c>
       <c r="F149" t="n">
-        <v>8.30412769317627</v>
+        <v>-20.1705436706543</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="n">
-        <v>12.26609325408936</v>
+        <v>40.35015487670898</v>
       </c>
       <c r="B150" t="n">
-        <v>-9.658105850219727</v>
+        <v>-4.163201332092285</v>
       </c>
       <c r="C150" t="n">
-        <v>-9.778321266174316</v>
+        <v>13.35438632965088</v>
       </c>
       <c r="D150" t="n">
-        <v>-9.84349536895752</v>
+        <v>7.905970573425293</v>
       </c>
       <c r="E150" t="n">
-        <v>4.36741828918457</v>
+        <v>-10.04162406921387</v>
       </c>
       <c r="F150" t="n">
-        <v>8.789985656738281</v>
+        <v>-20.7397403717041</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="n">
-        <v>9.247514724731445</v>
+        <v>38.83618545532227</v>
       </c>
       <c r="B151" t="n">
-        <v>-10.72941303253174</v>
+        <v>-6.107136726379395</v>
       </c>
       <c r="C151" t="n">
-        <v>-13.30181980133057</v>
+        <v>11.51475238800049</v>
       </c>
       <c r="D151" t="n">
-        <v>-8.81280517578125</v>
+        <v>9.932282447814941</v>
       </c>
       <c r="E151" t="n">
-        <v>4.008879661560059</v>
+        <v>-12.40381145477295</v>
       </c>
       <c r="F151" t="n">
-        <v>8.050651550292969</v>
+        <v>-24.33651542663574</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="n">
-        <v>4.919249057769775</v>
+        <v>32.39971542358398</v>
       </c>
       <c r="B152" t="n">
-        <v>-11.52538204193115</v>
+        <v>-5.899430274963379</v>
       </c>
       <c r="C152" t="n">
-        <v>-14.60201454162598</v>
+        <v>11.53041458129883</v>
       </c>
       <c r="D152" t="n">
-        <v>-8.939136505126953</v>
+        <v>11.96632099151611</v>
       </c>
       <c r="E152" t="n">
-        <v>1.996215462684631</v>
+        <v>-12.73761081695557</v>
       </c>
       <c r="F152" t="n">
-        <v>8.466518402099609</v>
+        <v>-27.34868431091309</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="n">
-        <v>1.449530601501465</v>
+        <v>31.95314407348633</v>
       </c>
       <c r="B153" t="n">
-        <v>-12.17265129089355</v>
+        <v>-5.094241142272949</v>
       </c>
       <c r="C153" t="n">
-        <v>-13.30907154083252</v>
+        <v>12.13036632537842</v>
       </c>
       <c r="D153" t="n">
-        <v>-8.723419189453125</v>
+        <v>14.2716178894043</v>
       </c>
       <c r="E153" t="n">
-        <v>1.871142506599426</v>
+        <v>-12.14520263671875</v>
       </c>
       <c r="F153" t="n">
-        <v>7.029394626617432</v>
+        <v>-31.5014762878418</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="n">
-        <v>2.312010526657104</v>
+        <v>32.08254241943359</v>
       </c>
       <c r="B154" t="n">
-        <v>-12.74336528778076</v>
+        <v>-6.868321418762207</v>
       </c>
       <c r="C154" t="n">
-        <v>-11.55259609222412</v>
+        <v>11.89849281311035</v>
       </c>
       <c r="D154" t="n">
-        <v>-6.431984424591064</v>
+        <v>17.15153503417969</v>
       </c>
       <c r="E154" t="n">
-        <v>0.5941600203514099</v>
+        <v>-12.33299255371094</v>
       </c>
       <c r="F154" t="n">
-        <v>5.22246789932251</v>
+        <v>-38.99346160888672</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="n">
-        <v>4.840683937072754</v>
+        <v>42.68805313110352</v>
       </c>
       <c r="B155" t="n">
-        <v>-11.27188014984131</v>
+        <v>4.980271339416504</v>
       </c>
       <c r="C155" t="n">
-        <v>-5.569923877716064</v>
+        <v>9.993341445922852</v>
       </c>
       <c r="D155" t="n">
-        <v>-3.977664232254028</v>
+        <v>19.82692718505859</v>
       </c>
       <c r="E155" t="n">
-        <v>-2.424220085144043</v>
+        <v>-21.9424991607666</v>
       </c>
       <c r="F155" t="n">
-        <v>-4.040925025939941</v>
+        <v>-9.13456916809082</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="n">
-        <v>4.171136379241943</v>
+        <v>40.82218933105469</v>
       </c>
       <c r="B156" t="n">
-        <v>-10.03847312927246</v>
+        <v>7.199463844299316</v>
       </c>
       <c r="C156" t="n">
-        <v>-7.791147708892822</v>
+        <v>11.75722312927246</v>
       </c>
       <c r="D156" t="n">
-        <v>-1.84099280834198</v>
+        <v>23.61517906188965</v>
       </c>
       <c r="E156" t="n">
-        <v>-2.863166809082031</v>
+        <v>-23.31427955627441</v>
       </c>
       <c r="F156" t="n">
-        <v>-6.332622528076172</v>
+        <v>-15.5164098739624</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="n">
-        <v>3.656438112258911</v>
+        <v>38.44428634643555</v>
       </c>
       <c r="B157" t="n">
-        <v>-9.953946113586426</v>
+        <v>8.839813232421875</v>
       </c>
       <c r="C157" t="n">
-        <v>-7.469003200531006</v>
+        <v>12.61085796356201</v>
       </c>
       <c r="D157" t="n">
-        <v>-0.2168204933404922</v>
+        <v>29.25222969055176</v>
       </c>
       <c r="E157" t="n">
-        <v>-2.866278171539307</v>
+        <v>-24.38609886169434</v>
       </c>
       <c r="F157" t="n">
-        <v>-8.028329849243164</v>
+        <v>-22.33502388000488</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="n">
-        <v>3.44495701789856</v>
+        <v>36.79530334472656</v>
       </c>
       <c r="B158" t="n">
-        <v>-8.447261810302734</v>
+        <v>11.73376274108887</v>
       </c>
       <c r="C158" t="n">
-        <v>-8.788599014282227</v>
+        <v>11.89717483520508</v>
       </c>
       <c r="D158" t="n">
-        <v>2.488957643508911</v>
+        <v>36.12302398681641</v>
       </c>
       <c r="E158" t="n">
-        <v>-3.542465448379517</v>
+        <v>-23.94694137573242</v>
       </c>
       <c r="F158" t="n">
-        <v>-9.010855674743652</v>
+        <v>-26.03043174743652</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="n">
-        <v>2.71211314201355</v>
+        <v>34.75588607788086</v>
       </c>
       <c r="B159" t="n">
-        <v>-7.410842895507812</v>
+        <v>15.96698570251465</v>
       </c>
       <c r="C159" t="n">
-        <v>-8.516877174377441</v>
+        <v>13.86516094207764</v>
       </c>
       <c r="D159" t="n">
-        <v>5.86748218536377</v>
+        <v>42.97651672363281</v>
       </c>
       <c r="E159" t="n">
-        <v>-3.088652372360229</v>
+        <v>-22.59823608398438</v>
       </c>
       <c r="F159" t="n">
-        <v>-8.586860656738281</v>
+        <v>-30.13632583618164</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="n">
-        <v>1.484402179718018</v>
+        <v>32.59721374511719</v>
       </c>
       <c r="B160" t="n">
-        <v>-5.235561847686768</v>
+        <v>17.76371765136719</v>
       </c>
       <c r="C160" t="n">
-        <v>-8.572909355163574</v>
+        <v>11.31742000579834</v>
       </c>
       <c r="D160" t="n">
-        <v>9.22928524017334</v>
+        <v>48.5133056640625</v>
       </c>
       <c r="E160" t="n">
-        <v>-3.290530443191528</v>
+        <v>-19.22297859191895</v>
       </c>
       <c r="F160" t="n">
-        <v>-7.627985954284668</v>
+        <v>-29.97043037414551</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="n">
-        <v>1.479482412338257</v>
+        <v>29.90097618103027</v>
       </c>
       <c r="B161" t="n">
-        <v>-4.039136409759521</v>
+        <v>21.91004371643066</v>
       </c>
       <c r="C161" t="n">
-        <v>-8.383063316345215</v>
+        <v>12.41609382629395</v>
       </c>
       <c r="D161" t="n">
-        <v>10.93716430664062</v>
+        <v>54.65132522583008</v>
       </c>
       <c r="E161" t="n">
-        <v>-2.872655153274536</v>
+        <v>-15.40627193450928</v>
       </c>
       <c r="F161" t="n">
-        <v>-5.945037841796875</v>
+        <v>-26.58943176269531</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="n">
-        <v>0.2828494012355804</v>
+        <v>27.4682674407959</v>
       </c>
       <c r="B162" t="n">
-        <v>-2.329965829849243</v>
+        <v>24.93998146057129</v>
       </c>
       <c r="C162" t="n">
-        <v>-8.752290725708008</v>
+        <v>11.00279235839844</v>
       </c>
       <c r="D162" t="n">
-        <v>13.9145040512085</v>
+        <v>57.9495849609375</v>
       </c>
       <c r="E162" t="n">
-        <v>-2.147406816482544</v>
+        <v>-14.15907001495361</v>
       </c>
       <c r="F162" t="n">
-        <v>-4.634900569915771</v>
+        <v>-21.37914085388184</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="n">
-        <v>0.07618668675422668</v>
+        <v>24.38229179382324</v>
       </c>
       <c r="B163" t="n">
-        <v>-0.8158175349235535</v>
+        <v>28.44146347045898</v>
       </c>
       <c r="C163" t="n">
-        <v>-8.915389060974121</v>
+        <v>9.408378601074219</v>
       </c>
       <c r="D163" t="n">
-        <v>15.41830730438232</v>
+        <v>59.98321914672852</v>
       </c>
       <c r="E163" t="n">
-        <v>-1.190981864929199</v>
+        <v>-11.39647960662842</v>
       </c>
       <c r="F163" t="n">
-        <v>-3.098111391067505</v>
+        <v>-15.62996101379395</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="n">
-        <v>-0.8165783882141113</v>
+        <v>22.37930297851562</v>
       </c>
       <c r="B164" t="n">
-        <v>1.608616590499878</v>
+        <v>32.37194442749023</v>
       </c>
       <c r="C164" t="n">
-        <v>-9.05889892578125</v>
+        <v>7.439698219299316</v>
       </c>
       <c r="D164" t="n">
-        <v>15.9284143447876</v>
+        <v>62.00568389892578</v>
       </c>
       <c r="E164" t="n">
-        <v>-0.4724399149417877</v>
+        <v>-10.40757656097412</v>
       </c>
       <c r="F164" t="n">
-        <v>-1.216390013694763</v>
+        <v>-9.667860984802246</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="n">
-        <v>-2.385930776596069</v>
+        <v>19.71897315979004</v>
       </c>
       <c r="B165" t="n">
-        <v>1.772893667221069</v>
+        <v>35.76308441162109</v>
       </c>
       <c r="C165" t="n">
-        <v>-8.237638473510742</v>
+        <v>5.090144157409668</v>
       </c>
       <c r="D165" t="n">
-        <v>15.99398326873779</v>
+        <v>61.1337776184082</v>
       </c>
       <c r="E165" t="n">
-        <v>0.256863534450531</v>
+        <v>-8.396318435668945</v>
       </c>
       <c r="F165" t="n">
-        <v>-0.09870809316635132</v>
+        <v>-3.996145248413086</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="n">
-        <v>-2.206063270568848</v>
+        <v>16.72657012939453</v>
       </c>
       <c r="B166" t="n">
-        <v>3.095220327377319</v>
+        <v>37.2551383972168</v>
       </c>
       <c r="C166" t="n">
-        <v>-7.92055082321167</v>
+        <v>4.328753471374512</v>
       </c>
       <c r="D166" t="n">
-        <v>13.77469825744629</v>
+        <v>58.02302169799805</v>
       </c>
       <c r="E166" t="n">
-        <v>1.008660674095154</v>
+        <v>-7.313976287841797</v>
       </c>
       <c r="F166" t="n">
-        <v>0.7455602884292603</v>
+        <v>-0.112339086830616</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="n">
-        <v>-3.121154308319092</v>
+        <v>14.13724422454834</v>
       </c>
       <c r="B167" t="n">
-        <v>3.027456760406494</v>
+        <v>41.10787582397461</v>
       </c>
       <c r="C167" t="n">
-        <v>-8.287128448486328</v>
+        <v>1.08543860912323</v>
       </c>
       <c r="D167" t="n">
-        <v>10.72951221466064</v>
+        <v>55.23348999023438</v>
       </c>
       <c r="E167" t="n">
-        <v>2.29058575630188</v>
+        <v>-5.560433864593506</v>
       </c>
       <c r="F167" t="n">
-        <v>0.9830235838890076</v>
+        <v>3.157170295715332</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="n">
-        <v>-3.606780052185059</v>
+        <v>11.60896778106689</v>
       </c>
       <c r="B168" t="n">
-        <v>3.496219158172607</v>
+        <v>42.63311767578125</v>
       </c>
       <c r="C168" t="n">
-        <v>-8.224540710449219</v>
+        <v>0.3551109433174133</v>
       </c>
       <c r="D168" t="n">
-        <v>8.524135589599609</v>
+        <v>49.94522857666016</v>
       </c>
       <c r="E168" t="n">
-        <v>2.596991539001465</v>
+        <v>-3.143025398254395</v>
       </c>
       <c r="F168" t="n">
-        <v>1.476811528205872</v>
+        <v>5.028470993041992</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="n">
-        <v>-3.578822135925293</v>
+        <v>9.843135833740234</v>
       </c>
       <c r="B169" t="n">
-        <v>2.850295305252075</v>
+        <v>43.86776733398438</v>
       </c>
       <c r="C169" t="n">
-        <v>-7.890098571777344</v>
+        <v>0.09772187471389771</v>
       </c>
       <c r="D169" t="n">
-        <v>5.319565296173096</v>
+        <v>44.9693489074707</v>
       </c>
       <c r="E169" t="n">
-        <v>3.384911298751831</v>
+        <v>-2.864502906799316</v>
       </c>
       <c r="F169" t="n">
-        <v>0.7673402428627014</v>
+        <v>5.606081962585449</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="n">
-        <v>-4.816834926605225</v>
+        <v>7.208876132965088</v>
       </c>
       <c r="B170" t="n">
-        <v>2.703966856002808</v>
+        <v>46.57176208496094</v>
       </c>
       <c r="C170" t="n">
-        <v>-9.074531555175781</v>
+        <v>-0.6124984622001648</v>
       </c>
       <c r="D170" t="n">
-        <v>0.9763283133506775</v>
+        <v>39.72668075561523</v>
       </c>
       <c r="E170" t="n">
-        <v>4.773398876190186</v>
+        <v>-1.017762184143066</v>
       </c>
       <c r="F170" t="n">
-        <v>0.8170924782752991</v>
+        <v>4.80961799621582</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="n">
-        <v>-5.859570503234863</v>
+        <v>4.553835391998291</v>
       </c>
       <c r="B171" t="n">
-        <v>3.27239465713501</v>
+        <v>47.56548690795898</v>
       </c>
       <c r="C171" t="n">
-        <v>-8.246087074279785</v>
+        <v>-2.667351961135864</v>
       </c>
       <c r="D171" t="n">
-        <v>-1.90970516204834</v>
+        <v>34.54018020629883</v>
       </c>
       <c r="E171" t="n">
-        <v>6.662060737609863</v>
+        <v>0.679656982421875</v>
       </c>
       <c r="F171" t="n">
-        <v>-0.0421961285173893</v>
+        <v>3.195437431335449</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="n">
-        <v>-6.447477340698242</v>
+        <v>2.914682865142822</v>
       </c>
       <c r="B172" t="n">
-        <v>2.814604997634888</v>
+        <v>47.79841995239258</v>
       </c>
       <c r="C172" t="n">
-        <v>-7.039581775665283</v>
+        <v>-2.773061037063599</v>
       </c>
       <c r="D172" t="n">
-        <v>-5.107924461364746</v>
+        <v>28.53060340881348</v>
       </c>
       <c r="E172" t="n">
-        <v>7.051972389221191</v>
+        <v>2.226749420166016</v>
       </c>
       <c r="F172" t="n">
-        <v>-0.8930454254150391</v>
+        <v>2.872215270996094</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="n">
-        <v>-6.395514011383057</v>
+        <v>0.8219285607337952</v>
       </c>
       <c r="B173" t="n">
-        <v>2.952274322509766</v>
+        <v>48.1544075012207</v>
       </c>
       <c r="C173" t="n">
-        <v>-8.799084663391113</v>
+        <v>-1.951005101203918</v>
       </c>
       <c r="D173" t="n">
-        <v>-9.031747817993164</v>
+        <v>22.89737510681152</v>
       </c>
       <c r="E173" t="n">
-        <v>7.753761768341064</v>
+        <v>3.785816192626953</v>
       </c>
       <c r="F173" t="n">
-        <v>-1.081132650375366</v>
+        <v>-0.3027392029762268</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="n">
-        <v>-7.422965526580811</v>
+        <v>-0.9162268042564392</v>
       </c>
       <c r="B174" t="n">
-        <v>2.245490312576294</v>
+        <v>49.26766204833984</v>
       </c>
       <c r="C174" t="n">
-        <v>-7.752691268920898</v>
+        <v>-0.4435054659843445</v>
       </c>
       <c r="D174" t="n">
-        <v>-9.810615539550781</v>
+        <v>18.3326587677002</v>
       </c>
       <c r="E174" t="n">
-        <v>7.227478981018066</v>
+        <v>5.577533721923828</v>
       </c>
       <c r="F174" t="n">
-        <v>-2.44682788848877</v>
+        <v>-2.386614799499512</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="n">
-        <v>-8.01251220703125</v>
+        <v>-1.223090648651123</v>
       </c>
       <c r="B175" t="n">
-        <v>1.736575126647949</v>
+        <v>49.61283111572266</v>
       </c>
       <c r="C175" t="n">
-        <v>-8.492392539978027</v>
+        <v>0.7769134640693665</v>
       </c>
       <c r="D175" t="n">
-        <v>-10.30970859527588</v>
+        <v>14.14270496368408</v>
       </c>
       <c r="E175" t="n">
-        <v>7.300515174865723</v>
+        <v>8.268143653869629</v>
       </c>
       <c r="F175" t="n">
-        <v>-3.756538867950439</v>
+        <v>-4.131831169128418</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="n">
-        <v>-8.482144355773926</v>
+        <v>-1.629964351654053</v>
       </c>
       <c r="B176" t="n">
-        <v>1.555935144424438</v>
+        <v>48.4063606262207</v>
       </c>
       <c r="C176" t="n">
-        <v>-7.910770893096924</v>
+        <v>2.724989652633667</v>
       </c>
       <c r="D176" t="n">
-        <v>-11.22406101226807</v>
+        <v>11.57133674621582</v>
       </c>
       <c r="E176" t="n">
-        <v>5.848726272583008</v>
+        <v>6.814328193664551</v>
       </c>
       <c r="F176" t="n">
-        <v>-3.561470746994019</v>
+        <v>-5.894655227661133</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="n">
-        <v>-9.857442855834961</v>
+        <v>-3.262420177459717</v>
       </c>
       <c r="B177" t="n">
-        <v>3.720042705535889</v>
+        <v>47.40246963500977</v>
       </c>
       <c r="C177" t="n">
-        <v>-7.644596576690674</v>
+        <v>5.152714729309082</v>
       </c>
       <c r="D177" t="n">
-        <v>-10.45830631256104</v>
+        <v>9.070773124694824</v>
       </c>
       <c r="E177" t="n">
-        <v>5.757906913757324</v>
+        <v>6.089439392089844</v>
       </c>
       <c r="F177" t="n">
-        <v>-3.402553558349609</v>
+        <v>-12.8429536819458</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="n">
-        <v>-9.697827339172363</v>
+        <v>-4.370606899261475</v>
       </c>
       <c r="B178" t="n">
-        <v>4.466966152191162</v>
+        <v>46.0574836730957</v>
       </c>
       <c r="C178" t="n">
-        <v>-7.326929092407227</v>
+        <v>8.567753791809082</v>
       </c>
       <c r="D178" t="n">
-        <v>-9.679259300231934</v>
+        <v>9.099663734436035</v>
       </c>
       <c r="E178" t="n">
-        <v>4.897533416748047</v>
+        <v>2.382584571838379</v>
       </c>
       <c r="F178" t="n">
-        <v>-3.026495933532715</v>
+        <v>-18.57421112060547</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="n">
-        <v>-10.56651306152344</v>
+        <v>-4.46008825302124</v>
       </c>
       <c r="B179" t="n">
-        <v>6.013883590698242</v>
+        <v>44.27771377563477</v>
       </c>
       <c r="C179" t="n">
-        <v>-6.802328586578369</v>
+        <v>10.62083053588867</v>
       </c>
       <c r="D179" t="n">
-        <v>-8.531604766845703</v>
+        <v>10.54465103149414</v>
       </c>
       <c r="E179" t="n">
-        <v>3.443646907806396</v>
+        <v>-3.315473556518555</v>
       </c>
       <c r="F179" t="n">
-        <v>-2.675196647644043</v>
+        <v>-23.53633308410645</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="n">
-        <v>-11.18671035766602</v>
+        <v>-4.960483074188232</v>
       </c>
       <c r="B180" t="n">
-        <v>7.41523551940918</v>
+        <v>42.89571762084961</v>
       </c>
       <c r="C180" t="n">
-        <v>-4.971728324890137</v>
+        <v>13.41737842559814</v>
       </c>
       <c r="D180" t="n">
-        <v>-6.348679065704346</v>
+        <v>12.22305011749268</v>
       </c>
       <c r="E180" t="n">
-        <v>1.663750171661377</v>
+        <v>-11.20243167877197</v>
       </c>
       <c r="F180" t="n">
-        <v>-3.109398365020752</v>
+        <v>-28.80451011657715</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="n">
-        <v>-10.71111106872559</v>
+        <v>-3.853993892669678</v>
       </c>
       <c r="B181" t="n">
-        <v>8.07176399230957</v>
+        <v>40.60953521728516</v>
       </c>
       <c r="C181" t="n">
-        <v>-3.205416917800903</v>
+        <v>18.02180862426758</v>
       </c>
       <c r="D181" t="n">
-        <v>-4.408559322357178</v>
+        <v>14.14676666259766</v>
       </c>
       <c r="E181" t="n">
-        <v>-0.7639038562774658</v>
+        <v>-17.92882347106934</v>
       </c>
       <c r="F181" t="n">
-        <v>-1.889047861099243</v>
+        <v>-32.05634689331055</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="n">
-        <v>-10.70317935943604</v>
+        <v>-2.210164546966553</v>
       </c>
       <c r="B182" t="n">
-        <v>9.736072540283203</v>
+        <v>37.51079177856445</v>
       </c>
       <c r="C182" t="n">
-        <v>-1.009940266609192</v>
+        <v>23.87371253967285</v>
       </c>
       <c r="D182" t="n">
-        <v>-2.815012216567993</v>
+        <v>16.53019905090332</v>
       </c>
       <c r="E182" t="n">
-        <v>-3.375978469848633</v>
+        <v>-26.14657783508301</v>
       </c>
       <c r="F182" t="n">
-        <v>-1.253564834594727</v>
+        <v>-34.2592887878418</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" t="n">
-        <v>-9.211352348327637</v>
+        <v>-0.4116892218589783</v>
       </c>
       <c r="B183" t="n">
-        <v>10.41527271270752</v>
+        <v>36.09395599365234</v>
       </c>
       <c r="C183" t="n">
-        <v>2.160329103469849</v>
+        <v>29.05739593505859</v>
       </c>
       <c r="D183" t="n">
-        <v>-0.6693171858787537</v>
+        <v>18.20887184143066</v>
       </c>
       <c r="E183" t="n">
-        <v>-5.44974946975708</v>
+        <v>-33.38586807250977</v>
       </c>
       <c r="F183" t="n">
-        <v>0.2491786777973175</v>
+        <v>-35.96613693237305</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" t="n">
-        <v>-7.92000675201416</v>
+        <v>1.571691989898682</v>
       </c>
       <c r="B184" t="n">
-        <v>9.9344482421875</v>
+        <v>34.49688339233398</v>
       </c>
       <c r="C184" t="n">
-        <v>5.064553737640381</v>
+        <v>35.501708984375</v>
       </c>
       <c r="D184" t="n">
-        <v>-1.225174903869629</v>
+        <v>20.88660049438477</v>
       </c>
       <c r="E184" t="n">
-        <v>-7.460258960723877</v>
+        <v>-40.24306488037109</v>
       </c>
       <c r="F184" t="n">
-        <v>0.7445545196533203</v>
+        <v>-31.51250267028809</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" t="n">
-        <v>-6.848381996154785</v>
+        <v>4.638872623443604</v>
       </c>
       <c r="B185" t="n">
-        <v>8.885990142822266</v>
+        <v>32.47788619995117</v>
       </c>
       <c r="C185" t="n">
-        <v>7.904577732086182</v>
+        <v>42.25279998779297</v>
       </c>
       <c r="D185" t="n">
-        <v>0.5065721869468689</v>
+        <v>21.51843452453613</v>
       </c>
       <c r="E185" t="n">
-        <v>-9.671304702758789</v>
+        <v>-42.58773040771484</v>
       </c>
       <c r="F185" t="n">
-        <v>0.9170566201210022</v>
+        <v>-27.702392578125</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" t="n">
-        <v>-4.406479835510254</v>
+        <v>8.186398506164551</v>
       </c>
       <c r="B186" t="n">
-        <v>7.632905960083008</v>
+        <v>30.33217811584473</v>
       </c>
       <c r="C186" t="n">
-        <v>11.00039863586426</v>
+        <v>48.09744644165039</v>
       </c>
       <c r="D186" t="n">
-        <v>1.058415532112122</v>
+        <v>22.06970405578613</v>
       </c>
       <c r="E186" t="n">
-        <v>-9.81916332244873</v>
+        <v>-44.61574554443359</v>
       </c>
       <c r="F186" t="n">
-        <v>1.850064396858215</v>
+        <v>-23.91046142578125</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" t="n">
-        <v>-2.973331689834595</v>
+        <v>12.86928462982178</v>
       </c>
       <c r="B187" t="n">
-        <v>6.801379203796387</v>
+        <v>27.76120948791504</v>
       </c>
       <c r="C187" t="n">
-        <v>14.81434631347656</v>
+        <v>54.76374816894531</v>
       </c>
       <c r="D187" t="n">
-        <v>1.113162875175476</v>
+        <v>20.23105812072754</v>
       </c>
       <c r="E187" t="n">
-        <v>-9.675568580627441</v>
+        <v>-42.97943496704102</v>
       </c>
       <c r="F187" t="n">
-        <v>2.503081083297729</v>
+        <v>-20.13154792785645</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" t="n">
-        <v>-0.5971806049346924</v>
+        <v>17.61568641662598</v>
       </c>
       <c r="B188" t="n">
-        <v>5.30836296081543</v>
+        <v>24.4565372467041</v>
       </c>
       <c r="C188" t="n">
-        <v>18.05851745605469</v>
+        <v>58.70855331420898</v>
       </c>
       <c r="D188" t="n">
-        <v>0.3167419731616974</v>
+        <v>19.34052848815918</v>
       </c>
       <c r="E188" t="n">
-        <v>-7.898550510406494</v>
+        <v>-38.94015502929688</v>
       </c>
       <c r="F188" t="n">
-        <v>3.444491386413574</v>
+        <v>-17.39626121520996</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" t="n">
-        <v>1.311789989471436</v>
+        <v>21.59146118164062</v>
       </c>
       <c r="B189" t="n">
-        <v>4.148536682128906</v>
+        <v>21.21814727783203</v>
       </c>
       <c r="C189" t="n">
-        <v>19.0189037322998</v>
+        <v>62.07643508911133</v>
       </c>
       <c r="D189" t="n">
-        <v>-0.5807507634162903</v>
+        <v>17.64701652526855</v>
       </c>
       <c r="E189" t="n">
-        <v>-6.314918994903564</v>
+        <v>-35.23204040527344</v>
       </c>
       <c r="F189" t="n">
-        <v>4.390748023986816</v>
+        <v>-15.97332954406738</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" t="n">
-        <v>2.73778510093689</v>
+        <v>25.62701988220215</v>
       </c>
       <c r="B190" t="n">
-        <v>2.332091569900513</v>
+        <v>18.05797958374023</v>
       </c>
       <c r="C190" t="n">
-        <v>18.26823425292969</v>
+        <v>64.32105255126953</v>
       </c>
       <c r="D190" t="n">
-        <v>0.2692305147647858</v>
+        <v>14.49154472351074</v>
       </c>
       <c r="E190" t="n">
-        <v>-3.5809326171875</v>
+        <v>-30.64713668823242</v>
       </c>
       <c r="F190" t="n">
-        <v>4.846837520599365</v>
+        <v>-14.85294246673584</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" t="n">
-        <v>4.440396785736084</v>
+        <v>29.13945007324219</v>
       </c>
       <c r="B191" t="n">
-        <v>1.7479248046875</v>
+        <v>15.76624011993408</v>
       </c>
       <c r="C191" t="n">
-        <v>19.09976196289062</v>
+        <v>64.40646362304688</v>
       </c>
       <c r="D191" t="n">
-        <v>-1.740219950675964</v>
+        <v>13.53028202056885</v>
       </c>
       <c r="E191" t="n">
-        <v>-1.306748747825623</v>
+        <v>-24.21881294250488</v>
       </c>
       <c r="F191" t="n">
-        <v>5.617984294891357</v>
+        <v>-14.50502300262451</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" t="n">
-        <v>6.551914215087891</v>
+        <v>32.7188835144043</v>
       </c>
       <c r="B192" t="n">
-        <v>0.1196834594011307</v>
+        <v>12.31577491760254</v>
       </c>
       <c r="C192" t="n">
-        <v>18.60126495361328</v>
+        <v>61.32266616821289</v>
       </c>
       <c r="D192" t="n">
-        <v>-3.226842403411865</v>
+        <v>10.54669094085693</v>
       </c>
       <c r="E192" t="n">
-        <v>0.3363319635391235</v>
+        <v>-19.82550048828125</v>
       </c>
       <c r="F192" t="n">
-        <v>5.558707714080811</v>
+        <v>-15.16455078125</v>
       </c>
     </row>
     <row r="193">
       <c r="A193" t="n">
-        <v>6.658970355987549</v>
+        <v>34.13981246948242</v>
       </c>
       <c r="B193" t="n">
-        <v>-0.8396443724632263</v>
+        <v>10.60207843780518</v>
       </c>
       <c r="C193" t="n">
-        <v>17.66132354736328</v>
+        <v>57.68563461303711</v>
       </c>
       <c r="D193" t="n">
-        <v>-4.215574264526367</v>
+        <v>8.827296257019043</v>
       </c>
       <c r="E193" t="n">
-        <v>1.681322813034058</v>
+        <v>-15.71018028259277</v>
       </c>
       <c r="F193" t="n">
-        <v>6.124551296234131</v>
+        <v>-15.83963966369629</v>
       </c>
     </row>
     <row r="194">
       <c r="A194" t="n">
-        <v>8.322654724121094</v>
+        <v>36.68241119384766</v>
       </c>
       <c r="B194" t="n">
-        <v>-2.389311075210571</v>
+        <v>7.870577812194824</v>
       </c>
       <c r="C194" t="n">
-        <v>14.66473388671875</v>
+        <v>52.24853515625</v>
       </c>
       <c r="D194" t="n">
-        <v>-4.900149822235107</v>
+        <v>7.632163047790527</v>
       </c>
       <c r="E194" t="n">
-        <v>3.103360652923584</v>
+        <v>-12.23291492462158</v>
       </c>
       <c r="F194" t="n">
-        <v>6.134042263031006</v>
+        <v>-15.75670433044434</v>
       </c>
     </row>
     <row r="195">
       <c r="A195" t="n">
-        <v>9.499933242797852</v>
+        <v>38.61166000366211</v>
       </c>
       <c r="B195" t="n">
-        <v>-3.422369241714478</v>
+        <v>4.827122688293457</v>
       </c>
       <c r="C195" t="n">
-        <v>11.08641624450684</v>
+        <v>45.69710922241211</v>
       </c>
       <c r="D195" t="n">
-        <v>-6.306623935699463</v>
+        <v>5.677689552307129</v>
       </c>
       <c r="E195" t="n">
-        <v>2.901269435882568</v>
+        <v>-10.79886436462402</v>
       </c>
       <c r="F195" t="n">
-        <v>6.193187236785889</v>
+        <v>-16.10620880126953</v>
       </c>
     </row>
     <row r="196">
       <c r="A196" t="n">
-        <v>10.31435394287109</v>
+        <v>39.55403518676758</v>
       </c>
       <c r="B196" t="n">
-        <v>-5.453829288482666</v>
+        <v>3.213160276412964</v>
       </c>
       <c r="C196" t="n">
-        <v>7.510918140411377</v>
+        <v>38.56116485595703</v>
       </c>
       <c r="D196" t="n">
-        <v>-7.255294322967529</v>
+        <v>4.646899223327637</v>
       </c>
       <c r="E196" t="n">
-        <v>3.262341022491455</v>
+        <v>-9.567047119140625</v>
       </c>
       <c r="F196" t="n">
-        <v>6.872927188873291</v>
+        <v>-17.92996025085449</v>
       </c>
     </row>
     <row r="197">
       <c r="A197" t="n">
-        <v>10.44509983062744</v>
+        <v>39.91262054443359</v>
       </c>
       <c r="B197" t="n">
-        <v>-6.337108135223389</v>
+        <v>0.3254535794258118</v>
       </c>
       <c r="C197" t="n">
-        <v>4.102433204650879</v>
+        <v>31.66205596923828</v>
       </c>
       <c r="D197" t="n">
-        <v>-8.230093002319336</v>
+        <v>3.628690004348755</v>
       </c>
       <c r="E197" t="n">
-        <v>3.339647531509399</v>
+        <v>-7.869904518127441</v>
       </c>
       <c r="F197" t="n">
-        <v>6.6936354637146</v>
+        <v>-18.1991081237793</v>
       </c>
     </row>
     <row r="198">
       <c r="A198" t="n">
-        <v>10.7175350189209</v>
+        <v>38.66510009765625</v>
       </c>
       <c r="B198" t="n">
-        <v>-6.493431091308594</v>
+        <v>-1.092738389968872</v>
       </c>
       <c r="C198" t="n">
-        <v>0.1666594743728638</v>
+        <v>25.36327171325684</v>
       </c>
       <c r="D198" t="n">
-        <v>-9.150881767272949</v>
+        <v>3.653327226638794</v>
       </c>
       <c r="E198" t="n">
-        <v>3.476905584335327</v>
+        <v>-8.106715202331543</v>
       </c>
       <c r="F198" t="n">
-        <v>6.950455188751221</v>
+        <v>-18.10154914855957</v>
       </c>
     </row>
     <row r="199">
       <c r="A199" t="n">
-        <v>11.46384334564209</v>
+        <v>40.41736221313477</v>
       </c>
       <c r="B199" t="n">
-        <v>-7.828876972198486</v>
+        <v>-2.862891435623169</v>
       </c>
       <c r="C199" t="n">
-        <v>-4.094898700714111</v>
+        <v>19.94456672668457</v>
       </c>
       <c r="D199" t="n">
-        <v>-8.631424903869629</v>
+        <v>3.310929536819458</v>
       </c>
       <c r="E199" t="n">
-        <v>3.137593269348145</v>
+        <v>-8.688949584960938</v>
       </c>
       <c r="F199" t="n">
-        <v>7.422642230987549</v>
+        <v>-19.13086891174316</v>
       </c>
     </row>
     <row r="200">
       <c r="A200" t="n">
-        <v>11.61057758331299</v>
+        <v>39.44819259643555</v>
       </c>
       <c r="B200" t="n">
-        <v>-8.145745277404785</v>
+        <v>-4.386908531188965</v>
       </c>
       <c r="C200" t="n">
-        <v>-7.94624662399292</v>
+        <v>15.30942821502686</v>
       </c>
       <c r="D200" t="n">
-        <v>-9.98766040802002</v>
+        <v>4.11363697052002</v>
       </c>
       <c r="E200" t="n">
-        <v>3.392822027206421</v>
+        <v>-9.691617012023926</v>
       </c>
       <c r="F200" t="n">
-        <v>8.229009628295898</v>
+        <v>-20.00465965270996</v>
       </c>
     </row>
     <row r="201">
       <c r="A201" t="n">
-        <v>11.98268985748291</v>
+        <v>40.2164421081543</v>
       </c>
       <c r="B201" t="n">
-        <v>-9.349946022033691</v>
+        <v>-5.932555198669434</v>
       </c>
       <c r="C201" t="n">
-        <v>-9.71131706237793</v>
+        <v>13.50516223907471</v>
       </c>
       <c r="D201" t="n">
-        <v>-9.658958435058594</v>
+        <v>6.023751258850098</v>
       </c>
       <c r="E201" t="n">
-        <v>3.614377975463867</v>
+        <v>-11.15896129608154</v>
       </c>
       <c r="F201" t="n">
-        <v>8.852081298828125</v>
+        <v>-20.33259773254395</v>
       </c>
     </row>
     <row r="202">
       <c r="A202" t="n">
-        <v>9.220364570617676</v>
+        <v>38.52693557739258</v>
       </c>
       <c r="B202" t="n">
-        <v>-10.38603019714355</v>
+        <v>-7.069525718688965</v>
       </c>
       <c r="C202" t="n">
-        <v>-12.61126613616943</v>
+        <v>11.1221227645874</v>
       </c>
       <c r="D202" t="n">
-        <v>-8.890324592590332</v>
+        <v>8.475945472717285</v>
       </c>
       <c r="E202" t="n">
-        <v>3.285880088806152</v>
+        <v>-13.45480442047119</v>
       </c>
       <c r="F202" t="n">
-        <v>8.236108779907227</v>
+        <v>-23.10394859313965</v>
       </c>
     </row>
     <row r="203">
       <c r="A203" t="n">
-        <v>5.003898620605469</v>
+        <v>33.27381896972656</v>
       </c>
       <c r="B203" t="n">
-        <v>-11.15600109100342</v>
+        <v>-7.279726982116699</v>
       </c>
       <c r="C203" t="n">
-        <v>-13.97274589538574</v>
+        <v>11.09972190856934</v>
       </c>
       <c r="D203" t="n">
-        <v>-9.130885124206543</v>
+        <v>10.20605278015137</v>
       </c>
       <c r="E203" t="n">
-        <v>1.575043559074402</v>
+        <v>-13.47792720794678</v>
       </c>
       <c r="F203" t="n">
-        <v>8.638432502746582</v>
+        <v>-25.21831512451172</v>
       </c>
     </row>
     <row r="204">
       <c r="A204" t="n">
-        <v>1.726267337799072</v>
+        <v>32.68030166625977</v>
       </c>
       <c r="B204" t="n">
-        <v>-11.81199550628662</v>
+        <v>-6.671830177307129</v>
       </c>
       <c r="C204" t="n">
-        <v>-12.8960542678833</v>
+        <v>10.94952011108398</v>
       </c>
       <c r="D204" t="n">
-        <v>-8.964240074157715</v>
+        <v>12.79399490356445</v>
       </c>
       <c r="E204" t="n">
-        <v>1.254180550575256</v>
+        <v>-12.88974761962891</v>
       </c>
       <c r="F204" t="n">
-        <v>7.50058126449585</v>
+        <v>-28.6782169342041</v>
       </c>
     </row>
     <row r="205">
       <c r="A205" t="n">
-        <v>2.404749870300293</v>
+        <v>33.0045166015625</v>
       </c>
       <c r="B205" t="n">
-        <v>-12.53464603424072</v>
+        <v>-7.488940238952637</v>
       </c>
       <c r="C205" t="n">
-        <v>-11.12240219116211</v>
+        <v>11.03126335144043</v>
       </c>
       <c r="D205" t="n">
-        <v>-7.04686164855957</v>
+        <v>16.30133628845215</v>
       </c>
       <c r="E205" t="n">
-        <v>0.2231805622577667</v>
+        <v>-13.84253883361816</v>
       </c>
       <c r="F205" t="n">
-        <v>5.810770511627197</v>
+        <v>-36.73553085327148</v>
       </c>
     </row>
   </sheetData>
